--- a/Note.xlsx
+++ b/Note.xlsx
@@ -12,6 +12,7 @@
   <manifest:file-entry manifest:media-type="image/png" manifest:full-path="Pictures/100000000000014B0000012F179F4EC1.png"/>
   <manifest:file-entry manifest:media-type="image/png" manifest:full-path="Pictures/100000000000039E0000021374AB1A62.png"/>
   <manifest:file-entry manifest:media-type="image/png" manifest:full-path="Pictures/10000000000003B10000019B1A4B573B.png"/>
+  <manifest:file-entry manifest:media-type="image/png" manifest:full-path="Pictures/10000201000002A7000002728AB0548C.png"/>
   <manifest:file-entry manifest:media-type="text/xml" manifest:full-path="content.xml"/>
   <manifest:file-entry manifest:media-type="text/xml" manifest:full-path="styles.xml"/>
   <manifest:file-entry manifest:media-type="text/xml" manifest:full-path="meta.xml"/>
@@ -24,6 +25,8 @@
 <office:document-content xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:style="urn:oasis:names:tc:opendocument:xmlns:style:1.0" xmlns:text="urn:oasis:names:tc:opendocument:xmlns:text:1.0" xmlns:table="urn:oasis:names:tc:opendocument:xmlns:table:1.0" xmlns:draw="urn:oasis:names:tc:opendocument:xmlns:drawing:1.0" xmlns:fo="urn:oasis:names:tc:opendocument:xmlns:xsl-fo-compatible:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:number="urn:oasis:names:tc:opendocument:xmlns:datastyle:1.0" xmlns:presentation="urn:oasis:names:tc:opendocument:xmlns:presentation:1.0" xmlns:svg="urn:oasis:names:tc:opendocument:xmlns:svg-compatible:1.0" xmlns:chart="urn:oasis:names:tc:opendocument:xmlns:chart:1.0" xmlns:dr3d="urn:oasis:names:tc:opendocument:xmlns:dr3d:1.0" xmlns:math="http://www.w3.org/1998/Math/MathML" xmlns:form="urn:oasis:names:tc:opendocument:xmlns:form:1.0" xmlns:script="urn:oasis:names:tc:opendocument:xmlns:script:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:ooow="http://openoffice.org/2004/writer" xmlns:oooc="http://openoffice.org/2004/calc" xmlns:dom="http://www.w3.org/2001/xml-events" xmlns:xforms="http://www.w3.org/2002/xforms" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:rpt="http://openoffice.org/2005/report" xmlns:of="urn:oasis:names:tc:opendocument:xmlns:of:1.2" xmlns:xhtml="http://www.w3.org/1999/xhtml" xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:tableooo="http://openoffice.org/2009/table" xmlns:field="urn:openoffice:names:experimental:ooo-ms-interop:xmlns:field:1.0" office:version="1.2">
   <office:scripts/>
   <office:font-face-decls>
+    <style:font-face style:name="F" svg:font-family="" style:font-family-generic="roman"/>
+    <style:font-face style:name="Helvetica" svg:font-family="Helvetica" style:font-family-generic="swiss"/>
     <style:font-face style:name="ＭＳ Ｐゴシック" svg:font-family="'ＭＳ Ｐゴシック'" style:font-family-generic="modern" style:font-pitch="variable"/>
     <style:font-face style:name="Arial" svg:font-family="Arial" style:font-family-generic="swiss" style:font-pitch="variable"/>
     <style:font-face style:name="ＭＳ Ｐゴシック1" svg:font-family="'ＭＳ Ｐゴシック'" style:font-family-generic="swiss" style:font-pitch="variable"/>
@@ -36,6 +39,9 @@
       <style:table-column-properties fo:break-before="auto" style:column-width="0.834cm"/>
     </style:style>
     <style:style style:name="co2" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="0.9cm"/>
+    </style:style>
+    <style:style style:name="co3" style:family="table-column">
       <style:table-column-properties fo:break-before="auto" style:column-width="2.148cm"/>
     </style:style>
     <style:style style:name="ro1" style:family="table-row">
@@ -56,12 +62,30 @@
     <style:style style:name="ce2" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:text-properties fo:color="#ff0000" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック1" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
+    <style:style style:name="ce3" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:border="0.002cm solid #000000"/>
+      <style:paragraph-properties fo:text-align="center" fo:margin-left="0cm"/>
+    </style:style>
+    <style:style style:name="ce4" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false"/>
+      <style:paragraph-properties fo:text-align="center" fo:margin-left="0cm"/>
+    </style:style>
+    <style:style style:name="ce5" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false"/>
+      <style:paragraph-properties fo:text-align="justify" fo:margin-left="0cm"/>
+    </style:style>
     <style:style style:name="gr1" style:family="graphic">
       <style:graphic-properties draw:stroke="none" svg:stroke-width="0cm" draw:stroke-linejoin="miter" draw:fill="none" draw:textarea-horizontal-align="center" draw:textarea-vertical-align="middle" draw:auto-grow-height="false" fo:padding-top="0.125cm" fo:padding-bottom="0.125cm" fo:padding-left="0.25cm" fo:padding-right="0.25cm" fo:wrap-option="wrap" draw:color-mode="standard" draw:luminance="0%" draw:contrast="0%" draw:gamma="100%" draw:red="0%" draw:green="0%" draw:blue="0%" fo:clip="rect(0cm, 0cm, 0cm, 0cm)" draw:image-opacity="100%" style:mirror="none"/>
+    </style:style>
+    <style:style style:name="gr2" style:family="graphic">
+      <style:graphic-properties draw:stroke="none" draw:fill="none" draw:textarea-horizontal-align="center" draw:textarea-vertical-align="middle" draw:color-mode="standard" draw:luminance="0%" draw:contrast="0%" draw:gamma="100%" draw:red="0%" draw:green="0%" draw:blue="0%" fo:clip="rect(0cm, 0cm, 0cm, 0cm)" draw:image-opacity="100%" style:mirror="none"/>
     </style:style>
     <style:style style:name="P1" style:family="paragraph">
       <style:paragraph-properties fo:text-align="center"/>
       <style:text-properties fo:font-size="18pt"/>
+    </style:style>
+    <style:style style:name="P2" style:family="paragraph">
+      <style:paragraph-properties fo:text-align="center"/>
     </style:style>
     <style:style style:name="T1" style:family="text">
       <style:text-properties fo:color="#0070c0" style:text-outline="false" style:text-line-through-style="none" style:text-position="0% 100%" style:font-name="ＭＳ Ｐゴシック" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
@@ -1042,19 +1066,1037 @@
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
       </table:table>
+      <table:table table:name="1章" table:style-name="ta2" table:print="false">
+        <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
+        <table:table-column table:style-name="co2" table:number-columns-repeated="1023" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
+        <table:table-column table:style-name="co2" table:default-cell-style-name="Default"/>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce5"/>
+          <table:table-cell table:number-columns-repeated="1008"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>1章</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1022"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>●</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Androidとは</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Google/OHA（Open Handset Aliance　３４社で組織された団体）</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Linuxカーネル　Ver2.6で動作</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="162"/>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:number-columns-repeated="856"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Apache　License　２．０</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Android　SDK</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>java</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1015"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Android　NDK</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>C/C++</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1015"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>APIレベルとAndroidバージョン</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>最新：API　＝　レベル14、Androidバージョン　＝　4.0</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>●</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>開発環境</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="11"/>
+          <table:table-cell office:value-type="string">
+            <text:p>開発時</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>アプリケーション</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1008"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>JDK</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce3" office:value-type="string" table:number-columns-spanned="4" table:number-rows-spanned="1">
+            <text:p>ADT</text:p>
+          </table:table-cell>
+          <table:covered-table-cell table:number-columns-repeated="3" table:style-name="ce4"/>
+          <table:table-cell table:style-name="ce3" office:value-type="string" table:number-columns-spanned="4" table:number-rows-spanned="1">
+            <text:p>Android　SDK</text:p>
+          </table:table-cell>
+          <table:covered-table-cell table:number-columns-repeated="3" table:style-name="ce4"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Android　SDK</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce3" office:value-type="string" table:number-columns-spanned="8" table:number-rows-spanned="1">
+            <text:p>JDK</text:p>
+          </table:table-cell>
+          <table:covered-table-cell table:number-columns-repeated="7" table:style-name="ce3"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Eclipse　（推奨）</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce3" office:value-type="string" table:number-columns-spanned="8" table:number-rows-spanned="1">
+            <text:p>OS</text:p>
+          </table:table-cell>
+          <table:covered-table-cell table:number-columns-repeated="7" table:style-name="ce3"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>ADT（Android　Development　Tool）</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>開発ツール</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Traceview（ログ解析ツール）</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Hierarchy　Viewer（ビュー表示ツール）</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>DDMS（デバッグツール）</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="6"/>
+          <table:table-cell table:number-columns-repeated="1015"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>AVD（Android　Virtual　Devices）</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>エミュレータ</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>Androidバージョンごとに使い分け可能</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>●</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>アプリケーションの作成</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>ビルドターゲット　　➡　Androidバージョン</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>ディレクトリ構成</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>src</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>開発するjavaファイル</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1016"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>res</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>drawable-hdpi</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1017"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>drawable-ldpi</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1017"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>drawable-mdpi</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1017"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>layout</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1017"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>values</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1017"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>gen</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:number-columns-repeated="1016"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell office:value-type="string">
+            <text:p>R.java　➡　各リソースのIDを管理する</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1016"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell office:value-type="string">
+            <text:p>　　　　　　自動作成されるため編集はしない</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1016"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>assets</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>音声ファイル、フォントファイルなどのバイナリデータを配置</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1017"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>AndroidManifest.xml</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>9-patch画像</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>画像を引き延ばしたときに粗くならないように引き延ばすツール</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Android　SDK　に同梱された　Draw　9-patchツールで作成可能</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>コマンドは”draw9patch”</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>PNG形式のファイルになる</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>res/drawable　ディレクトリに</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>xxx.9.png　という名前で作成される</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="1048517">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+      </table:table>
+      <table:table table:name="Sheet3" table:style-name="ta3" table:print="false">
+        <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
+        <table:table-column table:style-name="co3" table:number-columns-repeated="1024" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="1048575">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+      </table:table>
       <table:table table:name="11章" table:style-name="ta2" table:print="false">
         <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
         <table:table-column table:style-name="co2" table:number-columns-repeated="1024" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
-        <table:table-row table:style-name="ro1" table:number-rows-repeated="1048575">
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce5"/>
+          <table:table-cell table:number-columns-repeated="1007"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>11章</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1022"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="4">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="168"/>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:number-columns-repeated="855"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="1048568">
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
       </table:table>
-      <table:table table:name="Sheet3" table:style-name="ta3" table:print="false">
+      <table:table table:name="２章" table:style-name="ta2" table:print="false">
+        <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
         <table:table-column table:style-name="co2" table:number-columns-repeated="1024" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
-        <table:table-row table:style-name="ro1" table:number-rows-repeated="1048575">
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce5"/>
+          <table:table-cell table:number-columns-repeated="1007"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>２章</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1022"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell/>
+          <table:table-cell>
+            <draw:frame table:end-cell-address="２章.AF63" table:end-x="0.263cm" table:end-y="0.462cm" draw:z-index="0" draw:name="図 1" draw:style-name="gr2" draw:text-style-name="P2" svg:width="26.365cm" svg:height="27.499cm" svg:x="0.784cm" svg:y="0.231cm">
+              <draw:image xlink:href="Pictures/10000201000002A7000002728AB0548C.png" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad">
+                <text:p/>
+              </draw:image>
+            </draw:frame>
+          </table:table-cell>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:number-columns-repeated="1021"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="168"/>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:number-columns-repeated="855"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="31"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Applications</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="991"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="32"/>
+          <table:table-cell office:value-type="string">
+            <text:p>デフォルトでインストールされているアプリ</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="991"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="32"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Dailer</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>発信</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="987"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="32"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Email</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>電子メール</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="987"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="32"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Browser</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>ブラウザ</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="987"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="32"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Setting</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>設定</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="987"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="4">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="31"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Application Framework</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="991"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="32"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Content Providers</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>アプリケーション間のデータ共有</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="984"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="32"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Telephony　Manager</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>電話機能へのアクセス管理</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="984"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="32"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Resource　Manager</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>コード以外のリソースのアクセス管理</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="984"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="32"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Location　Manager</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>GPS情報のアクセス管理</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="984"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="32"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Notification　MAnager</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>警告情報の管理</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="984"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="8">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="31"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Android　Runtime</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="991"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="32"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Core　Libraries</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>Google社が開発したjavaライブラリ</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="983"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="32"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Dalvik　Virtual　Machine</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>Google社が開発した仮想マシン</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="983"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="31"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>LIBRARIES</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="991"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="31"/>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>libc</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>C/C++　で書かれている</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="988"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="31"/>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>SGL</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>２Dグラフィック</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="988"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="31"/>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>OpenGL</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>３Dグラフィック</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="988"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="31"/>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>FreeType</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>テキストレンダリング</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="988"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="31"/>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>webKit</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>HTMLレンダリング</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="988"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="21">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>●</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>ライセンス</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Apache　License　2.0</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>Andoroidのソースコードの基本的なライセンス</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="10"/>
+          <table:table-cell office:value-type="string">
+            <text:p>使用・複製・など自由、公開義務なし、ApacheLicenseであることは記述素津必要あり</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>GPL</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>Linuxカーネル、ライブラリ</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="10"/>
+          <table:table-cell office:value-type="string">
+            <text:p>使用・複製・など自由、派生物はGPLで公開する必要あり</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>LGPL</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>WebKit</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="10"/>
+          <table:table-cell office:value-type="string">
+            <text:p>使用・複製・など自由、独自開発部分は公開義務なし、改変した場合は公開義務あり、派生物はLGPLでなくても公開可能</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>●</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Dalvik</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>Androidアプリを動かしている仮想マシン（VM）</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>.dexの実行が可能</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>.javaファイル　　➡（javac）➡　.classファイル　➡（dx）　➡　.dex（Dalvikファイル）</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>AndroidSDKのdxコマンドで次のファイルとして変換可能</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>dex</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>jar</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>zip</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>apk</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>➡　最終的には.apkファイルとしてまとめられてアプリとして扱われる</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="1048491">
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -1069,9 +2111,11 @@
 <file path=meta.xml><?xml version="1.0" encoding="utf-8"?>
 <office:document-meta xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:grddl="http://www.w3.org/2003/g/data-view#" office:version="1.2">
   <office:meta>
-    <dc:date>2012-07-08T15:22:16</dc:date>
-    <meta:document-statistic meta:table-count="3" meta:cell-count="149" meta:object-count="5"/>
+    <dc:date>2012-07-12T01:25:59</dc:date>
     <meta:generator>OpenOffice.org/3.4$Unix OpenOffice.org_project/340m1$Build-9590</meta:generator>
+    <meta:editing-duration>P2DT2H13M31S</meta:editing-duration>
+    <meta:editing-cycles>6</meta:editing-cycles>
+    <meta:document-statistic meta:table-count="5" meta:cell-count="319" meta:object-count="6"/>
   </office:meta>
 </office:document-meta>
 </file>
@@ -1081,16 +2125,16 @@
   <office:settings>
     <config:config-item-set config:name="ooo:view-settings">
       <config:config-item config:name="VisibleAreaTop" config:type="int">462</config:config-item>
-      <config:config-item config:name="VisibleAreaLeft" config:type="int">831</config:config-item>
-      <config:config-item config:name="VisibleAreaWidth" config:type="int">34079</config:config-item>
-      <config:config-item config:name="VisibleAreaHeight" config:type="int">100753</config:config-item>
+      <config:config-item config:name="VisibleAreaLeft" config:type="int">896</config:config-item>
+      <config:config-item config:name="VisibleAreaWidth" config:type="int">16132</config:config-item>
+      <config:config-item config:name="VisibleAreaHeight" config:type="int">26343</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="11章">
-              <config:config-item config:name="CursorPositionX" config:type="int">0</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">0</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">23</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">31</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -1101,12 +2145,12 @@
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
-              <config:config-item config:name="ZoomValue" config:type="int">100</config:config-item>
+              <config:config-item config:name="ZoomValue" config:type="int">50</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
             </config:config-item-map-entry>
             <config:config-item-map-entry config:name="12章">
-              <config:config-item config:name="CursorPositionX" config:type="int">27</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">218</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">4</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">7</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -1115,9 +2159,25 @@
               <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionTop" config:type="int">191</config:config-item>
-              <config:config-item config:name="PositionBottom" config:type="int">191</config:config-item>
+              <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
-              <config:config-item config:name="ZoomValue" config:type="int">100</config:config-item>
+              <config:config-item config:name="ZoomValue" config:type="int">50</config:config-item>
+              <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
+            </config:config-item-map-entry>
+            <config:config-item-map-entry config:name="1章">
+              <config:config-item config:name="CursorPositionX" config:type="int">7</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">53</config:config-item>
+              <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
+              <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
+              <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
+              <config:config-item config:name="VerticalSplitPosition" config:type="int">0</config:config-item>
+              <config:config-item config:name="ActiveSplitRange" config:type="short">2</config:config-item>
+              <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionBottom" config:type="int">19</config:config-item>
+              <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
+              <config:config-item config:name="ZoomValue" config:type="int">50</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
             </config:config-item-map-entry>
             <config:config-item-map-entry config:name="Sheet3">
@@ -1133,14 +2193,30 @@
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
-              <config:config-item config:name="ZoomValue" config:type="int">100</config:config-item>
+              <config:config-item config:name="ZoomValue" config:type="int">50</config:config-item>
+              <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
+            </config:config-item-map-entry>
+            <config:config-item-map-entry config:name="２章">
+              <config:config-item config:name="CursorPositionX" config:type="int">3</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">85</config:config-item>
+              <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
+              <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
+              <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
+              <config:config-item config:name="VerticalSplitPosition" config:type="int">0</config:config-item>
+              <config:config-item config:name="ActiveSplitRange" config:type="short">2</config:config-item>
+              <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
+              <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
+              <config:config-item config:name="ZoomValue" config:type="int">50</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
             </config:config-item-map-entry>
           </config:config-item-map-named>
-          <config:config-item config:name="ActiveTable" config:type="string">11章</config:config-item>
+          <config:config-item config:name="ActiveTable" config:type="string">２章</config:config-item>
           <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">813</config:config-item>
           <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
-          <config:config-item config:name="ZoomValue" config:type="int">100</config:config-item>
+          <config:config-item config:name="ZoomValue" config:type="int">50</config:config-item>
           <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
           <config:config-item config:name="ShowPageBreakPreview" config:type="boolean">false</config:config-item>
           <config:config-item config:name="ShowZeroValues" config:type="boolean">true</config:config-item>
@@ -1170,7 +2246,7 @@
       <config:config-item config:name="HasSheetTabs" config:type="boolean">true</config:config-item>
       <config:config-item config:name="ShowPageBreaks" config:type="boolean">true</config:config-item>
       <config:config-item config:name="RasterResolutionX" config:type="int">1000</config:config-item>
-      <config:config-item config:name="PrinterSetup" config:type="base64Binary">AAA=</config:config-item>
+      <config:config-item config:name="PrinterSetup" config:type="base64Binary">3gD+/wAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWAAAAAAAAAAAAAAALAAAAAAAAAAAAEgBDT01QQVRfRFVQTEVYX01PREUOAERVUExFWF9VTktOT1dO</config:config-item>
       <config:config-item config:name="RasterResolutionY" config:type="int">1000</config:config-item>
       <config:config-item config:name="LoadReadonly" config:type="boolean">false</config:config-item>
       <config:config-item config:name="RasterSubdivisionX" config:type="int">1</config:config-item>
@@ -1197,6 +2273,8 @@
 <file path=styles.xml><?xml version="1.0" encoding="utf-8"?>
 <office:document-styles xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:style="urn:oasis:names:tc:opendocument:xmlns:style:1.0" xmlns:text="urn:oasis:names:tc:opendocument:xmlns:text:1.0" xmlns:table="urn:oasis:names:tc:opendocument:xmlns:table:1.0" xmlns:draw="urn:oasis:names:tc:opendocument:xmlns:drawing:1.0" xmlns:fo="urn:oasis:names:tc:opendocument:xmlns:xsl-fo-compatible:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:number="urn:oasis:names:tc:opendocument:xmlns:datastyle:1.0" xmlns:presentation="urn:oasis:names:tc:opendocument:xmlns:presentation:1.0" xmlns:svg="urn:oasis:names:tc:opendocument:xmlns:svg-compatible:1.0" xmlns:chart="urn:oasis:names:tc:opendocument:xmlns:chart:1.0" xmlns:dr3d="urn:oasis:names:tc:opendocument:xmlns:dr3d:1.0" xmlns:math="http://www.w3.org/1998/Math/MathML" xmlns:form="urn:oasis:names:tc:opendocument:xmlns:form:1.0" xmlns:script="urn:oasis:names:tc:opendocument:xmlns:script:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:ooow="http://openoffice.org/2004/writer" xmlns:oooc="http://openoffice.org/2004/calc" xmlns:dom="http://www.w3.org/2001/xml-events" xmlns:rpt="http://openoffice.org/2005/report" xmlns:of="urn:oasis:names:tc:opendocument:xmlns:of:1.2" xmlns:xhtml="http://www.w3.org/1999/xhtml" xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:tableooo="http://openoffice.org/2009/table" office:version="1.2">
   <office:font-face-decls>
+    <style:font-face style:name="F" svg:font-family="" style:font-family-generic="roman"/>
+    <style:font-face style:name="Helvetica" svg:font-family="Helvetica" style:font-family-generic="swiss"/>
     <style:font-face style:name="ＭＳ Ｐゴシック" svg:font-family="'ＭＳ Ｐゴシック'" style:font-family-generic="modern" style:font-pitch="variable"/>
     <style:font-face style:name="Arial" svg:font-family="Arial" style:font-family-generic="swiss" style:font-pitch="variable"/>
     <style:font-face style:name="ＭＳ Ｐゴシック1" svg:font-family="'ＭＳ Ｐゴシック'" style:font-family-generic="swiss" style:font-pitch="variable"/>
@@ -1233,69 +2311,69 @@
     <number:number-style style:name="N5000" number:language="ja" number:country="JP">
       <number:number number:min-integer-digits="1"/>
     </number:number-style>
-    <number:number-style style:name="N5108P0" style:volatile="true" number:language="ja" number:country="JP">
-      <number:text>¥</number:text>
-      <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-    </number:number-style>
-    <number:number-style style:name="N5108" number:language="ja" number:country="JP">
-      <number:text>-¥</number:text>
-      <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N5108P0"/>
-    </number:number-style>
     <number:number-style style:name="N5109P0" style:volatile="true" number:language="ja" number:country="JP">
       <number:text>¥</number:text>
       <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
     </number:number-style>
     <number:number-style style:name="N5109" number:language="ja" number:country="JP">
+      <number:text>-¥</number:text>
+      <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N5109P0"/>
+    </number:number-style>
+    <number:number-style style:name="N5110P0" style:volatile="true" number:language="ja" number:country="JP">
+      <number:text>¥</number:text>
+      <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+    </number:number-style>
+    <number:number-style style:name="N5110" number:language="ja" number:country="JP">
       <style:text-properties fo:color="#ff0000"/>
       <number:text>-¥</number:text>
       <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N5109P0"/>
-    </number:number-style>
-    <number:number-style style:name="N5110P0" style:volatile="true" number:language="ja" number:country="JP">
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N5110P0"/>
+    </number:number-style>
+    <number:number-style style:name="N5112P0" style:volatile="true" number:language="ja" number:country="JP">
       <number:text>¥</number:text>
       <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
     </number:number-style>
-    <number:number-style style:name="N5110" number:language="ja" number:country="JP">
+    <number:number-style style:name="N5112" number:language="ja" number:country="JP">
       <number:text>-¥</number:text>
       <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N5110P0"/>
-    </number:number-style>
-    <number:number-style style:name="N5111P0" style:volatile="true" number:language="ja" number:country="JP">
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N5112P0"/>
+    </number:number-style>
+    <number:number-style style:name="N5113P0" style:volatile="true" number:language="ja" number:country="JP">
       <number:text>¥</number:text>
       <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
     </number:number-style>
-    <number:number-style style:name="N5111" number:language="ja" number:country="JP">
+    <number:number-style style:name="N5113" number:language="ja" number:country="JP">
       <style:text-properties fo:color="#ff0000"/>
       <number:text>-¥</number:text>
       <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N5111P0"/>
-    </number:number-style>
-    <number:date-style style:name="N5112" number:language="ja" number:country="JP">
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N5113P0"/>
+    </number:number-style>
+    <number:date-style style:name="N5114" number:language="ja" number:country="JP">
       <number:day number:style="long"/>
       <number:text>-</number:text>
       <number:month number:textual="true"/>
       <number:text>-</number:text>
       <number:year/>
     </number:date-style>
-    <number:date-style style:name="N5113" number:language="ja" number:country="JP">
+    <number:date-style style:name="N5115" number:language="ja" number:country="JP">
       <number:day number:style="long"/>
       <number:text>-</number:text>
       <number:month number:textual="true"/>
     </number:date-style>
-    <number:date-style style:name="N5114" number:language="ja" number:country="JP">
+    <number:date-style style:name="N5116" number:language="ja" number:country="JP">
       <number:month number:textual="true"/>
       <number:text>-</number:text>
       <number:year/>
     </number:date-style>
-    <number:time-style style:name="N5115" number:language="ja" number:country="JP">
+    <number:time-style style:name="N5117" number:language="ja" number:country="JP">
       <number:hours/>
       <number:text>:</number:text>
       <number:minutes number:style="long"/>
       <number:text> </number:text>
       <number:am-pm/>
     </number:time-style>
-    <number:time-style style:name="N5116" number:language="ja" number:country="JP">
+    <number:time-style style:name="N5118" number:language="ja" number:country="JP">
       <number:hours/>
       <number:text>:</number:text>
       <number:minutes number:style="long"/>
@@ -1304,14 +2382,14 @@
       <number:text> </number:text>
       <number:am-pm/>
     </number:time-style>
-    <number:time-style style:name="N5117" number:language="ja" number:country="JP">
+    <number:time-style style:name="N5119" number:language="ja" number:country="JP">
       <number:hours/>
       <number:text>:</number:text>
       <number:minutes number:style="long"/>
       <number:text>:</number:text>
       <number:seconds number:style="long"/>
     </number:time-style>
-    <number:date-style style:name="N5118" number:language="ja" number:country="JP">
+    <number:date-style style:name="N5120" number:language="ja" number:country="JP">
       <number:year number:style="long"/>
       <number:text>/</number:text>
       <number:month number:style="long"/>
@@ -1322,53 +2400,53 @@
       <number:text>:</number:text>
       <number:minutes number:style="long"/>
     </number:date-style>
-    <number:currency-style style:name="N5119P0" style:volatile="true" number:language="ja" number:country="JP">
+    <number:number-style style:name="N5122P0" style:volatile="true" number:language="ja" number:country="JP">
       <number:text>$</number:text>
       <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
-    </number:currency-style>
-    <number:currency-style style:name="N5119" number:language="ja" number:country="JP">
+    </number:number-style>
+    <number:number-style style:name="N5122" number:language="ja" number:country="JP">
       <number:text>($</number:text>
       <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N5119P0"/>
-    </number:currency-style>
-    <number:currency-style style:name="N5120P0" style:volatile="true" number:language="ja" number:country="JP">
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N5122P0"/>
+    </number:number-style>
+    <number:number-style style:name="N5123P0" style:volatile="true" number:language="ja" number:country="JP">
       <number:text>$</number:text>
       <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
-    </number:currency-style>
-    <number:currency-style style:name="N5120" number:language="ja" number:country="JP">
+    </number:number-style>
+    <number:number-style style:name="N5123" number:language="ja" number:country="JP">
       <style:text-properties fo:color="#ff0000"/>
       <number:text>($</number:text>
       <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N5120P0"/>
-    </number:currency-style>
-    <number:currency-style style:name="N5121P0" style:volatile="true" number:language="ja" number:country="JP">
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N5123P0"/>
+    </number:number-style>
+    <number:number-style style:name="N5125P0" style:volatile="true" number:language="ja" number:country="JP">
       <number:text>$</number:text>
       <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
-    </number:currency-style>
-    <number:currency-style style:name="N5121" number:language="ja" number:country="JP">
+    </number:number-style>
+    <number:number-style style:name="N5125" number:language="ja" number:country="JP">
       <number:text>($</number:text>
       <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N5121P0"/>
-    </number:currency-style>
-    <number:currency-style style:name="N5122P0" style:volatile="true" number:language="ja" number:country="JP">
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N5125P0"/>
+    </number:number-style>
+    <number:number-style style:name="N5126P0" style:volatile="true" number:language="ja" number:country="JP">
       <number:text>$</number:text>
       <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
-    </number:currency-style>
-    <number:currency-style style:name="N5122" number:language="ja" number:country="JP">
+    </number:number-style>
+    <number:number-style style:name="N5126" number:language="ja" number:country="JP">
       <style:text-properties fo:color="#ff0000"/>
       <number:text>($</number:text>
       <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N5122P0"/>
-    </number:currency-style>
-    <number:date-style style:name="N5123" number:language="ja" number:country="JP">
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N5126P0"/>
+    </number:number-style>
+    <number:date-style style:name="N5127" number:language="ja" number:country="JP">
       <number:era number:calendar="gengou"/>
       <number:year number:calendar="gengou"/>
       <number:text>.</number:text>
@@ -1376,7 +2454,7 @@
       <number:text>.</number:text>
       <number:day number:calendar="gengou" number:style="long"/>
     </number:date-style>
-    <number:date-style style:name="N5124" number:language="ja" number:country="JP">
+    <number:date-style style:name="N5128" number:language="ja" number:country="JP">
       <number:era number:calendar="gengou" number:style="long"/>
       <number:year number:calendar="gengou"/>
       <number:text>年</number:text>
@@ -1385,14 +2463,14 @@
       <number:day number:calendar="gengou" number:style="long"/>
       <number:text>日</number:text>
     </number:date-style>
-    <number:date-style style:name="N5125" number:language="ja" number:country="JP">
+    <number:date-style style:name="N5129" number:language="ja" number:country="JP">
       <number:month number:style="long"/>
       <number:text>/</number:text>
       <number:day number:style="long"/>
       <number:text>/</number:text>
       <number:year/>
     </number:date-style>
-    <number:date-style style:name="N5126" number:language="ja" number:country="JP">
+    <number:date-style style:name="N5130" number:language="ja" number:country="JP">
       <number:year number:style="long"/>
       <number:text>年</number:text>
       <number:month number:style="long"/>
@@ -1400,13 +2478,13 @@
       <number:day number:style="long"/>
       <number:text>日</number:text>
     </number:date-style>
-    <number:time-style style:name="N5127" number:language="ja" number:country="JP">
+    <number:time-style style:name="N5131" number:language="ja" number:country="JP">
       <number:hours/>
       <number:text>時</number:text>
       <number:minutes number:style="long"/>
       <number:text>分</number:text>
     </number:time-style>
-    <number:time-style style:name="N5128" number:language="ja" number:country="JP">
+    <number:time-style style:name="N5132" number:language="ja" number:country="JP">
       <number:hours/>
       <number:text>時</number:text>
       <number:minutes number:style="long"/>
@@ -1414,158 +2492,152 @@
       <number:seconds number:style="long"/>
       <number:text>秒</number:text>
     </number:time-style>
-    <number:date-style style:name="N5129" number:language="ja" number:country="JP">
+    <number:date-style style:name="N5133" number:language="ja" number:country="JP">
       <number:year number:style="long"/>
       <number:text>年</number:text>
       <number:month number:style="long"/>
       <number:text>月</number:text>
     </number:date-style>
-    <number:date-style style:name="N5130" number:language="ja" number:country="JP">
+    <number:date-style style:name="N5134" number:language="ja" number:country="JP">
       <number:month number:style="long"/>
       <number:text>月</number:text>
       <number:day number:style="long"/>
       <number:text>日</number:text>
     </number:date-style>
-    <number:number-style style:name="N5131P0" style:volatile="true" number:language="ja" number:country="JP">
+    <number:number-style style:name="N5135P0" style:volatile="true" number:language="ja" number:country="JP">
       <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
     </number:number-style>
-    <number:number-style style:name="N5131" number:language="ja" number:country="JP">
+    <number:number-style style:name="N5135" number:language="ja" number:country="JP">
       <number:text>-</number:text>
       <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N5131P0"/>
-    </number:number-style>
-    <number:number-style style:name="N5132P0" style:volatile="true" number:language="ja" number:country="JP">
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N5135P0"/>
+    </number:number-style>
+    <number:number-style style:name="N5136P0" style:volatile="true" number:language="ja" number:country="JP">
       <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
     </number:number-style>
-    <number:number-style style:name="N5132" number:language="ja" number:country="JP">
+    <number:number-style style:name="N5136" number:language="ja" number:country="JP">
       <style:text-properties fo:color="#ff0000"/>
       <number:text>-</number:text>
       <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N5132P0"/>
-    </number:number-style>
-    <number:number-style style:name="N5133P0" style:volatile="true" number:language="ja" number:country="JP">
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N5136P0"/>
+    </number:number-style>
+    <number:number-style style:name="N5137P0" style:volatile="true" number:language="ja" number:country="JP">
       <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
     </number:number-style>
-    <number:number-style style:name="N5133" number:language="ja" number:country="JP">
+    <number:number-style style:name="N5137" number:language="ja" number:country="JP">
       <number:text>-</number:text>
       <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N5133P0"/>
-    </number:number-style>
-    <number:number-style style:name="N5134P0" style:volatile="true" number:language="ja" number:country="JP">
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N5137P0"/>
+    </number:number-style>
+    <number:number-style style:name="N5138P0" style:volatile="true" number:language="ja" number:country="JP">
       <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
     </number:number-style>
-    <number:number-style style:name="N5134" number:language="ja" number:country="JP">
+    <number:number-style style:name="N5138" number:language="ja" number:country="JP">
       <style:text-properties fo:color="#ff0000"/>
       <number:text>-</number:text>
       <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N5134P0"/>
-    </number:number-style>
-    <number:number-style style:name="N5135P0" style:volatile="true" number:language="ja" number:country="JP">
-      <number:text> </number:text>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N5138P0"/>
+    </number:number-style>
+    <number:number-style style:name="N5142P0" style:volatile="true" number:language="ja" number:country="JP">
       <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:number-style>
-    <number:number-style style:name="N5135P1" style:volatile="true" number:language="ja" number:country="JP">
+    <number:number-style style:name="N5142P1" style:volatile="true" number:language="ja" number:country="JP">
       <number:text>-</number:text>
       <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:number-style>
-    <number:number-style style:name="N5135P2" style:volatile="true" number:language="ja" number:country="JP">
+    <number:number-style style:name="N5142P2" style:volatile="true" number:language="ja" number:country="JP">
       <number:text> - </number:text>
     </number:number-style>
-    <number:text-style style:name="N5135" number:language="ja" number:country="JP">
-      <number:text> </number:text>
+    <number:text-style style:name="N5142" number:language="ja" number:country="JP">
       <number:text-content/>
       <number:text> </number:text>
-      <style:map style:condition="value()&gt;0" style:apply-style-name="N5135P0"/>
-      <style:map style:condition="value()&lt;0" style:apply-style-name="N5135P1"/>
-      <style:map style:condition="value()=0" style:apply-style-name="N5135P2"/>
+      <style:map style:condition="value()&gt;0" style:apply-style-name="N5142P0"/>
+      <style:map style:condition="value()&lt;0" style:apply-style-name="N5142P1"/>
+      <style:map style:condition="value()=0" style:apply-style-name="N5142P2"/>
     </number:text-style>
-    <number:number-style style:name="N5136P0" style:volatile="true" number:language="ja" number:country="JP">
+    <number:number-style style:name="N5146P0" style:volatile="true" number:language="ja" number:country="JP">
       <number:text> ¥</number:text>
       <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:number-style>
-    <number:number-style style:name="N5136P1" style:volatile="true" number:language="ja" number:country="JP">
+    <number:number-style style:name="N5146P1" style:volatile="true" number:language="ja" number:country="JP">
       <number:text>-¥</number:text>
       <number:number number:decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:number-style>
-    <number:number-style style:name="N5136P2" style:volatile="true" number:language="ja" number:country="JP">
+    <number:number-style style:name="N5146P2" style:volatile="true" number:language="ja" number:country="JP">
       <number:text> ¥- </number:text>
     </number:number-style>
-    <number:text-style style:name="N5136" number:language="ja" number:country="JP">
-      <number:text> </number:text>
+    <number:text-style style:name="N5146" number:language="ja" number:country="JP">
       <number:text-content/>
       <number:text> </number:text>
-      <style:map style:condition="value()&gt;0" style:apply-style-name="N5136P0"/>
-      <style:map style:condition="value()&lt;0" style:apply-style-name="N5136P1"/>
-      <style:map style:condition="value()=0" style:apply-style-name="N5136P2"/>
+      <style:map style:condition="value()&gt;0" style:apply-style-name="N5146P0"/>
+      <style:map style:condition="value()&lt;0" style:apply-style-name="N5146P1"/>
+      <style:map style:condition="value()=0" style:apply-style-name="N5146P2"/>
     </number:text-style>
-    <number:number-style style:name="N5137P0" style:volatile="true" number:language="ja" number:country="JP">
-      <number:text> </number:text>
+    <number:number-style style:name="N5150P0" style:volatile="true" number:language="ja" number:country="JP">
       <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:number-style>
-    <number:number-style style:name="N5137P1" style:volatile="true" number:language="ja" number:country="JP">
+    <number:number-style style:name="N5150P1" style:volatile="true" number:language="ja" number:country="JP">
       <number:text>-</number:text>
       <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:number-style>
-    <number:number-style style:name="N5137P2" style:volatile="true" number:language="ja" number:country="JP">
+    <number:number-style style:name="N5150P2" style:volatile="true" number:language="ja" number:country="JP">
       <number:text> -</number:text>
       <number:number number:decimal-places="0" number:min-integer-digits="0"/>
       <number:text> </number:text>
     </number:number-style>
-    <number:text-style style:name="N5137" number:language="ja" number:country="JP">
-      <number:text> </number:text>
+    <number:text-style style:name="N5150" number:language="ja" number:country="JP">
       <number:text-content/>
       <number:text> </number:text>
-      <style:map style:condition="value()&gt;0" style:apply-style-name="N5137P0"/>
-      <style:map style:condition="value()&lt;0" style:apply-style-name="N5137P1"/>
-      <style:map style:condition="value()=0" style:apply-style-name="N5137P2"/>
+      <style:map style:condition="value()&gt;0" style:apply-style-name="N5150P0"/>
+      <style:map style:condition="value()&lt;0" style:apply-style-name="N5150P1"/>
+      <style:map style:condition="value()=0" style:apply-style-name="N5150P2"/>
     </number:text-style>
-    <number:number-style style:name="N5138P0" style:volatile="true" number:language="ja" number:country="JP">
+    <number:number-style style:name="N5154P0" style:volatile="true" number:language="ja" number:country="JP">
       <number:text> ¥</number:text>
       <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:number-style>
-    <number:number-style style:name="N5138P1" style:volatile="true" number:language="ja" number:country="JP">
+    <number:number-style style:name="N5154P1" style:volatile="true" number:language="ja" number:country="JP">
       <number:text>-¥</number:text>
       <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:number-style>
-    <number:number-style style:name="N5138P2" style:volatile="true" number:language="ja" number:country="JP">
+    <number:number-style style:name="N5154P2" style:volatile="true" number:language="ja" number:country="JP">
       <number:text> ¥-</number:text>
       <number:number number:decimal-places="0" number:min-integer-digits="0"/>
       <number:text> </number:text>
     </number:number-style>
-    <number:text-style style:name="N5138" number:language="ja" number:country="JP">
-      <number:text> </number:text>
+    <number:text-style style:name="N5154" number:language="ja" number:country="JP">
       <number:text-content/>
       <number:text> </number:text>
-      <style:map style:condition="value()&gt;0" style:apply-style-name="N5138P0"/>
-      <style:map style:condition="value()&lt;0" style:apply-style-name="N5138P1"/>
-      <style:map style:condition="value()=0" style:apply-style-name="N5138P2"/>
+      <style:map style:condition="value()&gt;0" style:apply-style-name="N5154P0"/>
+      <style:map style:condition="value()&lt;0" style:apply-style-name="N5154P1"/>
+      <style:map style:condition="value()=0" style:apply-style-name="N5154P2"/>
     </number:text-style>
-    <number:time-style style:name="N5139" number:language="ja" number:country="JP">
+    <number:time-style style:name="N5155" number:language="ja" number:country="JP">
       <number:minutes number:style="long"/>
       <number:text>:</number:text>
       <number:seconds number:style="long"/>
     </number:time-style>
-    <number:time-style style:name="N5140" number:language="ja" number:country="JP" number:truncate-on-overflow="false">
+    <number:time-style style:name="N5156" number:language="ja" number:country="JP" number:truncate-on-overflow="false">
       <number:hours/>
       <number:text>:</number:text>
       <number:minutes number:style="long"/>
       <number:text>:</number:text>
       <number:seconds number:style="long"/>
     </number:time-style>
-    <number:time-style style:name="N5141" number:language="ja" number:country="JP">
+    <number:time-style style:name="N5157" number:language="ja" number:country="JP">
       <number:minutes number:style="long"/>
       <number:text>:</number:text>
       <number:seconds number:style="long" number:decimal-places="1"/>
     </number:time-style>
-    <number:number-style style:name="N5142" number:language="ja" number:country="JP">
+    <number:number-style style:name="N5158" number:language="ja" number:country="JP">
       <number:scientific-number number:decimal-places="1" number:min-integer-digits="3" number:min-exponent-digits="1"/>
     </number:number-style>
     <style:style style:name="Default" style:family="table-cell">
@@ -1650,9 +2722,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2012-07-08">2012/07/08</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2012-07-12">2012/07/12</text:date>
             , 
-            <text:time>15:22:17</text:time>
+            <text:time>01:25:59</text:time>
           </text:p>
         </style:region-right>
       </style:header>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -27,8 +27,12 @@
   <office:font-face-decls>
     <style:font-face style:name="F" svg:font-family="" style:font-family-generic="roman"/>
     <style:font-face style:name="Helvetica" svg:font-family="Helvetica" style:font-family-generic="swiss"/>
+    <style:font-face style:name="ＭＳ Ｐゴシック2" svg:font-family="'ＭＳ Ｐゴシック'" style:font-family-generic="swiss"/>
+    <style:font-face style:name="Monaco" svg:font-family="Monaco" style:font-family-generic="modern" style:font-pitch="fixed"/>
     <style:font-face style:name="ＭＳ Ｐゴシック" svg:font-family="'ＭＳ Ｐゴシック'" style:font-family-generic="modern" style:font-pitch="variable"/>
     <style:font-face style:name="Arial" svg:font-family="Arial" style:font-family-generic="swiss" style:font-pitch="variable"/>
+    <style:font-face style:name="Arial Narrow" svg:font-family="'Arial Narrow'" style:font-family-generic="swiss" style:font-pitch="variable"/>
+    <style:font-face style:name="Arial Unicode MS1" svg:font-family="'Arial Unicode MS'" style:font-family-generic="swiss" style:font-pitch="variable"/>
     <style:font-face style:name="ＭＳ Ｐゴシック1" svg:font-family="'ＭＳ Ｐゴシック'" style:font-family-generic="swiss" style:font-pitch="variable"/>
     <style:font-face style:name="Arial Unicode MS" svg:font-family="'Arial Unicode MS'" style:font-family-generic="system" style:font-pitch="variable"/>
     <style:font-face style:name="Tahoma" svg:font-family="Tahoma" style:font-family-generic="system" style:font-pitch="variable"/>
@@ -36,61 +40,152 @@
   </office:font-face-decls>
   <office:automatic-styles>
     <style:style style:name="co1" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="0.9cm"/>
+    </style:style>
+    <style:style style:name="co2" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="1.005cm"/>
+    </style:style>
+    <style:style style:name="co3" style:family="table-column">
       <style:table-column-properties fo:break-before="auto" style:column-width="0.834cm"/>
     </style:style>
-    <style:style style:name="co2" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="0.9cm"/>
-    </style:style>
-    <style:style style:name="co3" style:family="table-column">
+    <style:style style:name="co4" style:family="table-column">
       <style:table-column-properties fo:break-before="auto" style:column-width="2.148cm"/>
     </style:style>
     <style:style style:name="ro1" style:family="table-row">
       <style:table-row-properties style:row-height="0.464cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
-    <style:style style:name="ta1" style:family="table" style:master-page-name="PageStyle_5f_12章">
+    <style:style style:name="ro2" style:family="table-row">
+      <style:table-row-properties style:row-height="0.487cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+    </style:style>
+    <style:style style:name="ro3" style:family="table-row">
+      <style:table-row-properties style:row-height="0.524cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+    </style:style>
+    <style:style style:name="ro4" style:family="table-row">
+      <style:table-row-properties style:row-height="0.506cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+    </style:style>
+    <style:style style:name="ta1" style:family="table" style:master-page-name="PageStyle_5f_Sheet2">
       <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
     </style:style>
-    <style:style style:name="ta2" style:family="table" style:master-page-name="PageStyle_5f_Sheet2">
+    <style:style style:name="ta2" style:family="table" style:master-page-name="PageStyle_5f_12章">
       <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
     </style:style>
     <style:style style:name="ta3" style:family="table" style:master-page-name="PageStyle_5f_Sheet3">
       <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
     </style:style>
     <style:style style:name="ce1" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:text-properties fo:color="#0070c0" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
-    </style:style>
-    <style:style style:name="ce2" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:text-properties fo:color="#ff0000" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック1" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce3" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:border="0.002cm solid #000000"/>
       <style:paragraph-properties fo:text-align="center" fo:margin-left="0cm"/>
     </style:style>
-    <style:style style:name="ce4" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce2" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false"/>
       <style:paragraph-properties fo:text-align="center" fo:margin-left="0cm"/>
     </style:style>
-    <style:style style:name="ce5" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce3" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false"/>
       <style:paragraph-properties fo:text-align="justify" fo:margin-left="0cm"/>
     </style:style>
+    <style:style style:name="ce4" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="none" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="0.002cm solid #000000"/>
+      <style:text-properties fo:language="en" fo:country="US" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:language-asian="en" style:country-asian="US" style:language-complex="en" style:country-complex="US" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
+    </style:style>
+    <style:style style:name="ce5" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="none" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="none"/>
+      <style:text-properties fo:language="en" fo:country="US" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:language-asian="en" style:country-asian="US" style:language-complex="en" style:country-complex="US" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
+    </style:style>
+    <style:style style:name="ce6" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="0.002cm solid #000000" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="none"/>
+    </style:style>
+    <style:style style:name="ce7" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="none" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="none"/>
+    </style:style>
+    <style:style style:name="ce8" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="none" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="0.002cm solid #000000"/>
+    </style:style>
+    <style:style style:name="ce9" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="none" fo:border-left="none" fo:border-right="none" fo:border-top="0.002cm solid #000000"/>
+    </style:style>
+    <style:style style:name="ce10" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="0.002cm solid #000000" fo:border-left="none" fo:border-right="none" fo:border-top="none"/>
+    </style:style>
+    <style:style style:name="ce11" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border="none"/>
+      <style:text-properties fo:language="en" fo:country="US" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:language-asian="en" style:country-asian="US" style:language-complex="en" style:country-complex="US" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
+    </style:style>
+    <style:style style:name="ce12" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="none" fo:border-left="none" fo:border-right="none" fo:border-top="0.002cm solid #000000"/>
+      <style:text-properties fo:language="en" fo:country="US" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:language-asian="en" style:country-asian="US" style:language-complex="en" style:country-complex="US" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
+    </style:style>
+    <style:style style:name="ce13" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:text-properties fo:language="en" fo:country="US" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:language-asian="en" style:country-asian="US" style:language-complex="en" style:country-complex="US" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
+    </style:style>
+    <style:style style:name="ce14" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="none" fo:border-left="none" fo:border-right="0.002cm solid #000000" fo:border-top="0.002cm solid #000000"/>
+    </style:style>
+    <style:style style:name="ce15" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="none" fo:border-left="none" fo:border-right="0.002cm solid #000000" fo:border-top="none"/>
+    </style:style>
+    <style:style style:name="ce16" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="0.002cm solid #000000" fo:border-left="none" fo:border-right="0.002cm solid #000000" fo:border-top="none"/>
+    </style:style>
+    <style:style style:name="ce17" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:text-properties style:font-name-asian="ＭＳ Ｐゴシック2"/>
+    </style:style>
+    <style:style style:name="ce18" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:text-properties fo:color="#0070c0" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
+    </style:style>
+    <style:style style:name="ce19" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:text-properties fo:color="#ff0000" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック1" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
     <style:style style:name="gr1" style:family="graphic">
+      <style:graphic-properties draw:stroke="none" draw:fill="none" draw:textarea-horizontal-align="center" draw:textarea-vertical-align="middle" draw:color-mode="standard" draw:luminance="0%" draw:contrast="0%" draw:gamma="100%" draw:red="0%" draw:green="0%" draw:blue="0%" fo:clip="rect(0cm, 0cm, 0cm, 0cm)" draw:image-opacity="100%" style:mirror="none"/>
+    </style:style>
+    <style:style style:name="gr2" style:family="graphic">
       <style:graphic-properties draw:stroke="none" svg:stroke-width="0cm" draw:stroke-linejoin="miter" draw:fill="none" draw:textarea-horizontal-align="center" draw:textarea-vertical-align="middle" draw:auto-grow-height="false" fo:padding-top="0.125cm" fo:padding-bottom="0.125cm" fo:padding-left="0.25cm" fo:padding-right="0.25cm" fo:wrap-option="wrap" draw:color-mode="standard" draw:luminance="0%" draw:contrast="0%" draw:gamma="100%" draw:red="0%" draw:green="0%" draw:blue="0%" fo:clip="rect(0cm, 0cm, 0cm, 0cm)" draw:image-opacity="100%" style:mirror="none"/>
-    </style:style>
-    <style:style style:name="gr2" style:family="graphic">
-      <style:graphic-properties draw:stroke="none" draw:fill="none" draw:textarea-horizontal-align="center" draw:textarea-vertical-align="middle" draw:color-mode="standard" draw:luminance="0%" draw:contrast="0%" draw:gamma="100%" draw:red="0%" draw:green="0%" draw:blue="0%" fo:clip="rect(0cm, 0cm, 0cm, 0cm)" draw:image-opacity="100%" style:mirror="none"/>
     </style:style>
     <style:style style:name="P1" style:family="paragraph">
       <style:paragraph-properties fo:text-align="center"/>
-      <style:text-properties fo:font-size="18pt"/>
     </style:style>
     <style:style style:name="P2" style:family="paragraph">
       <style:paragraph-properties fo:text-align="center"/>
+      <style:text-properties fo:font-size="18pt"/>
     </style:style>
     <style:style style:name="T1" style:family="text">
+      <style:text-properties fo:color="#008080" style:font-name="Monaco" fo:font-size="11pt" style:font-name-asian="Monaco" style:font-size-asian="11pt" style:font-name-complex="Monaco" style:font-size-complex="6.30000019073486pt"/>
+    </style:style>
+    <style:style style:name="T2" style:family="text">
+      <style:text-properties fo:color="#3f7f7f" style:font-name="Monaco" fo:font-size="11pt" style:font-name-asian="Monaco" style:font-size-asian="11pt" style:font-name-complex="Monaco" style:font-size-complex="6.30000019073486pt"/>
+    </style:style>
+    <style:style style:name="T3" style:family="text">
+      <style:text-properties fo:color="#7f007f" style:font-name="Monaco" fo:font-size="11pt" style:font-name-asian="Monaco" style:font-size-asian="11pt" style:font-name-complex="Monaco" style:font-size-complex="6.30000019073486pt"/>
+    </style:style>
+    <style:style style:name="T4" style:family="text">
+      <style:text-properties fo:color="#000000" style:font-name="Monaco" fo:font-size="11pt" style:font-name-asian="Monaco" style:font-size-asian="11pt" style:font-name-complex="Monaco" style:font-size-complex="6.30000019073486pt"/>
+    </style:style>
+    <style:style style:name="T5" style:family="text">
+      <style:text-properties fo:color="#2a00ff" style:font-name="Monaco" fo:font-size="11pt" fo:font-style="italic" style:font-name-asian="Monaco" style:font-size-asian="11pt" style:font-style-asian="italic" style:font-name-complex="Monaco" style:font-size-complex="6.30000019073486pt" style:font-style-complex="italic"/>
+    </style:style>
+    <style:style style:name="T6" style:family="text">
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック1" fo:font-size="5.5pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック1" style:font-size-asian="5.5pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="ＭＳ Ｐゴシック1" style:font-size-complex="3.09999990463257pt" style:font-style-complex="normal" style:font-weight-complex="normal" style:text-emphasize="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
+    </style:style>
+    <style:style style:name="T7" style:family="text">
+      <style:text-properties style:font-name="F" fo:font-size="12pt"/>
+    </style:style>
+    <style:style style:name="T8" style:family="text">
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial Unicode MS1" fo:font-size="5.5pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="Arial Unicode MS1" style:font-size-asian="5.5pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial Unicode MS1" style:font-size-complex="3.09999990463257pt" style:font-style-complex="normal" style:font-weight-complex="normal" style:text-emphasize="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
+    </style:style>
+    <style:style style:name="T9" style:family="text">
+      <style:text-properties fo:color="#7f007f" style:font-name="Monaco" fo:font-size="11pt" style:text-underline-style="solid" style:text-underline-width="auto" style:text-underline-color="font-color" style:font-name-asian="Monaco" style:font-size-asian="11pt" style:font-name-complex="Monaco" style:font-size-complex="6.30000019073486pt"/>
+    </style:style>
+    <style:style style:name="T10" style:family="text">
+      <style:text-properties fo:color="#000000" style:font-name="Monaco" fo:font-size="11pt" style:text-underline-style="solid" style:text-underline-width="auto" style:text-underline-color="font-color" style:font-name-asian="Monaco" style:font-size-asian="11pt" style:font-name-complex="Monaco" style:font-size-complex="6.30000019073486pt"/>
+    </style:style>
+    <style:style style:name="T11" style:family="text">
+      <style:text-properties fo:color="#2a00ff" style:font-name="Monaco" fo:font-size="11pt" fo:font-style="italic" style:text-underline-style="solid" style:text-underline-width="auto" style:text-underline-color="font-color" style:font-name-asian="Monaco" style:font-size-asian="11pt" style:font-style-asian="italic" style:font-name-complex="Monaco" style:font-size-complex="6.30000019073486pt" style:font-style-complex="italic"/>
+    </style:style>
+    <style:style style:name="T12" style:family="text">
       <style:text-properties fo:color="#0070c0" style:text-outline="false" style:text-line-through-style="none" style:text-position="0% 100%" style:font-name="ＭＳ Ｐゴシック" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
     </style:style>
-    <style:style style:name="T2" style:family="text">
+    <style:style style:name="T13" style:family="text">
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-position="0% 100%" style:font-name="ＭＳ Ｐゴシック1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック1" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
   </office:automatic-styles>
@@ -99,10 +194,2908 @@
       <table:calculation-settings table:case-sensitive="false" table:automatic-find-labels="false" table:use-regular-expressions="false">
         <table:iteration table:maximum-difference="0.0001"/>
       </table:calculation-settings>
-      <table:table table:name="12章" table:style-name="ta1" table:print="false">
+      <table:table table:name="1章" table:style-name="ta1" table:print="false">
+        <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
+        <table:table-column table:style-name="co1" table:number-columns-repeated="1023" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
+        <table:table-column table:style-name="co1" table:default-cell-style-name="Default"/>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce3"/>
+          <table:table-cell table:number-columns-repeated="1008"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>1章</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1022"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>●</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Androidとは</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Google/OHA（Open Handset Aliance　３４社で組織された団体）</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Linuxカーネル　Ver2.6で動作</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="162"/>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:number-columns-repeated="856"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Apache　License　２．０</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Android　SDK</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>java</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1015"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Android　NDK</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>C/C++</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1015"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>APIレベルとAndroidバージョン</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>最新：API　＝　レベル14、Androidバージョン　＝　4.0</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>●</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>開発環境</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="11"/>
+          <table:table-cell office:value-type="string">
+            <text:p>開発時</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>アプリケーション</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1008"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>JDK</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce1" office:value-type="string" table:number-columns-spanned="4" table:number-rows-spanned="1">
+            <text:p>ADT</text:p>
+          </table:table-cell>
+          <table:covered-table-cell table:number-columns-repeated="3" table:style-name="ce2"/>
+          <table:table-cell table:style-name="ce1" office:value-type="string" table:number-columns-spanned="4" table:number-rows-spanned="1">
+            <text:p>Android　SDK</text:p>
+          </table:table-cell>
+          <table:covered-table-cell table:number-columns-repeated="3" table:style-name="ce2"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Android　SDK</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce1" office:value-type="string" table:number-columns-spanned="8" table:number-rows-spanned="1">
+            <text:p>JDK</text:p>
+          </table:table-cell>
+          <table:covered-table-cell table:number-columns-repeated="7" table:style-name="ce1"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Eclipse　（推奨）</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce1" office:value-type="string" table:number-columns-spanned="8" table:number-rows-spanned="1">
+            <text:p>OS</text:p>
+          </table:table-cell>
+          <table:covered-table-cell table:number-columns-repeated="7" table:style-name="ce1"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>ADT（Android　Development　Tool）</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>開発ツール</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Traceview（ログ解析ツール）</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Hierarchy　Viewer（ビュー表示ツール）</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>DDMS（デバッグツール）</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="6"/>
+          <table:table-cell table:number-columns-repeated="1015"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>AVD（Android　Virtual　Devices）</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>エミュレータ</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>Androidバージョンごとに使い分け可能</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>●</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>アプリケーションの作成</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>ビルドターゲット　　➡　Androidバージョン</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>ディレクトリ構成</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>src</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>開発するjavaファイル</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1016"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>res</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>drawable-hdpi</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1017"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>drawable-ldpi</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1017"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>drawable-mdpi</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1017"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>layout</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1017"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>values</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1017"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>gen</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:number-columns-repeated="1016"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell office:value-type="string">
+            <text:p>R.java　➡　各リソースのIDを管理する</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1016"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell office:value-type="string">
+            <text:p>　　　　　　自動作成されるため編集はしない</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1016"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>assets</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>音声ファイル、フォントファイルなどのバイナリデータを配置</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1017"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>AndroidManifest.xml</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>9-patch画像</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>画像を引き延ばしたときに粗くならないように引き延ばすツール</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Android　SDK　に同梱された　Draw　9-patchツールで作成可能</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>コマンドは”draw9patch”</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>PNG形式のファイルになる</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>res/drawable　ディレクトリに</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>xxx.9.png　という名前で作成される</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="1048517">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+      </table:table>
+      <table:table table:name="２章" table:style-name="ta1" table:print="false">
         <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
         <table:table-column table:style-name="co1" table:number-columns-repeated="1024" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce3"/>
+          <table:table-cell table:number-columns-repeated="1007"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>２章</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1022"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell/>
+          <table:table-cell>
+            <draw:frame table:end-cell-address="２章.AF63" table:end-x="0.263cm" table:end-y="0.462cm" draw:z-index="0" draw:name="図 1" draw:style-name="gr1" draw:text-style-name="P1" svg:width="26.365cm" svg:height="27.499cm" svg:x="0.784cm" svg:y="0.231cm">
+              <draw:image xlink:href="Pictures/10000201000002A7000002728AB0548C.png" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad">
+                <text:p/>
+              </draw:image>
+            </draw:frame>
+          </table:table-cell>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:number-columns-repeated="1021"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="168"/>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:number-columns-repeated="855"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="31"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Applications</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="991"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="32"/>
+          <table:table-cell office:value-type="string">
+            <text:p>デフォルトでインストールされているアプリ</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="991"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="32"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Dailer</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>発信</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="987"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="32"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Email</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>電子メール</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="987"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="32"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Browser</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>ブラウザ</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="987"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="32"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Setting</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>設定</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="987"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="4">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="31"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Application Framework</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="991"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="32"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Content Providers</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>アプリケーション間のデータ共有</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="984"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="32"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Telephony　Manager</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>電話機能へのアクセス管理</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="984"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="32"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Resource　Manager</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>コード以外のリソースのアクセス管理</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="984"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="32"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Location　Manager</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>GPS情報のアクセス管理</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="984"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="32"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Notification　MAnager</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>警告情報の管理</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="984"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="8">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="31"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Android　Runtime</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="991"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="32"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Core　Libraries</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>Google社が開発したjavaライブラリ</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="983"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="32"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Dalvik　Virtual　Machine</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>Google社が開発した仮想マシン</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="983"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="31"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>LIBRARIES</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="991"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="31"/>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>libc</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>C/C++　で書かれている</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="988"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="31"/>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>SGL</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>２Dグラフィック</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="988"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="31"/>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>OpenGL</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>３Dグラフィック</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="988"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="31"/>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>FreeType</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>テキストレンダリング</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="988"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="31"/>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>webKit</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>HTMLレンダリング</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="988"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="21">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>●</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>ライセンス</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Apache　License　2.0</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>Andoroidのソースコードの基本的なライセンス</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="10"/>
+          <table:table-cell office:value-type="string">
+            <text:p>使用・複製・など自由、公開義務なし、ApacheLicenseであることは記述素津必要あり</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>GPL</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>Linuxカーネル、ライブラリ</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="10"/>
+          <table:table-cell office:value-type="string">
+            <text:p>使用・複製・など自由、派生物はGPLで公開する必要あり</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>LGPL</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>WebKit</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="10"/>
+          <table:table-cell office:value-type="string">
+            <text:p>使用・複製・など自由、独自開発部分は公開義務なし、改変した場合は公開義務あり、派生物はLGPLでなくても公開可能</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>●</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Dalvik</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>Androidアプリを動かしている仮想マシン（VM）</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>.dexの実行が可能</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>.javaファイル　　➡（javac）➡　.classファイル　➡（dx）　➡　.dex（Dalvikファイル）</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>AndroidSDKのdxコマンドで次のファイルとして変換可能</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>dex</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>jar</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>zip</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>apk</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>➡　最終的には.apkファイルとしてまとめられてアプリとして扱われる</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="1048491">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+      </table:table>
+      <table:table table:name="３章" table:style-name="ta1" table:print="false">
+        <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
+        <table:table-column table:style-name="co1" table:number-columns-repeated="6" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
+        <table:table-column table:style-name="co2" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
+        <table:table-column table:style-name="co1" table:number-columns-repeated="1017" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce3"/>
+          <table:table-cell table:number-columns-repeated="1007"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>３章</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1022"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>●</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>XMLとは</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>（省略）</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="168"/>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:number-columns-repeated="855"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>●</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>マニフェストファイル</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>AndroidManifest.xml</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce4" office:value-type="string">
+            <text:p>
+              <text:span text:style-name="T1">&lt;?</text:span>
+              <text:span text:style-name="T2">xml</text:span>
+              <text:span text:style-name="T3">version</text:span>
+              <text:span text:style-name="T4">=</text:span>
+              <text:span text:style-name="T5">"1.0"</text:span>
+              <text:span text:style-name="T3">encoding</text:span>
+              <text:span text:style-name="T4">=</text:span>
+              <text:span text:style-name="T5">"utf-8"</text:span>
+              <text:span text:style-name="T1">?&gt;</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce9" table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce14"/>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce5" office:value-type="string">
+            <text:p>
+              <text:span text:style-name="T1">&lt;</text:span>
+              <text:span text:style-name="T2">manifest</text:span>
+              <text:span text:style-name="T3">xmlns:android</text:span>
+              <text:span text:style-name="T4">=</text:span>
+              <text:span text:style-name="T5">"http://schemas.android.com/apk/res/android"</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>⬅</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>manifest　タグがルートタグ</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="997"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce5" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              <text:span text:style-name="T3">package</text:span>
+              <text:span text:style-name="T4">=</text:span>
+              <text:span text:style-name="T5">"com.android.TTW"</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>xmlns:android　となっているためandroidが接頭辞となり</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="997"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce5" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              <text:span text:style-name="T3">android:versionCode</text:span>
+              <text:span text:style-name="T4">=</text:span>
+              <text:span text:style-name="T5">"1"</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>この接頭辞を使った場合は、名前空間は"http://〜”がしようされる</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="997"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce5" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              <text:span text:style-name="T3">android:installLocation</text:span>
+              <text:span text:style-name="T4">=</text:span>
+              <text:span text:style-name="T5">"preferExternal"</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce5" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              <text:span text:style-name="T3">android:versionName</text:span>
+              <text:span text:style-name="T4">=</text:span>
+              <text:span text:style-name="T5">"1.0"</text:span>
+              <text:span text:style-name="T1">&gt;</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>package</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="996"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce5" office:value-type="string">
+            <text:p>
+              <text:span text:style-name="T4">
+                <text:s text:c="4"/>
+              </text:span>
+              <text:span text:style-name="T1">&lt;</text:span>
+              <text:span text:style-name="T2">application</text:span>
+              <text:span text:style-name="T3">android:icon</text:span>
+              <text:span text:style-name="T4">=</text:span>
+              <text:span text:style-name="T5">"@drawable/icon"</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>versionCode</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>ユーザには非表示</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="992"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce5" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              <text:tab/>
+              <text:tab/>
+              <text:tab/>
+              <text:span text:style-name="T3">android:label</text:span>
+              <text:span text:style-name="T4">=</text:span>
+              <text:span text:style-name="T5">"@string/app_name"</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>versionName</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>ユーザに表示</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="992"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce5" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              <text:tab/>
+              <text:tab/>
+              <text:tab/>
+              <text:span text:style-name="T3">android:debuggable</text:span>
+              <text:span text:style-name="T4">=</text:span>
+              <text:span text:style-name="T5">"true"</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>＊</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>sharedUserId</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>複数アプリ間で共有するid。データの相互アクセスが可能になる</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="992"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce5" office:value-type="string">
+            <text:p>
+              <text:tab/>
+              <text:tab/>
+              <text:tab/>
+              <text:tab/>
+              <text:span text:style-name="T3">android:theme</text:span>
+              <text:span text:style-name="T4">=</text:span>
+              <text:span text:style-name="T5">"@style/Theme.MyLight"</text:span>
+              <text:span text:style-name="T1">&gt;</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>＊</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>sharedUserLabel</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>共有ユーザidのラベル</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="992"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce5" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce5" office:value-type="string">
+            <text:p>
+              <text:span text:style-name="T4">
+                <text:tab/>
+              </text:span>
+              <text:span text:style-name="T4">
+                <text:tab/>
+              </text:span>
+              <text:span text:style-name="T1">&lt;</text:span>
+              <text:span text:style-name="T2">activity</text:span>
+              <text:span text:style-name="T3">android:name</text:span>
+              <text:span text:style-name="T4">=</text:span>
+              <text:span text:style-name="T5">"TaskTimeWatcheMain"</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>application</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="996"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce5" office:value-type="string">
+            <text:p>
+              <text:s text:c="18"/>
+              <text:span text:style-name="T3">android:label</text:span>
+              <text:span text:style-name="T4">=</text:span>
+              <text:span text:style-name="T5">"@string/app_name"</text:span>
+              <text:span text:style-name="T1">&gt;</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>icon</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="995"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce5" office:value-type="string">
+            <text:p>
+              <text:span text:style-name="T4">
+                <text:s text:c="12"/>
+              </text:span>
+              <text:span text:style-name="T1">&lt;</text:span>
+              <text:span text:style-name="T2">intent-filter</text:span>
+              <text:span text:style-name="T1">&gt;</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>label</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>ユーザに表示するアプリのラベル</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="992"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce5" office:value-type="string">
+            <text:p>
+              <text:span text:style-name="T4">
+                <text:s text:c="16"/>
+              </text:span>
+              <text:span text:style-name="T1">&lt;</text:span>
+              <text:span text:style-name="T2">action</text:span>
+              <text:span text:style-name="T3">android:name</text:span>
+              <text:span text:style-name="T4">=</text:span>
+              <text:span text:style-name="T5">"android.intent.action.MAIN"</text:span>
+              <text:span text:style-name="T1">/&gt;</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>debuggable</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>ディフォルトはfalse</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="992"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce5" office:value-type="string">
+            <text:p>
+              <text:span text:style-name="T4">
+                <text:s text:c="16"/>
+              </text:span>
+              <text:span text:style-name="T1">&lt;</text:span>
+              <text:span text:style-name="T2">category</text:span>
+              <text:span text:style-name="T3">android:name</text:span>
+              <text:span text:style-name="T4">=</text:span>
+              <text:span text:style-name="T5">"android.intent.category.LAUNCHER"</text:span>
+              <text:span text:style-name="T1">/&gt;</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce5" office:value-type="string">
+            <text:p>
+              <text:span text:style-name="T4">
+                <text:s text:c="12"/>
+              </text:span>
+              <text:span text:style-name="T1">&lt;/</text:span>
+              <text:span text:style-name="T2">intent-filter</text:span>
+              <text:span text:style-name="T1">&gt;</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>activity</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>アクティビティ</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="992"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce5" office:value-type="string">
+            <text:p>
+              <text:span text:style-name="T4">
+                <text:tab/>
+              </text:span>
+              <text:span text:style-name="T4">
+                <text:tab/>
+              </text:span>
+              <text:span text:style-name="T1">&lt;/</text:span>
+              <text:span text:style-name="T2">activity</text:span>
+              <text:span text:style-name="T1">&gt;</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>name</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="994"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce5" office:value-type="string">
+            <text:p>
+              <text:span text:style-name="T4">
+                <text:tab/>
+              </text:span>
+              <text:span text:style-name="T4">
+                <text:tab/>
+              </text:span>
+              <text:span text:style-name="T1">&lt;</text:span>
+              <text:span text:style-name="T2">activity</text:span>
+              <text:span text:style-name="T3">android:name</text:span>
+              <text:span text:style-name="T4">=</text:span>
+              <text:span text:style-name="T5">"TaskTimeWatcheEditor"</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>icon</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="994"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce5" office:value-type="string">
+            <text:p>
+              <text:s text:c="17"/>
+              <text:span text:style-name="T3">android:windowSoftInputMode</text:span>
+              <text:span text:style-name="T4">=</text:span>
+              <text:span text:style-name="T5">"adjustPan"</text:span>
+              <text:s/>
+              <text:span text:style-name="T1">&gt;</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>label</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="994"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce5" office:value-type="string">
+            <text:p>
+              <text:span text:style-name="T4">
+                <text:tab/>
+              </text:span>
+              <text:span text:style-name="T4">
+                <text:tab/>
+              </text:span>
+              <text:span text:style-name="T1">&lt;/</text:span>
+              <text:span text:style-name="T2">activity</text:span>
+              <text:span text:style-name="T1">&gt;</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>provider</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>コンテントプロバイダ</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="992"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce5"/>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>service</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>サービス</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="992"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce5" office:value-type="string">
+            <text:p>
+              <text:span text:style-name="T4">
+                <text:s text:c="4"/>
+              </text:span>
+              <text:span text:style-name="T1">&lt;/</text:span>
+              <text:span text:style-name="T2">application</text:span>
+              <text:span text:style-name="T1">&gt;</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>receive</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>ブロードキャストレシーバー</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="992"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce5" office:value-type="string">
+            <text:p>
+              <text:span text:style-name="T4">
+                <text:s text:c="4"/>
+              </text:span>
+              <text:span text:style-name="T1">&lt;</text:span>
+              <text:span text:style-name="T2">uses-sdk</text:span>
+              <text:span text:style-name="T3">android:minSdkVersion</text:span>
+              <text:span text:style-name="T4">=</text:span>
+              <text:span text:style-name="T5">"8"</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce17" office:value-type="string">
+            <text:p>uses-library</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>アプリがリンクする共有ライブラリ</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="992"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce5" office:value-type="string">
+            <text:p>
+              <text:span text:style-name="T6">
+                <text:s text:c="55"/>
+              </text:span>
+              <text:span text:style-name="T7">
+                <text:s/>
+              </text:span>
+              <text:span text:style-name="T7">android:maxSdkVersion="8" </text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="3"/>
+          <table:table-cell table:number-columns-repeated="995"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce5" office:value-type="string">
+            <text:p>
+              <text:span text:style-name="T7">
+                <text:s text:c="4"/>
+              </text:span>
+              <text:span text:style-name="T8">
+                <text:tab/>
+              </text:span>
+              <text:span text:style-name="T8">
+                <text:tab/>
+              </text:span>
+              <text:span text:style-name="T8">
+                <text:tab/>
+              </text:span>
+              <text:span text:style-name="T8">
+                <text:tab/>
+              </text:span>
+              <text:span text:style-name="T7">
+                <text:tab/>
+              </text:span>
+              <text:span text:style-name="T3">android:targetSdkVersion</text:span>
+              <text:span text:style-name="T4">=</text:span>
+              <text:span text:style-name="T5">"8"</text:span>
+              <text:span text:style-name="T7"> </text:span>
+              <text:span text:style-name="T1">/&gt;</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>uses-sdk</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="996"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce5" office:value-type="string">
+            <text:p>
+              <text:span text:style-name="T4">
+                <text:tab/>
+              </text:span>
+              <text:span text:style-name="T1">&lt;</text:span>
+              <text:span text:style-name="T2">uses-permission</text:span>
+              <text:span text:style-name="T3">android:name</text:span>
+              <text:span text:style-name="T4">=</text:span>
+              <text:span text:style-name="T5">"android.permission.WRITE_EXTERNAL_STORAGE"</text:span>
+              <text:span text:style-name="T1">/&gt;</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>minSdkVersion</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="995"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce5" office:value-type="string">
+            <text:p>
+              <text:span text:style-name="T1">&lt;/</text:span>
+              <text:span text:style-name="T2">manifest</text:span>
+              <text:span text:style-name="T1">&gt;</text:span>
+              <text:span text:style-name="T4"> </text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>maxSdkVersion</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="995"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce6"/>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce16"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>targetSdkVersion</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="995"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce11" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              <text:span text:style-name="T3">package</text:span>
+              <text:span text:style-name="T4">=</text:span>
+              <text:span text:style-name="T5">"com.android.TTW"</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce11" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              &lt;activity android:name=".TaskTimeWatcheMain"
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce11"/>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="9"/>
+          <table:table-cell office:value-type="string">
+            <text:p>⬆</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1014"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="9"/>
+          <table:table-cell office:value-type="string">
+            <text:p>ドットがある場合は、パッケージで宣言したものに</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1014"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="9"/>
+          <table:table-cell office:value-type="string">
+            <text:p>属する、という意味になる。</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1014"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="9"/>
+          <table:table-cell office:value-type="string">
+            <text:p>よって、複数のコンポーネントを定義する際は、パッケージが異なるのであれば</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1014"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="9"/>
+          <table:table-cell office:value-type="string">
+            <text:p>完全修飾名で指定する必要がある。</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1014"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>●</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>リソースファイルとは</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce4" office:value-type="string">
+            <text:p>
+              <text:span text:style-name="T1">&lt;?</text:span>
+              <text:span text:style-name="T2">xml</text:span>
+              <text:span text:style-name="T3">version</text:span>
+              <text:span text:style-name="T4">=</text:span>
+              <text:span text:style-name="T5">"1.0"</text:span>
+              <text:span text:style-name="T3">encoding</text:span>
+              <text:span text:style-name="T4">=</text:span>
+              <text:span text:style-name="T5">"utf-8"</text:span>
+              <text:span text:style-name="T1">?&gt;</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce9" table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce14"/>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce5" office:value-type="string">
+            <text:p>
+              <text:span text:style-name="T1">&lt;</text:span>
+              <text:span text:style-name="T2">LinearLayout</text:span>
+              <text:span text:style-name="T3">xmlns:android</text:span>
+              <text:span text:style-name="T4">=</text:span>
+              <text:span text:style-name="T5">"http://schemas.android.com/apk/res/android"</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce5" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              <text:span text:style-name="T3">android:orientation</text:span>
+              <text:span text:style-name="T4">=</text:span>
+              <text:span text:style-name="T5">"vertical"</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell/>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell office:value-type="string">
+            <text:p>orientation </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="997"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce5" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              <text:span text:style-name="T3">android:layout_width</text:span>
+              <text:span text:style-name="T4">=</text:span>
+              <text:span text:style-name="T5">"fill_parent"</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell/>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>vertical</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="996"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce5" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              <text:span text:style-name="T3">android:layout_height</text:span>
+              <text:span text:style-name="T4">=</text:span>
+              <text:span text:style-name="T5">"fill_parent"</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell/>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>horizontal</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="996"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce5" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              <text:span text:style-name="T3">android:background</text:span>
+              <text:span text:style-name="T4">=</text:span>
+              <text:span text:style-name="T5">"@color/secondary"</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce5" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              <text:span text:style-name="T1">&gt;</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>layout_width</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="997"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce5" office:value-type="string">
+            <text:p>
+              <text:s/>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>layout_height</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="997"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce5" office:value-type="string">
+            <text:p>
+              <text:span text:style-name="T4">
+                <text:tab/>
+              </text:span>
+              <text:span text:style-name="T1">&lt;</text:span>
+              <text:span text:style-name="T2">TextView</text:span>
+              <text:s/>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>fill_parent</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="996"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce5" office:value-type="string">
+            <text:p>
+              <text:tab/>
+              <text:s text:c="3"/>
+              <text:span text:style-name="T3">android:layout_width</text:span>
+              <text:span text:style-name="T4">=</text:span>
+              <text:span text:style-name="T5">"fill_parent"</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>wrap_content</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="996"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce5" office:value-type="string">
+            <text:p>
+              <text:tab/>
+              <text:s text:c="3"/>
+              <text:span text:style-name="T3">android:layout_height</text:span>
+              <text:span text:style-name="T4">=</text:span>
+              <text:span text:style-name="T5">"wrap_content"</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce5" office:value-type="string">
+            <text:p>
+              <text:tab/>
+              <text:s text:c="3"/>
+              <text:span text:style-name="T9">android:text</text:span>
+              <text:span text:style-name="T10">=</text:span>
+              <text:span text:style-name="T11">"</text:span>
+              <text:span text:style-name="T11">メインメニュー</text:span>
+              <text:span text:style-name="T11">"</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>text</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="997"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce5" office:value-type="string">
+            <text:p>
+              <text:tab/>
+              <text:s text:c="3"/>
+              <text:span text:style-name="T3">android:background</text:span>
+              <text:span text:style-name="T4">=</text:span>
+              <text:span text:style-name="T5">"@color/primary"</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>“xxxx” で指定、あるいは</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="996"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce5" office:value-type="string">
+            <text:p>
+              <text:tab/>
+              <text:s text:c="3"/>
+              <text:span text:style-name="T1">/&gt;</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>“@string/hoge”</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="996"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce5" office:value-type="string">
+            <text:p>
+              <text:span text:style-name="T4">
+                <text:s text:c="4"/>
+              </text:span>
+              <text:span text:style-name="T1">&lt;</text:span>
+              <text:span text:style-name="T2">ListView</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce5" office:value-type="string">
+            <text:p>
+              <text:tab/>
+              <text:s text:c="3"/>
+              <text:span text:style-name="T3">android:id</text:span>
+              <text:span text:style-name="T4">=</text:span>
+              <text:span text:style-name="T5">"@+id/list_category"</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce5" office:value-type="string">
+            <text:p>
+              <text:tab/>
+              <text:s text:c="3"/>
+              <text:span text:style-name="T3">android:layout_width</text:span>
+              <text:span text:style-name="T4">=</text:span>
+              <text:span text:style-name="T5">"fill_parent"</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>id</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="997"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce5" office:value-type="string">
+            <text:p>
+              <text:tab/>
+              <text:s text:c="3"/>
+              <text:span text:style-name="T3">android:layout_weight</text:span>
+              <text:span text:style-name="T4">=</text:span>
+              <text:span text:style-name="T5">"7"</text:span>
+              <text:tab/>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>entries</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>ListView　の選択リストの中身を指定</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="994"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce5" office:value-type="string">
+            <text:p>
+              <text:tab/>
+              <text:s text:c="3"/>
+              <text:span text:style-name="T3">android:layout_height</text:span>
+              <text:span text:style-name="T4">=</text:span>
+              <text:span text:style-name="T5">"0dip"</text:span>
+              <text:s/>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>Activityの中でadapterでセットしてもOK</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="994"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce5" office:value-type="string">
+            <text:p>
+              <text:tab/>
+              <text:s text:c="3"/>
+              <text:span text:style-name="T3">android:clickable</text:span>
+              <text:span text:style-name="T4">=</text:span>
+              <text:span text:style-name="T5">"true"</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce5" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              <text:span text:style-name="T1">/&gt;</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="7">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce6"/>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce16"/>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>特殊記号</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>＆</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>&amp;amp;</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>直接記述不可</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1014"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>＜</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>&amp;lt;</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>直接記述不可</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1014"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>＞</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>&amp;gt;</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1017"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>”</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>&amp;quot;</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1017"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>’</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>&amp;apos;</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1017"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>paddingとmarginのちがい</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>padding</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>ビューの内側の余白</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1016"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>margin</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>ビューの外側の余白</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1016"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>res/value/string.xml</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:style-name="ce9"/>
+          <table:table-cell table:style-name="ce12" office:value-type="string">
+            <text:p>
+              <text:span text:style-name="T1">&lt;?</text:span>
+              <text:span text:style-name="T2">xml</text:span>
+              <text:span text:style-name="T3">version</text:span>
+              <text:span text:style-name="T4">=</text:span>
+              <text:span text:style-name="T5">"1.0"</text:span>
+              <text:span text:style-name="T3">encoding</text:span>
+              <text:span text:style-name="T4">=</text:span>
+              <text:span text:style-name="T5">"utf-8"</text:span>
+              <text:span text:style-name="T1">?&gt;</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce9" table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce14"/>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce13" office:value-type="string">
+            <text:p>
+              <text:span text:style-name="T1">&lt;</text:span>
+              <text:span text:style-name="T2">resources</text:span>
+              <text:span text:style-name="T1">&gt;</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell/>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell office:value-type="string">
+            <text:p>resource</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="997"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce13" office:value-type="string">
+            <text:p>
+              <text:span text:style-name="T4">
+                <text:s text:c="4"/>
+              </text:span>
+              <text:span text:style-name="T1">&lt;</text:span>
+              <text:span text:style-name="T2">string</text:span>
+              <text:span text:style-name="T3">name</text:span>
+              <text:span text:style-name="T4">=</text:span>
+              <text:span text:style-name="T5">"hello"</text:span>
+              <text:span text:style-name="T1">&gt;</text:span>
+              <text:span text:style-name="T4">Hello World, SchedulerEditor!</text:span>
+              <text:span text:style-name="T1">&lt;/</text:span>
+              <text:span text:style-name="T2">string</text:span>
+              <text:span text:style-name="T1">&gt;</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>　</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>string</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="996"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce13" office:value-type="string">
+            <text:p>
+              <text:s/>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>string-array</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="996"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce13" office:value-type="string">
+            <text:p>
+              <text:span text:style-name="T4">
+                <text:tab/>
+              </text:span>
+              <text:span text:style-name="T1">&lt;</text:span>
+              <text:span text:style-name="T2">string-array</text:span>
+              <text:span text:style-name="T3">name</text:span>
+              <text:span text:style-name="T4">=</text:span>
+              <text:span text:style-name="T5">"ctg_spn_list"</text:span>
+              <text:span text:style-name="T1">&gt;</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>item</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="995"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce13" office:value-type="string">
+            <text:p>
+              <text:span text:style-name="T4">
+                <text:tab/>
+              </text:span>
+              <text:span text:style-name="T4">
+                <text:s text:c="3"/>
+              </text:span>
+              <text:span text:style-name="T1">&lt;</text:span>
+              <text:span text:style-name="T2">item</text:span>
+              <text:span text:style-name="T1">&gt;</text:span>
+              <text:span text:style-name="T4">定常作業</text:span>
+              <text:span text:style-name="T1">&lt;/</text:span>
+              <text:span text:style-name="T2">item</text:span>
+              <text:span text:style-name="T1">&gt;</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce13" office:value-type="string">
+            <text:p>
+              <text:span text:style-name="T4">
+                <text:tab/>
+              </text:span>
+              <text:span text:style-name="T4">
+                <text:s text:c="3"/>
+              </text:span>
+              <text:span text:style-name="T1">&lt;</text:span>
+              <text:span text:style-name="T2">item</text:span>
+              <text:span text:style-name="T1">&gt;</text:span>
+              <text:span text:style-name="T4">障害対応</text:span>
+              <text:span text:style-name="T1">&lt;/</text:span>
+              <text:span text:style-name="T2">item</text:span>
+              <text:span text:style-name="T1">&gt;</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce13" office:value-type="string">
+            <text:p>
+              <text:span text:style-name="T4">
+                <text:tab/>
+              </text:span>
+              <text:span text:style-name="T4">
+                <text:s text:c="3"/>
+              </text:span>
+              <text:span text:style-name="T1">&lt;</text:span>
+              <text:span text:style-name="T2">item</text:span>
+              <text:span text:style-name="T1">&gt;</text:span>
+              <text:span text:style-name="T4">データリカバリ</text:span>
+              <text:span text:style-name="T1">&lt;/</text:span>
+              <text:span text:style-name="T2">item</text:span>
+              <text:span text:style-name="T1">&gt;</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce13" office:value-type="string">
+            <text:p>
+              <text:span text:style-name="T4">
+                <text:tab/>
+              </text:span>
+              <text:span text:style-name="T1">&lt;/</text:span>
+              <text:span text:style-name="T2">string-array</text:span>
+              <text:span text:style-name="T1">&gt;</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce13" office:value-type="string">
+            <text:p>
+              <text:s/>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce13" office:value-type="string">
+            <text:p>　　&lt;bool name=”screen_small”&gt;true&lt;/bool&gt;</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce13" office:value-type="string">
+            <text:p>
+              <text:s/>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce13" office:value-type="string">
+            <text:p>
+              <text:s text:c="5"/>
+              &lt;integer name=”max_speed”&gt;78&lt;/integer&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce13"/>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce13" office:value-type="string">
+            <text:p>
+              <text:s text:c="5"/>
+              &lt;integer-array name=”bits”&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce13" office:value-type="string">
+            <text:p>
+              <text:s text:c="7"/>
+              &lt;item&gt;4&lt;/item&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce13" office:value-type="string">
+            <text:p>
+              <text:s text:c="7"/>
+              &lt;item&gt;6&lt;/item&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce13" office:value-type="string">
+            <text:p>
+              <text:s text:c="5"/>
+              &lt;/integer-array&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce13"/>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce13" office:value-type="string">
+            <text:p>
+              <text:span text:style-name="T1">&lt;/</text:span>
+              <text:span text:style-name="T2">resources</text:span>
+              <text:span text:style-name="T1">&gt;</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce6"/>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce16"/>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>リソース参照</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="Default" office:value-type="string">
+            <text:p>java</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>String hoge = getString(R.string.hello);</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1015"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>xml</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>@string/hello</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1015"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="Default" office:value-type="string">
+            <text:p>java</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>String[] hoge = getResources().getStringArray(R.array.ctg_spn_list);</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell office:value-type="string">
+            <text:p>⬅　arrayであることに注意！！！</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="997"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>xml</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1017"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="Default" office:value-type="string">
+            <text:p>java</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>boolean hoge = getResources().getBoolean(R.bool.screen_small);</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1015"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>xml</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>@[package:]bool/screen_small</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1015"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>java</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>integer hoge = getResources().getInteger(R.integerl.max_speed);</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1015"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>xml</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>@[package;]integer/max_speed</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1015"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>java</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>int hoge = getResources().getIntArray(R.array.bits);</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1015"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>xml</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1017"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="1048435">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+      </table:table>
+      <table:table table:name="11章" table:style-name="ta1" table:print="false">
+        <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
+        <table:table-column table:style-name="co1" table:number-columns-repeated="1024" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce3"/>
+          <table:table-cell table:number-columns-repeated="1007"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>11章</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1022"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="4">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="168"/>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:number-columns-repeated="855"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="1048568">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+      </table:table>
+      <table:table table:name="12章" table:style-name="ta2" table:print="false">
+        <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
+        <table:table-column table:style-name="co3" table:number-columns-repeated="1024" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
+        <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -143,8 +3136,8 @@
           <table:table-cell office:value-type="string">
             <text:p>
               &lt;
-              <text:span text:style-name="T1">manifest</text:span>
-              <text:span text:style-name="T2"> xmlns:android="http://schemas.android.com/apk/res/android"</text:span>
+              <text:span text:style-name="T12">manifest</text:span>
+              <text:span text:style-name="T13"> xmlns:android="http://schemas.android.com/apk/res/android"</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
@@ -161,28 +3154,28 @@
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="4"/>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce18" office:value-type="string">
             <text:p>
               <text:s text:c="6"/>
               android:versionCode="1"
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="11"/>
-          <table:table-cell table:style-name="ce2" office:value-type="string">
+          <table:table-cell table:style-name="ce19" office:value-type="string">
             <text:p>←　整数値</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1007"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="4"/>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce18" office:value-type="string">
             <text:p>
               <text:s text:c="6"/>
               android:versionName="1.0"&gt;
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="11"/>
-          <table:table-cell table:style-name="ce2" office:value-type="string">
+          <table:table-cell table:style-name="ce19" office:value-type="string">
             <text:p>←　1.0.0とか。管理画面に表示される</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1007"/>
@@ -193,8 +3186,8 @@
             <text:p>
               <text:s text:c="4"/>
               &lt;
-              <text:span text:style-name="T1">application</text:span>
-              <text:span text:style-name="T2"> </text:span>
+              <text:span text:style-name="T12">application</text:span>
+              <text:span text:style-name="T13"> </text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
@@ -207,22 +3200,22 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce18" office:value-type="string">
             <text:p>android:label="@string/app_name" </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="11"/>
-          <table:table-cell table:style-name="ce2" office:value-type="string">
+          <table:table-cell table:style-name="ce19" office:value-type="string">
             <text:p>←　アプリケーション名（AndroidMarketや端末上での名前）</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1004"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="7"/>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce18" office:value-type="string">
             <text:p>android:icon="@drawable/icon" </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="11"/>
-          <table:table-cell table:style-name="ce2" office:value-type="string">
+          <table:table-cell table:style-name="ce19" office:value-type="string">
             <text:p>←　アイコン画像</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1004"/>
@@ -235,11 +3228,11 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce18" office:value-type="string">
             <text:p>android:debuggable="true"</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="11"/>
-          <table:table-cell table:style-name="ce2" office:value-type="string">
+          <table:table-cell table:style-name="ce19" office:value-type="string">
             <text:p>←　デフォルトはfalse。リリース時にはfalseにするか削除する。</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1004"/>
@@ -272,7 +3265,7 @@
           <table:table-cell office:value-type="string">
             <text:p>
               String packageName = 
-              <text:span text:style-name="T1">getPackageName();</text:span>
+              <text:span text:style-name="T12">getPackageName();</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
@@ -282,7 +3275,7 @@
           <table:table-cell office:value-type="string">
             <text:p>
               PackageManager pm = 
-              <text:span text:style-name="T1">getPackageManager();</text:span>
+              <text:span text:style-name="T12">getPackageManager();</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
@@ -292,7 +3285,7 @@
           <table:table-cell office:value-type="string">
             <text:p>
               PackageInfo packageInfo = 
-              <text:span text:style-name="T1">pm.getPackageInfo(packageName, 0);</text:span>
+              <text:span text:style-name="T12">pm.getPackageInfo(packageName, 0);</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
@@ -302,11 +3295,11 @@
           <table:table-cell office:value-type="string">
             <text:p>
               int versinoCode = 
-              <text:span text:style-name="T1">packageInfo.versionCode;</text:span>
+              <text:span text:style-name="T12">packageInfo.versionCode;</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="13"/>
-          <table:table-cell table:style-name="ce2" office:value-type="string">
+          <table:table-cell table:style-name="ce19" office:value-type="string">
             <text:p>←　PackageInfo内のpublic変数</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1005"/>
@@ -316,11 +3309,11 @@
           <table:table-cell office:value-type="string">
             <text:p>
               String versionName = 
-              <text:span text:style-name="T1">packageInfo.versionName;</text:span>
+              <text:span text:style-name="T12">packageInfo.versionName;</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="13"/>
-          <table:table-cell table:style-name="ce2" office:value-type="string">
+          <table:table-cell table:style-name="ce19" office:value-type="string">
             <text:p>←　PackageInfo内のpublic変数</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1005"/>
@@ -350,7 +3343,7 @@
             <text:p>&lt;uses-sdk android:minSdkVersion="8" </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="13"/>
-          <table:table-cell table:style-name="ce2" office:value-type="string">
+          <table:table-cell table:style-name="ce19" office:value-type="string">
             <text:p>←　指定なしの場合は"1"とみなされる。このVerより低い端末の場合クラッシュの可能性あり</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1005"/>
@@ -367,7 +3360,7 @@
             <text:p>android:maxSdkVersion="8" </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="10"/>
-          <table:table-cell table:style-name="ce2" office:value-type="string">
+          <table:table-cell table:style-name="ce19" office:value-type="string">
             <text:p>←　このVerより高い端末にインストールされない（？）ようになる</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1005"/>
@@ -384,7 +3377,7 @@
             <text:p>android:targetSdkVersion="8" /&gt;</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="10"/>
-          <table:table-cell table:style-name="ce2" office:value-type="string">
+          <table:table-cell table:style-name="ce19" office:value-type="string">
             <text:p>←　動作推奨Ver。テスト済みを明示。このVerより低い端末でもインストール可能。</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1005"/>
@@ -454,7 +3447,7 @@
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="5"/>
           <table:table-cell>
-            <draw:frame table:end-cell-address="12章.AP59" table:end-x="0.18cm" table:end-y="0.025cm" draw:z-index="0" draw:name="Picture 2" draw:style-name="gr1" draw:text-style-name="P1" svg:width="30.028cm" svg:height="8.41cm" svg:x="0.075cm" svg:y="0.396cm">
+            <draw:frame table:end-cell-address="12章.AP59" table:end-x="0.18cm" table:end-y="0.025cm" draw:z-index="0" draw:name="Picture 2" draw:style-name="gr2" draw:text-style-name="P2" svg:width="30.028cm" svg:height="8.41cm" svg:x="0.075cm" svg:y="0.396cm">
               <draw:image xlink:href="Pictures/10000000000003AC00000146605152EF.png" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad">
                 <text:p/>
               </draw:image>
@@ -468,7 +3461,7 @@
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="5"/>
           <table:table-cell>
-            <draw:frame table:end-cell-address="12章.AP82" table:end-x="0.312cm" table:end-y="0.371cm" draw:z-index="1" draw:name="Picture 3" draw:style-name="gr1" draw:text-style-name="P1" svg:width="30.16cm" svg:height="10.605cm" svg:x="0.075cm" svg:y="0.396cm">
+            <draw:frame table:end-cell-address="12章.AP82" table:end-x="0.312cm" table:end-y="0.371cm" draw:z-index="1" draw:name="Picture 3" draw:style-name="gr2" draw:text-style-name="P2" svg:width="30.16cm" svg:height="10.605cm" svg:x="0.075cm" svg:y="0.396cm">
               <draw:image xlink:href="Pictures/10000000000003B10000019B1A4B573B.png" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad">
                 <text:p/>
               </draw:image>
@@ -496,7 +3489,7 @@
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="5"/>
           <table:table-cell>
-            <draw:frame table:end-cell-address="12章.AO114" table:end-x="0.497cm" table:end-y="0.21cm" draw:z-index="2" draw:name="Picture 4" draw:style-name="gr1" draw:text-style-name="P1" svg:width="29.514cm" svg:height="13.68cm" svg:x="0.075cm" svg:y="0.395cm">
+            <draw:frame table:end-cell-address="12章.AO114" table:end-x="0.497cm" table:end-y="0.21cm" draw:z-index="2" draw:name="Picture 4" draw:style-name="gr2" draw:text-style-name="P2" svg:width="29.514cm" svg:height="13.68cm" svg:x="0.075cm" svg:y="0.395cm">
               <draw:image xlink:href="Pictures/100000000000039E0000021374AB1A62.png" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad">
                 <text:p/>
               </draw:image>
@@ -520,7 +3513,7 @@
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="5"/>
           <table:table-cell>
-            <draw:frame table:end-cell-address="12章.AO147" table:end-x="0.497cm" table:end-y="0.211cm" draw:z-index="3" draw:name="Picture 5" draw:style-name="gr1" draw:text-style-name="P1" svg:width="29.514cm" svg:height="13.68cm" svg:x="0.075cm" svg:y="0.396cm">
+            <draw:frame table:end-cell-address="12章.AO147" table:end-x="0.497cm" table:end-y="0.211cm" draw:z-index="3" draw:name="Picture 5" draw:style-name="gr2" draw:text-style-name="P2" svg:width="29.514cm" svg:height="13.68cm" svg:x="0.075cm" svg:y="0.396cm">
               <draw:image xlink:href="Pictures/100000000000039E000002138A435801.png" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad">
                 <text:p/>
               </draw:image>
@@ -534,7 +3527,7 @@
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="5"/>
           <table:table-cell>
-            <draw:frame table:end-cell-address="12章.R164" table:end-x="0.577cm" table:end-y="0.369cm" draw:z-index="4" draw:name="Picture 6" draw:style-name="gr1" draw:text-style-name="P1" svg:width="10.476cm" svg:height="7.83cm" svg:x="0.075cm" svg:y="0.396cm">
+            <draw:frame table:end-cell-address="12章.R164" table:end-x="0.577cm" table:end-y="0.369cm" draw:z-index="4" draw:name="Picture 6" draw:style-name="gr2" draw:text-style-name="P2" svg:width="10.476cm" svg:height="7.83cm" svg:x="0.075cm" svg:y="0.396cm">
               <draw:image xlink:href="Pictures/100000000000014B0000012F179F4EC1.png" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad">
                 <text:p/>
               </draw:image>
@@ -597,14 +3590,14 @@
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="6"/>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce18" office:value-type="string">
             <text:p>android:versionCode</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="6"/>
-          <table:table-cell table:style-name="ce1" office:value-type="string">
+          <table:table-cell table:style-name="ce18" office:value-type="string">
             <text:p>android:versionName</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
@@ -711,7 +3704,7 @@
             <text:p>&gt;layoutopt [projectname]</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="13"/>
-          <table:table-cell table:style-name="ce2" office:value-type="string">
+          <table:table-cell table:style-name="ce19" office:value-type="string">
             <text:p>←　プロジェクトのxmlの診断</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1004"/>
@@ -722,7 +3715,7 @@
             <text:p>&gt;layoutopt [projectname\res\layout\main.xml]</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="13"/>
-          <table:table-cell table:style-name="ce2" office:value-type="string">
+          <table:table-cell table:style-name="ce19" office:value-type="string">
             <text:p>←　プロジェクトの指定のxmlのみを診断</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1004"/>
@@ -993,7 +3986,7 @@
             <text:p>&gt;zipalign [-f] [-v] &lt;alignment&gt; infile.apk outfile.apk</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="13"/>
-          <table:table-cell table:style-name="ce2" office:value-type="string">
+          <table:table-cell table:style-name="ce19" office:value-type="string">
             <text:p>←　infile.apkを整列し、outfile.apkとして保存する</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1004"/>
@@ -1004,14 +3997,14 @@
             <text:p>&gt;zipalign -c -v &lt;alignment&gt; existing.apk</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="13"/>
-          <table:table-cell table:style-name="ce2" office:value-type="string">
+          <table:table-cell table:style-name="ce19" office:value-type="string">
             <text:p>←　existing.apkの位置合わせの確認を行う</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1004"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce2" office:value-type="string">
+          <table:table-cell table:style-name="ce19" office:value-type="string">
             <text:p>　　　alignment は必ず4を指定</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1004"/>
@@ -1060,501 +4053,6 @@
           <table:table-cell table:number-columns-repeated="1016"/>
         </table:table-row>
         <table:table-row table:style-name="ro1" table:number-rows-repeated="1048356">
-          <table:table-cell table:number-columns-repeated="1024"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="1024"/>
-        </table:table-row>
-      </table:table>
-      <table:table table:name="1章" table:style-name="ta2" table:print="false">
-        <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
-        <table:table-column table:style-name="co2" table:number-columns-repeated="1023" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
-        <table:table-column table:style-name="co2" table:default-cell-style-name="Default"/>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="15"/>
-          <table:table-cell table:style-name="ce5"/>
-          <table:table-cell table:number-columns-repeated="1008"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string">
-            <text:p>1章</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1022"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="1024"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="2"/>
-          <table:table-cell office:value-type="string">
-            <text:p>●</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>Androidとは</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1020"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="1024"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>Google/OHA（Open Handset Aliance　３４社で組織された団体）</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1019"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>Linuxカーネル　Ver2.6で動作</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="162"/>
-          <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:number-columns-repeated="856"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>Apache　License　２．０</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1019"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="1024"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>Android　SDK</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell office:value-type="string">
-            <text:p>java</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1015"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>Android　NDK</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell office:value-type="string">
-            <text:p>C/C++</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1015"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="1024"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>APIレベルとAndroidバージョン</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1019"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="1024"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="4"/>
-          <table:table-cell office:value-type="string">
-            <text:p>最新：API　＝　レベル14、Androidバージョン　＝　4.0</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1019"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="1024"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="2"/>
-          <table:table-cell office:value-type="string">
-            <text:p>●</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>開発環境</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1020"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="11"/>
-          <table:table-cell office:value-type="string">
-            <text:p>開発時</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell office:value-type="string">
-            <text:p>アプリケーション</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1008"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>JDK</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="6"/>
-          <table:table-cell table:style-name="ce3" office:value-type="string" table:number-columns-spanned="4" table:number-rows-spanned="1">
-            <text:p>ADT</text:p>
-          </table:table-cell>
-          <table:covered-table-cell table:number-columns-repeated="3" table:style-name="ce4"/>
-          <table:table-cell table:style-name="ce3" office:value-type="string" table:number-columns-spanned="4" table:number-rows-spanned="1">
-            <text:p>Android　SDK</text:p>
-          </table:table-cell>
-          <table:covered-table-cell table:number-columns-repeated="3" table:style-name="ce4"/>
-          <table:table-cell table:number-columns-repeated="1005"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>Android　SDK</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="6"/>
-          <table:table-cell table:style-name="ce3" office:value-type="string" table:number-columns-spanned="8" table:number-rows-spanned="1">
-            <text:p>JDK</text:p>
-          </table:table-cell>
-          <table:covered-table-cell table:number-columns-repeated="7" table:style-name="ce3"/>
-          <table:table-cell table:number-columns-repeated="1005"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>Eclipse　（推奨）</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="6"/>
-          <table:table-cell table:style-name="ce3" office:value-type="string" table:number-columns-spanned="8" table:number-rows-spanned="1">
-            <text:p>OS</text:p>
-          </table:table-cell>
-          <table:covered-table-cell table:number-columns-repeated="7" table:style-name="ce3"/>
-          <table:table-cell table:number-columns-repeated="1005"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>ADT（Android　Development　Tool）</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1019"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="4"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>開発ツール</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1018"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="4"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>Traceview（ログ解析ツール）</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1018"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="4"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>Hierarchy　Viewer（ビュー表示ツール）</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1018"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="4"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>DDMS（デバッグツール）</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1018"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="Default" table:number-columns-repeated="6"/>
-          <table:table-cell table:number-columns-repeated="1015"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>AVD（Android　Virtual　Devices）</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1019"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="4"/>
-          <table:table-cell office:value-type="string">
-            <text:p>エミュレータ</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1019"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="4"/>
-          <table:table-cell office:value-type="string">
-            <text:p>Androidバージョンごとに使い分け可能</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1019"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="1024"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="2"/>
-          <table:table-cell office:value-type="string">
-            <text:p>●</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>アプリケーションの作成</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1020"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="1024"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>ビルドターゲット　　➡　Androidバージョン</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1019"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="1024"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>ディレクトリ構成</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1019"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="4"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>src</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-          <table:table-cell office:value-type="string">
-            <text:p>開発するjavaファイル</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1016"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="4"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>res</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1018"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="6"/>
-          <table:table-cell office:value-type="string">
-            <text:p>drawable-hdpi</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1017"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="6"/>
-          <table:table-cell office:value-type="string">
-            <text:p>drawable-ldpi</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1017"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="6"/>
-          <table:table-cell office:value-type="string">
-            <text:p>drawable-mdpi</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1017"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="6"/>
-          <table:table-cell office:value-type="string">
-            <text:p>layout</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1017"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="6"/>
-          <table:table-cell office:value-type="string">
-            <text:p>values</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1017"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="4"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>gen</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-          <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:number-columns-repeated="1016"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="7"/>
-          <table:table-cell office:value-type="string">
-            <text:p>R.java　➡　各リソースのIDを管理する</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1016"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="7"/>
-          <table:table-cell office:value-type="string">
-            <text:p>　　　　　　自動作成されるため編集はしない</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1016"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="4"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>assets</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1018"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="6"/>
-          <table:table-cell office:value-type="string">
-            <text:p>音声ファイル、フォントファイルなどのバイナリデータを配置</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1017"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="4"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>AndroidManifest.xml</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1018"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="1024"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>9-patch画像</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1019"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="4"/>
-          <table:table-cell office:value-type="string">
-            <text:p>画像を引き延ばしたときに粗くならないように引き延ばすツール</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1019"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="1024"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="4"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>Android　SDK　に同梱された　Draw　9-patchツールで作成可能</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1018"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="5"/>
-          <table:table-cell office:value-type="string">
-            <text:p>コマンドは”draw9patch”</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1018"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="4"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>PNG形式のファイルになる</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1018"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="4"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>res/drawable　ディレクトリに</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1018"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="5"/>
-          <table:table-cell office:value-type="string">
-            <text:p>xxx.9.png　という名前で作成される</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1018"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1" table:number-rows-repeated="1048517">
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -1563,540 +4061,8 @@
       </table:table>
       <table:table table:name="Sheet3" table:style-name="ta3" table:print="false">
         <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
-        <table:table-column table:style-name="co3" table:number-columns-repeated="1024" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
+        <table:table-column table:style-name="co4" table:number-columns-repeated="1024" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-row table:style-name="ro1" table:number-rows-repeated="1048575">
-          <table:table-cell table:number-columns-repeated="1024"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="1024"/>
-        </table:table-row>
-      </table:table>
-      <table:table table:name="11章" table:style-name="ta2" table:print="false">
-        <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
-        <table:table-column table:style-name="co2" table:number-columns-repeated="1024" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="16"/>
-          <table:table-cell table:style-name="ce5"/>
-          <table:table-cell table:number-columns-repeated="1007"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string">
-            <text:p>11章</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1022"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1" table:number-rows-repeated="4">
-          <table:table-cell table:number-columns-repeated="1024"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="168"/>
-          <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:number-columns-repeated="855"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1" table:number-rows-repeated="1048568">
-          <table:table-cell table:number-columns-repeated="1024"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="1024"/>
-        </table:table-row>
-      </table:table>
-      <table:table table:name="２章" table:style-name="ta2" table:print="false">
-        <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
-        <table:table-column table:style-name="co2" table:number-columns-repeated="1024" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="16"/>
-          <table:table-cell table:style-name="ce5"/>
-          <table:table-cell table:number-columns-repeated="1007"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell/>
-          <table:table-cell office:value-type="string">
-            <text:p>２章</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1022"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="1024"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell/>
-          <table:table-cell>
-            <draw:frame table:end-cell-address="２章.AF63" table:end-x="0.263cm" table:end-y="0.462cm" draw:z-index="0" draw:name="図 1" draw:style-name="gr2" draw:text-style-name="P2" svg:width="26.365cm" svg:height="27.499cm" svg:x="0.784cm" svg:y="0.231cm">
-              <draw:image xlink:href="Pictures/10000201000002A7000002728AB0548C.png" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad">
-                <text:p/>
-              </draw:image>
-            </draw:frame>
-          </table:table-cell>
-          <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:number-columns-repeated="1021"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
-          <table:table-cell table:number-columns-repeated="1024"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="168"/>
-          <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:number-columns-repeated="855"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="31"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>Applications</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="991"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="32"/>
-          <table:table-cell office:value-type="string">
-            <text:p>デフォルトでインストールされているアプリ</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="991"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="32"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>Dailer</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="2"/>
-          <table:table-cell office:value-type="string">
-            <text:p>発信</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="987"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="32"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>Email</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="2"/>
-          <table:table-cell office:value-type="string">
-            <text:p>電子メール</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="987"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="32"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>Browser</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="2"/>
-          <table:table-cell office:value-type="string">
-            <text:p>ブラウザ</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="987"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="32"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>Setting</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="2"/>
-          <table:table-cell office:value-type="string">
-            <text:p>設定</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="987"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1" table:number-rows-repeated="4">
-          <table:table-cell table:number-columns-repeated="1024"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="31"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>Application Framework</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="991"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="32"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>Content Providers</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="5"/>
-          <table:table-cell office:value-type="string">
-            <text:p>アプリケーション間のデータ共有</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="984"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="32"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>Telephony　Manager</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="5"/>
-          <table:table-cell office:value-type="string">
-            <text:p>電話機能へのアクセス管理</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="984"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="32"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>Resource　Manager</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="5"/>
-          <table:table-cell office:value-type="string">
-            <text:p>コード以外のリソースのアクセス管理</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="984"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="32"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>Location　Manager</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="5"/>
-          <table:table-cell office:value-type="string">
-            <text:p>GPS情報のアクセス管理</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="984"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="32"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>Notification　MAnager</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="5"/>
-          <table:table-cell office:value-type="string">
-            <text:p>警告情報の管理</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="984"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1" table:number-rows-repeated="8">
-          <table:table-cell table:number-columns-repeated="1024"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="31"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>Android　Runtime</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="991"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="32"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>Core　Libraries</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="4"/>
-          <table:table-cell table:style-name="Default"/>
-          <table:table-cell/>
-          <table:table-cell office:value-type="string">
-            <text:p>Google社が開発したjavaライブラリ</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="983"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="32"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>Dalvik　Virtual　Machine</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="6"/>
-          <table:table-cell office:value-type="string">
-            <text:p>Google社が開発した仮想マシン</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="983"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
-          <table:table-cell table:number-columns-repeated="1024"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="31"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>LIBRARIES</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="991"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="31"/>
-          <table:table-cell table:style-name="Default"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>libc</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-          <table:table-cell office:value-type="string">
-            <text:p>C/C++　で書かれている</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="988"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="31"/>
-          <table:table-cell table:style-name="Default"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>SGL</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-          <table:table-cell office:value-type="string">
-            <text:p>２Dグラフィック</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="988"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="31"/>
-          <table:table-cell table:style-name="Default"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>OpenGL</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-          <table:table-cell office:value-type="string">
-            <text:p>３Dグラフィック</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="988"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="31"/>
-          <table:table-cell table:style-name="Default"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>FreeType</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-          <table:table-cell office:value-type="string">
-            <text:p>テキストレンダリング</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="988"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="31"/>
-          <table:table-cell table:style-name="Default"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>webKit</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-          <table:table-cell office:value-type="string">
-            <text:p>HTMLレンダリング</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="988"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1" table:number-rows-repeated="21">
-          <table:table-cell table:number-columns-repeated="1024"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="2"/>
-          <table:table-cell office:value-type="string">
-            <text:p>●</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>ライセンス</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1020"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="1024"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>Apache　License　2.0</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="6"/>
-          <table:table-cell office:value-type="string">
-            <text:p>Andoroidのソースコードの基本的なライセンス</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="10"/>
-          <table:table-cell office:value-type="string">
-            <text:p>使用・複製・など自由、公開義務なし、ApacheLicenseであることは記述素津必要あり</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1001"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>GPL</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="6"/>
-          <table:table-cell office:value-type="string">
-            <text:p>Linuxカーネル、ライブラリ</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="10"/>
-          <table:table-cell office:value-type="string">
-            <text:p>使用・複製・など自由、派生物はGPLで公開する必要あり</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1001"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>LGPL</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="6"/>
-          <table:table-cell office:value-type="string">
-            <text:p>WebKit</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="10"/>
-          <table:table-cell office:value-type="string">
-            <text:p>使用・複製・など自由、独自開発部分は公開義務なし、改変した場合は公開義務あり、派生物はLGPLでなくても公開可能</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1001"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
-          <table:table-cell table:number-columns-repeated="1024"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="2"/>
-          <table:table-cell office:value-type="string">
-            <text:p>●</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>Dalvik</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1020"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell office:value-type="string">
-            <text:p>Androidアプリを動かしている仮想マシン（VM）</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1020"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell office:value-type="string">
-            <text:p>.dexの実行が可能</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1020"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="1024"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell office:value-type="string">
-            <text:p>.javaファイル　　➡（javac）➡　.classファイル　➡（dx）　➡　.dex（Dalvikファイル）</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1020"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="1024"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell office:value-type="string">
-            <text:p>AndroidSDKのdxコマンドで次のファイルとして変換可能</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1020"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="1024"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>dex</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1019"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>jar</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1019"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>zip</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1019"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>apk</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1019"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="1024"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell office:value-type="string">
-            <text:p>➡　最終的には.apkファイルとしてまとめられてアプリとして扱われる</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1020"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1" table:number-rows-repeated="1048491">
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -2111,11 +4077,11 @@
 <file path=meta.xml><?xml version="1.0" encoding="utf-8"?>
 <office:document-meta xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:grddl="http://www.w3.org/2003/g/data-view#" office:version="1.2">
   <office:meta>
-    <dc:date>2012-07-12T01:25:59</dc:date>
+    <dc:date>2012-07-13T22:15:40</dc:date>
     <meta:generator>OpenOffice.org/3.4$Unix OpenOffice.org_project/340m1$Build-9590</meta:generator>
-    <meta:editing-duration>P2DT2H13M31S</meta:editing-duration>
-    <meta:editing-cycles>6</meta:editing-cycles>
-    <meta:document-statistic meta:table-count="5" meta:cell-count="319" meta:object-count="6"/>
+    <meta:editing-duration>P3DT23H3M12S</meta:editing-duration>
+    <meta:editing-cycles>10</meta:editing-cycles>
+    <meta:document-statistic meta:table-count="6" meta:cell-count="522" meta:object-count="6"/>
   </office:meta>
 </office:document-meta>
 </file>
@@ -2126,8 +4092,8 @@
     <config:config-item-set config:name="ooo:view-settings">
       <config:config-item config:name="VisibleAreaTop" config:type="int">462</config:config-item>
       <config:config-item config:name="VisibleAreaLeft" config:type="int">896</config:config-item>
-      <config:config-item config:name="VisibleAreaWidth" config:type="int">16132</config:config-item>
-      <config:config-item config:name="VisibleAreaHeight" config:type="int">26343</config:config-item>
+      <config:config-item config:name="VisibleAreaWidth" config:type="int">35849</config:config-item>
+      <config:config-item config:name="VisibleAreaHeight" config:type="int">38360</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
@@ -2165,8 +4131,8 @@
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
             </config:config-item-map-entry>
             <config:config-item-map-entry config:name="1章">
-              <config:config-item config:name="CursorPositionX" config:type="int">7</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">53</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">2</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">38</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -2175,7 +4141,7 @@
               <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
-              <config:config-item config:name="PositionBottom" config:type="int">19</config:config-item>
+              <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
               <config:config-item config:name="ZoomValue" config:type="int">50</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
@@ -2197,8 +4163,8 @@
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
             </config:config-item-map-entry>
             <config:config-item-map-entry config:name="２章">
-              <config:config-item config:name="CursorPositionX" config:type="int">3</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">85</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">1</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">21</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -2212,8 +4178,24 @@
               <config:config-item config:name="ZoomValue" config:type="int">50</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
             </config:config-item-map-entry>
+            <config:config-item-map-entry config:name="３章">
+              <config:config-item config:name="CursorPositionX" config:type="int">8</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">140</config:config-item>
+              <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
+              <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
+              <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
+              <config:config-item config:name="VerticalSplitPosition" config:type="int">0</config:config-item>
+              <config:config-item config:name="ActiveSplitRange" config:type="short">2</config:config-item>
+              <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionBottom" config:type="int">109</config:config-item>
+              <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
+              <config:config-item config:name="ZoomValue" config:type="int">50</config:config-item>
+              <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
+            </config:config-item-map-entry>
           </config:config-item-map-named>
-          <config:config-item config:name="ActiveTable" config:type="string">２章</config:config-item>
+          <config:config-item config:name="ActiveTable" config:type="string">３章</config:config-item>
           <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">813</config:config-item>
           <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
           <config:config-item config:name="ZoomValue" config:type="int">50</config:config-item>
@@ -2275,8 +4257,12 @@
   <office:font-face-decls>
     <style:font-face style:name="F" svg:font-family="" style:font-family-generic="roman"/>
     <style:font-face style:name="Helvetica" svg:font-family="Helvetica" style:font-family-generic="swiss"/>
+    <style:font-face style:name="ＭＳ Ｐゴシック2" svg:font-family="'ＭＳ Ｐゴシック'" style:font-family-generic="swiss"/>
+    <style:font-face style:name="Monaco" svg:font-family="Monaco" style:font-family-generic="modern" style:font-pitch="fixed"/>
     <style:font-face style:name="ＭＳ Ｐゴシック" svg:font-family="'ＭＳ Ｐゴシック'" style:font-family-generic="modern" style:font-pitch="variable"/>
     <style:font-face style:name="Arial" svg:font-family="Arial" style:font-family-generic="swiss" style:font-pitch="variable"/>
+    <style:font-face style:name="Arial Narrow" svg:font-family="'Arial Narrow'" style:font-family-generic="swiss" style:font-pitch="variable"/>
+    <style:font-face style:name="Arial Unicode MS1" svg:font-family="'Arial Unicode MS'" style:font-family-generic="swiss" style:font-pitch="variable"/>
     <style:font-face style:name="ＭＳ Ｐゴシック1" svg:font-family="'ＭＳ Ｐゴシック'" style:font-family-generic="swiss" style:font-pitch="variable"/>
     <style:font-face style:name="Arial Unicode MS" svg:font-family="'Arial Unicode MS'" style:font-family-generic="system" style:font-pitch="variable"/>
     <style:font-face style:name="Tahoma" svg:font-family="Tahoma" style:font-family-generic="system" style:font-pitch="variable"/>
@@ -2722,9 +4708,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2012-07-12">2012/07/12</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2012-07-13">2012/07/13</text:date>
             , 
-            <text:time>01:25:59</text:time>
+            <text:time>22:15:40</text:time>
           </text:p>
         </style:region-right>
       </style:header>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -26,12 +26,10 @@
   <office:scripts/>
   <office:font-face-decls>
     <style:font-face style:name="F" svg:font-family="" style:font-family-generic="roman"/>
-    <style:font-face style:name="Helvetica" svg:font-family="Helvetica" style:font-family-generic="swiss"/>
     <style:font-face style:name="ＭＳ Ｐゴシック2" svg:font-family="'ＭＳ Ｐゴシック'" style:font-family-generic="swiss"/>
     <style:font-face style:name="Monaco" svg:font-family="Monaco" style:font-family-generic="modern" style:font-pitch="fixed"/>
     <style:font-face style:name="ＭＳ Ｐゴシック" svg:font-family="'ＭＳ Ｐゴシック'" style:font-family-generic="modern" style:font-pitch="variable"/>
     <style:font-face style:name="Arial" svg:font-family="Arial" style:font-family-generic="swiss" style:font-pitch="variable"/>
-    <style:font-face style:name="Arial Narrow" svg:font-family="'Arial Narrow'" style:font-family-generic="swiss" style:font-pitch="variable"/>
     <style:font-face style:name="Arial Unicode MS1" svg:font-family="'Arial Unicode MS'" style:font-family-generic="swiss" style:font-pitch="variable"/>
     <style:font-face style:name="ＭＳ Ｐゴシック1" svg:font-family="'ＭＳ Ｐゴシック'" style:font-family-generic="swiss" style:font-pitch="variable"/>
     <style:font-face style:name="Arial Unicode MS" svg:font-family="'Arial Unicode MS'" style:font-family-generic="system" style:font-pitch="variable"/>
@@ -42,34 +40,31 @@
     <style:style style:name="co1" style:family="table-column">
       <style:table-column-properties fo:break-before="auto" style:column-width="0.9cm"/>
     </style:style>
-    <style:style style:name="co2" style:family="table-column">
+    <style:style style:name="co4" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="2.148cm"/>
+    </style:style>
+    <style:style style:name="co3" style:family="table-column">
       <style:table-column-properties fo:break-before="auto" style:column-width="1.005cm"/>
     </style:style>
-    <style:style style:name="co3" style:family="table-column">
+    <style:style style:name="co5" style:family="table-column">
       <style:table-column-properties fo:break-before="auto" style:column-width="0.834cm"/>
-    </style:style>
-    <style:style style:name="co4" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="2.148cm"/>
     </style:style>
     <style:style style:name="ro1" style:family="table-row">
       <style:table-row-properties style:row-height="0.464cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
     <style:style style:name="ro2" style:family="table-row">
-      <style:table-row-properties style:row-height="0.487cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+      <style:table-row-properties style:row-height="0.524cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
     <style:style style:name="ro3" style:family="table-row">
-      <style:table-row-properties style:row-height="0.524cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
-    </style:style>
-    <style:style style:name="ro4" style:family="table-row">
-      <style:table-row-properties style:row-height="0.506cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+      <style:table-row-properties style:row-height="0.487cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
     <style:style style:name="ta1" style:family="table" style:master-page-name="PageStyle_5f_Sheet2">
       <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
     </style:style>
-    <style:style style:name="ta2" style:family="table" style:master-page-name="PageStyle_5f_12章">
+    <style:style style:name="ta3" style:family="table" style:master-page-name="PageStyle_5f_Sheet3">
       <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
     </style:style>
-    <style:style style:name="ta3" style:family="table" style:master-page-name="PageStyle_5f_Sheet3">
+    <style:style style:name="ta4" style:family="table" style:master-page-name="PageStyle_5f_12章">
       <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
     </style:style>
     <style:style style:name="ce1" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
@@ -85,55 +80,69 @@
       <style:paragraph-properties fo:text-align="justify" fo:margin-left="0cm"/>
     </style:style>
     <style:style style:name="ce4" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:text-properties fo:color="#ff0000"/>
+    </style:style>
+    <style:style style:name="ce5" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties fo:border-bottom="none" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="0.002cm solid #000000"/>
       <style:text-properties fo:language="en" fo:country="US" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:language-asian="en" style:country-asian="US" style:language-complex="en" style:country-complex="US" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
     </style:style>
-    <style:style style:name="ce5" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce6" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties fo:border-bottom="none" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="none"/>
       <style:text-properties fo:language="en" fo:country="US" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:language-asian="en" style:country-asian="US" style:language-complex="en" style:country-complex="US" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
     </style:style>
-    <style:style style:name="ce6" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce7" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties fo:border-bottom="0.002cm solid #000000" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="none"/>
     </style:style>
-    <style:style style:name="ce7" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce8" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties fo:border-bottom="none" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="none"/>
     </style:style>
-    <style:style style:name="ce8" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce9" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties fo:border-bottom="none" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="0.002cm solid #000000"/>
     </style:style>
-    <style:style style:name="ce9" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce10" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties fo:border-bottom="none" fo:border-left="none" fo:border-right="none" fo:border-top="0.002cm solid #000000"/>
     </style:style>
-    <style:style style:name="ce10" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce11" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties fo:border-bottom="0.002cm solid #000000" fo:border-left="none" fo:border-right="none" fo:border-top="none"/>
     </style:style>
-    <style:style style:name="ce11" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce12" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties fo:border="none"/>
       <style:text-properties fo:language="en" fo:country="US" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:language-asian="en" style:country-asian="US" style:language-complex="en" style:country-complex="US" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
     </style:style>
-    <style:style style:name="ce12" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce13" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties fo:border-bottom="none" fo:border-left="none" fo:border-right="none" fo:border-top="0.002cm solid #000000"/>
       <style:text-properties fo:language="en" fo:country="US" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:language-asian="en" style:country-asian="US" style:language-complex="en" style:country-complex="US" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
     </style:style>
-    <style:style style:name="ce13" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce14" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:text-properties fo:language="en" fo:country="US" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:language-asian="en" style:country-asian="US" style:language-complex="en" style:country-complex="US" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
     </style:style>
-    <style:style style:name="ce14" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce15" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="0.002cm solid #000000" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="none"/>
+      <style:text-properties fo:language="en" fo:country="US" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:language-asian="en" style:country-asian="US" style:language-complex="en" style:country-complex="US" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
+    </style:style>
+    <style:style style:name="ce16" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:text-properties fo:font-weight="bold" style:font-weight-asian="bold" style:font-weight-complex="bold"/>
+    </style:style>
+    <style:style style:name="ce17" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false"/>
+      <style:paragraph-properties fo:text-align="start" fo:margin-left="0cm"/>
+    </style:style>
+    <style:style style:name="ce18" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties fo:border-bottom="none" fo:border-left="none" fo:border-right="0.002cm solid #000000" fo:border-top="0.002cm solid #000000"/>
     </style:style>
-    <style:style style:name="ce15" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce19" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties fo:border-bottom="none" fo:border-left="none" fo:border-right="0.002cm solid #000000" fo:border-top="none"/>
     </style:style>
-    <style:style style:name="ce16" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce20" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties fo:border-bottom="0.002cm solid #000000" fo:border-left="none" fo:border-right="0.002cm solid #000000" fo:border-top="none"/>
     </style:style>
-    <style:style style:name="ce17" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce21" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:text-properties style:font-name-asian="ＭＳ Ｐゴシック2"/>
     </style:style>
-    <style:style style:name="ce18" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce22" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:text-properties fo:color="#0070c0" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
     </style:style>
-    <style:style style:name="ce19" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce23" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:text-properties fo:color="#ff0000" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック1" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
     <style:style style:name="gr1" style:family="graphic">
@@ -168,7 +177,7 @@
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック1" fo:font-size="5.5pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック1" style:font-size-asian="5.5pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="ＭＳ Ｐゴシック1" style:font-size-complex="3.09999990463257pt" style:font-style-complex="normal" style:font-weight-complex="normal" style:text-emphasize="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
     </style:style>
     <style:style style:name="T7" style:family="text">
-      <style:text-properties style:font-name="F" fo:font-size="12pt"/>
+      <style:text-properties fo:font-size="12pt"/>
     </style:style>
     <style:style style:name="T8" style:family="text">
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial Unicode MS1" fo:font-size="5.5pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="Arial Unicode MS1" style:font-size-asian="5.5pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial Unicode MS1" style:font-size-complex="3.09999990463257pt" style:font-style-complex="normal" style:font-weight-complex="normal" style:text-emphasize="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
@@ -183,9 +192,12 @@
       <style:text-properties fo:color="#2a00ff" style:font-name="Monaco" fo:font-size="11pt" fo:font-style="italic" style:text-underline-style="solid" style:text-underline-width="auto" style:text-underline-color="font-color" style:font-name-asian="Monaco" style:font-size-asian="11pt" style:font-style-asian="italic" style:font-name-complex="Monaco" style:font-size-complex="6.30000019073486pt" style:font-style-complex="italic"/>
     </style:style>
     <style:style style:name="T12" style:family="text">
+      <style:text-properties fo:color="#0000ff"/>
+    </style:style>
+    <style:style style:name="T13" style:family="text">
       <style:text-properties fo:color="#0070c0" style:text-outline="false" style:text-line-through-style="none" style:text-position="0% 100%" style:font-name="ＭＳ Ｐゴシック" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
     </style:style>
-    <style:style style:name="T13" style:family="text">
+    <style:style style:name="T14" style:family="text">
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-position="0% 100%" style:font-name="ＭＳ Ｐゴシック1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック1" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
   </office:automatic-styles>
@@ -1194,12 +1206,14 @@
       <table:table table:name="３章" table:style-name="ta1" table:print="false">
         <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
         <table:table-column table:style-name="co1" table:number-columns-repeated="6" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
-        <table:table-column table:style-name="co2" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
+        <table:table-column table:style-name="co3" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-column table:style-name="co1" table:number-columns-repeated="1017" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="16"/>
-          <table:table-cell table:style-name="ce3"/>
-          <table:table-cell table:number-columns-repeated="1007"/>
+          <table:table-cell table:style-name="ce17"/>
+          <table:table-cell table:number-columns-repeated="9"/>
+          <table:table-cell table:style-name="ce17"/>
+          <table:table-cell table:number-columns-repeated="997"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell/>
@@ -1219,7 +1233,9 @@
           <table:table-cell office:value-type="string">
             <text:p>XMLとは</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1020"/>
+          <table:table-cell table:number-columns-repeated="22"/>
+          <table:table-cell table:style-name="ce17"/>
+          <table:table-cell table:number-columns-repeated="997"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="3"/>
@@ -1258,7 +1274,7 @@
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce4" office:value-type="string">
+          <table:table-cell table:style-name="ce5" office:value-type="string">
             <text:p>
               <text:span text:style-name="T1">&lt;?</text:span>
               <text:span text:style-name="T2">xml</text:span>
@@ -1271,13 +1287,13 @@
               <text:span text:style-name="T1">?&gt;</text:span>
             </text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce9" table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce14"/>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce18"/>
           <table:table-cell table:number-columns-repeated="1000"/>
         </table:table-row>
-        <table:table-row table:style-name="ro3">
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce5" office:value-type="string">
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:span text:style-name="T1">&lt;</text:span>
               <text:span text:style-name="T2">manifest</text:span>
@@ -1287,7 +1303,7 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell/>
           <table:table-cell office:value-type="string">
             <text:p>⬅</text:p>
@@ -1297,9 +1313,9 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="997"/>
         </table:table-row>
-        <table:table-row table:style-name="ro3">
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce5" office:value-type="string">
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:s text:c="6"/>
               <text:span text:style-name="T3">package</text:span>
@@ -1308,7 +1324,7 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="2"/>
           <table:table-cell office:value-type="string">
             <text:p>xmlns:android　となっているためandroidが接頭辞となり</text:p>
@@ -1317,7 +1333,7 @@
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce5" office:value-type="string">
+          <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:s text:c="6"/>
               <text:span text:style-name="T3">android:versionCode</text:span>
@@ -1326,7 +1342,7 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="2"/>
           <table:table-cell office:value-type="string">
             <text:p>この接頭辞を使った場合は、名前空間は"http://〜”がしようされる</text:p>
@@ -1335,7 +1351,7 @@
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce5" office:value-type="string">
+          <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:s text:c="6"/>
               <text:span text:style-name="T3">android:installLocation</text:span>
@@ -1344,12 +1360,12 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="1000"/>
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce5" office:value-type="string">
+          <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:s text:c="6"/>
               <text:span text:style-name="T3">android:versionName</text:span>
@@ -1359,7 +1375,7 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="2"/>
           <table:table-cell office:value-type="string">
             <text:p>・</text:p>
@@ -1371,7 +1387,7 @@
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce5" office:value-type="string">
+          <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:span text:style-name="T4">
                 <text:s text:c="4"/>
@@ -1384,7 +1400,7 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="2"/>
           <table:table-cell office:value-type="string">
             <text:p>・</text:p>
@@ -1400,7 +1416,7 @@
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce5" office:value-type="string">
+          <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:s text:c="4"/>
               <text:tab/>
@@ -1412,7 +1428,7 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="2"/>
           <table:table-cell office:value-type="string">
             <text:p>・</text:p>
@@ -1428,7 +1444,7 @@
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce5" office:value-type="string">
+          <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:s text:c="4"/>
               <text:tab/>
@@ -1440,7 +1456,7 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell/>
           <table:table-cell office:value-type="string">
             <text:p>＊</text:p>
@@ -1459,7 +1475,7 @@
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce5" office:value-type="string">
+          <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:tab/>
               <text:tab/>
@@ -1472,7 +1488,7 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell/>
           <table:table-cell office:value-type="string">
             <text:p>＊</text:p>
@@ -1491,18 +1507,18 @@
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce5" office:value-type="string">
+          <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:s text:c="8"/>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="1000"/>
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce5" office:value-type="string">
+          <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:span text:style-name="T4">
                 <text:tab/>
@@ -1518,7 +1534,7 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="2"/>
           <table:table-cell office:value-type="string">
             <text:p>・</text:p>
@@ -1530,7 +1546,7 @@
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce5" office:value-type="string">
+          <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:s text:c="18"/>
               <text:span text:style-name="T3">android:label</text:span>
@@ -1540,7 +1556,7 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="3"/>
           <table:table-cell office:value-type="string">
             <text:p>・</text:p>
@@ -1552,7 +1568,7 @@
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce5" office:value-type="string">
+          <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:span text:style-name="T4">
                 <text:s text:c="12"/>
@@ -1563,7 +1579,7 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="3"/>
           <table:table-cell office:value-type="string">
             <text:p>・</text:p>
@@ -1579,7 +1595,7 @@
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce5" office:value-type="string">
+          <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:span text:style-name="T4">
                 <text:s text:c="16"/>
@@ -1593,7 +1609,7 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="3"/>
           <table:table-cell office:value-type="string">
             <text:p>・</text:p>
@@ -1609,7 +1625,7 @@
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce5" office:value-type="string">
+          <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:span text:style-name="T4">
                 <text:s text:c="16"/>
@@ -1623,12 +1639,12 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="1000"/>
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce5" office:value-type="string">
+          <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:span text:style-name="T4">
                 <text:s text:c="12"/>
@@ -1639,7 +1655,7 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="3"/>
           <table:table-cell office:value-type="string">
             <text:p>・</text:p>
@@ -1655,7 +1671,7 @@
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce5" office:value-type="string">
+          <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:span text:style-name="T4">
                 <text:tab/>
@@ -1669,7 +1685,7 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="4"/>
           <table:table-cell office:value-type="string">
             <text:p>・</text:p>
@@ -1681,7 +1697,7 @@
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce5" office:value-type="string">
+          <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:span text:style-name="T4">
                 <text:tab/>
@@ -1697,7 +1713,7 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="4"/>
           <table:table-cell office:value-type="string">
             <text:p>・</text:p>
@@ -1709,7 +1725,7 @@
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce5" office:value-type="string">
+          <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:s text:c="17"/>
               <text:span text:style-name="T3">android:windowSoftInputMode</text:span>
@@ -1720,7 +1736,7 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="4"/>
           <table:table-cell office:value-type="string">
             <text:p>・</text:p>
@@ -1732,7 +1748,7 @@
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce5" office:value-type="string">
+          <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:span text:style-name="T4">
                 <text:tab/>
@@ -1746,7 +1762,7 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="3"/>
           <table:table-cell office:value-type="string">
             <text:p>・</text:p>
@@ -1761,10 +1777,12 @@
           <table:table-cell table:number-columns-repeated="992"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce5"/>
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce4"/>
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce6"/>
           <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="3"/>
           <table:table-cell office:value-type="string">
             <text:p>・</text:p>
@@ -1780,7 +1798,7 @@
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce5" office:value-type="string">
+          <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:span text:style-name="T4">
                 <text:s text:c="4"/>
@@ -1790,8 +1808,9 @@
               <text:span text:style-name="T1">&gt;</text:span>
             </text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="14"/>
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="3"/>
           <table:table-cell office:value-type="string">
             <text:p>・</text:p>
@@ -1805,9 +1824,9 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="992"/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce5" office:value-type="string">
+        <table:table-row table:style-name="ro3">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:span text:style-name="T4">
                 <text:s text:c="4"/>
@@ -1819,14 +1838,15 @@
               <text:span text:style-name="T5">"8"</text:span>
             </text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="14"/>
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="2"/>
           <table:table-cell table:style-name="Default"/>
           <table:table-cell office:value-type="string">
             <text:p>・</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce17" office:value-type="string">
+          <table:table-cell table:style-name="ce21" office:value-type="string">
             <text:p>uses-library</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="2"/>
@@ -1835,9 +1855,9 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="992"/>
         </table:table-row>
-        <table:table-row table:style-name="ro4">
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce5" office:value-type="string">
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:span text:style-name="T6">
                 <text:s text:c="55"/>
@@ -1848,15 +1868,16 @@
               <text:span text:style-name="T7">android:maxSdkVersion="8" </text:span>
             </text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="14"/>
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="2"/>
           <table:table-cell table:style-name="Default" table:number-columns-repeated="3"/>
           <table:table-cell table:number-columns-repeated="995"/>
         </table:table-row>
         <table:table-row table:style-name="ro3">
           <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce5" office:value-type="string">
+          <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:span text:style-name="T7">
                 <text:s text:c="4"/>
@@ -1883,20 +1904,70 @@
               <text:span text:style-name="T1">/&gt;</text:span>
             </text:p>
           </table:table-cell>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="14"/>
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>uses-sdk</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="996"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce6"/>
           <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce15"/>
-          <table:table-cell table:number-columns-repeated="2"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>uses-sdk</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="996"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>minSdkVersion</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="995"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce6"/>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>maxSdkVersion</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="995"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce6"/>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>targetSdkVersion</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="995"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce6"/>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1000"/>
         </table:table-row>
         <table:table-row table:style-name="ro3">
           <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce5" office:value-type="string">
+          <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:span text:style-name="T4">
                 <text:tab/>
@@ -1910,19 +1981,123 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce15"/>
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>minSdkVersion</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="995"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce14" office:value-type="string">
+            <text:p>uses-permission</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="996"/>
         </table:table-row>
         <table:table-row table:style-name="ro3">
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce5" office:value-type="string">
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce4"/>
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:span text:style-name="T4">
+                <text:tab/>
+              </text:span>
+              <text:span text:style-name="T1">&lt;</text:span>
+              <text:span text:style-name="T2">uses-permission</text:span>
+              <text:span text:style-name="T3">android:name</text:span>
+              <text:span text:style-name="T4">=</text:span>
+              <text:span text:style-name="T5">"android.permission.INTERNET"</text:span>
+              <text:span text:style-name="T1">/&gt;</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>WRITE_EXTERNAL_STROAGE</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell office:value-type="string">
+            <text:p>外部ストレージ書き込み許可</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="987"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce6"/>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>ACCESS_FINE_LOCATION</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell office:value-type="string">
+            <text:p>GPS許可</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="987"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce6"/>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>CALL_PHONE</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell office:value-type="string">
+            <text:p>ダイヤル画面を使用せずに通話する許可</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="987"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce6"/>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>CAMERA</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell office:value-type="string">
+            <text:p>カメラ許可</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="987"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce6"/>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>INTERNET</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell office:value-type="string">
+            <text:p>ネットワークソケットのオープン許可</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="987"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:span text:style-name="T1">&lt;/</text:span>
               <text:span text:style-name="T2">manifest</text:span>
@@ -1931,36 +2106,35 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce15"/>
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>maxSdkVersion</text:p>
-          </table:table-cell>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>READ_CONTACTS</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell office:value-type="string">
+            <text:p>連絡先の読み込み許可</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="987"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell table:style-name="ce11" table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce20"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="2"/>
           <table:table-cell table:number-columns-repeated="995"/>
         </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce6"/>
-          <table:table-cell table:style-name="ce10" table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce16"/>
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>targetSdkVersion</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="995"/>
-        </table:table-row>
         <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="4"/>
-          <table:table-cell table:style-name="ce11" office:value-type="string">
+          <table:table-cell table:style-name="ce12" office:value-type="string">
             <text:p>
               <text:s text:c="6"/>
               <text:span text:style-name="T3">package</text:span>
@@ -1975,13 +2149,13 @@
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="4"/>
-          <table:table-cell table:style-name="ce11" office:value-type="string">
+          <table:table-cell table:style-name="ce12" office:value-type="string">
             <text:p>
               <text:s text:c="2"/>
               &lt;activity android:name=".TaskTimeWatcheMain"
             </text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce11"/>
+          <table:table-cell table:style-name="ce12"/>
           <table:table-cell table:number-columns-repeated="1018"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -2040,7 +2214,7 @@
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce4" office:value-type="string">
+          <table:table-cell table:style-name="ce5" office:value-type="string">
             <text:p>
               <text:span text:style-name="T1">&lt;?</text:span>
               <text:span text:style-name="T2">xml</text:span>
@@ -2053,13 +2227,13 @@
               <text:span text:style-name="T1">?&gt;</text:span>
             </text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce9" table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce14"/>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce18"/>
           <table:table-cell table:number-columns-repeated="1000"/>
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce5" office:value-type="string">
+          <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:span text:style-name="T1">&lt;</text:span>
               <text:span text:style-name="T2">LinearLayout</text:span>
@@ -2069,12 +2243,12 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="1000"/>
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce5" office:value-type="string">
+          <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:s text:c="4"/>
               <text:span text:style-name="T3">android:orientation</text:span>
@@ -2083,7 +2257,7 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell/>
           <table:table-cell table:style-name="Default"/>
           <table:table-cell office:value-type="string">
@@ -2091,9 +2265,9 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="997"/>
         </table:table-row>
-        <table:table-row table:style-name="ro3">
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce5" office:value-type="string">
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:s text:c="4"/>
               <text:span text:style-name="T3">android:layout_width</text:span>
@@ -2102,7 +2276,7 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell/>
           <table:table-cell table:style-name="Default"/>
           <table:table-cell/>
@@ -2111,9 +2285,9 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="996"/>
         </table:table-row>
-        <table:table-row table:style-name="ro3">
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce5" office:value-type="string">
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:s text:c="4"/>
               <text:span text:style-name="T3">android:layout_height</text:span>
@@ -2122,7 +2296,7 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell/>
           <table:table-cell table:style-name="Default"/>
           <table:table-cell/>
@@ -2133,7 +2307,7 @@
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce5" office:value-type="string">
+          <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:s text:c="4"/>
               <text:span text:style-name="T3">android:background</text:span>
@@ -2142,19 +2316,19 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="1000"/>
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce5" office:value-type="string">
+          <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:s text:c="4"/>
               <text:span text:style-name="T1">&gt;</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="2"/>
           <table:table-cell office:value-type="string">
             <text:p>layout_width</text:p>
@@ -2163,13 +2337,13 @@
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce5" office:value-type="string">
+          <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:s/>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="2"/>
           <table:table-cell office:value-type="string">
             <text:p>layout_height</text:p>
@@ -2178,7 +2352,7 @@
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce5" office:value-type="string">
+          <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:span text:style-name="T4">
                 <text:tab/>
@@ -2189,7 +2363,7 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="3"/>
           <table:table-cell office:value-type="string">
             <text:p>fill_parent</text:p>
@@ -2198,7 +2372,7 @@
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce5" office:value-type="string">
+          <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:tab/>
               <text:s text:c="3"/>
@@ -2208,7 +2382,7 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="3"/>
           <table:table-cell office:value-type="string">
             <text:p>wrap_content</text:p>
@@ -2217,7 +2391,7 @@
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce5" office:value-type="string">
+          <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:tab/>
               <text:s text:c="3"/>
@@ -2227,12 +2401,12 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="1000"/>
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce5" office:value-type="string">
+          <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:tab/>
               <text:s text:c="3"/>
@@ -2244,7 +2418,7 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="2"/>
           <table:table-cell office:value-type="string">
             <text:p>text</text:p>
@@ -2253,7 +2427,7 @@
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce5" office:value-type="string">
+          <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:tab/>
               <text:s text:c="3"/>
@@ -2263,7 +2437,7 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="3"/>
           <table:table-cell office:value-type="string">
             <text:p>“xxxx” で指定、あるいは</text:p>
@@ -2272,7 +2446,7 @@
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce5" office:value-type="string">
+          <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:tab/>
               <text:s text:c="3"/>
@@ -2280,7 +2454,7 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="3"/>
           <table:table-cell office:value-type="string">
             <text:p>“@string/hoge”</text:p>
@@ -2289,14 +2463,14 @@
         </table:table-row>
         <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
           <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell table:style-name="ce8"/>
           <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="1000"/>
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce5" office:value-type="string">
+          <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:span text:style-name="T4">
                 <text:s text:c="4"/>
@@ -2306,12 +2480,12 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="1000"/>
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce5" office:value-type="string">
+          <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:tab/>
               <text:s text:c="3"/>
@@ -2321,12 +2495,12 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="1000"/>
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce5" office:value-type="string">
+          <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:tab/>
               <text:s text:c="3"/>
@@ -2336,7 +2510,7 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="2"/>
           <table:table-cell office:value-type="string">
             <text:p>id</text:p>
@@ -2345,7 +2519,7 @@
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce5" office:value-type="string">
+          <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:tab/>
               <text:s text:c="3"/>
@@ -2356,7 +2530,7 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="2"/>
           <table:table-cell office:value-type="string">
             <text:p>entries</text:p>
@@ -2369,7 +2543,7 @@
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce5" office:value-type="string">
+          <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:tab/>
               <text:s text:c="3"/>
@@ -2380,7 +2554,7 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="5"/>
           <table:table-cell office:value-type="string">
             <text:p>Activityの中でadapterでセットしてもOK</text:p>
@@ -2389,7 +2563,7 @@
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce5" office:value-type="string">
+          <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:tab/>
               <text:s text:c="3"/>
@@ -2399,36 +2573,36 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="1000"/>
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce5" office:value-type="string">
+          <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:s text:c="4"/>
               <text:span text:style-name="T1">/&gt;</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="1000"/>
         </table:table-row>
         <table:table-row table:style-name="ro1" table:number-rows-repeated="7">
           <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
           <table:table-cell table:style-name="ce7"/>
-          <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce11" table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce20"/>
           <table:table-cell table:number-columns-repeated="1000"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce6"/>
-          <table:table-cell table:style-name="ce10" table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce16"/>
-          <table:table-cell table:number-columns-repeated="1000"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -2563,9 +2737,9 @@
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce8"/>
           <table:table-cell table:style-name="ce9"/>
-          <table:table-cell table:style-name="ce12" office:value-type="string">
+          <table:table-cell table:style-name="ce10"/>
+          <table:table-cell table:style-name="ce13" office:value-type="string">
             <text:p>
               <text:span text:style-name="T1">&lt;?</text:span>
               <text:span text:style-name="T2">xml</text:span>
@@ -2578,15 +2752,15 @@
               <text:span text:style-name="T1">?&gt;</text:span>
             </text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce9" table:number-columns-repeated="17"/>
-          <table:table-cell table:style-name="ce14"/>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce18"/>
           <table:table-cell table:number-columns-repeated="1000"/>
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce7"/>
-          <table:table-cell/>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce14" office:value-type="string">
             <text:p>
               <text:span text:style-name="T1">&lt;</text:span>
               <text:span text:style-name="T2">resources</text:span>
@@ -2594,7 +2768,7 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="17"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell/>
           <table:table-cell table:style-name="Default"/>
           <table:table-cell office:value-type="string">
@@ -2604,9 +2778,9 @@
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce7"/>
-          <table:table-cell/>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce14" office:value-type="string">
             <text:p>
               <text:span text:style-name="T4">
                 <text:s text:c="4"/>
@@ -2624,7 +2798,7 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="17"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell/>
           <table:table-cell office:value-type="string">
             <text:p>　</text:p>
@@ -2637,26 +2811,26 @@
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce7"/>
-          <table:table-cell/>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce14" office:value-type="string">
             <text:p>
               <text:s/>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="17"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="3"/>
           <table:table-cell office:value-type="string">
             <text:p>string-array</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="996"/>
         </table:table-row>
-        <table:table-row table:style-name="ro3">
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce7"/>
-          <table:table-cell/>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce14" office:value-type="string">
             <text:p>
               <text:span text:style-name="T4">
                 <text:tab/>
@@ -2670,18 +2844,18 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="17"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="4"/>
           <table:table-cell office:value-type="string">
             <text:p>item</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="995"/>
         </table:table-row>
-        <table:table-row table:style-name="ro3">
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce7"/>
-          <table:table-cell/>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce14" office:value-type="string">
             <text:p>
               <text:span text:style-name="T4">
                 <text:tab/>
@@ -2699,14 +2873,14 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="17"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="1000"/>
         </table:table-row>
-        <table:table-row table:style-name="ro3">
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce7"/>
-          <table:table-cell/>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce14" office:value-type="string">
             <text:p>
               <text:span text:style-name="T4">
                 <text:tab/>
@@ -2724,14 +2898,14 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="17"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="1000"/>
         </table:table-row>
-        <table:table-row table:style-name="ro3">
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce7"/>
-          <table:table-cell/>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce14" office:value-type="string">
             <text:p>
               <text:span text:style-name="T4">
                 <text:tab/>
@@ -2749,14 +2923,14 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="17"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="1000"/>
         </table:table-row>
-        <table:table-row table:style-name="ro3">
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce7"/>
-          <table:table-cell/>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce14" office:value-type="string">
             <text:p>
               <text:span text:style-name="T4">
                 <text:tab/>
@@ -2767,139 +2941,139 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="17"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="1000"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce7"/>
-          <table:table-cell/>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce14" office:value-type="string">
             <text:p>
               <text:s/>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="17"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="1000"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce7"/>
-          <table:table-cell/>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce14" office:value-type="string">
             <text:p>　　&lt;bool name=”screen_small”&gt;true&lt;/bool&gt;</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="17"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="1000"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce7"/>
-          <table:table-cell/>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce14" office:value-type="string">
             <text:p>
               <text:s/>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="17"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="1000"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce7"/>
-          <table:table-cell/>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce14" office:value-type="string">
             <text:p>
               <text:s text:c="5"/>
               &lt;integer name=”max_speed”&gt;78&lt;/integer&gt;
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="17"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="1000"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce7"/>
-          <table:table-cell/>
-          <table:table-cell table:style-name="ce13"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce14"/>
           <table:table-cell table:number-columns-repeated="17"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="1000"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce7"/>
-          <table:table-cell/>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce14" office:value-type="string">
             <text:p>
               <text:s text:c="5"/>
               &lt;integer-array name=”bits”&gt;
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="17"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="1000"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce7"/>
-          <table:table-cell/>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce14" office:value-type="string">
             <text:p>
               <text:s text:c="7"/>
               &lt;item&gt;4&lt;/item&gt;
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="17"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="1000"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce7"/>
-          <table:table-cell/>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce14" office:value-type="string">
             <text:p>
               <text:s text:c="7"/>
               &lt;item&gt;6&lt;/item&gt;
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="17"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="1000"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce7"/>
-          <table:table-cell/>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce14" office:value-type="string">
             <text:p>
               <text:s text:c="5"/>
               &lt;/integer-array&gt;
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="17"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="1000"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce7"/>
-          <table:table-cell/>
-          <table:table-cell table:style-name="ce13"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce14"/>
           <table:table-cell table:number-columns-repeated="17"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="1000"/>
         </table:table-row>
-        <table:table-row table:style-name="ro3">
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce7"/>
-          <table:table-cell/>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce14" office:value-type="string">
             <text:p>
               <text:span text:style-name="T1">&lt;/</text:span>
               <text:span text:style-name="T2">resources</text:span>
@@ -2907,21 +3081,21 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="17"/>
-          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="1000"/>
         </table:table-row>
         <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
           <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
           <table:table-cell table:style-name="ce7"/>
-          <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce15"/>
-          <table:table-cell table:number-columns-repeated="1000"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce6"/>
-          <table:table-cell table:style-name="ce10" table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce16"/>
+          <table:table-cell table:style-name="ce11" table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce20"/>
           <table:table-cell table:number-columns-repeated="1000"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -2957,10 +3131,14 @@
           <table:table-cell office:value-type="string">
             <text:p>@string/hello</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1015"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="1024"/>
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell table:style-name="ce3"/>
+          <table:table-cell table:number-columns-repeated="1007"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce3"/>
+          <table:table-cell table:number-columns-repeated="1007"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="6"/>
@@ -3055,7 +3233,970 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
-        <table:table-row table:style-name="ro1" table:number-rows-repeated="1048435">
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>リソースタイプ</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>res/anim</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>Tweenアニメーション</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1013"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>res/color</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>カラー</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1013"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>res/drawable</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>Frameアニメーション、画像</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1013"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>res/drawable-hdpi</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>デバイスの画面サイズが大きい場合は、ここが参照される</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1012"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>res/drawable-mdpi</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>デバイスの画面サイズが中くらいの場合は、ここが参照される</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1012"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>res/drawable-lmdpi</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>デバイスの画面サイズが小さい場合は、ここが参照される</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1012"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>res/layout</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>レイアウト</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1013"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>res/menu</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>メニュー</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1013"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>res/values</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>文字列、数値などの定数、言語設定が不明の場合に参照される</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1013"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>res/values-en-rUS</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce16" office:value-type="string">
+            <text:p>端末の言語設定が英語の場合に参照される</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1012"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>res/values-ja</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>端末の言語設定が日本語の場合に参照される</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1012"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>res/style</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>UIスタイルとフォーマット</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1013"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>メディアフォーマット</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>（省略）</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>●</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>セキュリティ</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Andoroidはマルチプロセスで稼働</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Linuxの機能を使用</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>
+              セキュリティモデルは
+              <text:span text:style-name="T12">サンドボックス</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>割り当てられた権限の元でアプリが動く</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>外部アプリと連携する場合は、許可を与える必要がある</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>●</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>電子署名とMaps API キー</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>デバッグ署名</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>AVDでの実行でも電子署名が必要</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1017"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>keytool　で署名のためのキーを作成</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1017"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>主なオプション</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1017"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell office:value-type="string">
+            <text:p>-genkey</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>プライベートキーとキーストアの作成</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1012"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell office:value-type="string">
+            <text:p>-keyalg</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>暗号化アルゴリズムを指定（DSA、RSA）</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1012"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell office:value-type="string">
+            <text:p>-keystore [file]</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>[file]にキーストアを保存する</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1012"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell office:value-type="string">
+            <text:p>-validity [days]</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>キーの有効期限を[days]とする</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1012"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell office:value-type="string">
+            <text:p>-alias [text]</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>証明書の別名を[text]に設定する</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1012"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Eclipseなどビルドツールでは、keytoolを使用して暗黙でdebug.keystoreファイルを作成する。</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1017"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>アプリケーションのリリース時には使用できない</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1017"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>作成日から３６５日の有効期限が設定される</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1017"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>➡キーファイルを削除すると、ビルド時に再作成される。</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1017"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>➡有効期限がチェックされるのはインストール時のみ。期限切れでもアプリは動く。</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1017"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>リリース署名</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>リリース手順</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1017"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>アプリをリリースモードでコンパイル</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1016"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>適切なキーを取得する</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1016"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:style-name="Default" office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>自分が所有している</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1015"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell table:style-name="Default" office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>アプリで識別される個人、法人、組織の実態を表している</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1015"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell table:style-name="Default" office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>有効期限がアプリの予定されている使用期間より長いこと。１００００日以上を推奨。</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1015"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>AndroidMarketに公開する場合、2033年10月22日以降とする</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1015"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell table:style-name="Default" office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>デバッグキーは使用できない</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1015"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>アプリにキーで署名する</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1016"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>ADT Export Wizard で上記の手順が実施可能</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1017"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>コマンドライン　jarsigner　でも可能</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1017"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell office:value-type="string">
+            <text:p>jarsigner -verbose -keystore [証明書ファイル] [.apkファイル] alias_name</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1016"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Map API キー</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>Google MapsのAPI使用のためのキー取得</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>手順</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1017"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>証明書（MD5）のフィンガープリントの生成</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1016"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell table:style-name="Default" office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>コマンドプロンプトで＜JDKインストールディレクトリ＞¥bin　に移動</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1015"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell table:style-name="Default" office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>&gt; keytool -list -keystore &lt;debug.keystoreファイル&gt;</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1015"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell table:style-name="Default" office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>パスワードの設定。ADTで自動生成されたdebug.keystoreファイルを使用している場合は、未入力でok</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1015"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell table:style-name="Default" office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>フィンガープリントが表示される</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1015"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Maps APIキーの取得</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1016"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce14" office:value-type="string">
+            <text:p>Googleのサイトにアクセス</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1015"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>フィンガープリントを入力しログインアカウントに対して登録が完了する</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1015"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Google API キーが生成される</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1015"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>実装方法</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1017"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>AndroidManifest.xml</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1017"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell table:style-name="ce5" office:value-type="string">
+            <text:p>
+              <text:s text:c="11"/>
+              &lt;uses-library android:name=”com.google.android.maps”/&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce18"/>
+          <table:table-cell table:number-columns-repeated="999"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:span text:style-name="T4">
+                <text:s text:c="4"/>
+              </text:span>
+              <text:span text:style-name="T1">&lt;/</text:span>
+              <text:span text:style-name="T2">application</text:span>
+              <text:span text:style-name="T1">&gt;</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="999"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="999"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell table:style-name="ce15" office:value-type="string">
+            <text:p>
+              <text:span text:style-name="T4">
+                <text:tab/>
+              </text:span>
+              <text:span text:style-name="T1">&lt;</text:span>
+              <text:span text:style-name="T2">uses-permission</text:span>
+              <text:span text:style-name="T3">android:name</text:span>
+              <text:span text:style-name="T4">=</text:span>
+              <text:span text:style-name="T5">"android.permission.INTERNET"</text:span>
+              <text:span text:style-name="T1">/&gt;</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce11" table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce20"/>
+          <table:table-cell table:number-columns-repeated="999"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>main.xml</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1017"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell table:style-name="ce9"/>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce18"/>
+          <table:table-cell table:number-columns-repeated="999"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>&lt;com.google.android.maps.MapView</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="999"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              android:enabled=”true”
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="999"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              android:clickable=”true”
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="999"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              android:apiKey=”取得したMaps API キー” /&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="999"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell table:style-name="ce11" table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce20"/>
+          <table:table-cell table:number-columns-repeated="999"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>MapSampleActivity.java</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1017"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell table:style-name="ce9" office:value-type="string">
+            <text:p>import com.google.android.maps.MapActivity;</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce18"/>
+          <table:table-cell table:number-columns-repeated="999"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="999"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              public class MapSampleActivity extends 
+              <text:span text:style-name="T12">MapActivity</text:span>
+              {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="999"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="999"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              public void onCreate(Bundle saveInstanceState){
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="999"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              super.onCreate(savedInstanceState);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="999"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              setContentView(R.layout.main);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="999"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="999"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="999"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              protected boolean isRouteDisplayed(){
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="999"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              return false;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="999"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="999"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>}</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="999"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell table:style-name="ce11" table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce20"/>
+          <table:table-cell table:number-columns-repeated="999"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="1048311">
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -3092,9 +4233,8 @@
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
       </table:table>
-      <table:table table:name="12章" table:style-name="ta2" table:print="false">
-        <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
-        <table:table-column table:style-name="co3" table:number-columns-repeated="1024" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
+      <table:table table:name="12章" table:style-name="ta4" table:print="false">
+        <table:table-column table:style-name="co5" table:number-columns-repeated="1024" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
@@ -3136,8 +4276,8 @@
           <table:table-cell office:value-type="string">
             <text:p>
               &lt;
-              <text:span text:style-name="T12">manifest</text:span>
-              <text:span text:style-name="T13"> xmlns:android="http://schemas.android.com/apk/res/android"</text:span>
+              <text:span text:style-name="T13">manifest</text:span>
+              <text:span text:style-name="T14"> xmlns:android="http://schemas.android.com/apk/res/android"</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
@@ -3154,28 +4294,28 @@
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="4"/>
-          <table:table-cell table:style-name="ce18" office:value-type="string">
+          <table:table-cell table:style-name="ce22" office:value-type="string">
             <text:p>
               <text:s text:c="6"/>
               android:versionCode="1"
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="11"/>
-          <table:table-cell table:style-name="ce19" office:value-type="string">
+          <table:table-cell table:style-name="ce23" office:value-type="string">
             <text:p>←　整数値</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1007"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="4"/>
-          <table:table-cell table:style-name="ce18" office:value-type="string">
+          <table:table-cell table:style-name="ce22" office:value-type="string">
             <text:p>
               <text:s text:c="6"/>
               android:versionName="1.0"&gt;
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="11"/>
-          <table:table-cell table:style-name="ce19" office:value-type="string">
+          <table:table-cell table:style-name="ce23" office:value-type="string">
             <text:p>←　1.0.0とか。管理画面に表示される</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1007"/>
@@ -3186,8 +4326,8 @@
             <text:p>
               <text:s text:c="4"/>
               &lt;
-              <text:span text:style-name="T12">application</text:span>
-              <text:span text:style-name="T13"> </text:span>
+              <text:span text:style-name="T13">application</text:span>
+              <text:span text:style-name="T14"> </text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
@@ -3200,22 +4340,22 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce18" office:value-type="string">
+          <table:table-cell table:style-name="ce22" office:value-type="string">
             <text:p>android:label="@string/app_name" </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="11"/>
-          <table:table-cell table:style-name="ce19" office:value-type="string">
+          <table:table-cell table:style-name="ce23" office:value-type="string">
             <text:p>←　アプリケーション名（AndroidMarketや端末上での名前）</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1004"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="7"/>
-          <table:table-cell table:style-name="ce18" office:value-type="string">
+          <table:table-cell table:style-name="ce22" office:value-type="string">
             <text:p>android:icon="@drawable/icon" </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="11"/>
-          <table:table-cell table:style-name="ce19" office:value-type="string">
+          <table:table-cell table:style-name="ce23" office:value-type="string">
             <text:p>←　アイコン画像</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1004"/>
@@ -3228,11 +4368,11 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce18" office:value-type="string">
+          <table:table-cell table:style-name="ce22" office:value-type="string">
             <text:p>android:debuggable="true"</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="11"/>
-          <table:table-cell table:style-name="ce19" office:value-type="string">
+          <table:table-cell table:style-name="ce23" office:value-type="string">
             <text:p>←　デフォルトはfalse。リリース時にはfalseにするか削除する。</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1004"/>
@@ -3265,7 +4405,7 @@
           <table:table-cell office:value-type="string">
             <text:p>
               String packageName = 
-              <text:span text:style-name="T12">getPackageName();</text:span>
+              <text:span text:style-name="T13">getPackageName();</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
@@ -3275,7 +4415,7 @@
           <table:table-cell office:value-type="string">
             <text:p>
               PackageManager pm = 
-              <text:span text:style-name="T12">getPackageManager();</text:span>
+              <text:span text:style-name="T13">getPackageManager();</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
@@ -3285,7 +4425,7 @@
           <table:table-cell office:value-type="string">
             <text:p>
               PackageInfo packageInfo = 
-              <text:span text:style-name="T12">pm.getPackageInfo(packageName, 0);</text:span>
+              <text:span text:style-name="T13">pm.getPackageInfo(packageName, 0);</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
@@ -3295,11 +4435,11 @@
           <table:table-cell office:value-type="string">
             <text:p>
               int versinoCode = 
-              <text:span text:style-name="T12">packageInfo.versionCode;</text:span>
+              <text:span text:style-name="T13">packageInfo.versionCode;</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="13"/>
-          <table:table-cell table:style-name="ce19" office:value-type="string">
+          <table:table-cell table:style-name="ce23" office:value-type="string">
             <text:p>←　PackageInfo内のpublic変数</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1005"/>
@@ -3309,11 +4449,11 @@
           <table:table-cell office:value-type="string">
             <text:p>
               String versionName = 
-              <text:span text:style-name="T12">packageInfo.versionName;</text:span>
+              <text:span text:style-name="T13">packageInfo.versionName;</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="13"/>
-          <table:table-cell table:style-name="ce19" office:value-type="string">
+          <table:table-cell table:style-name="ce23" office:value-type="string">
             <text:p>←　PackageInfo内のpublic変数</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1005"/>
@@ -3343,7 +4483,7 @@
             <text:p>&lt;uses-sdk android:minSdkVersion="8" </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="13"/>
-          <table:table-cell table:style-name="ce19" office:value-type="string">
+          <table:table-cell table:style-name="ce23" office:value-type="string">
             <text:p>←　指定なしの場合は"1"とみなされる。このVerより低い端末の場合クラッシュの可能性あり</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1005"/>
@@ -3360,7 +4500,7 @@
             <text:p>android:maxSdkVersion="8" </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="10"/>
-          <table:table-cell table:style-name="ce19" office:value-type="string">
+          <table:table-cell table:style-name="ce23" office:value-type="string">
             <text:p>←　このVerより高い端末にインストールされない（？）ようになる</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1005"/>
@@ -3377,7 +4517,7 @@
             <text:p>android:targetSdkVersion="8" /&gt;</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="10"/>
-          <table:table-cell table:style-name="ce19" office:value-type="string">
+          <table:table-cell table:style-name="ce23" office:value-type="string">
             <text:p>←　動作推奨Ver。テスト済みを明示。このVerより低い端末でもインストール可能。</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1005"/>
@@ -3590,14 +4730,14 @@
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="6"/>
-          <table:table-cell table:style-name="ce18" office:value-type="string">
+          <table:table-cell table:style-name="ce22" office:value-type="string">
             <text:p>android:versionCode</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="6"/>
-          <table:table-cell table:style-name="ce18" office:value-type="string">
+          <table:table-cell table:style-name="ce22" office:value-type="string">
             <text:p>android:versionName</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
@@ -3704,7 +4844,7 @@
             <text:p>&gt;layoutopt [projectname]</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="13"/>
-          <table:table-cell table:style-name="ce19" office:value-type="string">
+          <table:table-cell table:style-name="ce23" office:value-type="string">
             <text:p>←　プロジェクトのxmlの診断</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1004"/>
@@ -3715,7 +4855,7 @@
             <text:p>&gt;layoutopt [projectname\res\layout\main.xml]</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="13"/>
-          <table:table-cell table:style-name="ce19" office:value-type="string">
+          <table:table-cell table:style-name="ce23" office:value-type="string">
             <text:p>←　プロジェクトの指定のxmlのみを診断</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1004"/>
@@ -3986,7 +5126,7 @@
             <text:p>&gt;zipalign [-f] [-v] &lt;alignment&gt; infile.apk outfile.apk</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="13"/>
-          <table:table-cell table:style-name="ce19" office:value-type="string">
+          <table:table-cell table:style-name="ce23" office:value-type="string">
             <text:p>←　infile.apkを整列し、outfile.apkとして保存する</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1004"/>
@@ -3997,14 +5137,14 @@
             <text:p>&gt;zipalign -c -v &lt;alignment&gt; existing.apk</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="13"/>
-          <table:table-cell table:style-name="ce19" office:value-type="string">
+          <table:table-cell table:style-name="ce23" office:value-type="string">
             <text:p>←　existing.apkの位置合わせの確認を行う</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1004"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce19" office:value-type="string">
+          <table:table-cell table:style-name="ce23" office:value-type="string">
             <text:p>　　　alignment は必ず4を指定</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1004"/>
@@ -4077,11 +5217,11 @@
 <file path=meta.xml><?xml version="1.0" encoding="utf-8"?>
 <office:document-meta xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:grddl="http://www.w3.org/2003/g/data-view#" office:version="1.2">
   <office:meta>
-    <dc:date>2012-07-13T22:15:40</dc:date>
+    <dc:date>2012-07-16T15:44:56</dc:date>
     <meta:generator>OpenOffice.org/3.4$Unix OpenOffice.org_project/340m1$Build-9590</meta:generator>
-    <meta:editing-duration>P3DT23H3M12S</meta:editing-duration>
-    <meta:editing-cycles>10</meta:editing-cycles>
-    <meta:document-statistic meta:table-count="6" meta:cell-count="522" meta:object-count="6"/>
+    <meta:editing-duration>P4DT1H35M8S</meta:editing-duration>
+    <meta:editing-cycles>16</meta:editing-cycles>
+    <meta:document-statistic meta:table-count="6" meta:cell-count="680" meta:object-count="6"/>
   </office:meta>
 </office:document-meta>
 </file>
@@ -4092,8 +5232,8 @@
     <config:config-item-set config:name="ooo:view-settings">
       <config:config-item config:name="VisibleAreaTop" config:type="int">462</config:config-item>
       <config:config-item config:name="VisibleAreaLeft" config:type="int">896</config:config-item>
-      <config:config-item config:name="VisibleAreaWidth" config:type="int">35849</config:config-item>
-      <config:config-item config:name="VisibleAreaHeight" config:type="int">38360</config:config-item>
+      <config:config-item config:name="VisibleAreaWidth" config:type="int">32369</config:config-item>
+      <config:config-item config:name="VisibleAreaHeight" config:type="int">124757</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
@@ -4141,7 +5281,7 @@
               <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
-              <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionBottom" config:type="int">5</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
               <config:config-item config:name="ZoomValue" config:type="int">50</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
@@ -4173,14 +5313,14 @@
               <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
-              <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionBottom" config:type="int">44</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
               <config:config-item config:name="ZoomValue" config:type="int">50</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
             </config:config-item-map-entry>
             <config:config-item-map-entry config:name="３章">
-              <config:config-item config:name="CursorPositionX" config:type="int">8</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">140</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">39</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">245</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -4189,7 +5329,7 @@
               <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
-              <config:config-item config:name="PositionBottom" config:type="int">109</config:config-item>
+              <config:config-item config:name="PositionBottom" config:type="int">225</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
               <config:config-item config:name="ZoomValue" config:type="int">50</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
@@ -4256,12 +5396,10 @@
 <office:document-styles xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:style="urn:oasis:names:tc:opendocument:xmlns:style:1.0" xmlns:text="urn:oasis:names:tc:opendocument:xmlns:text:1.0" xmlns:table="urn:oasis:names:tc:opendocument:xmlns:table:1.0" xmlns:draw="urn:oasis:names:tc:opendocument:xmlns:drawing:1.0" xmlns:fo="urn:oasis:names:tc:opendocument:xmlns:xsl-fo-compatible:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:number="urn:oasis:names:tc:opendocument:xmlns:datastyle:1.0" xmlns:presentation="urn:oasis:names:tc:opendocument:xmlns:presentation:1.0" xmlns:svg="urn:oasis:names:tc:opendocument:xmlns:svg-compatible:1.0" xmlns:chart="urn:oasis:names:tc:opendocument:xmlns:chart:1.0" xmlns:dr3d="urn:oasis:names:tc:opendocument:xmlns:dr3d:1.0" xmlns:math="http://www.w3.org/1998/Math/MathML" xmlns:form="urn:oasis:names:tc:opendocument:xmlns:form:1.0" xmlns:script="urn:oasis:names:tc:opendocument:xmlns:script:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:ooow="http://openoffice.org/2004/writer" xmlns:oooc="http://openoffice.org/2004/calc" xmlns:dom="http://www.w3.org/2001/xml-events" xmlns:rpt="http://openoffice.org/2005/report" xmlns:of="urn:oasis:names:tc:opendocument:xmlns:of:1.2" xmlns:xhtml="http://www.w3.org/1999/xhtml" xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:tableooo="http://openoffice.org/2009/table" office:version="1.2">
   <office:font-face-decls>
     <style:font-face style:name="F" svg:font-family="" style:font-family-generic="roman"/>
-    <style:font-face style:name="Helvetica" svg:font-family="Helvetica" style:font-family-generic="swiss"/>
     <style:font-face style:name="ＭＳ Ｐゴシック2" svg:font-family="'ＭＳ Ｐゴシック'" style:font-family-generic="swiss"/>
     <style:font-face style:name="Monaco" svg:font-family="Monaco" style:font-family-generic="modern" style:font-pitch="fixed"/>
     <style:font-face style:name="ＭＳ Ｐゴシック" svg:font-family="'ＭＳ Ｐゴシック'" style:font-family-generic="modern" style:font-pitch="variable"/>
     <style:font-face style:name="Arial" svg:font-family="Arial" style:font-family-generic="swiss" style:font-pitch="variable"/>
-    <style:font-face style:name="Arial Narrow" svg:font-family="'Arial Narrow'" style:font-family-generic="swiss" style:font-pitch="variable"/>
     <style:font-face style:name="Arial Unicode MS1" svg:font-family="'Arial Unicode MS'" style:font-family-generic="swiss" style:font-pitch="variable"/>
     <style:font-face style:name="ＭＳ Ｐゴシック1" svg:font-family="'ＭＳ Ｐゴシック'" style:font-family-generic="swiss" style:font-pitch="variable"/>
     <style:font-face style:name="Arial Unicode MS" svg:font-family="'Arial Unicode MS'" style:font-family-generic="system" style:font-pitch="variable"/>
@@ -4708,9 +5846,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2012-07-13">2012/07/13</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2012-07-16">2012/07/16</text:date>
             , 
-            <text:time>22:15:40</text:time>
+            <text:time>15:44:56</text:time>
           </text:p>
         </style:region-right>
       </style:header>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -25,13 +25,12 @@
 <office:document-content xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:style="urn:oasis:names:tc:opendocument:xmlns:style:1.0" xmlns:text="urn:oasis:names:tc:opendocument:xmlns:text:1.0" xmlns:table="urn:oasis:names:tc:opendocument:xmlns:table:1.0" xmlns:draw="urn:oasis:names:tc:opendocument:xmlns:drawing:1.0" xmlns:fo="urn:oasis:names:tc:opendocument:xmlns:xsl-fo-compatible:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:number="urn:oasis:names:tc:opendocument:xmlns:datastyle:1.0" xmlns:presentation="urn:oasis:names:tc:opendocument:xmlns:presentation:1.0" xmlns:svg="urn:oasis:names:tc:opendocument:xmlns:svg-compatible:1.0" xmlns:chart="urn:oasis:names:tc:opendocument:xmlns:chart:1.0" xmlns:dr3d="urn:oasis:names:tc:opendocument:xmlns:dr3d:1.0" xmlns:math="http://www.w3.org/1998/Math/MathML" xmlns:form="urn:oasis:names:tc:opendocument:xmlns:form:1.0" xmlns:script="urn:oasis:names:tc:opendocument:xmlns:script:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:ooow="http://openoffice.org/2004/writer" xmlns:oooc="http://openoffice.org/2004/calc" xmlns:dom="http://www.w3.org/2001/xml-events" xmlns:xforms="http://www.w3.org/2002/xforms" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:rpt="http://openoffice.org/2005/report" xmlns:of="urn:oasis:names:tc:opendocument:xmlns:of:1.2" xmlns:xhtml="http://www.w3.org/1999/xhtml" xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:tableooo="http://openoffice.org/2009/table" xmlns:field="urn:openoffice:names:experimental:ooo-ms-interop:xmlns:field:1.0" office:version="1.2">
   <office:scripts/>
   <office:font-face-decls>
-    <style:font-face style:name="F" svg:font-family="" style:font-family-generic="roman"/>
     <style:font-face style:name="ＭＳ Ｐゴシック2" svg:font-family="'ＭＳ Ｐゴシック'" style:font-family-generic="swiss"/>
     <style:font-face style:name="Monaco" svg:font-family="Monaco" style:font-family-generic="modern" style:font-pitch="fixed"/>
-    <style:font-face style:name="ＭＳ Ｐゴシック" svg:font-family="'ＭＳ Ｐゴシック'" style:font-family-generic="modern" style:font-pitch="variable"/>
+    <style:font-face style:name="ＭＳ Ｐゴシック1" svg:font-family="'ＭＳ Ｐゴシック'" style:font-family-generic="modern" style:font-pitch="variable"/>
     <style:font-face style:name="Arial" svg:font-family="Arial" style:font-family-generic="swiss" style:font-pitch="variable"/>
     <style:font-face style:name="Arial Unicode MS1" svg:font-family="'Arial Unicode MS'" style:font-family-generic="swiss" style:font-pitch="variable"/>
-    <style:font-face style:name="ＭＳ Ｐゴシック1" svg:font-family="'ＭＳ Ｐゴシック'" style:font-family-generic="swiss" style:font-pitch="variable"/>
+    <style:font-face style:name="ＭＳ Ｐゴシック" svg:font-family="'ＭＳ Ｐゴシック'" style:font-family-generic="swiss" style:font-pitch="variable"/>
     <style:font-face style:name="Arial Unicode MS" svg:font-family="'Arial Unicode MS'" style:font-family-generic="system" style:font-pitch="variable"/>
     <style:font-face style:name="Tahoma" svg:font-family="Tahoma" style:font-family-generic="system" style:font-pitch="variable"/>
     <style:font-face style:name="ヒラギノ角ゴ ProN W3" svg:font-family="'ヒラギノ角ゴ ProN W3'" style:font-family-generic="system" style:font-pitch="variable"/>
@@ -40,13 +39,19 @@
     <style:style style:name="co1" style:family="table-column">
       <style:table-column-properties fo:break-before="auto" style:column-width="0.9cm"/>
     </style:style>
-    <style:style style:name="co4" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="2.148cm"/>
-    </style:style>
-    <style:style style:name="co3" style:family="table-column">
+    <style:style style:name="co2" style:family="table-column">
       <style:table-column-properties fo:break-before="auto" style:column-width="1.005cm"/>
     </style:style>
     <style:style style:name="co5" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="2.148cm"/>
+    </style:style>
+    <style:style style:name="co4" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="0.931cm"/>
+    </style:style>
+    <style:style style:name="co6" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="0.868cm"/>
+    </style:style>
+    <style:style style:name="co7" style:family="table-column">
       <style:table-column-properties fo:break-before="auto" style:column-width="0.834cm"/>
     </style:style>
     <style:style style:name="ro1" style:family="table-row">
@@ -56,7 +61,7 @@
       <style:table-row-properties style:row-height="0.524cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
     <style:style style:name="ro3" style:family="table-row">
-      <style:table-row-properties style:row-height="0.487cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+      <style:table-row-properties style:row-height="0.467cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
     <style:style style:name="ta1" style:family="table" style:master-page-name="PageStyle_5f_Sheet2">
       <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
@@ -78,26 +83,6 @@
     <style:style style:name="ce3" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false"/>
       <style:paragraph-properties fo:text-align="justify" fo:margin-left="0cm"/>
-    </style:style>
-    <style:style style:name="ce4" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:text-properties fo:color="#ff0000"/>
-    </style:style>
-    <style:style style:name="ce5" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties fo:border-bottom="none" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="0.002cm solid #000000"/>
-      <style:text-properties fo:language="en" fo:country="US" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:language-asian="en" style:country-asian="US" style:language-complex="en" style:country-complex="US" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
-    </style:style>
-    <style:style style:name="ce6" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties fo:border-bottom="none" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="none"/>
-      <style:text-properties fo:language="en" fo:country="US" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:language-asian="en" style:country-asian="US" style:language-complex="en" style:country-complex="US" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
-    </style:style>
-    <style:style style:name="ce7" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties fo:border-bottom="0.002cm solid #000000" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="none"/>
-    </style:style>
-    <style:style style:name="ce8" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties fo:border-bottom="none" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="none"/>
-    </style:style>
-    <style:style style:name="ce9" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties fo:border-bottom="none" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="0.002cm solid #000000"/>
     </style:style>
     <style:style style:name="ce10" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties fo:border-bottom="none" fo:border-left="none" fo:border-right="none" fo:border-top="0.002cm solid #000000"/>
@@ -139,11 +124,50 @@
     <style:style style:name="ce21" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:text-properties style:font-name-asian="ＭＳ Ｐゴシック2"/>
     </style:style>
-    <style:style style:name="ce22" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:text-properties fo:color="#0070c0" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
+    <style:style style:name="ce4" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:text-properties fo:color="#ff0000"/>
     </style:style>
-    <style:style style:name="ce23" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:text-properties fo:color="#ff0000" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック1" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    <style:style style:name="ce5" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="none" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="0.002cm solid #000000"/>
+      <style:text-properties fo:language="en" fo:country="US" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:language-asian="en" style:country-asian="US" style:language-complex="en" style:country-complex="US" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
+    </style:style>
+    <style:style style:name="ce6" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="none" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="none"/>
+      <style:text-properties fo:language="en" fo:country="US" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:language-asian="en" style:country-asian="US" style:language-complex="en" style:country-complex="US" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
+    </style:style>
+    <style:style style:name="ce7" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="0.002cm solid #000000" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="none"/>
+    </style:style>
+    <style:style style:name="ce8" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="none" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="none"/>
+    </style:style>
+    <style:style style:name="ce9" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="none" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="0.002cm solid #000000"/>
+    </style:style>
+    <style:style style:name="ce28" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="none" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="none"/>
+      <style:text-properties fo:color="#00cccc"/>
+    </style:style>
+    <style:style style:name="ce29" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:border-bottom="none" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="0.002cm solid #000000"/>
+      <style:text-properties style:text-outline="false" style:text-line-through-style="none" fo:language="en" fo:country="US" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:language-asian="en" style:country-asian="US" style:font-style-asian="normal" style:font-weight-asian="normal" style:language-complex="en" style:country-complex="US" style:font-style-complex="normal" style:font-weight-complex="normal" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
+    </style:style>
+    <style:style style:name="ce30" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="none" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="0.002cm solid #000000"/>
+      <style:text-properties style:font-name="Monaco" fo:language="en" fo:country="US" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:font-name-asian="Monaco" style:language-asian="en" style:country-asian="US" style:font-name-complex="Monaco" style:font-size-complex="6.25pt" style:language-complex="en" style:country-complex="US" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
+    </style:style>
+    <style:style style:name="ce31" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="none" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="none"/>
+      <style:text-properties style:font-name="Monaco" fo:language="en" fo:country="US" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:font-name-asian="Monaco" style:language-asian="en" style:country-asian="US" style:font-name-complex="Monaco" style:font-size-complex="6.25pt" style:language-complex="en" style:country-complex="US" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
+    </style:style>
+    <style:style style:name="ce32" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:border-bottom="none" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="none"/>
+    </style:style>
+    <style:style style:name="ce33" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:text-properties fo:color="#0070c0" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-name-asian="ＭＳ Ｐゴシック1" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
+    </style:style>
+    <style:style style:name="ce34" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:text-properties fo:color="#ff0000" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
     <style:style style:name="gr1" style:family="graphic">
       <style:graphic-properties draw:stroke="none" draw:fill="none" draw:textarea-horizontal-align="center" draw:textarea-vertical-align="middle" draw:color-mode="standard" draw:luminance="0%" draw:contrast="0%" draw:gamma="100%" draw:red="0%" draw:green="0%" draw:blue="0%" fo:clip="rect(0cm, 0cm, 0cm, 0cm)" draw:image-opacity="100%" style:mirror="none"/>
@@ -174,7 +198,7 @@
       <style:text-properties fo:color="#2a00ff" style:font-name="Monaco" fo:font-size="11pt" fo:font-style="italic" style:font-name-asian="Monaco" style:font-size-asian="11pt" style:font-style-asian="italic" style:font-name-complex="Monaco" style:font-size-complex="6.30000019073486pt" style:font-style-complex="italic"/>
     </style:style>
     <style:style style:name="T6" style:family="text">
-      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック1" fo:font-size="5.5pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック1" style:font-size-asian="5.5pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="ＭＳ Ｐゴシック1" style:font-size-complex="3.09999990463257pt" style:font-style-complex="normal" style:font-weight-complex="normal" style:text-emphasize="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック" fo:font-size="5.5pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="5.5pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="ＭＳ Ｐゴシック" style:font-size-complex="3.09999990463257pt" style:font-style-complex="normal" style:font-weight-complex="normal" style:text-emphasize="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
     </style:style>
     <style:style style:name="T7" style:family="text">
       <style:text-properties fo:font-size="12pt"/>
@@ -195,10 +219,28 @@
       <style:text-properties fo:color="#0000ff"/>
     </style:style>
     <style:style style:name="T13" style:family="text">
-      <style:text-properties fo:color="#0070c0" style:text-outline="false" style:text-line-through-style="none" style:text-position="0% 100%" style:font-name="ＭＳ Ｐゴシック" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
+      <style:text-properties fo:color="#47b8b8"/>
     </style:style>
     <style:style style:name="T14" style:family="text">
-      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-position="0% 100%" style:font-name="ＭＳ Ｐゴシック1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック1" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+      <style:text-properties fo:color="#00cccc"/>
+    </style:style>
+    <style:style style:name="T15" style:family="text">
+      <style:text-properties fo:color="#000000"/>
+    </style:style>
+    <style:style style:name="T16" style:family="text">
+      <style:text-properties fo:color="#7f0055" style:font-name="Monaco" fo:font-size="11pt" fo:font-weight="bold" style:font-name-asian="Monaco" style:font-size-asian="11pt" style:font-weight-asian="bold" style:font-name-complex="Monaco" style:font-size-complex="6.30000019073486pt" style:font-weight-complex="bold"/>
+    </style:style>
+    <style:style style:name="T17" style:family="text">
+      <style:text-properties fo:color="#0000ff" style:font-name="Monaco" fo:font-size="11pt" style:font-name-asian="Monaco" style:font-size-asian="11pt" style:font-name-complex="Monaco" style:font-size-complex="6.30000019073486pt"/>
+    </style:style>
+    <style:style style:name="T18" style:family="text">
+      <style:text-properties fo:color="#0000c0" style:font-name="Monaco" fo:font-size="11pt" fo:font-style="italic" style:font-name-asian="Monaco" style:font-size-asian="11pt" style:font-style-asian="italic" style:font-name-complex="Monaco" style:font-size-complex="6.30000019073486pt" style:font-style-complex="italic"/>
+    </style:style>
+    <style:style style:name="T19" style:family="text">
+      <style:text-properties fo:color="#0070c0" style:text-outline="false" style:text-line-through-style="none" style:text-position="0% 100%" style:font-name="ＭＳ Ｐゴシック1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-name-asian="ＭＳ Ｐゴシック1" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
+    </style:style>
+    <style:style style:name="T20" style:family="text">
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-position="0% 100%" style:font-name="ＭＳ Ｐゴシック" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
   </office:automatic-styles>
   <office:body>
@@ -702,7 +744,6 @@
         </table:table-row>
       </table:table>
       <table:table table:name="２章" table:style-name="ta1" table:print="false">
-        <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
         <table:table-column table:style-name="co1" table:number-columns-repeated="1024" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="16"/>
@@ -1206,7 +1247,7 @@
       <table:table table:name="３章" table:style-name="ta1" table:print="false">
         <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
         <table:table-column table:style-name="co1" table:number-columns-repeated="6" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
-        <table:table-column table:style-name="co3" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
+        <table:table-column table:style-name="co2" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-column table:style-name="co1" table:number-columns-repeated="1017" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="16"/>
@@ -1824,7 +1865,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="992"/>
         </table:table-row>
-        <table:table-row table:style-name="ro3">
+        <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="3"/>
           <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
@@ -1855,7 +1896,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="992"/>
         </table:table-row>
-        <table:table-row table:style-name="ro1">
+        <table:table-row table:style-name="ro3">
           <table:table-cell table:number-columns-repeated="3"/>
           <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
@@ -1875,7 +1916,7 @@
           <table:table-cell table:style-name="Default" table:number-columns-repeated="3"/>
           <table:table-cell table:number-columns-repeated="995"/>
         </table:table-row>
-        <table:table-row table:style-name="ro3">
+        <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="3"/>
           <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
@@ -1965,7 +2006,7 @@
           <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="1000"/>
         </table:table-row>
-        <table:table-row table:style-name="ro3">
+        <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="3"/>
           <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
@@ -1991,7 +2032,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="996"/>
         </table:table-row>
-        <table:table-row table:style-name="ro3">
+        <table:table-row table:style-name="ro2">
           <table:table-cell/>
           <table:table-cell table:style-name="ce4"/>
           <table:table-cell/>
@@ -2095,7 +2136,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="987"/>
         </table:table-row>
-        <table:table-row table:style-name="ro3">
+        <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="3"/>
           <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
@@ -3929,7 +3970,7 @@
           <table:table-cell table:style-name="ce18"/>
           <table:table-cell table:number-columns-repeated="999"/>
         </table:table-row>
-        <table:table-row table:style-name="ro3">
+        <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="7"/>
           <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
@@ -3952,7 +3993,7 @@
           <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="999"/>
         </table:table-row>
-        <table:table-row table:style-name="ro3">
+        <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="7"/>
           <table:table-cell table:style-name="ce15" office:value-type="string">
             <text:p>
@@ -4203,6 +4244,3706 @@
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
       </table:table>
+      <table:table table:name="4章" table:style-name="ta1" table:print="false">
+        <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
+        <table:table-column table:style-name="co1" table:number-columns-repeated="4" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
+        <table:table-column table:style-name="co4" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
+        <table:table-column table:style-name="co1" table:number-columns-repeated="17" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
+        <table:table-column table:style-name="co6" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
+        <table:table-column table:style-name="co1" table:number-columns-repeated="1001" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce3"/>
+          <table:table-cell table:number-columns-repeated="1007"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>4章</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1022"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>●</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>ユーザインターフェースの要素</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>リソースマネージャー</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>ビューやレイアウト、画像データ、文字列情報などのxmlファイルを管理している。</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>プログラムから各リソースを利用するために介在している。</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="163"/>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:number-columns-repeated="855"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>●</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>画面の作成方法</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>XMLファイルを使用した場合</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>main.xml</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce29" office:value-type="string">
+            <text:p>
+              <text:span text:style-name="T4">
+                <text:tab/>
+              </text:span>
+              <text:span text:style-name="T4">
+                <text:tab/>
+              </text:span>
+              <text:span text:style-name="T4">
+                <text:tab/>
+              </text:span>
+              <text:span text:style-name="T1">&lt;</text:span>
+              <text:span text:style-name="T2">Button</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce18"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:tab/>
+              <text:tab/>
+              <text:tab/>
+              <text:tab/>
+              <text:span text:style-name="T3">android:id</text:span>
+              <text:span text:style-name="T4">=</text:span>
+              <text:span text:style-name="T5">"@+id/Button01"</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:tab/>
+              <text:tab/>
+              <text:tab/>
+              <text:tab/>
+              <text:span text:style-name="T3">android:layout_width</text:span>
+              <text:span text:style-name="T4">=</text:span>
+              <text:span text:style-name="T5">"fill_parent"</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:tab/>
+              <text:tab/>
+              <text:tab/>
+              <text:tab/>
+              <text:span text:style-name="T3">android:layout_height</text:span>
+              <text:span text:style-name="T4">=</text:span>
+              <text:span text:style-name="T5">"fill_parent"</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:span text:style-name="T5">
+                <text:tab/>
+              </text:span>
+              <text:span text:style-name="T5">
+                <text:tab/>
+              </text:span>
+              <text:span text:style-name="T5">
+                <text:tab/>
+              </text:span>
+              <text:span text:style-name="T5">
+                <text:tab/>
+              </text:span>
+              <text:span text:style-name="T9">android:text</text:span>
+              <text:span text:style-name="T10">=</text:span>
+              <text:span text:style-name="T11">"Start"</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:tab/>
+              <text:tab/>
+              <text:tab/>
+              <text:tab/>
+              <text:span text:style-name="T3">android:clickable</text:span>
+              <text:span text:style-name="T4">=</text:span>
+              <text:span text:style-name="T5">"true"</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:tab/>
+              <text:tab/>
+              <text:tab/>
+              <text:tab/>
+              <text:span text:style-name="T1">&gt;&lt;/</text:span>
+              <text:span text:style-name="T2">Button</text:span>
+              <text:span text:style-name="T1">&gt;</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell table:style-name="ce11" table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce20"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="3">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>view.java</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce30" office:value-type="string">
+            <text:p>
+              <text:span text:style-name="T16">public</text:span>
+              <text:span text:style-name="T4"> </text:span>
+              <text:span text:style-name="T16">class</text:span>
+              <text:span text:style-name="T4"> TaskTimeWatcheMain </text:span>
+              <text:span text:style-name="T16">extends</text:span>
+              <text:span text:style-name="T17"> Activity </text:span>
+              <text:span text:style-name="T4">
+                <text:s/>
+                {
+              </text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce18"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>⬅Activity を継承</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce31" office:value-type="string">
+            <text:p>
+              <text:span text:style-name="T4">
+                <text:tab/>
+              </text:span>
+              <text:span text:style-name="T16">protected</text:span>
+              <text:span text:style-name="T4"> </text:span>
+              <text:span text:style-name="T16">void</text:span>
+              <text:span text:style-name="T4"> </text:span>
+              <text:span text:style-name="T17">onCreate</text:span>
+              <text:span text:style-name="T4">(Bundle savedInstanceState) {</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce6"/>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:span text:style-name="T4">
+                <text:tab/>
+              </text:span>
+              <text:span text:style-name="T4">
+                <text:tab/>
+              </text:span>
+              <text:span text:style-name="T16">super</text:span>
+              <text:span text:style-name="T4">.onCreate(savedInstanceState);</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>⬅スーパークラスの初期化処理。これがないと実行時エラー</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:span text:style-name="T4">
+                <text:s text:c="8"/>
+              </text:span>
+              <text:span text:style-name="T4">setContentView(R.layout.</text:span>
+              <text:span text:style-name="T18">main</text:span>
+              <text:span text:style-name="T4">);</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>⬅レイアウトの設定</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce6"/>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce15" office:value-type="string">
+            <text:p>
+              <text:s/>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce11" table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce20"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce12" office:value-type="string">
+            <text:p>
+              <text:span text:style-name="T4">
+                <text:s text:c="8"/>
+              </text:span>
+              <text:span text:style-name="T4">setContentView(R.layout.</text:span>
+              <text:span text:style-name="T18">main</text:span>
+              <text:span text:style-name="T4">);</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce12"/>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce12"/>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>⬇　以下のように書き換え可能</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1013"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>
+              <text:s text:c="15"/>
+              View v = this.getLayoutInflater().inflate(R.layout..main,null);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell office:value-type="string">
+            <text:p>⬅第二引数はViewGroupを指定</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>
+              <text:s text:c="14"/>
+              setContentView(v);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>プログラムでの画面作成</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>
+              view.java 
+              <text:s text:c="2"/>
+              （xmlファイルを使用しない場合の記述）
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce30" office:value-type="string">
+            <text:p>
+              <text:span text:style-name="T16">public</text:span>
+              <text:span text:style-name="T4"> </text:span>
+              <text:span text:style-name="T16">class</text:span>
+              <text:span text:style-name="T4"> TaskTimeWatcheMain </text:span>
+              <text:span text:style-name="T16">extends</text:span>
+              <text:span text:style-name="T17"> Activity </text:span>
+              <text:span text:style-name="T4">
+                <text:s/>
+                {
+              </text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce18"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce31" office:value-type="string">
+            <text:p>
+              <text:span text:style-name="T4">
+                <text:tab/>
+              </text:span>
+              <text:span text:style-name="T16">protected</text:span>
+              <text:span text:style-name="T4"> </text:span>
+              <text:span text:style-name="T16">void</text:span>
+              <text:span text:style-name="T4"> </text:span>
+              <text:span text:style-name="T17">onCreate</text:span>
+              <text:span text:style-name="T4">(Bundle savedInstanceState) {</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce6"/>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:span text:style-name="T4">
+                <text:tab/>
+              </text:span>
+              <text:span text:style-name="T4">
+                <text:tab/>
+              </text:span>
+              <text:span text:style-name="T16">super</text:span>
+              <text:span text:style-name="T4">.onCreate(savedInstanceState);</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce32"/>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:s text:c="9"/>
+              <text:span text:style-name="T4">
+                <text:tab/>
+              </text:span>
+              <text:span text:style-name="T4">LinearLayout layout = </text:span>
+              <text:span text:style-name="T16">new</text:span>
+              <text:span text:style-name="T4"> LinearLayoutz(this);</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="13"/>
+              layout.setOrientation(LinearLayout.VERTICAL);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="10"/>
+              Button btn = new Button(this);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="10"/>
+              btn.setText(“Start”);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="9"/>
+              layout.addView(btn, new LinearLayout.LayoutParams(
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="14"/>
+              LayoutParams.WRAP_CONTENT,
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="14"/>
+              LayoutParams.WRAP_CONTENT));
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce31" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              setContentView(layout);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell table:style-name="ce11" table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce20"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>●</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>イベント処理</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce9" office:value-type="string">
+            <text:p>public class EventSample1Activity extends Activity {</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce18"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              TextView view;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              public void onCreate(Bundle savedInstanceState) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              super.onCreate(savedInstanceState);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce14" office:value-type="string">
+            <text:p>findViewById(int id)</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              setContentView(R.layout.main);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              view = (TextView)
+              <text:span text:style-name="T12">findViewById</text:span>
+              (
+              <text:span text:style-name="T13">R.id.dateTimeDisplay</text:span>
+              );
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>setOnClickListener(View.OnClickListener l)</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              Button button = (Button)findViewById(R.id.whatTime);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>　ここでは匿名クラスとして実装している</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              button.
+              <text:span text:style-name="T12">setOnClickListener</text:span>
+              (new View.
+              <text:span text:style-name="T12">OnClickListener()</text:span>
+              {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>onClick(View v)</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              public void 
+              <text:span text:style-name="T12">onClick</text:span>
+              (View v) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              SimpleDateFormat sdf = new SimpleDateFormat(
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="33"/>
+              "yyyy.MM.dd '/' hh:mm:ss a zzz");
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              Date time = new Date();
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              view.setText(sdf.format(time));
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              view.setText(time.toString());
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              });
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>}</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell table:style-name="ce11" table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce20"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce9" office:value-type="string">
+            <text:p>public class EventSample2Activity extends Activity {</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce18"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>ListView</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              /** Called when the activity is first created. */
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>データをリスト表示するビュー</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="999"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              @Override
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              public void onCreate(Bundle savedInstanceState) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce14" office:value-type="string">
+            <text:p>setOnItemClickListener</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              super.onCreate(savedInstanceState);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              setContentView(R.layout.main);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              <text:span text:style-name="T12">ListView</text:span>
+               listview = (ListView) findViewById(R.id.listView);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              listview.
+              <text:span text:style-name="T12">setOnItemClickListener</text:span>
+              (new ListItemClickListener());
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              <text:span text:style-name="T14">class ListItemClickListener</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>⬅　内部クラス</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="24"/>
+              implements
+              <text:span text:style-name="T12"> OnItemClickListener</text:span>
+               {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              public void 
+              <text:span text:style-name="T12">
+                onItemClick(AdapterView&lt;?&gt; parent, 
+                <text:s/>
+                View view,
+              </text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>
+              <text:s/>
+              OnItemClickListener
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="28"/>
+              <text:span text:style-name="T12">int position, long id)</text:span>
+               {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              ListView listview = (ListView) parent;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              String item =
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>onItemClick(AdapterView&lt;?&gt; parent, View v , int positon ,long id)</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="14"/>
+              (String) listview.getItemAtPosition(position);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>第一引数</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>ListViewオブジェクト</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="996"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>第二引数</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>選択された行のビュー</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="996"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              <text:span text:style-name="T12">Toast.makeText</text:span>
+              (EventSample2Activity.this,item,
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>第三引数</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>選択された行番号　０番から</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="996"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="21"/>
+              Toast.LENGTH_SHORT)
+              <text:span text:style-name="T12">.show()</text:span>
+              ;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>第四引数</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>データの行番号　０番から</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="996"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Toast.makeText(Context context, CharSequence text , int duration)</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>}</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>第一引数</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>アクティビティクラスのオブジェクト</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="996"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>第二引数</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>表示する文字列</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="996"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell table:style-name="ce11" table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce20"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>第三引数</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>表示時間。LENGTH_LONG, LENGTH_SHORT</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="996"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="23"/>
+          <table:table-cell office:value-type="string">
+            <text:p>Toast.setDuration(int duration)</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="23"/>
+          <table:table-cell office:value-type="string">
+            <text:p>Toast.setGravity(int gravity, int xOffset ,int yOffset)</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="24"/>
+          <table:table-cell office:value-type="string">
+            <text:p>第一引数</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>Gravity.TOP　など</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="996"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="24"/>
+          <table:table-cell office:value-type="string">
+            <text:p>第二引数</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>x位置のオフセット　左端から開始</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="996"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="24"/>
+          <table:table-cell office:value-type="string">
+            <text:p>第三引数</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>y位置のオフセット　上位置から開始</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="996"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="3">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>●</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>イベントリスナ</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>OnItemClickListener</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>選択リストなどでアイテムがクリックされたときのリスナ</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>OnKeyListner</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>ビューがフォーカスされており、キーが入力されたときのリスナ</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>OnFoucusChangeListener</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>ビューがフォーカスを取得、または消失したときのリスナ</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>OnTouchListener</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>ビューがタッチされたときのリスナ</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>OnLongClickListener</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>ビューが長押しされたときのリスナ</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>OnDragListener</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>ビューへドラッグされたときのリスナ</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce9"/>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce18"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>public class EventSample3Activity extends Activity {</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              TextView view;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              public void onCreate(Bundle savedInstanceState) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              super.onCreate(savedInstanceState);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              setContentView(R.layout.main);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              Button button = (Button)findViewById(R.id.button);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              button.
+              <text:span text:style-name="T12">setOnClickListener</text:span>
+              (new View.
+              <text:span text:style-name="T12">OnClickListener</text:span>
+              (){
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              public void 
+              <text:span text:style-name="T12">onClick</text:span>
+              (View v) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="9"/>
+              Log.v("onClick", "click");
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              });
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              button.
+              <text:span text:style-name="T12">setOnTouchListener</text:span>
+              (new View.
+              <text:span text:style-name="T12">OnTouchListener</text:span>
+              (){
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              public boolean 
+              <text:span text:style-name="T12">onTouch</text:span>
+              (View v, MotionEvent event) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>if(event.getAction() == MotionEvent.ACTION_DOWN) {</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="10"/>
+              // 指がタッチした時の処理を記述
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="10"/>
+              Log.v("OnTouch", "Touch Down");
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              }else {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="10"/>
+              // タッチした指が離れた時の処理を記述
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Log.v("OnTouch", "Touch Up");</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              return false;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              });
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>}</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell table:style-name="ce11" table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce20"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>Log</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce9"/>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce18"/>
+          <table:table-cell table:number-columns-repeated="1014"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>Touch Down</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1014"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>Touch Up</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1014"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>click</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>⬅　click　が呼ばれるのはTouchが終わった後になる</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1012"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell table:style-name="ce11" table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce20"/>
+          <table:table-cell table:number-columns-repeated="1014"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="4">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce9" office:value-type="string">
+            <text:p>package jp.co.knowd;</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce18"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>☆</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>ポイント</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>import android.app.Activity;</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>Keyイベントはリスナ登録が不要。</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="999"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>import android.os.Bundle;</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>ActivityクラスがKeyEvent.Callbackインターフェースを実装しているため。</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="999"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>import android.util.Log;</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>import android.view.KeyEvent;</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>public class EventSample4Activity extends Activity {</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              public void onCreate(Bundle savedInstanceState) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              super.onCreate(savedInstanceState);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              setContentView(R.layout.main);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              Log.v("onCreate", "EventSample4Activity is created.");
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              public boolean 
+              <text:span text:style-name="T12">onKeyDown</text:span>
+              (int keyCode, KeyEvent event) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>onKeyDown</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              Log.v("KeyDown", "KeyCode=" + keyCode);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>第一引数</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>押されたコード</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="996"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              return super.onKeyDown(keyCode, event);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>第二引数</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>イベントオブジェクト</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="996"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              public boolean 
+              <text:span text:style-name="T12">onKeyUp</text:span>
+              (int keyCode, KeyEvent event) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>onKeyUp</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              Log.v("KeyUp", "KeyCode=" + keyCode);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>第一引数</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>押されたコード</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="996"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              return 
+              <text:s/>
+              super.onKeyUp(keyCode, event);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>第二引数</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>イベントオブジェクト</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="996"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              public boolean 
+              <text:span text:style-name="T12">onKeyLongPress</text:span>
+              (int keyCode, KeyEvent event) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>onKeyLongPress</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>（ハードウエアキーのいずれかが長押しされたときに呼び出される）</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="996"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              Log.v("KeyUp", "KeyCode=" + keyCode);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>第一引数</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>押されたコード</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="996"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              return 
+              <text:s/>
+              super.onKeyUp(keyCode, event);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>第二引数</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>イベントオブジェクト</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="996"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              public boolean 
+              <text:span text:style-name="T12">onKeyMultiple</text:span>
+              (int keyCode, KeyEvent event) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>onKeyMultiple</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>（同じキーがDown/Upのペアーで連続して押されると呼び出される）</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="996"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              Log.v("KeyUp", "KeyCode=" + keyCode);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>第一引数</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>押されたコード</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="996"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              return 
+              <text:s/>
+              super.onKeyUp(keyCode, event);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>第二引数</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="Default" office:value-type="string">
+            <text:p>Down/Up　のペアーで押された回数</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="996"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>第三引数</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>イベントオブジェクト</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="996"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell table:style-name="ce11" table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce20"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>●</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>ダイアログ</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce9"/>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce18"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>public class DialogSampleActivity extends Activity {</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              TextView label = null;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              public void onCreate(Bundle savedInstanceState) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              // スーパークラスのonCreateメソッド呼び出し
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              super.onCreate(savedInstanceState);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              // レイアウト設定ファイルの指定
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              setContentView(R.layout.main);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              // 表示ラベル取得
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              label = (TextView)findViewById(R.id.label_dialogtext);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              // 通常ダイアログボタンのクリックリスナ設定
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              Button dialogBtn = (Button)findViewById(R.id.dialogButton);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              dialogBtn.setTag("dialog");
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              dialogBtn.setOnClickListener(new ButtonClickListener());
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              // 単一選択ダイアログボタンのクリックリスナ設定
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              Button singleSelectDialogBtn = (Button)findViewById(R.id.singleSelectDialogButton);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              singleSelectDialogBtn.setTag("singleSelectDialog");
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              singleSelectDialogBtn.setOnClickListener(new ButtonClickListener());
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              // クリックリスナ定義
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              class ButtonClickListener implements OnClickListener{
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              // onClickメソッド(ボタンクリック時イベントハンドラ)
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              public void onClick(View v) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="10"/>
+              String tag = (String)v.getTag();
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="10"/>
+              if (tag.equals("dialog")) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="14"/>
+              <text:span text:style-name="T14">showDialog</text:span>
+              ();
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="10"/>
+              } else if (tag.equals("singleSelectDialog")) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="14"/>
+              <text:span text:style-name="T14">showSingleSelectDialog</text:span>
+              ();
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="10"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce28" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              // 通常ダイアログの表示
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              private void showDialog() {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              <text:span text:style-name="T12">AlertDialog.Builder</text:span>
+               dialog =
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              new AlertDialog.Builder(DialogSampleActivity.this);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              dialog.
+              <text:span text:style-name="T12">setTitle</text:span>
+              ("通常ダイアログ");
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              dialog.
+              <text:span text:style-name="T12">setMessage</text:span>
+              ("いずれかを選択してください。");
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              dialog.
+              <text:span text:style-name="T12">setPositiveButton</text:span>
+              (
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="10"/>
+              "OK",new 
+              <text:span text:style-name="T12">DialogInterface.OnClickListener</text:span>
+              () {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="10"/>
+              public void 
+              <text:span text:style-name="T12">onClick</text:span>
+              (DialogInterface dialog,
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>⬅　onClick()の引数に注意！！！</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="30"/>
+              int whichButton) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>View.OnClickListenerのonClick(View v) メソッドとは異なる</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="999"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="14"/>
+              label.setText("OKが選択されました。");
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="10"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              });
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              dialog.
+              <text:span text:style-name="T12">setNegativeButton</text:span>
+              (
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="10"/>
+              "キャンセル", new DialogInterface.OnClickListener() {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="10"/>
+              public void 
+              <text:span text:style-name="T12">onClick</text:span>
+              (DialogInterface dialog,
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>⬅　onClick()の引数に注意！！！</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="30"/>
+              int whichButton) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>View.OnClickListenerのonClick(View v) メソッドとは異なる</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="999"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="14"/>
+              label.setText("キャンセルが選択されました。");
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="10"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              });
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              dialog.
+              <text:span text:style-name="T12">show</text:span>
+              ();
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce28" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              // 単一選択ダイアログの表示
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              final String[] items =
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              new String[]{"ビール","日本酒","ワイン"};
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce28" office:value-type="string">
+            <text:p>
+              <text:span text:style-name="T15">
+                <text:s text:c="2"/>
+              </text:span>
+              <text:span text:style-name="T15">int </text:span>
+              which
+              <text:span text:style-name="T15"> = 0;</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              public void showSingleSelectDialog() {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              <text:span text:style-name="T12">AlertDialog.Builder</text:span>
+               dialog =
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="11"/>
+              new AlertDialog.Builder(DialogSampleActivity.this);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              dialog.
+              <text:span text:style-name="T12">setTitle</text:span>
+              ("単一選択ダイアログ");
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              dialog.
+              <text:span text:style-name="T12">setSingleChoiceItems</text:span>
+              (
+              <text:span text:style-name="T14">items</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>setSingleChoiceItems</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>（単一アイテム）</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="994"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="13"/>
+              ,0
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>第一引数</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>リストの配列</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="996"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="13"/>
+              ,new 
+              <text:s/>
+              DialogInterface.
+              <text:span text:style-name="T12">OnClickListener</text:span>
+              () {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>第二引数</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>リストの選択初期値</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="996"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="18"/>
+              public void onClick(DialogInterface dialog,
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>第三引数</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>リスナ</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="996"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="35"/>
+              int whichButton) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="22"/>
+              <text:span text:style-name="T14">which</text:span>
+               = whichButton;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>setItems</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>（単純な選択一覧。ラジオボタンがついていない）</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="996"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="18"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>setMultiChoiceItems</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>（複数選択可能）</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="994"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="14"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              );
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              dialog.
+              <text:span text:style-name="T12">setPositiveButton</text:span>
+              (
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>
+              ⬅　setPositiveButton 
+              <text:s/>
+              (確定ボタン
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="10"/>
+              "OK",new DialogInterface.
+              <text:span text:style-name="T12">OnClickListener</text:span>
+              () {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="10"/>
+              public void 
+              <text:span text:style-name="T12">onClick</text:span>
+              (DialogInterface dialog,
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="30"/>
+              int whichButton) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="14"/>
+              String selected = items[
+              <text:span text:style-name="T14">which</text:span>
+              ];
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="14"/>
+              label.setText("単一選択ダイアログ：" + selected +
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="24"/>
+              "が選択されました。");
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="10"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              });
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              dialog.
+              <text:span text:style-name="T12">show</text:span>
+              ();
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>}</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell table:style-name="ce11" table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce20"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>その他のダイアログ</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>AlertDialog</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>┃</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>┗</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>┳</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>DatePickerDialog</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>日付選択ダイアログ</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1012"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>┃</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>┣</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>TimePickerDialog</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>時間選択ダイアログ</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1012"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>┃</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>┗</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>ProgressDialog</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>進行状況確認ダイアログ</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1012"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell office:value-type="string">
+            <text:p>setProgressStyle() でスタイルの指定をする</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1016"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell office:value-type="string">
+            <text:p>　　</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>ProgressDialog.STYLE_HORIZONTAL</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>水平スタイル</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>ProgressDialog.STYLE_SPINNER</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>円スタイル</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell office:value-type="string">
+            <text:p>
+              setIndeterminate(true) 
+              <text:s/>
+              で進行状況を表示せず処理待ちのみ表示する
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1016"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell office:value-type="string">
+            <text:p>setSecondaryProgress　で並行する進行状況をもう一つ表示する</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1016"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="1048241">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+      </table:table>
       <table:table table:name="11章" table:style-name="ta1" table:print="false">
         <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
         <table:table-column table:style-name="co1" table:number-columns-repeated="1024" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
@@ -4234,7 +7975,7 @@
         </table:table-row>
       </table:table>
       <table:table table:name="12章" table:style-name="ta4" table:print="false">
-        <table:table-column table:style-name="co5" table:number-columns-repeated="1024" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
+        <table:table-column table:style-name="co7" table:number-columns-repeated="1024" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
@@ -4276,8 +8017,8 @@
           <table:table-cell office:value-type="string">
             <text:p>
               &lt;
-              <text:span text:style-name="T13">manifest</text:span>
-              <text:span text:style-name="T14"> xmlns:android="http://schemas.android.com/apk/res/android"</text:span>
+              <text:span text:style-name="T19">manifest</text:span>
+              <text:span text:style-name="T20"> xmlns:android="http://schemas.android.com/apk/res/android"</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
@@ -4294,28 +8035,28 @@
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="4"/>
-          <table:table-cell table:style-name="ce22" office:value-type="string">
+          <table:table-cell table:style-name="ce33" office:value-type="string">
             <text:p>
               <text:s text:c="6"/>
               android:versionCode="1"
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="11"/>
-          <table:table-cell table:style-name="ce23" office:value-type="string">
+          <table:table-cell table:style-name="ce34" office:value-type="string">
             <text:p>←　整数値</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1007"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="4"/>
-          <table:table-cell table:style-name="ce22" office:value-type="string">
+          <table:table-cell table:style-name="ce33" office:value-type="string">
             <text:p>
               <text:s text:c="6"/>
               android:versionName="1.0"&gt;
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="11"/>
-          <table:table-cell table:style-name="ce23" office:value-type="string">
+          <table:table-cell table:style-name="ce34" office:value-type="string">
             <text:p>←　1.0.0とか。管理画面に表示される</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1007"/>
@@ -4326,8 +8067,8 @@
             <text:p>
               <text:s text:c="4"/>
               &lt;
-              <text:span text:style-name="T13">application</text:span>
-              <text:span text:style-name="T14"> </text:span>
+              <text:span text:style-name="T19">application</text:span>
+              <text:span text:style-name="T20"> </text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
@@ -4340,22 +8081,22 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce22" office:value-type="string">
+          <table:table-cell table:style-name="ce33" office:value-type="string">
             <text:p>android:label="@string/app_name" </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="11"/>
-          <table:table-cell table:style-name="ce23" office:value-type="string">
+          <table:table-cell table:style-name="ce34" office:value-type="string">
             <text:p>←　アプリケーション名（AndroidMarketや端末上での名前）</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1004"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="7"/>
-          <table:table-cell table:style-name="ce22" office:value-type="string">
+          <table:table-cell table:style-name="ce33" office:value-type="string">
             <text:p>android:icon="@drawable/icon" </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="11"/>
-          <table:table-cell table:style-name="ce23" office:value-type="string">
+          <table:table-cell table:style-name="ce34" office:value-type="string">
             <text:p>←　アイコン画像</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1004"/>
@@ -4368,11 +8109,11 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce22" office:value-type="string">
+          <table:table-cell table:style-name="ce33" office:value-type="string">
             <text:p>android:debuggable="true"</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="11"/>
-          <table:table-cell table:style-name="ce23" office:value-type="string">
+          <table:table-cell table:style-name="ce34" office:value-type="string">
             <text:p>←　デフォルトはfalse。リリース時にはfalseにするか削除する。</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1004"/>
@@ -4405,7 +8146,7 @@
           <table:table-cell office:value-type="string">
             <text:p>
               String packageName = 
-              <text:span text:style-name="T13">getPackageName();</text:span>
+              <text:span text:style-name="T19">getPackageName();</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
@@ -4415,7 +8156,7 @@
           <table:table-cell office:value-type="string">
             <text:p>
               PackageManager pm = 
-              <text:span text:style-name="T13">getPackageManager();</text:span>
+              <text:span text:style-name="T19">getPackageManager();</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
@@ -4425,7 +8166,7 @@
           <table:table-cell office:value-type="string">
             <text:p>
               PackageInfo packageInfo = 
-              <text:span text:style-name="T13">pm.getPackageInfo(packageName, 0);</text:span>
+              <text:span text:style-name="T19">pm.getPackageInfo(packageName, 0);</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
@@ -4435,11 +8176,11 @@
           <table:table-cell office:value-type="string">
             <text:p>
               int versinoCode = 
-              <text:span text:style-name="T13">packageInfo.versionCode;</text:span>
+              <text:span text:style-name="T19">packageInfo.versionCode;</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="13"/>
-          <table:table-cell table:style-name="ce23" office:value-type="string">
+          <table:table-cell table:style-name="ce34" office:value-type="string">
             <text:p>←　PackageInfo内のpublic変数</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1005"/>
@@ -4449,11 +8190,11 @@
           <table:table-cell office:value-type="string">
             <text:p>
               String versionName = 
-              <text:span text:style-name="T13">packageInfo.versionName;</text:span>
+              <text:span text:style-name="T19">packageInfo.versionName;</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="13"/>
-          <table:table-cell table:style-name="ce23" office:value-type="string">
+          <table:table-cell table:style-name="ce34" office:value-type="string">
             <text:p>←　PackageInfo内のpublic変数</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1005"/>
@@ -4483,7 +8224,7 @@
             <text:p>&lt;uses-sdk android:minSdkVersion="8" </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="13"/>
-          <table:table-cell table:style-name="ce23" office:value-type="string">
+          <table:table-cell table:style-name="ce34" office:value-type="string">
             <text:p>←　指定なしの場合は"1"とみなされる。このVerより低い端末の場合クラッシュの可能性あり</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1005"/>
@@ -4500,7 +8241,7 @@
             <text:p>android:maxSdkVersion="8" </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="10"/>
-          <table:table-cell table:style-name="ce23" office:value-type="string">
+          <table:table-cell table:style-name="ce34" office:value-type="string">
             <text:p>←　このVerより高い端末にインストールされない（？）ようになる</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1005"/>
@@ -4517,7 +8258,7 @@
             <text:p>android:targetSdkVersion="8" /&gt;</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="10"/>
-          <table:table-cell table:style-name="ce23" office:value-type="string">
+          <table:table-cell table:style-name="ce34" office:value-type="string">
             <text:p>←　動作推奨Ver。テスト済みを明示。このVerより低い端末でもインストール可能。</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1005"/>
@@ -4730,14 +8471,14 @@
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="6"/>
-          <table:table-cell table:style-name="ce22" office:value-type="string">
+          <table:table-cell table:style-name="ce33" office:value-type="string">
             <text:p>android:versionCode</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="6"/>
-          <table:table-cell table:style-name="ce22" office:value-type="string">
+          <table:table-cell table:style-name="ce33" office:value-type="string">
             <text:p>android:versionName</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
@@ -4844,7 +8585,7 @@
             <text:p>&gt;layoutopt [projectname]</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="13"/>
-          <table:table-cell table:style-name="ce23" office:value-type="string">
+          <table:table-cell table:style-name="ce34" office:value-type="string">
             <text:p>←　プロジェクトのxmlの診断</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1004"/>
@@ -4855,7 +8596,7 @@
             <text:p>&gt;layoutopt [projectname\res\layout\main.xml]</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="13"/>
-          <table:table-cell table:style-name="ce23" office:value-type="string">
+          <table:table-cell table:style-name="ce34" office:value-type="string">
             <text:p>←　プロジェクトの指定のxmlのみを診断</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1004"/>
@@ -5126,7 +8867,7 @@
             <text:p>&gt;zipalign [-f] [-v] &lt;alignment&gt; infile.apk outfile.apk</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="13"/>
-          <table:table-cell table:style-name="ce23" office:value-type="string">
+          <table:table-cell table:style-name="ce34" office:value-type="string">
             <text:p>←　infile.apkを整列し、outfile.apkとして保存する</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1004"/>
@@ -5137,14 +8878,14 @@
             <text:p>&gt;zipalign -c -v &lt;alignment&gt; existing.apk</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="13"/>
-          <table:table-cell table:style-name="ce23" office:value-type="string">
+          <table:table-cell table:style-name="ce34" office:value-type="string">
             <text:p>←　existing.apkの位置合わせの確認を行う</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1004"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce23" office:value-type="string">
+          <table:table-cell table:style-name="ce34" office:value-type="string">
             <text:p>　　　alignment は必ず4を指定</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1004"/>
@@ -5200,8 +8941,7 @@
         </table:table-row>
       </table:table>
       <table:table table:name="Sheet3" table:style-name="ta3" table:print="false">
-        <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
-        <table:table-column table:style-name="co4" table:number-columns-repeated="1024" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
+        <table:table-column table:style-name="co5" table:number-columns-repeated="1024" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-row table:style-name="ro1" table:number-rows-repeated="1048575">
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
@@ -5217,11 +8957,11 @@
 <file path=meta.xml><?xml version="1.0" encoding="utf-8"?>
 <office:document-meta xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:grddl="http://www.w3.org/2003/g/data-view#" office:version="1.2">
   <office:meta>
-    <dc:date>2012-07-16T15:44:56</dc:date>
+    <dc:date>2012-07-18T21:21:45</dc:date>
     <meta:generator>OpenOffice.org/3.4$Unix OpenOffice.org_project/340m1$Build-9590</meta:generator>
-    <meta:editing-duration>P4DT1H35M8S</meta:editing-duration>
-    <meta:editing-cycles>16</meta:editing-cycles>
-    <meta:document-statistic meta:table-count="6" meta:cell-count="680" meta:object-count="6"/>
+    <meta:editing-duration>P5DT13H13M40S</meta:editing-duration>
+    <meta:editing-cycles>27</meta:editing-cycles>
+    <meta:document-statistic meta:table-count="7" meta:cell-count="1047" meta:object-count="6"/>
   </office:meta>
 </office:document-meta>
 </file>
@@ -5232,8 +8972,8 @@
     <config:config-item-set config:name="ooo:view-settings">
       <config:config-item config:name="VisibleAreaTop" config:type="int">462</config:config-item>
       <config:config-item config:name="VisibleAreaLeft" config:type="int">896</config:config-item>
-      <config:config-item config:name="VisibleAreaWidth" config:type="int">32369</config:config-item>
-      <config:config-item config:name="VisibleAreaHeight" config:type="int">124757</config:config-item>
+      <config:config-item config:name="VisibleAreaWidth" config:type="int">25990</config:config-item>
+      <config:config-item config:name="VisibleAreaHeight" config:type="int">154858</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
@@ -5251,7 +8991,7 @@
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
-              <config:config-item config:name="ZoomValue" config:type="int">50</config:config-item>
+              <config:config-item config:name="ZoomValue" config:type="int">60</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
             </config:config-item-map-entry>
             <config:config-item-map-entry config:name="12章">
@@ -5267,7 +9007,7 @@
               <config:config-item config:name="PositionTop" config:type="int">191</config:config-item>
               <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
-              <config:config-item config:name="ZoomValue" config:type="int">50</config:config-item>
+              <config:config-item config:name="ZoomValue" config:type="int">60</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
             </config:config-item-map-entry>
             <config:config-item-map-entry config:name="1章">
@@ -5283,7 +9023,23 @@
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionBottom" config:type="int">5</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
-              <config:config-item config:name="ZoomValue" config:type="int">50</config:config-item>
+              <config:config-item config:name="ZoomValue" config:type="int">60</config:config-item>
+              <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
+            </config:config-item-map-entry>
+            <config:config-item-map-entry config:name="4章">
+              <config:config-item config:name="CursorPositionX" config:type="int">7</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">334</config:config-item>
+              <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
+              <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
+              <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
+              <config:config-item config:name="VerticalSplitPosition" config:type="int">0</config:config-item>
+              <config:config-item config:name="ActiveSplitRange" config:type="short">2</config:config-item>
+              <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionBottom" config:type="int">305</config:config-item>
+              <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
+              <config:config-item config:name="ZoomValue" config:type="int">60</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
             </config:config-item-map-entry>
             <config:config-item-map-entry config:name="Sheet3">
@@ -5299,7 +9055,7 @@
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
-              <config:config-item config:name="ZoomValue" config:type="int">50</config:config-item>
+              <config:config-item config:name="ZoomValue" config:type="int">60</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
             </config:config-item-map-entry>
             <config:config-item-map-entry config:name="２章">
@@ -5315,7 +9071,7 @@
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionBottom" config:type="int">44</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
-              <config:config-item config:name="ZoomValue" config:type="int">50</config:config-item>
+              <config:config-item config:name="ZoomValue" config:type="int">60</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
             </config:config-item-map-entry>
             <config:config-item-map-entry config:name="３章">
@@ -5329,16 +9085,16 @@
               <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
-              <config:config-item config:name="PositionBottom" config:type="int">225</config:config-item>
+              <config:config-item config:name="PositionBottom" config:type="int">157</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
-              <config:config-item config:name="ZoomValue" config:type="int">50</config:config-item>
+              <config:config-item config:name="ZoomValue" config:type="int">60</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
             </config:config-item-map-entry>
           </config:config-item-map-named>
-          <config:config-item config:name="ActiveTable" config:type="string">３章</config:config-item>
+          <config:config-item config:name="ActiveTable" config:type="string">4章</config:config-item>
           <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">813</config:config-item>
           <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
-          <config:config-item config:name="ZoomValue" config:type="int">50</config:config-item>
+          <config:config-item config:name="ZoomValue" config:type="int">60</config:config-item>
           <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
           <config:config-item config:name="ShowPageBreakPreview" config:type="boolean">false</config:config-item>
           <config:config-item config:name="ShowZeroValues" config:type="boolean">true</config:config-item>
@@ -5395,13 +9151,12 @@
 <file path=styles.xml><?xml version="1.0" encoding="utf-8"?>
 <office:document-styles xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:style="urn:oasis:names:tc:opendocument:xmlns:style:1.0" xmlns:text="urn:oasis:names:tc:opendocument:xmlns:text:1.0" xmlns:table="urn:oasis:names:tc:opendocument:xmlns:table:1.0" xmlns:draw="urn:oasis:names:tc:opendocument:xmlns:drawing:1.0" xmlns:fo="urn:oasis:names:tc:opendocument:xmlns:xsl-fo-compatible:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:number="urn:oasis:names:tc:opendocument:xmlns:datastyle:1.0" xmlns:presentation="urn:oasis:names:tc:opendocument:xmlns:presentation:1.0" xmlns:svg="urn:oasis:names:tc:opendocument:xmlns:svg-compatible:1.0" xmlns:chart="urn:oasis:names:tc:opendocument:xmlns:chart:1.0" xmlns:dr3d="urn:oasis:names:tc:opendocument:xmlns:dr3d:1.0" xmlns:math="http://www.w3.org/1998/Math/MathML" xmlns:form="urn:oasis:names:tc:opendocument:xmlns:form:1.0" xmlns:script="urn:oasis:names:tc:opendocument:xmlns:script:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:ooow="http://openoffice.org/2004/writer" xmlns:oooc="http://openoffice.org/2004/calc" xmlns:dom="http://www.w3.org/2001/xml-events" xmlns:rpt="http://openoffice.org/2005/report" xmlns:of="urn:oasis:names:tc:opendocument:xmlns:of:1.2" xmlns:xhtml="http://www.w3.org/1999/xhtml" xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:tableooo="http://openoffice.org/2009/table" office:version="1.2">
   <office:font-face-decls>
-    <style:font-face style:name="F" svg:font-family="" style:font-family-generic="roman"/>
     <style:font-face style:name="ＭＳ Ｐゴシック2" svg:font-family="'ＭＳ Ｐゴシック'" style:font-family-generic="swiss"/>
     <style:font-face style:name="Monaco" svg:font-family="Monaco" style:font-family-generic="modern" style:font-pitch="fixed"/>
-    <style:font-face style:name="ＭＳ Ｐゴシック" svg:font-family="'ＭＳ Ｐゴシック'" style:font-family-generic="modern" style:font-pitch="variable"/>
+    <style:font-face style:name="ＭＳ Ｐゴシック1" svg:font-family="'ＭＳ Ｐゴシック'" style:font-family-generic="modern" style:font-pitch="variable"/>
     <style:font-face style:name="Arial" svg:font-family="Arial" style:font-family-generic="swiss" style:font-pitch="variable"/>
     <style:font-face style:name="Arial Unicode MS1" svg:font-family="'Arial Unicode MS'" style:font-family-generic="swiss" style:font-pitch="variable"/>
-    <style:font-face style:name="ＭＳ Ｐゴシック1" svg:font-family="'ＭＳ Ｐゴシック'" style:font-family-generic="swiss" style:font-pitch="variable"/>
+    <style:font-face style:name="ＭＳ Ｐゴシック" svg:font-family="'ＭＳ Ｐゴシック'" style:font-family-generic="swiss" style:font-pitch="variable"/>
     <style:font-face style:name="Arial Unicode MS" svg:font-family="'Arial Unicode MS'" style:font-family-generic="system" style:font-pitch="variable"/>
     <style:font-face style:name="Tahoma" svg:font-family="Tahoma" style:font-family-generic="system" style:font-pitch="variable"/>
     <style:font-face style:name="ヒラギノ角ゴ ProN W3" svg:font-family="'ヒラギノ角ゴ ProN W3'" style:font-family-generic="system" style:font-pitch="variable"/>
@@ -5782,7 +9537,7 @@
     <style:style style:name="Excel_20_Built-in_20_Normal" style:display-name="Excel Built-in Normal" style:family="table-cell" style:parent-style-name="Default" style:data-style-name="N5000">
       <style:table-cell-properties style:cell-protect="protected" style:print-content="true" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" fo:border="none" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle"/>
       <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
-      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック1" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
   </office:styles>
   <office:automatic-styles>
@@ -5846,9 +9601,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2012-07-16">2012/07/16</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2012-07-18">2012/07/18</text:date>
             , 
-            <text:time>15:44:56</text:time>
+            <text:time>21:21:45</text:time>
           </text:p>
         </style:region-right>
       </style:header>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -25,6 +25,8 @@
 <office:document-content xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:style="urn:oasis:names:tc:opendocument:xmlns:style:1.0" xmlns:text="urn:oasis:names:tc:opendocument:xmlns:text:1.0" xmlns:table="urn:oasis:names:tc:opendocument:xmlns:table:1.0" xmlns:draw="urn:oasis:names:tc:opendocument:xmlns:drawing:1.0" xmlns:fo="urn:oasis:names:tc:opendocument:xmlns:xsl-fo-compatible:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:number="urn:oasis:names:tc:opendocument:xmlns:datastyle:1.0" xmlns:presentation="urn:oasis:names:tc:opendocument:xmlns:presentation:1.0" xmlns:svg="urn:oasis:names:tc:opendocument:xmlns:svg-compatible:1.0" xmlns:chart="urn:oasis:names:tc:opendocument:xmlns:chart:1.0" xmlns:dr3d="urn:oasis:names:tc:opendocument:xmlns:dr3d:1.0" xmlns:math="http://www.w3.org/1998/Math/MathML" xmlns:form="urn:oasis:names:tc:opendocument:xmlns:form:1.0" xmlns:script="urn:oasis:names:tc:opendocument:xmlns:script:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:ooow="http://openoffice.org/2004/writer" xmlns:oooc="http://openoffice.org/2004/calc" xmlns:dom="http://www.w3.org/2001/xml-events" xmlns:xforms="http://www.w3.org/2002/xforms" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:rpt="http://openoffice.org/2005/report" xmlns:of="urn:oasis:names:tc:opendocument:xmlns:of:1.2" xmlns:xhtml="http://www.w3.org/1999/xhtml" xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:tableooo="http://openoffice.org/2009/table" xmlns:field="urn:openoffice:names:experimental:ooo-ms-interop:xmlns:field:1.0" office:version="1.2">
   <office:scripts/>
   <office:font-face-decls>
+    <style:font-face style:name="F" svg:font-family="" style:font-family-generic="roman"/>
+    <style:font-face style:name="Helvetica" svg:font-family="Helvetica" style:font-family-generic="swiss"/>
     <style:font-face style:name="ＭＳ Ｐゴシック2" svg:font-family="'ＭＳ Ｐゴシック'" style:font-family-generic="swiss"/>
     <style:font-face style:name="Monaco" svg:font-family="Monaco" style:font-family-generic="modern" style:font-pitch="fixed"/>
     <style:font-face style:name="ＭＳ Ｐゴシック1" svg:font-family="'ＭＳ Ｐゴシック'" style:font-family-generic="modern" style:font-pitch="variable"/>
@@ -42,16 +44,19 @@
     <style:style style:name="co2" style:family="table-column">
       <style:table-column-properties fo:break-before="auto" style:column-width="1.005cm"/>
     </style:style>
-    <style:style style:name="co5" style:family="table-column">
+    <style:style style:name="co3" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="0.931cm"/>
+    </style:style>
+    <style:style style:name="co4" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="0.868cm"/>
+    </style:style>
+    <style:style style:name="co6" style:family="table-column">
       <style:table-column-properties fo:break-before="auto" style:column-width="2.148cm"/>
     </style:style>
-    <style:style style:name="co4" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="0.931cm"/>
+    <style:style style:name="co7" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="0.935cm"/>
     </style:style>
-    <style:style style:name="co6" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="0.868cm"/>
-    </style:style>
-    <style:style style:name="co7" style:family="table-column">
+    <style:style style:name="co8" style:family="table-column">
       <style:table-column-properties fo:break-before="auto" style:column-width="0.834cm"/>
     </style:style>
     <style:style style:name="ro1" style:family="table-row">
@@ -62,6 +67,9 @@
     </style:style>
     <style:style style:name="ro3" style:family="table-row">
       <style:table-row-properties style:row-height="0.467cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+    </style:style>
+    <style:style style:name="ro4" style:family="table-row">
+      <style:table-row-properties style:row-height="0.422cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
     <style:style style:name="ta1" style:family="table" style:master-page-name="PageStyle_5f_Sheet2">
       <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
@@ -144,29 +152,36 @@
     <style:style style:name="ce9" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties fo:border-bottom="none" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="0.002cm solid #000000"/>
     </style:style>
-    <style:style style:name="ce28" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce22" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties fo:border-bottom="none" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="none"/>
       <style:text-properties fo:color="#00cccc"/>
     </style:style>
-    <style:style style:name="ce29" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce23" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:border-bottom="none" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="0.002cm solid #000000"/>
       <style:text-properties style:text-outline="false" style:text-line-through-style="none" fo:language="en" fo:country="US" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:language-asian="en" style:country-asian="US" style:font-style-asian="normal" style:font-weight-asian="normal" style:language-complex="en" style:country-complex="US" style:font-style-complex="normal" style:font-weight-complex="normal" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
     </style:style>
-    <style:style style:name="ce30" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce24" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties fo:border-bottom="none" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="0.002cm solid #000000"/>
       <style:text-properties style:font-name="Monaco" fo:language="en" fo:country="US" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:font-name-asian="Monaco" style:language-asian="en" style:country-asian="US" style:font-name-complex="Monaco" style:font-size-complex="6.25pt" style:language-complex="en" style:country-complex="US" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
     </style:style>
-    <style:style style:name="ce31" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce25" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties fo:border-bottom="none" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="none"/>
       <style:text-properties style:font-name="Monaco" fo:language="en" fo:country="US" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:font-name-asian="Monaco" style:language-asian="en" style:country-asian="US" style:font-name-complex="Monaco" style:font-size-complex="6.25pt" style:language-complex="en" style:country-complex="US" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
     </style:style>
-    <style:style style:name="ce32" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce26" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:border-bottom="none" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="none"/>
     </style:style>
     <style:style style:name="ce33" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="none" fo:background-color="transparent" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="none"/>
+    </style:style>
+    <style:style style:name="ce34" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties style:text-align-source="value-type" style:repeat-content="false"/>
+      <style:paragraph-properties fo:margin-left="0cm"/>
+    </style:style>
+    <style:style style:name="ce35" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:text-properties fo:color="#0070c0" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-name-asian="ＭＳ Ｐゴシック1" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
     </style:style>
-    <style:style style:name="ce34" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce36" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:text-properties fo:color="#ff0000" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
     <style:style style:name="gr1" style:family="graphic">
@@ -218,6 +233,15 @@
     <style:style style:name="T12" style:family="text">
       <style:text-properties fo:color="#0000ff"/>
     </style:style>
+    <style:style style:name="T16" style:family="text">
+      <style:text-properties fo:color="#7f0055" style:font-name="Monaco" fo:font-size="11pt" fo:font-weight="bold" style:font-name-asian="Monaco" style:font-size-asian="11pt" style:font-weight-asian="bold" style:font-name-complex="Monaco" style:font-size-complex="6.30000019073486pt" style:font-weight-complex="bold"/>
+    </style:style>
+    <style:style style:name="T17" style:family="text">
+      <style:text-properties fo:color="#0000ff" style:font-name="Monaco" fo:font-size="11pt" style:font-name-asian="Monaco" style:font-size-asian="11pt" style:font-name-complex="Monaco" style:font-size-complex="6.30000019073486pt"/>
+    </style:style>
+    <style:style style:name="T18" style:family="text">
+      <style:text-properties fo:color="#0000c0" style:font-name="Monaco" fo:font-size="11pt" fo:font-style="italic" style:font-name-asian="Monaco" style:font-size-asian="11pt" style:font-style-asian="italic" style:font-name-complex="Monaco" style:font-size-complex="6.30000019073486pt" style:font-style-complex="italic"/>
+    </style:style>
     <style:style style:name="T13" style:family="text">
       <style:text-properties fo:color="#47b8b8"/>
     </style:style>
@@ -227,19 +251,16 @@
     <style:style style:name="T15" style:family="text">
       <style:text-properties fo:color="#000000"/>
     </style:style>
-    <style:style style:name="T16" style:family="text">
-      <style:text-properties fo:color="#7f0055" style:font-name="Monaco" fo:font-size="11pt" fo:font-weight="bold" style:font-name-asian="Monaco" style:font-size-asian="11pt" style:font-weight-asian="bold" style:font-name-complex="Monaco" style:font-size-complex="6.30000019073486pt" style:font-weight-complex="bold"/>
+    <style:style style:name="T22" style:family="text">
+      <style:text-properties fo:color="#808019"/>
     </style:style>
-    <style:style style:name="T17" style:family="text">
-      <style:text-properties fo:color="#0000ff" style:font-name="Monaco" fo:font-size="11pt" style:font-name-asian="Monaco" style:font-size-asian="11pt" style:font-name-complex="Monaco" style:font-size-complex="6.30000019073486pt"/>
+    <style:style style:name="T23" style:family="text">
+      <style:text-properties fo:color="#b3b300"/>
     </style:style>
-    <style:style style:name="T18" style:family="text">
-      <style:text-properties fo:color="#0000c0" style:font-name="Monaco" fo:font-size="11pt" fo:font-style="italic" style:font-name-asian="Monaco" style:font-size-asian="11pt" style:font-style-asian="italic" style:font-name-complex="Monaco" style:font-size-complex="6.30000019073486pt" style:font-style-complex="italic"/>
-    </style:style>
-    <style:style style:name="T19" style:family="text">
+    <style:style style:name="T24" style:family="text">
       <style:text-properties fo:color="#0070c0" style:text-outline="false" style:text-line-through-style="none" style:text-position="0% 100%" style:font-name="ＭＳ Ｐゴシック1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-name-asian="ＭＳ Ｐゴシック1" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
     </style:style>
-    <style:style style:name="T20" style:family="text">
+    <style:style style:name="T25" style:family="text">
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-position="0% 100%" style:font-name="ＭＳ Ｐゴシック" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
   </office:automatic-styles>
@@ -4247,9 +4268,9 @@
       <table:table table:name="4章" table:style-name="ta1" table:print="false">
         <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
         <table:table-column table:style-name="co1" table:number-columns-repeated="4" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
+        <table:table-column table:style-name="co3" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
+        <table:table-column table:style-name="co1" table:number-columns-repeated="17" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-column table:style-name="co4" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
-        <table:table-column table:style-name="co1" table:number-columns-repeated="17" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
-        <table:table-column table:style-name="co6" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-column table:style-name="co1" table:number-columns-repeated="1001" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="16"/>
@@ -4340,7 +4361,7 @@
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="5"/>
-          <table:table-cell table:style-name="ce29" office:value-type="string">
+          <table:table-cell table:style-name="ce23" office:value-type="string">
             <text:p>
               <text:span text:style-name="T4">
                 <text:tab/>
@@ -4495,7 +4516,7 @@
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="5"/>
-          <table:table-cell table:style-name="ce30" office:value-type="string">
+          <table:table-cell table:style-name="ce24" office:value-type="string">
             <text:p>
               <text:span text:style-name="T16">public</text:span>
               <text:span text:style-name="T4"> </text:span>
@@ -4526,7 +4547,7 @@
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="5"/>
-          <table:table-cell table:style-name="ce31" office:value-type="string">
+          <table:table-cell table:style-name="ce25" office:value-type="string">
             <text:p>
               <text:span text:style-name="T4">
                 <text:tab/>
@@ -4698,7 +4719,7 @@
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="5"/>
-          <table:table-cell table:style-name="ce30" office:value-type="string">
+          <table:table-cell table:style-name="ce24" office:value-type="string">
             <text:p>
               <text:span text:style-name="T16">public</text:span>
               <text:span text:style-name="T4"> </text:span>
@@ -4725,7 +4746,7 @@
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="5"/>
-          <table:table-cell table:style-name="ce31" office:value-type="string">
+          <table:table-cell table:style-name="ce25" office:value-type="string">
             <text:p>
               <text:span text:style-name="T4">
                 <text:tab/>
@@ -4769,7 +4790,7 @@
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="5"/>
-          <table:table-cell table:style-name="ce32"/>
+          <table:table-cell table:style-name="ce26"/>
           <table:table-cell table:number-columns-repeated="14"/>
           <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="1003"/>
@@ -4886,7 +4907,7 @@
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="5"/>
-          <table:table-cell table:style-name="ce31" office:value-type="string">
+          <table:table-cell table:style-name="ce25" office:value-type="string">
             <text:p>
               <text:s text:c="8"/>
               setContentView(layout);
@@ -7048,7 +7069,7 @@
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="4"/>
-          <table:table-cell table:style-name="ce28" office:value-type="string">
+          <table:table-cell table:style-name="ce22" office:value-type="string">
             <text:p>
               <text:s text:c="2"/>
               // 通常ダイアログの表示
@@ -7352,7 +7373,7 @@
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="4"/>
-          <table:table-cell table:style-name="ce28" office:value-type="string">
+          <table:table-cell table:style-name="ce22" office:value-type="string">
             <text:p>
               <text:s text:c="2"/>
               // 単一選択ダイアログの表示
@@ -7388,7 +7409,7 @@
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="4"/>
-          <table:table-cell table:style-name="ce28" office:value-type="string">
+          <table:table-cell table:style-name="ce22" office:value-type="string">
             <text:p>
               <text:span text:style-name="T15">
                 <text:s text:c="2"/>
@@ -7944,6 +7965,5157 @@
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
       </table:table>
+      <table:table table:name="5章" table:style-name="ta1" table:print="false">
+        <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
+        <table:table-column table:style-name="co1" table:number-columns-repeated="22" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
+        <table:table-column table:style-name="co7" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
+        <table:table-column table:style-name="co1" table:number-columns-repeated="1001" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce3"/>
+          <table:table-cell table:number-columns-repeated="1007"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>5章</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1022"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>●</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>メニュー</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>オプションメニュー</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="168"/>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:number-columns-repeated="855"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce9" office:value-type="string">
+            <text:p>package jp.co.knowd;</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce18"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>import android.app.Activity;</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>import android.app.AlertDialog;</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>import android.content.DialogInterface;</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>import android.os.Bundle;</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>import android.view.Menu;</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>import android.view.MenuItem;</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>import android.view.SubMenu;</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>public class MenuSample1Activity extends Activity {</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              /** Called when the activity is first created. */
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              @Override
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              public void onCreate(Bundle savedInstanceState) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              super.onCreate(savedInstanceState);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              setContentView(R.layout.main);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              //オプションメニュー生成
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              public boolean 
+              <text:span text:style-name="T12">onCreateOptionsMenu</text:span>
+              (Menu 
+              <text:span text:style-name="T14">menu</text:span>
+              ) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>onCreateOptionMenu</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="998"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              super.onCreateOptionsMenu(menu);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>固定メニューの登録。オプションメニュー押下時に１度だけ呼び出される</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="997"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>戻り値</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>boolean</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="994"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              // メニューアイテム1の追加
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              <text:span text:style-name="T12">MenuItem</text:span>
+               item1=
+              <text:span text:style-name="T14">menu</text:span>
+              .
+              <text:span text:style-name="T12">add</text:span>
+              (0,0,0,"menu1");
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell table:style-name="Default" office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>onPrepareOptionMenu</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="12"/>
+          <table:table-cell table:number-columns-repeated="985"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>動的にメニューを変えたい場合に使用。</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="12"/>
+          <table:table-cell table:number-columns-repeated="985"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              // メニューアイテム2の追加
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>実装方法はonCreateOptionMenuと同じ</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="12"/>
+          <table:table-cell table:number-columns-repeated="985"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              MenuItem 
+              <text:span text:style-name="T14">item2</text:span>
+              =menu.add(0,1,0,"menu2");
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="15"/>
+          <table:table-cell table:number-columns-repeated="985"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              <text:span text:style-name="T14">item2</text:span>
+              .
+              <text:span text:style-name="T12">setIcon</text:span>
+              (android.R.drawable.ic_menu_search);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="15"/>
+          <table:table-cell table:number-columns-repeated="985"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>add</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="998"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              // メニューアイテム3の追加
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>第一引数</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>グループID</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="994"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              MenuItem item3=menu.add(0,2,0,"menu3");
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>第二引数</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>アイテムID</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="994"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              item3.setIcon(android.R.drawable.ic_menu_camera);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>第三引数</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>表示順（同じ値（第四引数？）の場合に設定順に並ぶ）</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="994"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>第四引数</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>表示されるテキスト</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="994"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              //メニューアイテム4の追加
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              MenuItem item4=menu.add(0,3,0,"menu4");
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              item4.setIcon(android.R.drawable.ic_menu_save);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              //メニューアイテム5の追加
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              MenuItem item5=menu.add(0,4,0,"menu5");
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              item5.setIcon(android.R.drawable.ic_menu_call);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              //メニューアイテム6の追加
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>メニューのアイテムは６つまで</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="998"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              <text:span text:style-name="T12">SubMenu</text:span>
+               item6=menu.
+              <text:span text:style-name="T12">addSubMenu</text:span>
+              (0,5,0,"その他");
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>６つ以上登録したい場合、サブメニューとして登録可能</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="998"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              item6.setIcon(android.R.drawable.ic_menu_more);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              item6.
+              <text:span text:style-name="T12">add</text:span>
+              (0,10,0,"submenu1");
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>addSubMenu</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="998"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              item6.add(0,20,0,"submenu2");
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>戻り値はSubMenu</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="997"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              return true;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>その他のMenuインターフェースのメソッド</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="998"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              //メニューアイテム選択処理
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>setGroupCheckable</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="997"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              public boolean onOptionsItemSelected(MenuItem item) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>第一引数</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>チェック可能にしたいグループID</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="993"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              switch (item.getItemId()) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>第二引数</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>チェック可能にするか否か</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="993"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              case 0:
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>第三引数</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>各アイテムを排他的にチェック可能にするか否か</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="993"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              showDialog("メニュー1を選択しました。");
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              return true;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>setGroupVisible</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="997"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="5"/>
+              case 1:
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>第一引数</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>表示可能にしたいグループID</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="993"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              showDialog("メニュー2を選択しました。");
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>第二引数</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>表示可能にするか否か</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="993"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              return true;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="5"/>
+              case 2:
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              showDialog("メニュー3を選択しました。");
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>setGroupEnabled</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="997"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              return true;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>第一引数</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>使用可能にしたいグループID</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="993"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="5"/>
+              case 3:
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>第二引数</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>使用可能にするか否か</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="993"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              showDialog("メニュー4を選択しました。");
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              return true;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="5"/>
+              case 4:
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              showDialog("メニュー5を選択しました。");
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              return true;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="5"/>
+              case 10:
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              showDialog("サブメニュー1を選択しました。");
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              return true;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="5"/>
+              case 20:
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              showDialog("サブメニュー2を選択しました。");
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              return true;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              return true;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              // showDialogメソッド(ダイアログ表示)
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              private void showDialog(String text) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              AlertDialog.Builder dialog=
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>new AlertDialog.Builder(MenuSample1Activity.this);</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              dialog.setTitle("メニューアイテム選択結果");
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              dialog.setMessage(text);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              dialog.setPositiveButton("OK",new DialogInterface.OnClickListener() {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              public void onClick(DialogInterface dialog, int whichButton) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              MenuSample1Activity.this.setResult(Activity.RESULT_OK);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              });
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              dialog.create();
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              dialog.show();
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>}</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell table:style-name="ce11" table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce20"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>オプションメニュー　（リソースファイルを利用した場合）</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>mymenu.xml</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce5" office:value-type="string">
+            <text:p>&lt;?xml version="1.0" encoding="utf-8"?&gt;</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce18"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              &lt;
+              <text:span text:style-name="T12">menu</text:span>
+               xmlns:android="http://schemas.android.com/apk/res/android"&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              &lt;
+              <text:span text:style-name="T12">item</text:span>
+               android:id="@+id/menu1"
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:s text:c="10"/>
+              android:title="menu1" /&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              &lt;
+              <text:span text:style-name="T12">group</text:span>
+               android:id="@+id/group"
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:s text:c="11"/>
+              android:
+              <text:span text:style-name="T12">checkableBehavior</text:span>
+              ="
+              <text:span text:style-name="T14">single</text:span>
+              "&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>checkableBehavior</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="998"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              &lt;item android:id="@+id/group_item1"
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>チェック可否の設定が可能</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="997"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:s text:c="14"/>
+              android:title="menu1"/&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              &lt;item android:id="@+id/group_item2"
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="9"/>
+          <table:table-cell table:number-columns-repeated="990"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:s text:c="14"/>
+              android:title="menu2"/&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="9"/>
+          <table:table-cell table:number-columns-repeated="990"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              &lt;/group&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="9"/>
+          <table:table-cell table:number-columns-repeated="990"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              &lt;item android:id="@+id/submenu"
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="9"/>
+          <table:table-cell table:number-columns-repeated="990"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:s text:c="10"/>
+              android:title="submenu1" &gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="9"/>
+          <table:table-cell table:number-columns-repeated="990"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              &lt;menu&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="9"/>
+          <table:table-cell table:number-columns-repeated="990"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:s text:c="12"/>
+              &lt;item android:id="@+id/submenu_item1"
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="9"/>
+          <table:table-cell table:number-columns-repeated="990"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:s text:c="18"/>
+              android:title="submenu1" /&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="9"/>
+          <table:table-cell table:number-columns-repeated="990"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              &lt;/menu&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="9"/>
+          <table:table-cell table:number-columns-repeated="990"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              &lt;/item&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="9"/>
+          <table:table-cell table:number-columns-repeated="990"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>&lt;/menu&gt;</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="9"/>
+          <table:table-cell table:number-columns-repeated="990"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell table:style-name="ce11" table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce20"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="9"/>
+          <table:table-cell table:number-columns-repeated="990"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="25"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="9"/>
+          <table:table-cell table:number-columns-repeated="990"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce9" office:value-type="string">
+            <text:p>public class MenuSample2Activity extends Activity {</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce18"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              /** Called when the activity is first created. */
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              @Override
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              public void onCreate(Bundle savedInstanceState) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              super.onCreate(savedInstanceState);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              setContentView(R.layout.main);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              // Option Menu が最初に表示される時に1度だけ呼び出される
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              @Override
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              public boolean onCreateOptionsMenu(Menu menu) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              super.onCreateOptionsMenu(menu);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              // MenuInflater の取得
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              <text:span text:style-name="T12">MenuInflater</text:span>
+               menuInflater = 
+              <text:span text:style-name="T12">getMenuInflater</text:span>
+              ();
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              // MenuInflater から XML の取得
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              menuInflater.
+              <text:span text:style-name="T12">inflate</text:span>
+              (
+              <text:span text:style-name="T14">R.menu.mymenu</text:span>
+              , 
+              <text:span text:style-name="T22">menu</text:span>
+              );
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              return true;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>}</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell table:style-name="ce11" table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce20"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>●</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>コンテキストメニュー</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>ビューを長押ししたときに表示されるメニュー</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>表示されるメニュー数に制限はなし</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce9" office:value-type="string">
+            <text:p>public class MenuSample3Activity extends Activity {</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce18"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              /** Called when the activity is first created. */
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              @Override
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              public void onCreate(Bundle savedInstanceState) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              super.onCreate(savedInstanceState);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              setContentView(R.layout.main);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              // リストビューに表示するリスト作成
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              List&lt;String&gt; list = new ArrayList&lt;String&gt;();
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              list.add("日本酒");
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              list.add("焼酎");
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              list.add("泡盛");
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              // リストアダプタ生成
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              ListAdapter adapter = new ArrayAdapter&lt;String&gt;(this
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="16"/>
+              ,android.R.layout.simple_list_item_1
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="16"/>
+              ,list);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              // リストビューにアダプタを設定
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              ListView listView = (ListView)findViewById(R.id.listview);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              listView.setAdapter(adapter);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              // コンテキストメニューにリストビューを登録
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              <text:span text:style-name="T12">registerForContextMenu</text:span>
+              (listView);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>registerForContextMenu</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="998"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>長押し対象のビューをContextMenuにひも付ける</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="997"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              listView.setOnItemClickListener(new ListItemClickListener());
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              // onCreateContextMenuメソッド(コンテキストメニュー生成)
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              public void 
+              <text:span text:style-name="T12">onCreateContextMenu</text:span>
+              (ContextMenu menu,
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>onCreateContextMenu</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="998"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>
+              <text:s text:c="27"/>
+              View v,
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>第一引数</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="997"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>
+              <text:s text:c="27"/>
+              ContextMenuInfo menuInfo) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>第二引数</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="997"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              // コンテキストメニュー生成
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>第三引数</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="997"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              menu.
+              <text:span text:style-name="T12">setHeaderTitle</text:span>
+              ("コンテキストメニュー");
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              menu.
+              <text:span text:style-name="T12">add</text:span>
+              ("好き");
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              menu.add("嫌い");
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              super.onCreateContextMenu(menu, v, menuInfo);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              // onContextItemSelectedメソッド(コンテキストメニュー選択)
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              public boolean onContextItemSelected(MenuItem item) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              // 選択されたメニューアイテムをテキストビューに表示
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              TextView textView = (TextView) findViewById(R.id.textview);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              textView.setText("コンテキストメニューで選択: " +
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>
+              <text:s text:c="34"/>
+              item.getTitle());
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              return super.onContextItemSelected(item);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              class ListItemClickListener implements OnItemClickListener {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="10"/>
+              public void onItemClick(AdapterView&lt;?&gt; parent,
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>
+              <text:s text:c="3"/>
+              View view,
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="10"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>
+              <text:s text:c="3"/>
+              int position,
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="10"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>
+              <text:s text:c="3"/>
+              long id) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="10"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              ListView listview = (ListView)parent;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>String item =</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>
+              <text:s text:c="11"/>
+              (String)listview.getItemAtPosition(position);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="12"/>
+              TextView textView = (TextView) findViewById(R.id.textview);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="12"/>
+              textView.setText("選択した項目: " + item);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="10"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="7"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce7" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce11" table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce20"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="3">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>●</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>ノーティフィケーション</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>Andoroid 画面上部のステータスバーに通知アイコンやメッセージを表示する機能</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce9"/>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce18"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:span text:style-name="T12">Notification</text:span>
+              <text:span text:style-name="T14">notification</text:span>
+               = new Notification(icon , msg , when )
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:span text:style-name="T12">NotificationManager</text:span>
+               nManager = (NotificationManager) getSystemnService(Context.NOTIFICATION_SERVICE);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              nManager.
+              <text:span text:style-name="T12">notify</text:span>
+              (id , 
+              <text:span text:style-name="T14">notification</text:span>
+              );
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell table:style-name="ce11" table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce20"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>第一引数</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>アイコン画像</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1015"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>第二引数</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>展開ビュー用のタイトルとメッセージ</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1015"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>第三引数</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>通知が選択されたときに発信するための　PendingIntent </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1015"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>※</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>APIレベル11（Andoroid ver 3.0）から上記のコンストラクタは非推奨</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>以下の情報もオプションとして追加可能</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>テロップメッセージ</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1016"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>警告サウンド</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1016"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>バイブレーター</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1016"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>フラッシュライト</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1016"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro4">
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>●</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>スタイル</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>文字列の色、大きさ、太字などのパターンをスタイルとして設定する</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>res/values　ディレクトリに作成する</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce5" office:value-type="string">
+            <text:p>&lt;?xml version="1.0" encoding="utf-8"?&gt;</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce18"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              &lt;
+              <text:span text:style-name="T12">resources</text:span>
+              &gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              &lt;
+              <text:span text:style-name="T12">style</text:span>
+              <text:span text:style-name="T12">name</text:span>
+              ="
+              <text:span text:style-name="T14">StyleSample</text:span>
+              "
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:s text:c="11"/>
+              <text:span text:style-name="T12">parent</text:span>
+              ="
+              <text:span text:style-name="T14">@android:style/TextAppearance.Medium</text:span>
+              "&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>⬅　parent　でベースとなるスタイルを指定する</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              &lt;item name="android:layout_width"&gt;fill_parent&lt;/item&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              &lt;item name="android:layout_height"&gt;wrap_content&lt;/item&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              &lt;item name="android:textColor"&gt;#FF0000&lt;/item&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              &lt;item name="android:background"&gt;#FFFFFF&lt;/item&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              &lt;item name="android:textStyle"&gt;bold&lt;/item&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              &lt;item name="android:textSize"&gt;20sp&lt;/item&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              &lt;/style&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>&lt;/resources&gt;</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell table:style-name="ce11" table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce20"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>参照先のソースコード</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce9"/>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce18"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>&lt;TextView</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              style=”@style/
+              <text:span text:style-name="T14">StyleSample</text:span>
+              ”
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              android:text=”@string/hello”
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce7" office:value-type="string">
+            <text:p>/&gt;</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce11" table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce20"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>●</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>テーマ</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>アプリ全体、またはアクティビティ全体に統一したスタイルを適用する機能</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>基本的にスタイルと同じ</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>AndroidManifest.xml 内で設定をおこなう</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce5" office:value-type="string">
+            <text:p>&lt;?xml version="1.0" encoding="utf-8"?&gt;</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce18"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>&lt;manifest xmlns:android="http://schemas.android.com/apk/res/android"</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              package="jp.co.knowd"
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              android:versionCode="1"
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              android:versionName="1.0"&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              &lt;uses-sdk android:minSdkVersion="10" /&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6"/>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              &lt;
+              <text:span text:style-name="T12">application</text:span>
+               android:icon="@drawable/icon"
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>⬅　ここではアプリ全体への適用を行っている</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:s text:c="17"/>
+              android:label="@string/app_name"
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>　　activity　タグに指定すればアクティビティ個別に適用される</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:s text:c="17"/>
+              android:
+              <text:span text:style-name="T12">theme</text:span>
+              ="@style/
+              <text:span text:style-name="T14">StyleSample</text:span>
+              "&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              &lt;activity android:name=".ThemeSampleActivity"
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:s text:c="18"/>
+              android:label="@string/app_name"&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:s text:c="12"/>
+              &lt;intent-filter&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:s text:c="16"/>
+              &lt;action android:name="android.intent.action.MAIN" /&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:s text:c="16"/>
+              &lt;category android:name="android.intent.category.LAUNCHER" /&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:s text:c="12"/>
+              &lt;/intent-filter&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              &lt;/activity&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6"/>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              &lt;/application&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>&lt;/manifest&gt;</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell table:style-name="ce11" table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce20"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>●</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>レイアウトの種類</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>LinearLayout</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>ビューを縦、または横に一直線に並べる</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1013"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>TableLayout</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>表形式に配置する</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1013"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>RelativeLayout</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>複数のビューを相対的な位置指定を行う</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1013"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>AbsoluteLayout</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>絶対座標で指定する</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1013"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>FrameLayout</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>複数のビューを配置すると後から配置したものが上に重なる。常に左上に配置</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1013"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>●</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>寸法の単位</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>dp</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>Density-independent Pixels</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell office:value-type="string">
+            <text:p>画面の物理的な密度に基づく抽象的な単位</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1008"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>sp</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>Scale-independent Pixels</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell office:value-type="string">
+            <text:p>フォントサイズによって自動的にスケールされる</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1008"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>pt</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>Points</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell office:value-type="string">
+            <text:p>１ポイント＝1/72インチ</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1008"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>px</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>Pixels</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell office:value-type="string">
+            <text:p>画面のピクセル数</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1008"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>mm</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>Millmeters</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell office:value-type="string">
+            <text:p>ミリメートル</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1008"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>in</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>inches</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell office:value-type="string">
+            <text:p>インチ</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1008"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>●</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>グラフィックス</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>グラフィックス</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>　</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>OpenGL ES</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce34" office:value-type="string">
+            <text:p>2D, 3D のグラフィックスライブラリ</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1014"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>アニメーション</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Frame アニメーション</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>res/drawable/ に保存</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1017"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>R.drawable クラスから参照</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1017"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>android.graphics.drawable パッケージとして提供</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1017"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Tween　アニメーション</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>res/anim/ に保存</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1017"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>R.anim クラスから参照</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1017"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>android.view.animation パッケージとして提供</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1017"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>AlphaAnimation</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>透明度を設定しフェードイン・フェードアウト</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1010"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>RotateAnimation</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>回転</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1010"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>ScaleAnimation</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>拡大縮小</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1010"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>TranslateAnimation</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>移動</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1010"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>AnimationSet</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>複数のアニメーションを合成</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1010"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>R.anim.alpha　（alpha　のサンプル）</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1017"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce9"/>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce18"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>&lt;?xml version="1.0" encoding="utf-8"?&gt;</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              &lt;
+              <text:span text:style-name="T12">alpha</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>xmlns:android="http://schemas.android.com/apk/res/android"</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s/>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>
+              android:
+              <text:span text:style-name="T12">duration</text:span>
+              ="10000"
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>⬅　ミリ秒　指定</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>
+              android:
+              <text:span text:style-name="T12">fromAlpha</text:span>
+              ="1.0"
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>⬅　開始透明度　1.0は完全不透明</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>
+              android:
+              <text:span text:style-name="T12">toAlpha</text:span>
+              ="0.1" /&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>⬅　終了透明度　0.0は完全透明</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell table:style-name="ce11" table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce20"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>参照ソース</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1017"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce9"/>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce18"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>public class AlphaSampleActivity extends Activity {</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              /** Called when the activity is first created. */
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              @Override
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              public void onCreate(Bundle savedInstanceState) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              super.onCreate(savedInstanceState);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              setContentView(R.layout.main);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              Button button = (Button) findViewById(R.id.button1);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              <text:span text:style-name="T12">Animation</text:span>
+              <text:span text:style-name="T14">animation</text:span>
+              =
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="13"/>
+              <text:span text:style-name="T12">AnimationUtils.loadAnimation</text:span>
+              (this,
+              <text:span text:style-name="T14">R.anim.alpha</text:span>
+              );
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              button.
+              <text:span text:style-name="T12">startAnimation</text:span>
+              (
+              <text:span text:style-name="T14">animation</text:span>
+              );
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>}</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell table:style-name="ce11" table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce20"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>●</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>キャンバス</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>描画機能</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce9" office:value-type="string">
+            <text:p>public class CanvasSampleActivity extends Activity {</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce18"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              /** Called when the activity is first created. */
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              @Override
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              public void onCreate(Bundle savedInstanceState) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              super.onCreate(savedInstanceState);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              MyRectView view = new MyRectView(getApplication());
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              setContentView(view);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>}</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>//表示用のクラス</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>class MyRectView extends View {</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              // View の初期化
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              public MyRectView(Context context) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              super(context);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              setFocusable(true);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              // 実際に描画を行うメソッド
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              protected void 
+              <text:span text:style-name="T12">onDraw</text:span>
+              (
+              <text:span text:style-name="T12">Canvas</text:span>
+              <text:span text:style-name="T14">canvas</text:span>
+              ) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              super.onDraw(canvas);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              // 背景色の設定
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              <text:span text:style-name="T14">canvas</text:span>
+              .
+              <text:span text:style-name="T12">drawColor</text:span>
+              (Color.WHITE);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>⬅　背景色の設定</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              // 描画オブジェクトの生成
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              <text:span text:style-name="T12">Paint</text:span>
+              <text:span text:style-name="T14">paint</text:span>
+               = new Paint();
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              <text:span text:style-name="T14">paint</text:span>
+              .
+              <text:span text:style-name="T12">setAntiAlias</text:span>
+              (true);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>⬅　アンチエイリアスの設定</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              // 矩形を描画する
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              <text:span text:style-name="T14">paint</text:span>
+              .
+              <text:span text:style-name="T12">setStyle</text:span>
+              (
+              <text:span text:style-name="T23">Paint.Style.FILL</text:span>
+              );
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>⬅　塗りつぶし</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              <text:span text:style-name="T14">paint</text:span>
+              .
+              <text:span text:style-name="T12">setColor</text:span>
+              (Color.BLUE);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce33" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              <text:span text:style-name="T14">canvas</text:span>
+              .
+              <text:span text:style-name="T12">drawRect</text:span>
+              (10, 20, 30, 40, paint);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>⬅　配置（左、上、右、下　、ペイント）</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              Rect rect = new Rect(20, 30, 40, 50);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              paint.setColor(Color.RED);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              canvas.drawRect(rect, paint);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              paint.setStyle(
+              <text:span text:style-name="T23">Style.STROKE</text:span>
+              );
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>⬅　輪郭線のみ描画</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              canvas.drawRect(10, 70, 50, 100, paint);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>}</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>drawRect</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>四角</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="997"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell table:style-name="ce11" table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce20"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>drawCircle</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>円</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="997"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="22"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>drawLine</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>線</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="997"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>●</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>サーフェスビュー</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>高速に描画を行う機能。ゲームに適している</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce9" office:value-type="string">
+            <text:p>public class SurfaceSampleActivity extends Activity {</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce18"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              public void onCreate(Bundle savedInstanceState) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              super.onCreate(savedInstanceState);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              setContentView(new MySurfaceView(this));
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              // SurfaceViewを継承したサブクラス
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              class MySurfaceView extends 
+              <text:span text:style-name="T12">SurfaceView</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="17"/>
+              implements 
+              <text:span text:style-name="T12">SurfaceHolder.Callback</text:span>
+               {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              public MySurfaceView(Context context) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              // コンストラクタ
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              super(context);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              // SurfaceHolderを取得するために、getHolderメソッドを呼び出す
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              // そして、コールバックを登録するために、addCallbackメソッドも呼び出す。
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              <text:span text:style-name="T12">getHolder().addCallback</text:span>
+              (this);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              public void 
+              <text:span text:style-name="T12">surfaceChanged</text:span>
+              (SurfaceHolder holder,
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>⬅</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>SurfaceViewのサイズなどが変更されたときに呼び出されるメソッド</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="31"/>
+              int format, int width,int height) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>今回は何もしない</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              public void 
+              <text:span text:style-name="T12">surfaceCreated</text:span>
+              (SurfaceHolder holder) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>⬅</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>SurfaceViewが最初に生成されたときに呼び出されるメソッド</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="2"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              Canvas canvas = holder.
+              <text:span text:style-name="T12">lockCanvas</text:span>
+              ();
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>⬅</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>SurfaceHolderからCanvasのオブジェクトを取得する</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              // Paintクラスのオブジェクトを作る。
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              Paint paint = new Paint();
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              paint.setColor(Color.BLUE);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              paint.setAntiAlias(true);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              paint.setTextSize(24);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              // Canvasの背景色を白で塗る
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              canvas.drawColor(Color.WHITE);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              // Canvasに円を書く
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              canvas.drawCircle(30,30,30, paint);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              holder.
+              <text:span text:style-name="T12">unlockCanvasAndPost</text:span>
+              (canvas);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>⬅</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>描画が終わったら呼び出すメソッド。</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              public void 
+              <text:span text:style-name="T12">surfaceDestroyed</text:span>
+              (SurfaceHolder holder) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>⬅</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>SurfaceViewが破棄されるときに呼び出されるメソッド</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>}</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell table:style-name="ce11" table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce20"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="1048106">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+      </table:table>
       <table:table table:name="11章" table:style-name="ta1" table:print="false">
         <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
         <table:table-column table:style-name="co1" table:number-columns-repeated="1024" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
@@ -7975,7 +13147,7 @@
         </table:table-row>
       </table:table>
       <table:table table:name="12章" table:style-name="ta4" table:print="false">
-        <table:table-column table:style-name="co7" table:number-columns-repeated="1024" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
+        <table:table-column table:style-name="co8" table:number-columns-repeated="1024" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
@@ -8017,8 +13189,8 @@
           <table:table-cell office:value-type="string">
             <text:p>
               &lt;
-              <text:span text:style-name="T19">manifest</text:span>
-              <text:span text:style-name="T20"> xmlns:android="http://schemas.android.com/apk/res/android"</text:span>
+              <text:span text:style-name="T24">manifest</text:span>
+              <text:span text:style-name="T25"> xmlns:android="http://schemas.android.com/apk/res/android"</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
@@ -8035,28 +13207,28 @@
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="4"/>
-          <table:table-cell table:style-name="ce33" office:value-type="string">
+          <table:table-cell table:style-name="ce35" office:value-type="string">
             <text:p>
               <text:s text:c="6"/>
               android:versionCode="1"
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="11"/>
-          <table:table-cell table:style-name="ce34" office:value-type="string">
+          <table:table-cell table:style-name="ce36" office:value-type="string">
             <text:p>←　整数値</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1007"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="4"/>
-          <table:table-cell table:style-name="ce33" office:value-type="string">
+          <table:table-cell table:style-name="ce35" office:value-type="string">
             <text:p>
               <text:s text:c="6"/>
               android:versionName="1.0"&gt;
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="11"/>
-          <table:table-cell table:style-name="ce34" office:value-type="string">
+          <table:table-cell table:style-name="ce36" office:value-type="string">
             <text:p>←　1.0.0とか。管理画面に表示される</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1007"/>
@@ -8067,8 +13239,8 @@
             <text:p>
               <text:s text:c="4"/>
               &lt;
-              <text:span text:style-name="T19">application</text:span>
-              <text:span text:style-name="T20"> </text:span>
+              <text:span text:style-name="T24">application</text:span>
+              <text:span text:style-name="T25"> </text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
@@ -8081,22 +13253,22 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce33" office:value-type="string">
+          <table:table-cell table:style-name="ce35" office:value-type="string">
             <text:p>android:label="@string/app_name" </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="11"/>
-          <table:table-cell table:style-name="ce34" office:value-type="string">
+          <table:table-cell table:style-name="ce36" office:value-type="string">
             <text:p>←　アプリケーション名（AndroidMarketや端末上での名前）</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1004"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="7"/>
-          <table:table-cell table:style-name="ce33" office:value-type="string">
+          <table:table-cell table:style-name="ce35" office:value-type="string">
             <text:p>android:icon="@drawable/icon" </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="11"/>
-          <table:table-cell table:style-name="ce34" office:value-type="string">
+          <table:table-cell table:style-name="ce36" office:value-type="string">
             <text:p>←　アイコン画像</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1004"/>
@@ -8109,11 +13281,11 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce33" office:value-type="string">
+          <table:table-cell table:style-name="ce35" office:value-type="string">
             <text:p>android:debuggable="true"</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="11"/>
-          <table:table-cell table:style-name="ce34" office:value-type="string">
+          <table:table-cell table:style-name="ce36" office:value-type="string">
             <text:p>←　デフォルトはfalse。リリース時にはfalseにするか削除する。</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1004"/>
@@ -8146,7 +13318,7 @@
           <table:table-cell office:value-type="string">
             <text:p>
               String packageName = 
-              <text:span text:style-name="T19">getPackageName();</text:span>
+              <text:span text:style-name="T24">getPackageName();</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
@@ -8156,7 +13328,7 @@
           <table:table-cell office:value-type="string">
             <text:p>
               PackageManager pm = 
-              <text:span text:style-name="T19">getPackageManager();</text:span>
+              <text:span text:style-name="T24">getPackageManager();</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
@@ -8166,7 +13338,7 @@
           <table:table-cell office:value-type="string">
             <text:p>
               PackageInfo packageInfo = 
-              <text:span text:style-name="T19">pm.getPackageInfo(packageName, 0);</text:span>
+              <text:span text:style-name="T24">pm.getPackageInfo(packageName, 0);</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
@@ -8176,11 +13348,11 @@
           <table:table-cell office:value-type="string">
             <text:p>
               int versinoCode = 
-              <text:span text:style-name="T19">packageInfo.versionCode;</text:span>
+              <text:span text:style-name="T24">packageInfo.versionCode;</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="13"/>
-          <table:table-cell table:style-name="ce34" office:value-type="string">
+          <table:table-cell table:style-name="ce36" office:value-type="string">
             <text:p>←　PackageInfo内のpublic変数</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1005"/>
@@ -8190,11 +13362,11 @@
           <table:table-cell office:value-type="string">
             <text:p>
               String versionName = 
-              <text:span text:style-name="T19">packageInfo.versionName;</text:span>
+              <text:span text:style-name="T24">packageInfo.versionName;</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="13"/>
-          <table:table-cell table:style-name="ce34" office:value-type="string">
+          <table:table-cell table:style-name="ce36" office:value-type="string">
             <text:p>←　PackageInfo内のpublic変数</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1005"/>
@@ -8224,7 +13396,7 @@
             <text:p>&lt;uses-sdk android:minSdkVersion="8" </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="13"/>
-          <table:table-cell table:style-name="ce34" office:value-type="string">
+          <table:table-cell table:style-name="ce36" office:value-type="string">
             <text:p>←　指定なしの場合は"1"とみなされる。このVerより低い端末の場合クラッシュの可能性あり</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1005"/>
@@ -8241,7 +13413,7 @@
             <text:p>android:maxSdkVersion="8" </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="10"/>
-          <table:table-cell table:style-name="ce34" office:value-type="string">
+          <table:table-cell table:style-name="ce36" office:value-type="string">
             <text:p>←　このVerより高い端末にインストールされない（？）ようになる</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1005"/>
@@ -8258,7 +13430,7 @@
             <text:p>android:targetSdkVersion="8" /&gt;</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="10"/>
-          <table:table-cell table:style-name="ce34" office:value-type="string">
+          <table:table-cell table:style-name="ce36" office:value-type="string">
             <text:p>←　動作推奨Ver。テスト済みを明示。このVerより低い端末でもインストール可能。</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1005"/>
@@ -8471,14 +13643,14 @@
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="6"/>
-          <table:table-cell table:style-name="ce33" office:value-type="string">
+          <table:table-cell table:style-name="ce35" office:value-type="string">
             <text:p>android:versionCode</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="6"/>
-          <table:table-cell table:style-name="ce33" office:value-type="string">
+          <table:table-cell table:style-name="ce35" office:value-type="string">
             <text:p>android:versionName</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
@@ -8585,7 +13757,7 @@
             <text:p>&gt;layoutopt [projectname]</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="13"/>
-          <table:table-cell table:style-name="ce34" office:value-type="string">
+          <table:table-cell table:style-name="ce36" office:value-type="string">
             <text:p>←　プロジェクトのxmlの診断</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1004"/>
@@ -8596,7 +13768,7 @@
             <text:p>&gt;layoutopt [projectname\res\layout\main.xml]</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="13"/>
-          <table:table-cell table:style-name="ce34" office:value-type="string">
+          <table:table-cell table:style-name="ce36" office:value-type="string">
             <text:p>←　プロジェクトの指定のxmlのみを診断</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1004"/>
@@ -8867,7 +14039,7 @@
             <text:p>&gt;zipalign [-f] [-v] &lt;alignment&gt; infile.apk outfile.apk</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="13"/>
-          <table:table-cell table:style-name="ce34" office:value-type="string">
+          <table:table-cell table:style-name="ce36" office:value-type="string">
             <text:p>←　infile.apkを整列し、outfile.apkとして保存する</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1004"/>
@@ -8878,14 +14050,14 @@
             <text:p>&gt;zipalign -c -v &lt;alignment&gt; existing.apk</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="13"/>
-          <table:table-cell table:style-name="ce34" office:value-type="string">
+          <table:table-cell table:style-name="ce36" office:value-type="string">
             <text:p>←　existing.apkの位置合わせの確認を行う</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1004"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce34" office:value-type="string">
+          <table:table-cell table:style-name="ce36" office:value-type="string">
             <text:p>　　　alignment は必ず4を指定</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1004"/>
@@ -8941,7 +14113,7 @@
         </table:table-row>
       </table:table>
       <table:table table:name="Sheet3" table:style-name="ta3" table:print="false">
-        <table:table-column table:style-name="co5" table:number-columns-repeated="1024" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
+        <table:table-column table:style-name="co6" table:number-columns-repeated="1024" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-row table:style-name="ro1" table:number-rows-repeated="1048575">
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
@@ -8957,11 +14129,11 @@
 <file path=meta.xml><?xml version="1.0" encoding="utf-8"?>
 <office:document-meta xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:grddl="http://www.w3.org/2003/g/data-view#" office:version="1.2">
   <office:meta>
-    <dc:date>2012-07-18T21:21:45</dc:date>
+    <dc:date>2012-07-19T22:21:49</dc:date>
     <meta:generator>OpenOffice.org/3.4$Unix OpenOffice.org_project/340m1$Build-9590</meta:generator>
-    <meta:editing-duration>P5DT13H13M40S</meta:editing-duration>
-    <meta:editing-cycles>27</meta:editing-cycles>
-    <meta:document-statistic meta:table-count="7" meta:cell-count="1047" meta:object-count="6"/>
+    <meta:editing-duration>P5DT16H10M7S</meta:editing-duration>
+    <meta:editing-cycles>38</meta:editing-cycles>
+    <meta:document-statistic meta:table-count="8" meta:cell-count="1567" meta:object-count="6"/>
   </office:meta>
 </office:document-meta>
 </file>
@@ -8972,8 +14144,8 @@
     <config:config-item-set config:name="ooo:view-settings">
       <config:config-item config:name="VisibleAreaTop" config:type="int">462</config:config-item>
       <config:config-item config:name="VisibleAreaLeft" config:type="int">896</config:config-item>
-      <config:config-item config:name="VisibleAreaWidth" config:type="int">25990</config:config-item>
-      <config:config-item config:name="VisibleAreaHeight" config:type="int">154858</config:config-item>
+      <config:config-item config:name="VisibleAreaWidth" config:type="int">26922</config:config-item>
+      <config:config-item config:name="VisibleAreaHeight" config:type="int">216253</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
@@ -9037,7 +14209,23 @@
               <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
-              <config:config-item config:name="PositionBottom" config:type="int">305</config:config-item>
+              <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
+              <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
+              <config:config-item config:name="ZoomValue" config:type="int">60</config:config-item>
+              <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
+            </config:config-item-map-entry>
+            <config:config-item-map-entry config:name="5章">
+              <config:config-item config:name="CursorPositionX" config:type="int">22</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">466</config:config-item>
+              <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
+              <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
+              <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
+              <config:config-item config:name="VerticalSplitPosition" config:type="int">0</config:config-item>
+              <config:config-item config:name="ActiveSplitRange" config:type="short">2</config:config-item>
+              <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionBottom" config:type="int">443</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
               <config:config-item config:name="ZoomValue" config:type="int">60</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
@@ -9091,7 +14279,7 @@
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
             </config:config-item-map-entry>
           </config:config-item-map-named>
-          <config:config-item config:name="ActiveTable" config:type="string">4章</config:config-item>
+          <config:config-item config:name="ActiveTable" config:type="string">5章</config:config-item>
           <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">813</config:config-item>
           <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
           <config:config-item config:name="ZoomValue" config:type="int">60</config:config-item>
@@ -9151,6 +14339,8 @@
 <file path=styles.xml><?xml version="1.0" encoding="utf-8"?>
 <office:document-styles xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:style="urn:oasis:names:tc:opendocument:xmlns:style:1.0" xmlns:text="urn:oasis:names:tc:opendocument:xmlns:text:1.0" xmlns:table="urn:oasis:names:tc:opendocument:xmlns:table:1.0" xmlns:draw="urn:oasis:names:tc:opendocument:xmlns:drawing:1.0" xmlns:fo="urn:oasis:names:tc:opendocument:xmlns:xsl-fo-compatible:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:number="urn:oasis:names:tc:opendocument:xmlns:datastyle:1.0" xmlns:presentation="urn:oasis:names:tc:opendocument:xmlns:presentation:1.0" xmlns:svg="urn:oasis:names:tc:opendocument:xmlns:svg-compatible:1.0" xmlns:chart="urn:oasis:names:tc:opendocument:xmlns:chart:1.0" xmlns:dr3d="urn:oasis:names:tc:opendocument:xmlns:dr3d:1.0" xmlns:math="http://www.w3.org/1998/Math/MathML" xmlns:form="urn:oasis:names:tc:opendocument:xmlns:form:1.0" xmlns:script="urn:oasis:names:tc:opendocument:xmlns:script:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:ooow="http://openoffice.org/2004/writer" xmlns:oooc="http://openoffice.org/2004/calc" xmlns:dom="http://www.w3.org/2001/xml-events" xmlns:rpt="http://openoffice.org/2005/report" xmlns:of="urn:oasis:names:tc:opendocument:xmlns:of:1.2" xmlns:xhtml="http://www.w3.org/1999/xhtml" xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:tableooo="http://openoffice.org/2009/table" office:version="1.2">
   <office:font-face-decls>
+    <style:font-face style:name="F" svg:font-family="" style:font-family-generic="roman"/>
+    <style:font-face style:name="Helvetica" svg:font-family="Helvetica" style:font-family-generic="swiss"/>
     <style:font-face style:name="ＭＳ Ｐゴシック2" svg:font-family="'ＭＳ Ｐゴシック'" style:font-family-generic="swiss"/>
     <style:font-face style:name="Monaco" svg:font-family="Monaco" style:font-family-generic="modern" style:font-pitch="fixed"/>
     <style:font-face style:name="ＭＳ Ｐゴシック1" svg:font-family="'ＭＳ Ｐゴシック'" style:font-family-generic="modern" style:font-pitch="variable"/>
@@ -9601,9 +14791,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2012-07-18">2012/07/18</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2012-07-19">2012/07/19</text:date>
             , 
-            <text:time>21:21:45</text:time>
+            <text:time>22:21:49</text:time>
           </text:p>
         </style:region-right>
       </style:header>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -13,6 +13,7 @@
   <manifest:file-entry manifest:media-type="image/png" manifest:full-path="Pictures/100000000000039E0000021374AB1A62.png"/>
   <manifest:file-entry manifest:media-type="image/png" manifest:full-path="Pictures/10000000000003B10000019B1A4B573B.png"/>
   <manifest:file-entry manifest:media-type="image/png" manifest:full-path="Pictures/10000201000002A7000002728AB0548C.png"/>
+  <manifest:file-entry manifest:media-type="image/png" manifest:full-path="Pictures/10000000000004140000035718DF81CC.png"/>
   <manifest:file-entry manifest:media-type="text/xml" manifest:full-path="content.xml"/>
   <manifest:file-entry manifest:media-type="text/xml" manifest:full-path="styles.xml"/>
   <manifest:file-entry manifest:media-type="text/xml" manifest:full-path="meta.xml"/>
@@ -25,8 +26,6 @@
 <office:document-content xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:style="urn:oasis:names:tc:opendocument:xmlns:style:1.0" xmlns:text="urn:oasis:names:tc:opendocument:xmlns:text:1.0" xmlns:table="urn:oasis:names:tc:opendocument:xmlns:table:1.0" xmlns:draw="urn:oasis:names:tc:opendocument:xmlns:drawing:1.0" xmlns:fo="urn:oasis:names:tc:opendocument:xmlns:xsl-fo-compatible:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:number="urn:oasis:names:tc:opendocument:xmlns:datastyle:1.0" xmlns:presentation="urn:oasis:names:tc:opendocument:xmlns:presentation:1.0" xmlns:svg="urn:oasis:names:tc:opendocument:xmlns:svg-compatible:1.0" xmlns:chart="urn:oasis:names:tc:opendocument:xmlns:chart:1.0" xmlns:dr3d="urn:oasis:names:tc:opendocument:xmlns:dr3d:1.0" xmlns:math="http://www.w3.org/1998/Math/MathML" xmlns:form="urn:oasis:names:tc:opendocument:xmlns:form:1.0" xmlns:script="urn:oasis:names:tc:opendocument:xmlns:script:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:ooow="http://openoffice.org/2004/writer" xmlns:oooc="http://openoffice.org/2004/calc" xmlns:dom="http://www.w3.org/2001/xml-events" xmlns:xforms="http://www.w3.org/2002/xforms" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:rpt="http://openoffice.org/2005/report" xmlns:of="urn:oasis:names:tc:opendocument:xmlns:of:1.2" xmlns:xhtml="http://www.w3.org/1999/xhtml" xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:tableooo="http://openoffice.org/2009/table" xmlns:field="urn:openoffice:names:experimental:ooo-ms-interop:xmlns:field:1.0" office:version="1.2">
   <office:scripts/>
   <office:font-face-decls>
-    <style:font-face style:name="F" svg:font-family="" style:font-family-generic="roman"/>
-    <style:font-face style:name="Helvetica" svg:font-family="Helvetica" style:font-family-generic="swiss"/>
     <style:font-face style:name="ＭＳ Ｐゴシック2" svg:font-family="'ＭＳ Ｐゴシック'" style:font-family-generic="swiss"/>
     <style:font-face style:name="Monaco" svg:font-family="Monaco" style:font-family-generic="modern" style:font-pitch="fixed"/>
     <style:font-face style:name="ＭＳ Ｐゴシック1" svg:font-family="'ＭＳ Ｐゴシック'" style:font-family-generic="modern" style:font-pitch="variable"/>
@@ -45,19 +44,16 @@
       <style:table-column-properties fo:break-before="auto" style:column-width="1.005cm"/>
     </style:style>
     <style:style style:name="co3" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="0.931cm"/>
+      <style:table-column-properties fo:break-before="auto" style:column-width="0.868cm"/>
     </style:style>
     <style:style style:name="co4" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="0.868cm"/>
+      <style:table-column-properties fo:break-before="auto" style:column-width="0.935cm"/>
+    </style:style>
+    <style:style style:name="co5" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="0.834cm"/>
     </style:style>
     <style:style style:name="co6" style:family="table-column">
       <style:table-column-properties fo:break-before="auto" style:column-width="2.148cm"/>
-    </style:style>
-    <style:style style:name="co7" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="0.935cm"/>
-    </style:style>
-    <style:style style:name="co8" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="0.834cm"/>
     </style:style>
     <style:style style:name="ro1" style:family="table-row">
       <style:table-row-properties style:row-height="0.464cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
@@ -69,15 +65,18 @@
       <style:table-row-properties style:row-height="0.467cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
     <style:style style:name="ro4" style:family="table-row">
+      <style:table-row-properties style:row-height="0.531cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+    </style:style>
+    <style:style style:name="ro5" style:family="table-row">
       <style:table-row-properties style:row-height="0.422cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
     <style:style style:name="ta1" style:family="table" style:master-page-name="PageStyle_5f_Sheet2">
       <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
     </style:style>
-    <style:style style:name="ta3" style:family="table" style:master-page-name="PageStyle_5f_Sheet3">
+    <style:style style:name="ta2" style:family="table" style:master-page-name="PageStyle_5f_12章">
       <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
     </style:style>
-    <style:style style:name="ta4" style:family="table" style:master-page-name="PageStyle_5f_12章">
+    <style:style style:name="ta3" style:family="table" style:master-page-name="PageStyle_5f_Sheet3">
       <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
     </style:style>
     <style:style style:name="ce1" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
@@ -91,6 +90,26 @@
     <style:style style:name="ce3" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false"/>
       <style:paragraph-properties fo:text-align="justify" fo:margin-left="0cm"/>
+    </style:style>
+    <style:style style:name="ce4" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:text-properties fo:color="#ff0000"/>
+    </style:style>
+    <style:style style:name="ce5" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="none" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="0.002cm solid #000000"/>
+      <style:text-properties fo:language="en" fo:country="US" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:language-asian="en" style:country-asian="US" style:language-complex="en" style:country-complex="US" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
+    </style:style>
+    <style:style style:name="ce6" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="none" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="none"/>
+      <style:text-properties fo:language="en" fo:country="US" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:language-asian="en" style:country-asian="US" style:language-complex="en" style:country-complex="US" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
+    </style:style>
+    <style:style style:name="ce7" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="0.002cm solid #000000" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="none"/>
+    </style:style>
+    <style:style style:name="ce8" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="none" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="none"/>
+    </style:style>
+    <style:style style:name="ce9" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="none" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="0.002cm solid #000000"/>
     </style:style>
     <style:style style:name="ce10" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties fo:border-bottom="none" fo:border-left="none" fo:border-right="none" fo:border-top="0.002cm solid #000000"/>
@@ -132,26 +151,6 @@
     <style:style style:name="ce21" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:text-properties style:font-name-asian="ＭＳ Ｐゴシック2"/>
     </style:style>
-    <style:style style:name="ce4" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:text-properties fo:color="#ff0000"/>
-    </style:style>
-    <style:style style:name="ce5" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties fo:border-bottom="none" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="0.002cm solid #000000"/>
-      <style:text-properties fo:language="en" fo:country="US" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:language-asian="en" style:country-asian="US" style:language-complex="en" style:country-complex="US" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
-    </style:style>
-    <style:style style:name="ce6" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties fo:border-bottom="none" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="none"/>
-      <style:text-properties fo:language="en" fo:country="US" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:language-asian="en" style:country-asian="US" style:language-complex="en" style:country-complex="US" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
-    </style:style>
-    <style:style style:name="ce7" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties fo:border-bottom="0.002cm solid #000000" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="none"/>
-    </style:style>
-    <style:style style:name="ce8" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties fo:border-bottom="none" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="none"/>
-    </style:style>
-    <style:style style:name="ce9" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties fo:border-bottom="none" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="0.002cm solid #000000"/>
-    </style:style>
     <style:style style:name="ce22" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties fo:border-bottom="none" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="none"/>
       <style:text-properties fo:color="#00cccc"/>
@@ -171,17 +170,17 @@
     <style:style style:name="ce26" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:border-bottom="none" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="none"/>
     </style:style>
-    <style:style style:name="ce33" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce27" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties fo:border-bottom="none" fo:background-color="transparent" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="none"/>
     </style:style>
-    <style:style style:name="ce34" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce28" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties style:text-align-source="value-type" style:repeat-content="false"/>
       <style:paragraph-properties fo:margin-left="0cm"/>
     </style:style>
-    <style:style style:name="ce35" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce29" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:text-properties fo:color="#0070c0" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-name-asian="ＭＳ Ｐゴシック1" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
     </style:style>
-    <style:style style:name="ce36" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce30" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:text-properties fo:color="#ff0000" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
     <style:style style:name="gr1" style:family="graphic">
@@ -233,15 +232,6 @@
     <style:style style:name="T12" style:family="text">
       <style:text-properties fo:color="#0000ff"/>
     </style:style>
-    <style:style style:name="T16" style:family="text">
-      <style:text-properties fo:color="#7f0055" style:font-name="Monaco" fo:font-size="11pt" fo:font-weight="bold" style:font-name-asian="Monaco" style:font-size-asian="11pt" style:font-weight-asian="bold" style:font-name-complex="Monaco" style:font-size-complex="6.30000019073486pt" style:font-weight-complex="bold"/>
-    </style:style>
-    <style:style style:name="T17" style:family="text">
-      <style:text-properties fo:color="#0000ff" style:font-name="Monaco" fo:font-size="11pt" style:font-name-asian="Monaco" style:font-size-asian="11pt" style:font-name-complex="Monaco" style:font-size-complex="6.30000019073486pt"/>
-    </style:style>
-    <style:style style:name="T18" style:family="text">
-      <style:text-properties fo:color="#0000c0" style:font-name="Monaco" fo:font-size="11pt" fo:font-style="italic" style:font-name-asian="Monaco" style:font-size-asian="11pt" style:font-style-asian="italic" style:font-name-complex="Monaco" style:font-size-complex="6.30000019073486pt" style:font-style-complex="italic"/>
-    </style:style>
     <style:style style:name="T13" style:family="text">
       <style:text-properties fo:color="#47b8b8"/>
     </style:style>
@@ -249,18 +239,30 @@
       <style:text-properties fo:color="#00cccc"/>
     </style:style>
     <style:style style:name="T15" style:family="text">
+      <style:text-properties fo:color="#ff0000"/>
+    </style:style>
+    <style:style style:name="T16" style:family="text">
       <style:text-properties fo:color="#000000"/>
     </style:style>
-    <style:style style:name="T22" style:family="text">
+    <style:style style:name="T17" style:family="text">
+      <style:text-properties fo:color="#7f0055" style:font-name="Monaco" fo:font-size="11pt" fo:font-weight="bold" style:font-name-asian="Monaco" style:font-size-asian="11pt" style:font-weight-asian="bold" style:font-name-complex="Monaco" style:font-size-complex="6.30000019073486pt" style:font-weight-complex="bold"/>
+    </style:style>
+    <style:style style:name="T18" style:family="text">
+      <style:text-properties fo:color="#0000ff" style:font-name="Monaco" fo:font-size="11pt" style:font-name-asian="Monaco" style:font-size-asian="11pt" style:font-name-complex="Monaco" style:font-size-complex="6.30000019073486pt"/>
+    </style:style>
+    <style:style style:name="T19" style:family="text">
+      <style:text-properties fo:color="#0000c0" style:font-name="Monaco" fo:font-size="11pt" fo:font-style="italic" style:font-name-asian="Monaco" style:font-size-asian="11pt" style:font-style-asian="italic" style:font-name-complex="Monaco" style:font-size-complex="6.30000019073486pt" style:font-style-complex="italic"/>
+    </style:style>
+    <style:style style:name="T20" style:family="text">
       <style:text-properties fo:color="#808019"/>
     </style:style>
-    <style:style style:name="T23" style:family="text">
+    <style:style style:name="T21" style:family="text">
       <style:text-properties fo:color="#b3b300"/>
     </style:style>
-    <style:style style:name="T24" style:family="text">
+    <style:style style:name="T22" style:family="text">
       <style:text-properties fo:color="#0070c0" style:text-outline="false" style:text-line-through-style="none" style:text-position="0% 100%" style:font-name="ＭＳ Ｐゴシック1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-name-asian="ＭＳ Ｐゴシック1" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
     </style:style>
-    <style:style style:name="T25" style:family="text">
+    <style:style style:name="T23" style:family="text">
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-position="0% 100%" style:font-name="ＭＳ Ｐゴシック" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
   </office:automatic-styles>
@@ -765,6 +767,7 @@
         </table:table-row>
       </table:table>
       <table:table table:name="２章" table:style-name="ta1" table:print="false">
+        <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
         <table:table-column table:style-name="co1" table:number-columns-repeated="1024" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="16"/>
@@ -782,44 +785,42 @@
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
-          <table:table-cell/>
-          <table:table-cell>
-            <draw:frame table:end-cell-address="２章.AF63" table:end-x="0.263cm" table:end-y="0.462cm" draw:z-index="0" draw:name="図 1" draw:style-name="gr1" draw:text-style-name="P1" svg:width="26.365cm" svg:height="27.499cm" svg:x="0.784cm" svg:y="0.231cm">
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="Default">
+            <draw:frame table:end-cell-address="２章.V49" table:end-x="0.391cm" table:end-y="0.248cm" draw:z-index="0" draw:name="図 1" draw:style-name="gr1" draw:text-style-name="P1" svg:width="17.365cm" svg:height="20.897cm" svg:x="0.054cm" svg:y="0.149cm">
               <draw:image xlink:href="Pictures/10000201000002A7000002728AB0548C.png" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad">
                 <text:p/>
               </draw:image>
             </draw:frame>
           </table:table-cell>
-          <table:table-cell table:style-name="Default"/>
           <table:table-cell table:number-columns-repeated="1021"/>
         </table:table-row>
         <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="168"/>
+          <table:table-cell table:number-columns-repeated="22"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Applications</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="144"/>
           <table:table-cell table:style-name="Default"/>
           <table:table-cell table:number-columns-repeated="855"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="31"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>Applications</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="991"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="32"/>
+          <table:table-cell table:number-columns-repeated="23"/>
           <table:table-cell office:value-type="string">
             <text:p>デフォルトでインストールされているアプリ</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="991"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="32"/>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="9"/>
+          <table:table-cell table:number-columns-repeated="975"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="23"/>
           <table:table-cell office:value-type="string">
             <text:p>・</text:p>
           </table:table-cell>
@@ -830,10 +831,12 @@
           <table:table-cell office:value-type="string">
             <text:p>発信</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="987"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="32"/>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="9"/>
+          <table:table-cell table:number-columns-repeated="975"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="23"/>
           <table:table-cell office:value-type="string">
             <text:p>・</text:p>
           </table:table-cell>
@@ -844,10 +847,12 @@
           <table:table-cell office:value-type="string">
             <text:p>電子メール</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="987"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="32"/>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="9"/>
+          <table:table-cell table:number-columns-repeated="975"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="23"/>
           <table:table-cell office:value-type="string">
             <text:p>・</text:p>
           </table:table-cell>
@@ -858,10 +863,12 @@
           <table:table-cell office:value-type="string">
             <text:p>ブラウザ</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="987"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="32"/>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="9"/>
+          <table:table-cell table:number-columns-repeated="975"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="23"/>
           <table:table-cell office:value-type="string">
             <text:p>・</text:p>
           </table:table-cell>
@@ -872,23 +879,29 @@
           <table:table-cell office:value-type="string">
             <text:p>設定</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="987"/>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="9"/>
+          <table:table-cell table:number-columns-repeated="975"/>
         </table:table-row>
         <table:table-row table:style-name="ro1" table:number-rows-repeated="4">
-          <table:table-cell table:number-columns-repeated="1024"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="31"/>
+          <table:table-cell table:number-columns-repeated="40"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="9"/>
+          <table:table-cell table:number-columns-repeated="975"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="22"/>
           <table:table-cell office:value-type="string">
             <text:p>・</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string">
             <text:p>Application Framework</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="991"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="32"/>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="9"/>
+          <table:table-cell table:number-columns-repeated="975"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="23"/>
           <table:table-cell office:value-type="string">
             <text:p>・</text:p>
           </table:table-cell>
@@ -899,10 +912,12 @@
           <table:table-cell office:value-type="string">
             <text:p>アプリケーション間のデータ共有</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="984"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="32"/>
+          <table:table-cell table:number-columns-repeated="9"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="9"/>
+          <table:table-cell table:number-columns-repeated="975"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="23"/>
           <table:table-cell office:value-type="string">
             <text:p>・</text:p>
           </table:table-cell>
@@ -913,10 +928,12 @@
           <table:table-cell office:value-type="string">
             <text:p>電話機能へのアクセス管理</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="984"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="32"/>
+          <table:table-cell table:number-columns-repeated="9"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="9"/>
+          <table:table-cell table:number-columns-repeated="975"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="23"/>
           <table:table-cell office:value-type="string">
             <text:p>・</text:p>
           </table:table-cell>
@@ -927,10 +944,12 @@
           <table:table-cell office:value-type="string">
             <text:p>コード以外のリソースのアクセス管理</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="984"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="32"/>
+          <table:table-cell table:number-columns-repeated="9"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="9"/>
+          <table:table-cell table:number-columns-repeated="975"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="23"/>
           <table:table-cell office:value-type="string">
             <text:p>・</text:p>
           </table:table-cell>
@@ -941,10 +960,12 @@
           <table:table-cell office:value-type="string">
             <text:p>GPS情報のアクセス管理</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="984"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="32"/>
+          <table:table-cell table:number-columns-repeated="9"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="9"/>
+          <table:table-cell table:number-columns-repeated="975"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="23"/>
           <table:table-cell office:value-type="string">
             <text:p>・</text:p>
           </table:table-cell>
@@ -955,23 +976,29 @@
           <table:table-cell office:value-type="string">
             <text:p>警告情報の管理</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="984"/>
+          <table:table-cell table:number-columns-repeated="9"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="9"/>
+          <table:table-cell table:number-columns-repeated="975"/>
         </table:table-row>
         <table:table-row table:style-name="ro1" table:number-rows-repeated="8">
-          <table:table-cell table:number-columns-repeated="1024"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="31"/>
+          <table:table-cell table:number-columns-repeated="40"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="9"/>
+          <table:table-cell table:number-columns-repeated="975"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="22"/>
           <table:table-cell office:value-type="string">
             <text:p>・</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string">
             <text:p>Android　Runtime</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="991"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="32"/>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="9"/>
+          <table:table-cell table:number-columns-repeated="975"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="23"/>
           <table:table-cell office:value-type="string">
             <text:p>・</text:p>
           </table:table-cell>
@@ -984,10 +1011,12 @@
           <table:table-cell office:value-type="string">
             <text:p>Google社が開発したjavaライブラリ</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="983"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="32"/>
+          <table:table-cell table:number-columns-repeated="8"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="9"/>
+          <table:table-cell table:number-columns-repeated="975"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="23"/>
           <table:table-cell office:value-type="string">
             <text:p>・</text:p>
           </table:table-cell>
@@ -998,97 +1027,123 @@
           <table:table-cell office:value-type="string">
             <text:p>Google社が開発した仮想マシン</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="983"/>
+          <table:table-cell table:number-columns-repeated="8"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="9"/>
+          <table:table-cell table:number-columns-repeated="975"/>
         </table:table-row>
         <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
-          <table:table-cell table:number-columns-repeated="1024"/>
+          <table:table-cell table:number-columns-repeated="40"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="9"/>
+          <table:table-cell table:number-columns-repeated="975"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="22"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>LIBRARIES</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="9"/>
+          <table:table-cell table:number-columns-repeated="975"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="22"/>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>libc</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>C/C++　で書かれている</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="9"/>
+          <table:table-cell table:number-columns-repeated="975"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="22"/>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>SGL</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>２Dグラフィック</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="9"/>
+          <table:table-cell table:number-columns-repeated="975"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="22"/>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>OpenGL</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>３Dグラフィック</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="9"/>
+          <table:table-cell table:number-columns-repeated="975"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="22"/>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>FreeType</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>テキストレンダリング</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="9"/>
+          <table:table-cell table:number-columns-repeated="975"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="22"/>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>webKit</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>HTMLレンダリング</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="9"/>
+          <table:table-cell table:number-columns-repeated="975"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
+          <table:table-cell table:number-columns-repeated="40"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="9"/>
+          <table:table-cell table:number-columns-repeated="975"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="31"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>LIBRARIES</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="991"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="31"/>
-          <table:table-cell table:style-name="Default"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>libc</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-          <table:table-cell office:value-type="string">
-            <text:p>C/C++　で書かれている</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="988"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="31"/>
-          <table:table-cell table:style-name="Default"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>SGL</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-          <table:table-cell office:value-type="string">
-            <text:p>２Dグラフィック</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="988"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="31"/>
-          <table:table-cell table:style-name="Default"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>OpenGL</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-          <table:table-cell office:value-type="string">
-            <text:p>３Dグラフィック</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="988"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="31"/>
-          <table:table-cell table:style-name="Default"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>FreeType</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-          <table:table-cell office:value-type="string">
-            <text:p>テキストレンダリング</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="988"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="31"/>
-          <table:table-cell table:style-name="Default"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>webKit</text:p>
-          </table:table-cell>
-          <table:table-cell/>
-          <table:table-cell office:value-type="string">
-            <text:p>HTMLレンダリング</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="988"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1" table:number-rows-repeated="21">
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="18"/>
+          <table:table-cell table:number-columns-repeated="975"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="6">
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -1258,7 +1313,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1020"/>
         </table:table-row>
-        <table:table-row table:style-name="ro1" table:number-rows-repeated="1048491">
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="1048504">
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -4088,7 +4143,9 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="6"/>
-              android:apiKey=”取得したMaps API キー” /&gt;
+              android:
+              <text:span text:style-name="T12">apiKey</text:span>
+              =”取得したMaps API キー” /&gt;
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="16"/>
@@ -4270,7 +4327,7 @@
         <table:table-column table:style-name="co1" table:number-columns-repeated="4" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-column table:style-name="co3" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-column table:style-name="co1" table:number-columns-repeated="17" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
-        <table:table-column table:style-name="co4" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
+        <table:table-column table:style-name="co3" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-column table:style-name="co1" table:number-columns-repeated="1001" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="16"/>
@@ -4492,13 +4549,6 @@
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="5"/>
-          <table:table-cell table:style-name="ce8"/>
-          <table:table-cell table:number-columns-repeated="16"/>
-          <table:table-cell table:style-name="ce19"/>
-          <table:table-cell table:number-columns-repeated="1001"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="5"/>
           <table:table-cell table:style-name="ce7"/>
           <table:table-cell table:style-name="ce11" table:number-columns-repeated="16"/>
           <table:table-cell table:style-name="ce20"/>
@@ -4518,12 +4568,12 @@
           <table:table-cell table:number-columns-repeated="5"/>
           <table:table-cell table:style-name="ce24" office:value-type="string">
             <text:p>
-              <text:span text:style-name="T16">public</text:span>
+              <text:span text:style-name="T17">public</text:span>
               <text:span text:style-name="T4"> </text:span>
-              <text:span text:style-name="T16">class</text:span>
+              <text:span text:style-name="T17">class</text:span>
               <text:span text:style-name="T4"> TaskTimeWatcheMain </text:span>
-              <text:span text:style-name="T16">extends</text:span>
-              <text:span text:style-name="T17"> Activity </text:span>
+              <text:span text:style-name="T17">extends</text:span>
+              <text:span text:style-name="T18"> Activity </text:span>
               <text:span text:style-name="T4">
                 <text:s/>
                 {
@@ -4552,11 +4602,11 @@
               <text:span text:style-name="T4">
                 <text:tab/>
               </text:span>
-              <text:span text:style-name="T16">protected</text:span>
+              <text:span text:style-name="T17">protected</text:span>
               <text:span text:style-name="T4"> </text:span>
-              <text:span text:style-name="T16">void</text:span>
+              <text:span text:style-name="T17">void</text:span>
               <text:span text:style-name="T4"> </text:span>
-              <text:span text:style-name="T17">onCreate</text:span>
+              <text:span text:style-name="T18">onCreate</text:span>
               <text:span text:style-name="T4">(Bundle savedInstanceState) {</text:span>
             </text:p>
           </table:table-cell>
@@ -4581,7 +4631,7 @@
               <text:span text:style-name="T4">
                 <text:tab/>
               </text:span>
-              <text:span text:style-name="T16">super</text:span>
+              <text:span text:style-name="T17">super</text:span>
               <text:span text:style-name="T4">.onCreate(savedInstanceState);</text:span>
             </text:p>
           </table:table-cell>
@@ -4601,7 +4651,7 @@
                 <text:s text:c="8"/>
               </text:span>
               <text:span text:style-name="T4">setContentView(R.layout.</text:span>
-              <text:span text:style-name="T18">main</text:span>
+              <text:span text:style-name="T19">main</text:span>
               <text:span text:style-name="T4">);</text:span>
             </text:p>
           </table:table-cell>
@@ -4642,7 +4692,7 @@
                 <text:s text:c="8"/>
               </text:span>
               <text:span text:style-name="T4">setContentView(R.layout.</text:span>
-              <text:span text:style-name="T18">main</text:span>
+              <text:span text:style-name="T19">main</text:span>
               <text:span text:style-name="T4">);</text:span>
             </text:p>
           </table:table-cell>
@@ -4670,7 +4720,7 @@
           <table:table-cell office:value-type="string">
             <text:p>
               <text:s text:c="15"/>
-              View v = this.getLayoutInflater().inflate(R.layout..main,null);
+              View v = this.getLayoutInflater().inflate(R.layout.main,null);
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="16"/>
@@ -4721,12 +4771,12 @@
           <table:table-cell table:number-columns-repeated="5"/>
           <table:table-cell table:style-name="ce24" office:value-type="string">
             <text:p>
-              <text:span text:style-name="T16">public</text:span>
+              <text:span text:style-name="T17">public</text:span>
               <text:span text:style-name="T4"> </text:span>
-              <text:span text:style-name="T16">class</text:span>
+              <text:span text:style-name="T17">class</text:span>
               <text:span text:style-name="T4"> TaskTimeWatcheMain </text:span>
-              <text:span text:style-name="T16">extends</text:span>
-              <text:span text:style-name="T17"> Activity </text:span>
+              <text:span text:style-name="T17">extends</text:span>
+              <text:span text:style-name="T18"> Activity </text:span>
               <text:span text:style-name="T4">
                 <text:s/>
                 {
@@ -4751,11 +4801,11 @@
               <text:span text:style-name="T4">
                 <text:tab/>
               </text:span>
-              <text:span text:style-name="T16">protected</text:span>
+              <text:span text:style-name="T17">protected</text:span>
               <text:span text:style-name="T4"> </text:span>
-              <text:span text:style-name="T16">void</text:span>
+              <text:span text:style-name="T17">void</text:span>
               <text:span text:style-name="T4"> </text:span>
-              <text:span text:style-name="T17">onCreate</text:span>
+              <text:span text:style-name="T18">onCreate</text:span>
               <text:span text:style-name="T4">(Bundle savedInstanceState) {</text:span>
             </text:p>
           </table:table-cell>
@@ -4780,7 +4830,7 @@
               <text:span text:style-name="T4">
                 <text:tab/>
               </text:span>
-              <text:span text:style-name="T16">super</text:span>
+              <text:span text:style-name="T17">super</text:span>
               <text:span text:style-name="T4">.onCreate(savedInstanceState);</text:span>
             </text:p>
           </table:table-cell>
@@ -4795,7 +4845,7 @@
           <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="1003"/>
         </table:table-row>
-        <table:table-row table:style-name="ro2">
+        <table:table-row table:style-name="ro4">
           <table:table-cell table:number-columns-repeated="5"/>
           <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
@@ -4804,8 +4854,8 @@
                 <text:tab/>
               </text:span>
               <text:span text:style-name="T4">LinearLayout layout = </text:span>
-              <text:span text:style-name="T16">new</text:span>
-              <text:span text:style-name="T4"> LinearLayoutz(this);</text:span>
+              <text:span text:style-name="T17">new</text:span>
+              <text:span text:style-name="T4"> LinearLayout(this);</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="14"/>
@@ -4816,7 +4866,7 @@
           <table:table-cell table:number-columns-repeated="5"/>
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
-              <text:s text:c="13"/>
+              <text:s text:c="11"/>
               layout.setOrientation(LinearLayout.VERTICAL);
             </text:p>
           </table:table-cell>
@@ -5960,7 +6010,8 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="6"/>
-              public boolean 
+              public 
+              <text:span text:style-name="T15">boolean</text:span>
               <text:span text:style-name="T12">onTouch</text:span>
               (View v, MotionEvent event) {
             </text:p>
@@ -7411,12 +7462,12 @@
           <table:table-cell table:number-columns-repeated="4"/>
           <table:table-cell table:style-name="ce22" office:value-type="string">
             <text:p>
-              <text:span text:style-name="T15">
+              <text:span text:style-name="T16">
                 <text:s text:c="2"/>
               </text:span>
-              <text:span text:style-name="T15">int </text:span>
+              <text:span text:style-name="T16">int </text:span>
               which
-              <text:span text:style-name="T15"> = 0;</text:span>
+              <text:span text:style-name="T16"> = 0;</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="15"/>
@@ -7958,7 +8009,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1016"/>
         </table:table-row>
-        <table:table-row table:style-name="ro1" table:number-rows-repeated="1048241">
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="1048242">
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -7968,7 +8019,7 @@
       <table:table table:name="5章" table:style-name="ta1" table:print="false">
         <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
         <table:table-column table:style-name="co1" table:number-columns-repeated="22" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
-        <table:table-column table:style-name="co7" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
+        <table:table-column table:style-name="co4" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-column table:style-name="co1" table:number-columns-repeated="1001" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="16"/>
@@ -8022,77 +8073,7 @@
           <table:table-cell table:style-name="ce18"/>
           <table:table-cell table:number-columns-repeated="1001"/>
         </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="4"/>
-          <table:table-cell table:style-name="ce8"/>
-          <table:table-cell table:number-columns-repeated="17"/>
-          <table:table-cell table:style-name="ce19"/>
-          <table:table-cell table:number-columns-repeated="1001"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="4"/>
-          <table:table-cell table:style-name="ce8" office:value-type="string">
-            <text:p>import android.app.Activity;</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="17"/>
-          <table:table-cell table:style-name="ce19"/>
-          <table:table-cell table:number-columns-repeated="1001"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="4"/>
-          <table:table-cell table:style-name="ce8" office:value-type="string">
-            <text:p>import android.app.AlertDialog;</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="17"/>
-          <table:table-cell table:style-name="ce19"/>
-          <table:table-cell table:number-columns-repeated="1001"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="4"/>
-          <table:table-cell table:style-name="ce8" office:value-type="string">
-            <text:p>import android.content.DialogInterface;</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="17"/>
-          <table:table-cell table:style-name="ce19"/>
-          <table:table-cell table:number-columns-repeated="1001"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="4"/>
-          <table:table-cell table:style-name="ce8" office:value-type="string">
-            <text:p>import android.os.Bundle;</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="17"/>
-          <table:table-cell table:style-name="ce19"/>
-          <table:table-cell table:number-columns-repeated="1001"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="4"/>
-          <table:table-cell table:style-name="ce8" office:value-type="string">
-            <text:p>import android.view.Menu;</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="17"/>
-          <table:table-cell table:style-name="ce19"/>
-          <table:table-cell table:number-columns-repeated="1001"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="4"/>
-          <table:table-cell table:style-name="ce8" office:value-type="string">
-            <text:p>import android.view.MenuItem;</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="17"/>
-          <table:table-cell table:style-name="ce19"/>
-          <table:table-cell table:number-columns-repeated="1001"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="4"/>
-          <table:table-cell table:style-name="ce8" office:value-type="string">
-            <text:p>import android.view.SubMenu;</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="17"/>
-          <table:table-cell table:style-name="ce19"/>
-          <table:table-cell table:number-columns-repeated="1001"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
           <table:table-cell table:number-columns-repeated="4"/>
           <table:table-cell table:style-name="ce8"/>
           <table:table-cell table:number-columns-repeated="17"/>
@@ -9752,7 +9733,7 @@
               (
               <text:span text:style-name="T14">R.menu.mymenu</text:span>
               , 
-              <text:span text:style-name="T22">menu</text:span>
+              <text:span text:style-name="T20">menu</text:span>
               );
             </text:p>
           </table:table-cell>
@@ -10319,7 +10300,9 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="6"/>
-              public boolean onContextItemSelected(MenuItem item) {
+              public boolean 
+              <text:span text:style-name="T12">onContextItemSelected</text:span>
+              (MenuItem item) {
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="17"/>
@@ -10801,7 +10784,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1016"/>
         </table:table-row>
-        <table:table-row table:style-name="ro4">
+        <table:table-row table:style-name="ro5">
           <table:table-cell table:style-name="Default" table:number-columns-repeated="1024"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -11595,7 +11578,7 @@
             <text:p>OpenGL ES</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce34" office:value-type="string">
+          <table:table-cell table:style-name="ce28" office:value-type="string">
             <text:p>2D, 3D のグラフィックスライブラリ</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1014"/>
@@ -12402,7 +12385,7 @@
               .
               <text:span text:style-name="T12">setStyle</text:span>
               (
-              <text:span text:style-name="T23">Paint.Style.FILL</text:span>
+              <text:span text:style-name="T21">Paint.Style.FILL</text:span>
               );
             </text:p>
           </table:table-cell>
@@ -12431,7 +12414,7 @@
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="4"/>
-          <table:table-cell table:style-name="ce33" office:value-type="string">
+          <table:table-cell table:style-name="ce27" office:value-type="string">
             <text:p>
               <text:s text:c="4"/>
               <text:span text:style-name="T14">canvas</text:span>
@@ -12497,7 +12480,7 @@
             <text:p>
               <text:s text:c="4"/>
               paint.setStyle(
-              <text:span text:style-name="T23">Style.STROKE</text:span>
+              <text:span text:style-name="T21">Style.STROKE</text:span>
               );
             </text:p>
           </table:table-cell>
@@ -13109,7 +13092,337 @@
           <table:table-cell table:style-name="ce20"/>
           <table:table-cell table:number-columns-repeated="1004"/>
         </table:table-row>
-        <table:table-row table:style-name="ro1" table:number-rows-repeated="1048106">
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="1048113">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+      </table:table>
+      <table:table table:name="6章" table:style-name="ta1" table:print="false">
+        <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
+        <table:table-column table:style-name="co1" table:number-columns-repeated="1024" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce3"/>
+          <table:table-cell table:number-columns-repeated="1007"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>6章</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1022"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>●</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>基本構成コンポーネント</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>アクティビティ</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>アクティビティクラス</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1012"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>サービス</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>バックグラウンドで動く</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="156"/>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:number-columns-repeated="855"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>ブロードキャストレシーバ</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>特定のイベント発生をアプリ全体に通知</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1012"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="11"/>
+          <table:table-cell office:value-type="string">
+            <text:p>（バッテリ残量、システム起動終了など）</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1012"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>コンテントプロバイダ</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>異なるアプリ間でデータを共有</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1012"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="3">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>●</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>アクティビティ</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>基本は１画面に１アクティビティだが複数画面に１アクティビティも可能</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell>
+            <draw:frame table:end-cell-address="6章.AH67" table:end-x="0.316cm" table:end-y="0.33cm" draw:z-index="0" draw:name="図 2" draw:style-name="gr1" draw:text-style-name="P1" svg:width="27.203cm" svg:height="22.977cm" svg:x="0cm" svg:y="0cm">
+              <draw:image xlink:href="Pictures/10000000000004140000035718DF81CC.png" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad">
+                <text:p/>
+              </draw:image>
+            </draw:frame>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="4">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="34"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>エンタイアライフタイム</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="988"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="36"/>
+          <table:table-cell office:value-type="string">
+            <text:p>onCreate</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="987"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="36"/>
+          <table:table-cell office:value-type="string">
+            <text:p>onDestroy</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="987"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="34"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>ビジブルライフタイム</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="988"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="36"/>
+          <table:table-cell office:value-type="string">
+            <text:p>onStart</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="987"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="36"/>
+          <table:table-cell office:value-type="string">
+            <text:p>onStop</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>画面が長時間非表示になったとき</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="984"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="34"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>フォアグラウンドライフタイム</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="988"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="36"/>
+          <table:table-cell office:value-type="string">
+            <text:p>onResume</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="987"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="36"/>
+          <table:table-cell office:value-type="string">
+            <text:p>onPause</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="987"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="36">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>アプリの起動</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>開始　➡　onCreate()　➡　onStart()　➡　onResume()</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>アプリケーションの非表示</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>実行中　➡　onPause()　➡　onStop()</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>アプリケーションの再起動</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>停止中　➡　onRestart()　➡　onStart　➡　onResume</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>アプリケーションの終了</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>実行中　➡　onPause()　➡　onStop()　➡　onDestroy()　➡　終了</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>●</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>インテント</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="1048488">
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -13146,8 +13459,8 @@
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
       </table:table>
-      <table:table table:name="12章" table:style-name="ta4" table:print="false">
-        <table:table-column table:style-name="co8" table:number-columns-repeated="1024" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
+      <table:table table:name="12章" table:style-name="ta2" table:print="false">
+        <table:table-column table:style-name="co5" table:number-columns-repeated="1024" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
@@ -13189,8 +13502,8 @@
           <table:table-cell office:value-type="string">
             <text:p>
               &lt;
-              <text:span text:style-name="T24">manifest</text:span>
-              <text:span text:style-name="T25"> xmlns:android="http://schemas.android.com/apk/res/android"</text:span>
+              <text:span text:style-name="T22">manifest</text:span>
+              <text:span text:style-name="T23"> xmlns:android="http://schemas.android.com/apk/res/android"</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
@@ -13207,28 +13520,28 @@
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="4"/>
-          <table:table-cell table:style-name="ce35" office:value-type="string">
+          <table:table-cell table:style-name="ce29" office:value-type="string">
             <text:p>
               <text:s text:c="6"/>
               android:versionCode="1"
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="11"/>
-          <table:table-cell table:style-name="ce36" office:value-type="string">
+          <table:table-cell table:style-name="ce30" office:value-type="string">
             <text:p>←　整数値</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1007"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="4"/>
-          <table:table-cell table:style-name="ce35" office:value-type="string">
+          <table:table-cell table:style-name="ce29" office:value-type="string">
             <text:p>
               <text:s text:c="6"/>
               android:versionName="1.0"&gt;
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="11"/>
-          <table:table-cell table:style-name="ce36" office:value-type="string">
+          <table:table-cell table:style-name="ce30" office:value-type="string">
             <text:p>←　1.0.0とか。管理画面に表示される</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1007"/>
@@ -13239,8 +13552,8 @@
             <text:p>
               <text:s text:c="4"/>
               &lt;
-              <text:span text:style-name="T24">application</text:span>
-              <text:span text:style-name="T25"> </text:span>
+              <text:span text:style-name="T22">application</text:span>
+              <text:span text:style-name="T23"> </text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
@@ -13253,22 +13566,22 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce35" office:value-type="string">
+          <table:table-cell table:style-name="ce29" office:value-type="string">
             <text:p>android:label="@string/app_name" </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="11"/>
-          <table:table-cell table:style-name="ce36" office:value-type="string">
+          <table:table-cell table:style-name="ce30" office:value-type="string">
             <text:p>←　アプリケーション名（AndroidMarketや端末上での名前）</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1004"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="7"/>
-          <table:table-cell table:style-name="ce35" office:value-type="string">
+          <table:table-cell table:style-name="ce29" office:value-type="string">
             <text:p>android:icon="@drawable/icon" </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="11"/>
-          <table:table-cell table:style-name="ce36" office:value-type="string">
+          <table:table-cell table:style-name="ce30" office:value-type="string">
             <text:p>←　アイコン画像</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1004"/>
@@ -13281,11 +13594,11 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce35" office:value-type="string">
+          <table:table-cell table:style-name="ce29" office:value-type="string">
             <text:p>android:debuggable="true"</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="11"/>
-          <table:table-cell table:style-name="ce36" office:value-type="string">
+          <table:table-cell table:style-name="ce30" office:value-type="string">
             <text:p>←　デフォルトはfalse。リリース時にはfalseにするか削除する。</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1004"/>
@@ -13318,7 +13631,7 @@
           <table:table-cell office:value-type="string">
             <text:p>
               String packageName = 
-              <text:span text:style-name="T24">getPackageName();</text:span>
+              <text:span text:style-name="T22">getPackageName();</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
@@ -13328,7 +13641,7 @@
           <table:table-cell office:value-type="string">
             <text:p>
               PackageManager pm = 
-              <text:span text:style-name="T24">getPackageManager();</text:span>
+              <text:span text:style-name="T22">getPackageManager();</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
@@ -13338,7 +13651,7 @@
           <table:table-cell office:value-type="string">
             <text:p>
               PackageInfo packageInfo = 
-              <text:span text:style-name="T24">pm.getPackageInfo(packageName, 0);</text:span>
+              <text:span text:style-name="T22">pm.getPackageInfo(packageName, 0);</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
@@ -13348,11 +13661,11 @@
           <table:table-cell office:value-type="string">
             <text:p>
               int versinoCode = 
-              <text:span text:style-name="T24">packageInfo.versionCode;</text:span>
+              <text:span text:style-name="T22">packageInfo.versionCode;</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="13"/>
-          <table:table-cell table:style-name="ce36" office:value-type="string">
+          <table:table-cell table:style-name="ce30" office:value-type="string">
             <text:p>←　PackageInfo内のpublic変数</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1005"/>
@@ -13362,11 +13675,11 @@
           <table:table-cell office:value-type="string">
             <text:p>
               String versionName = 
-              <text:span text:style-name="T24">packageInfo.versionName;</text:span>
+              <text:span text:style-name="T22">packageInfo.versionName;</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="13"/>
-          <table:table-cell table:style-name="ce36" office:value-type="string">
+          <table:table-cell table:style-name="ce30" office:value-type="string">
             <text:p>←　PackageInfo内のpublic変数</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1005"/>
@@ -13396,7 +13709,7 @@
             <text:p>&lt;uses-sdk android:minSdkVersion="8" </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="13"/>
-          <table:table-cell table:style-name="ce36" office:value-type="string">
+          <table:table-cell table:style-name="ce30" office:value-type="string">
             <text:p>←　指定なしの場合は"1"とみなされる。このVerより低い端末の場合クラッシュの可能性あり</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1005"/>
@@ -13413,7 +13726,7 @@
             <text:p>android:maxSdkVersion="8" </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="10"/>
-          <table:table-cell table:style-name="ce36" office:value-type="string">
+          <table:table-cell table:style-name="ce30" office:value-type="string">
             <text:p>←　このVerより高い端末にインストールされない（？）ようになる</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1005"/>
@@ -13430,7 +13743,7 @@
             <text:p>android:targetSdkVersion="8" /&gt;</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="10"/>
-          <table:table-cell table:style-name="ce36" office:value-type="string">
+          <table:table-cell table:style-name="ce30" office:value-type="string">
             <text:p>←　動作推奨Ver。テスト済みを明示。このVerより低い端末でもインストール可能。</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1005"/>
@@ -13643,14 +13956,14 @@
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="6"/>
-          <table:table-cell table:style-name="ce35" office:value-type="string">
+          <table:table-cell table:style-name="ce29" office:value-type="string">
             <text:p>android:versionCode</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="6"/>
-          <table:table-cell table:style-name="ce35" office:value-type="string">
+          <table:table-cell table:style-name="ce29" office:value-type="string">
             <text:p>android:versionName</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
@@ -13757,7 +14070,7 @@
             <text:p>&gt;layoutopt [projectname]</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="13"/>
-          <table:table-cell table:style-name="ce36" office:value-type="string">
+          <table:table-cell table:style-name="ce30" office:value-type="string">
             <text:p>←　プロジェクトのxmlの診断</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1004"/>
@@ -13768,7 +14081,7 @@
             <text:p>&gt;layoutopt [projectname\res\layout\main.xml]</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="13"/>
-          <table:table-cell table:style-name="ce36" office:value-type="string">
+          <table:table-cell table:style-name="ce30" office:value-type="string">
             <text:p>←　プロジェクトの指定のxmlのみを診断</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1004"/>
@@ -14039,7 +14352,7 @@
             <text:p>&gt;zipalign [-f] [-v] &lt;alignment&gt; infile.apk outfile.apk</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="13"/>
-          <table:table-cell table:style-name="ce36" office:value-type="string">
+          <table:table-cell table:style-name="ce30" office:value-type="string">
             <text:p>←　infile.apkを整列し、outfile.apkとして保存する</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1004"/>
@@ -14050,14 +14363,14 @@
             <text:p>&gt;zipalign -c -v &lt;alignment&gt; existing.apk</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="13"/>
-          <table:table-cell table:style-name="ce36" office:value-type="string">
+          <table:table-cell table:style-name="ce30" office:value-type="string">
             <text:p>←　existing.apkの位置合わせの確認を行う</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1004"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce36" office:value-type="string">
+          <table:table-cell table:style-name="ce30" office:value-type="string">
             <text:p>　　　alignment は必ず4を指定</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1004"/>
@@ -14129,11 +14442,11 @@
 <file path=meta.xml><?xml version="1.0" encoding="utf-8"?>
 <office:document-meta xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:grddl="http://www.w3.org/2003/g/data-view#" office:version="1.2">
   <office:meta>
-    <dc:date>2012-07-19T22:21:49</dc:date>
+    <dc:date>2012-07-22T16:24:04</dc:date>
     <meta:generator>OpenOffice.org/3.4$Unix OpenOffice.org_project/340m1$Build-9590</meta:generator>
-    <meta:editing-duration>P5DT16H10M7S</meta:editing-duration>
-    <meta:editing-cycles>38</meta:editing-cycles>
-    <meta:document-statistic meta:table-count="8" meta:cell-count="1567" meta:object-count="6"/>
+    <meta:editing-duration>P6DT21H15M10S</meta:editing-duration>
+    <meta:editing-cycles>43</meta:editing-cycles>
+    <meta:document-statistic meta:table-count="9" meta:cell-count="1606" meta:object-count="7"/>
   </office:meta>
 </office:document-meta>
 </file>
@@ -14144,8 +14457,8 @@
     <config:config-item-set config:name="ooo:view-settings">
       <config:config-item config:name="VisibleAreaTop" config:type="int">462</config:config-item>
       <config:config-item config:name="VisibleAreaLeft" config:type="int">896</config:config-item>
-      <config:config-item config:name="VisibleAreaWidth" config:type="int">26922</config:config-item>
-      <config:config-item config:name="VisibleAreaHeight" config:type="int">216253</config:config-item>
+      <config:config-item config:name="VisibleAreaWidth" config:type="int">896</config:config-item>
+      <config:config-item config:name="VisibleAreaHeight" config:type="int">462</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
@@ -14193,14 +14506,14 @@
               <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
-              <config:config-item config:name="PositionBottom" config:type="int">5</config:config-item>
+              <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
               <config:config-item config:name="ZoomValue" config:type="int">60</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
             </config:config-item-map-entry>
             <config:config-item-map-entry config:name="4章">
-              <config:config-item config:name="CursorPositionX" config:type="int">7</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">334</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">10</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">20</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -14209,14 +14522,14 @@
               <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
-              <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionBottom" config:type="int">29</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
               <config:config-item config:name="ZoomValue" config:type="int">60</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
             </config:config-item-map-entry>
             <config:config-item-map-entry config:name="5章">
-              <config:config-item config:name="CursorPositionX" config:type="int">22</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">466</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">7</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">307</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -14225,7 +14538,23 @@
               <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
-              <config:config-item config:name="PositionBottom" config:type="int">443</config:config-item>
+              <config:config-item config:name="PositionBottom" config:type="int">432</config:config-item>
+              <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
+              <config:config-item config:name="ZoomValue" config:type="int">60</config:config-item>
+              <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
+            </config:config-item-map-entry>
+            <config:config-item-map-entry config:name="6章">
+              <config:config-item config:name="CursorPositionX" config:type="int">0</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">19</config:config-item>
+              <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
+              <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
+              <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
+              <config:config-item config:name="VerticalSplitPosition" config:type="int">0</config:config-item>
+              <config:config-item config:name="ActiveSplitRange" config:type="short">2</config:config-item>
+              <config:config-item config:name="PositionLeft" config:type="int">2</config:config-item>
+              <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
               <config:config-item config:name="ZoomValue" config:type="int">60</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
@@ -14247,8 +14576,8 @@
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
             </config:config-item-map-entry>
             <config:config-item-map-entry config:name="２章">
-              <config:config-item config:name="CursorPositionX" config:type="int">1</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">21</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">0</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">2</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -14257,14 +14586,14 @@
               <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
-              <config:config-item config:name="PositionBottom" config:type="int">44</config:config-item>
+              <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
               <config:config-item config:name="ZoomValue" config:type="int">60</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
             </config:config-item-map-entry>
             <config:config-item-map-entry config:name="３章">
-              <config:config-item config:name="CursorPositionX" config:type="int">39</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">245</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">25</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">241</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -14273,13 +14602,13 @@
               <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
-              <config:config-item config:name="PositionBottom" config:type="int">157</config:config-item>
+              <config:config-item config:name="PositionBottom" config:type="int">211</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
               <config:config-item config:name="ZoomValue" config:type="int">60</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
             </config:config-item-map-entry>
           </config:config-item-map-named>
-          <config:config-item config:name="ActiveTable" config:type="string">5章</config:config-item>
+          <config:config-item config:name="ActiveTable" config:type="string">３章</config:config-item>
           <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">813</config:config-item>
           <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
           <config:config-item config:name="ZoomValue" config:type="int">60</config:config-item>
@@ -14327,6 +14656,22 @@
       <config:config-item config:name="ShowGrid" config:type="boolean">true</config:config-item>
       <config:config-item config:name="CharacterCompressionType" config:type="short">0</config:config-item>
       <config:config-item config:name="HasColumnRowHeaders" config:type="boolean">true</config:config-item>
+      <config:config-item-map-indexed config:name="ForbiddenCharacters">
+        <config:config-item-map-entry>
+          <config:config-item config:name="Language" config:type="string">en</config:config-item>
+          <config:config-item config:name="Country" config:type="string">US</config:config-item>
+          <config:config-item config:name="Variant" config:type="string"/>
+          <config:config-item config:name="BeginLine" config:type="string"/>
+          <config:config-item config:name="EndLine" config:type="string"/>
+        </config:config-item-map-entry>
+        <config:config-item-map-entry>
+          <config:config-item config:name="Language" config:type="string">ja</config:config-item>
+          <config:config-item config:name="Country" config:type="string">JP</config:config-item>
+          <config:config-item config:name="Variant" config:type="string"/>
+          <config:config-item config:name="BeginLine" config:type="string">!%),.:;?]}¢°’”‰′″℃、。々〉》」』】〕ぁぃぅぇぉっゃゅょゎ゛゜ゝゞァィゥェォッャュョヮヵヶ・ーヽヾ！％），．：；？］｝｡｣､･ｧｨｩｪｫｬｭｮｯｰﾞﾟ¢</config:config-item>
+          <config:config-item config:name="EndLine" config:type="string">$([¥{£¥‘“〈《「『【〔＄（［｛｢£￥</config:config-item>
+        </config:config-item-map-entry>
+      </config:config-item-map-indexed>
       <config:config-item config:name="IsOutlineSymbolsSet" config:type="boolean">true</config:config-item>
       <config:config-item config:name="AutoCalculate" config:type="boolean">true</config:config-item>
       <config:config-item config:name="IsDocumentShared" config:type="boolean">false</config:config-item>
@@ -14339,8 +14684,6 @@
 <file path=styles.xml><?xml version="1.0" encoding="utf-8"?>
 <office:document-styles xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:style="urn:oasis:names:tc:opendocument:xmlns:style:1.0" xmlns:text="urn:oasis:names:tc:opendocument:xmlns:text:1.0" xmlns:table="urn:oasis:names:tc:opendocument:xmlns:table:1.0" xmlns:draw="urn:oasis:names:tc:opendocument:xmlns:drawing:1.0" xmlns:fo="urn:oasis:names:tc:opendocument:xmlns:xsl-fo-compatible:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:number="urn:oasis:names:tc:opendocument:xmlns:datastyle:1.0" xmlns:presentation="urn:oasis:names:tc:opendocument:xmlns:presentation:1.0" xmlns:svg="urn:oasis:names:tc:opendocument:xmlns:svg-compatible:1.0" xmlns:chart="urn:oasis:names:tc:opendocument:xmlns:chart:1.0" xmlns:dr3d="urn:oasis:names:tc:opendocument:xmlns:dr3d:1.0" xmlns:math="http://www.w3.org/1998/Math/MathML" xmlns:form="urn:oasis:names:tc:opendocument:xmlns:form:1.0" xmlns:script="urn:oasis:names:tc:opendocument:xmlns:script:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:ooow="http://openoffice.org/2004/writer" xmlns:oooc="http://openoffice.org/2004/calc" xmlns:dom="http://www.w3.org/2001/xml-events" xmlns:rpt="http://openoffice.org/2005/report" xmlns:of="urn:oasis:names:tc:opendocument:xmlns:of:1.2" xmlns:xhtml="http://www.w3.org/1999/xhtml" xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:tableooo="http://openoffice.org/2009/table" office:version="1.2">
   <office:font-face-decls>
-    <style:font-face style:name="F" svg:font-family="" style:font-family-generic="roman"/>
-    <style:font-face style:name="Helvetica" svg:font-family="Helvetica" style:font-family-generic="swiss"/>
     <style:font-face style:name="ＭＳ Ｐゴシック2" svg:font-family="'ＭＳ Ｐゴシック'" style:font-family-generic="swiss"/>
     <style:font-face style:name="Monaco" svg:font-family="Monaco" style:font-family-generic="modern" style:font-pitch="fixed"/>
     <style:font-face style:name="ＭＳ Ｐゴシック1" svg:font-family="'ＭＳ Ｐゴシック'" style:font-family-generic="modern" style:font-pitch="variable"/>
@@ -14791,9 +15134,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2012-07-19">2012/07/19</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2012-07-22">2012/07/22</text:date>
             , 
-            <text:time>22:21:49</text:time>
+            <text:time>16:24:04</text:time>
           </text:p>
         </style:region-right>
       </style:header>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -26,6 +26,7 @@
 <office:document-content xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:style="urn:oasis:names:tc:opendocument:xmlns:style:1.0" xmlns:text="urn:oasis:names:tc:opendocument:xmlns:text:1.0" xmlns:table="urn:oasis:names:tc:opendocument:xmlns:table:1.0" xmlns:draw="urn:oasis:names:tc:opendocument:xmlns:drawing:1.0" xmlns:fo="urn:oasis:names:tc:opendocument:xmlns:xsl-fo-compatible:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:number="urn:oasis:names:tc:opendocument:xmlns:datastyle:1.0" xmlns:presentation="urn:oasis:names:tc:opendocument:xmlns:presentation:1.0" xmlns:svg="urn:oasis:names:tc:opendocument:xmlns:svg-compatible:1.0" xmlns:chart="urn:oasis:names:tc:opendocument:xmlns:chart:1.0" xmlns:dr3d="urn:oasis:names:tc:opendocument:xmlns:dr3d:1.0" xmlns:math="http://www.w3.org/1998/Math/MathML" xmlns:form="urn:oasis:names:tc:opendocument:xmlns:form:1.0" xmlns:script="urn:oasis:names:tc:opendocument:xmlns:script:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:ooow="http://openoffice.org/2004/writer" xmlns:oooc="http://openoffice.org/2004/calc" xmlns:dom="http://www.w3.org/2001/xml-events" xmlns:xforms="http://www.w3.org/2002/xforms" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:rpt="http://openoffice.org/2005/report" xmlns:of="urn:oasis:names:tc:opendocument:xmlns:of:1.2" xmlns:xhtml="http://www.w3.org/1999/xhtml" xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:tableooo="http://openoffice.org/2009/table" xmlns:field="urn:openoffice:names:experimental:ooo-ms-interop:xmlns:field:1.0" office:version="1.2">
   <office:scripts/>
   <office:font-face-decls>
+    <style:font-face style:name="F" svg:font-family="" style:font-family-generic="roman"/>
     <style:font-face style:name="ＭＳ Ｐゴシック2" svg:font-family="'ＭＳ Ｐゴシック'" style:font-family-generic="swiss"/>
     <style:font-face style:name="Monaco" svg:font-family="Monaco" style:font-family-generic="modern" style:font-pitch="fixed"/>
     <style:font-face style:name="ＭＳ Ｐゴシック1" svg:font-family="'ＭＳ Ｐゴシック'" style:font-family-generic="modern" style:font-pitch="variable"/>
@@ -49,11 +50,11 @@
     <style:style style:name="co4" style:family="table-column">
       <style:table-column-properties fo:break-before="auto" style:column-width="0.935cm"/>
     </style:style>
-    <style:style style:name="co5" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="0.834cm"/>
-    </style:style>
     <style:style style:name="co6" style:family="table-column">
       <style:table-column-properties fo:break-before="auto" style:column-width="2.148cm"/>
+    </style:style>
+    <style:style style:name="co7" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="0.834cm"/>
     </style:style>
     <style:style style:name="ro1" style:family="table-row">
       <style:table-row-properties style:row-height="0.464cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
@@ -73,10 +74,10 @@
     <style:style style:name="ta1" style:family="table" style:master-page-name="PageStyle_5f_Sheet2">
       <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
     </style:style>
-    <style:style style:name="ta2" style:family="table" style:master-page-name="PageStyle_5f_12章">
+    <style:style style:name="ta3" style:family="table" style:master-page-name="PageStyle_5f_Sheet3">
       <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
     </style:style>
-    <style:style style:name="ta3" style:family="table" style:master-page-name="PageStyle_5f_Sheet3">
+    <style:style style:name="ta4" style:family="table" style:master-page-name="PageStyle_5f_12章">
       <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
     </style:style>
     <style:style style:name="ce1" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
@@ -90,26 +91,6 @@
     <style:style style:name="ce3" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false"/>
       <style:paragraph-properties fo:text-align="justify" fo:margin-left="0cm"/>
-    </style:style>
-    <style:style style:name="ce4" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:text-properties fo:color="#ff0000"/>
-    </style:style>
-    <style:style style:name="ce5" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties fo:border-bottom="none" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="0.002cm solid #000000"/>
-      <style:text-properties fo:language="en" fo:country="US" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:language-asian="en" style:country-asian="US" style:language-complex="en" style:country-complex="US" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
-    </style:style>
-    <style:style style:name="ce6" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties fo:border-bottom="none" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="none"/>
-      <style:text-properties fo:language="en" fo:country="US" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:language-asian="en" style:country-asian="US" style:language-complex="en" style:country-complex="US" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
-    </style:style>
-    <style:style style:name="ce7" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties fo:border-bottom="0.002cm solid #000000" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="none"/>
-    </style:style>
-    <style:style style:name="ce8" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties fo:border-bottom="none" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="none"/>
-    </style:style>
-    <style:style style:name="ce9" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties fo:border-bottom="none" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="0.002cm solid #000000"/>
     </style:style>
     <style:style style:name="ce10" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties fo:border-bottom="none" fo:border-left="none" fo:border-right="none" fo:border-top="0.002cm solid #000000"/>
@@ -151,6 +132,26 @@
     <style:style style:name="ce21" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:text-properties style:font-name-asian="ＭＳ Ｐゴシック2"/>
     </style:style>
+    <style:style style:name="ce4" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:text-properties fo:color="#ff0000"/>
+    </style:style>
+    <style:style style:name="ce5" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="none" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="0.002cm solid #000000"/>
+      <style:text-properties fo:language="en" fo:country="US" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:language-asian="en" style:country-asian="US" style:language-complex="en" style:country-complex="US" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
+    </style:style>
+    <style:style style:name="ce6" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="none" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="none"/>
+      <style:text-properties fo:language="en" fo:country="US" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:language-asian="en" style:country-asian="US" style:language-complex="en" style:country-complex="US" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
+    </style:style>
+    <style:style style:name="ce7" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="0.002cm solid #000000" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="none"/>
+    </style:style>
+    <style:style style:name="ce8" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="none" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="none"/>
+    </style:style>
+    <style:style style:name="ce9" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="none" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="0.002cm solid #000000"/>
+    </style:style>
     <style:style style:name="ce22" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties fo:border-bottom="none" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="none"/>
       <style:text-properties fo:color="#00cccc"/>
@@ -177,10 +178,17 @@
       <style:table-cell-properties style:text-align-source="value-type" style:repeat-content="false"/>
       <style:paragraph-properties fo:margin-left="0cm"/>
     </style:style>
-    <style:style style:name="ce29" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce35" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:text-properties fo:language="en" fo:country="US" style:language-asian="en" style:country-asian="US" style:language-complex="en" style:country-complex="US"/>
+    </style:style>
+    <style:style style:name="ce36" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="none" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="none"/>
+      <style:text-properties fo:font-weight="normal" style:font-weight-asian="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce37" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:text-properties fo:color="#0070c0" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-name-asian="ＭＳ Ｐゴシック1" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
     </style:style>
-    <style:style style:name="ce30" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce38" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:text-properties fo:color="#ff0000" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
     <style:style style:name="gr1" style:family="graphic">
@@ -232,6 +240,15 @@
     <style:style style:name="T12" style:family="text">
       <style:text-properties fo:color="#0000ff"/>
     </style:style>
+    <style:style style:name="T17" style:family="text">
+      <style:text-properties fo:color="#7f0055" style:font-name="Monaco" fo:font-size="11pt" fo:font-weight="bold" style:font-name-asian="Monaco" style:font-size-asian="11pt" style:font-weight-asian="bold" style:font-name-complex="Monaco" style:font-size-complex="6.30000019073486pt" style:font-weight-complex="bold"/>
+    </style:style>
+    <style:style style:name="T18" style:family="text">
+      <style:text-properties fo:color="#0000ff" style:font-name="Monaco" fo:font-size="11pt" style:font-name-asian="Monaco" style:font-size-asian="11pt" style:font-name-complex="Monaco" style:font-size-complex="6.30000019073486pt"/>
+    </style:style>
+    <style:style style:name="T19" style:family="text">
+      <style:text-properties fo:color="#0000c0" style:font-name="Monaco" fo:font-size="11pt" fo:font-style="italic" style:font-name-asian="Monaco" style:font-size-asian="11pt" style:font-style-asian="italic" style:font-name-complex="Monaco" style:font-size-complex="6.30000019073486pt" style:font-style-complex="italic"/>
+    </style:style>
     <style:style style:name="T13" style:family="text">
       <style:text-properties fo:color="#47b8b8"/>
     </style:style>
@@ -244,25 +261,16 @@
     <style:style style:name="T16" style:family="text">
       <style:text-properties fo:color="#000000"/>
     </style:style>
-    <style:style style:name="T17" style:family="text">
-      <style:text-properties fo:color="#7f0055" style:font-name="Monaco" fo:font-size="11pt" fo:font-weight="bold" style:font-name-asian="Monaco" style:font-size-asian="11pt" style:font-weight-asian="bold" style:font-name-complex="Monaco" style:font-size-complex="6.30000019073486pt" style:font-weight-complex="bold"/>
-    </style:style>
-    <style:style style:name="T18" style:family="text">
-      <style:text-properties fo:color="#0000ff" style:font-name="Monaco" fo:font-size="11pt" style:font-name-asian="Monaco" style:font-size-asian="11pt" style:font-name-complex="Monaco" style:font-size-complex="6.30000019073486pt"/>
-    </style:style>
-    <style:style style:name="T19" style:family="text">
-      <style:text-properties fo:color="#0000c0" style:font-name="Monaco" fo:font-size="11pt" fo:font-style="italic" style:font-name-asian="Monaco" style:font-size-asian="11pt" style:font-style-asian="italic" style:font-name-complex="Monaco" style:font-size-complex="6.30000019073486pt" style:font-style-complex="italic"/>
-    </style:style>
     <style:style style:name="T20" style:family="text">
       <style:text-properties fo:color="#808019"/>
     </style:style>
     <style:style style:name="T21" style:family="text">
       <style:text-properties fo:color="#b3b300"/>
     </style:style>
-    <style:style style:name="T22" style:family="text">
+    <style:style style:name="T25" style:family="text">
       <style:text-properties fo:color="#0070c0" style:text-outline="false" style:text-line-through-style="none" style:text-position="0% 100%" style:font-name="ＭＳ Ｐゴシック1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-name-asian="ＭＳ Ｐゴシック1" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
     </style:style>
-    <style:style style:name="T23" style:family="text">
+    <style:style style:name="T26" style:family="text">
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-position="0% 100%" style:font-name="ＭＳ Ｐゴシック" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
   </office:automatic-styles>
@@ -767,7 +775,6 @@
         </table:table-row>
       </table:table>
       <table:table table:name="２章" table:style-name="ta1" table:print="false">
-        <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
         <table:table-column table:style-name="co1" table:number-columns-repeated="1024" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="16"/>
@@ -13422,7 +13429,1683 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1020"/>
         </table:table-row>
-        <table:table-row table:style-name="ro1" table:number-rows-repeated="1048488">
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>同一アプリ内の画面間、または他のアプリ間で連携を可能にする</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>呼び出し可能なコンポーネント</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>アクティビティ</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>サービス</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>ブロードキャストレシーバ</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>インテントの種類</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>明示的インテント</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>プログラマが指定する</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1013"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>暗黙的インテント</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>何をしたいかだけを指定。ttwのメール送信機能時に出る、Email・Gmailのリストのこと</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1013"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce35" office:value-type="string">
+            <text:p>IntentSample1Activity（元のアクティビティ）</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce9"/>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce18"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>public class IntentSample1Activity extends Activity {</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              /** Called when the activity is first created. */
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              @Override
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              public void onCreate(Bundle savedInstanceState) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              super.onCreate(savedInstanceState);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              setContentView(R.layout.main);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              // ListViewオブジェクト取得
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              ListView listview = (ListView) findViewById(R.id.listView);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              // ListViewオブジェクトにクリックリスナーを関連付け
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              listview.setOnItemClickListener(new ListItemClickListener());
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              // アイテムクリックリスナー定義
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              class ListItemClickListener implements OnItemClickListener {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              // onItemClickメソッド(値選択時イベントハンドラ)
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              public void onItemClick(AdapterView&lt;?&gt; parent,
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="28"/>
+              View view, int position, long id) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              // ListViewオブジェクト取得
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              ListView listview = (ListView) parent;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              // 選択された値取得
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              String item = (String) listview.getItemAtPosition(position);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              // インテントの生成(呼び出すクラスの指定)
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              <text:span text:style-name="T12">Intent</text:span>
+              <text:span text:style-name="T14">intent</text:span>
+               = new Intent(
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="17"/>
+              <text:span text:style-name="T14">IntentSample1Activity.this</text:span>
+              , 
+              <text:s/>
+              <text:span text:style-name="T14">NextActivity.class</text:span>
+              );
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              // 選択された値をインテントに設定
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              <text:span text:style-name="T14">intent</text:span>
+              .
+              <text:span text:style-name="T12">putExtra</text:span>
+              ("item",item);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>⬅　第二引数がString以外の型のメソッドもある</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              // 次のアクティビティの起動
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              <text:span text:style-name="T12">startActivity</text:span>
+              (
+              <text:span text:style-name="T14">intent</text:span>
+              );
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              //
+              <text:span text:style-name="T12">startActivityForResult</text:span>
+              (Intent intent , int requestCode)
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>⬅　遷移先の画面から結果を返す場合はコレ</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce36" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              protected void 
+              <text:span text:style-name="T12">onActivityResult</text:span>
+              (
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>
+              ⬅　
+              <text:span text:style-name="T12">startActivityForResult</text:span>
+               を実装した場合は、結果を受け取る
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="21"/>
+              int requestCode, int resultCode, Intent data){
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              onActivityResultを実装する必要がある
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              Bundle extras = data.getExtras();
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              // 付加情報から選択された値取得
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              String value =extras.getString("value");
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              // 戻った起動要求コードで、
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              // どのアクティビティが終了したかを判断
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              if (requestCode == LAUNCHED_ACTIVITY) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              TextView textView = (TextView)findViewById(R.id.text1);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              // resultCodeには、起動先アクティビティの
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              // setResultで指定された値が入る
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              if (resultCode == RESULT_OK){
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              textView.setText("OK. : value is " + value);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              } else if (resultCode == RESULT_CANCELED){
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              textView.setText("CANCELED. : value is " + value);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              }else{
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              super.onActivityResult(requestCode, resultCode, data);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce7" office:value-type="string">
+            <text:p>}</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce11" table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce20"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>NextActivity（遷移先のアクティビティクラス）</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce9" office:value-type="string">
+            <text:p>public class NextActivity extends Activity {</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce18"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              public void onCreate(Bundle savedInstanceState) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              super.onCreate(savedInstanceState);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              setContentView(R.layout.next);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              // インテント取得
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              Intent 
+              <text:span text:style-name="T14">data</text:span>
+               = 
+              <text:span text:style-name="T12">getIntent</text:span>
+              ();
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              // インテントの付加情報取得
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              <text:span text:style-name="T12">Bundle</text:span>
+              <text:span text:style-name="T14">extras</text:span>
+               = 
+              <text:span text:style-name="T14">data</text:span>
+              .
+              <text:span text:style-name="T12">getExtras</text:span>
+              ();
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              // 付加情報から選択された値取得
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              String item =
+              <text:span text:style-name="T14">extras</text:span>
+              .
+              <text:span text:style-name="T12">getString</text:span>
+              ("item");
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              // 表示用のTextViewオブジェクト取得
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              TextView textview = (TextView) findViewById(R.id.textview);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              // 表示する画像の設定
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              if ( item.equals("Test1") ) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              textview.setText("Test1が選択されました");
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              } else if ( item.equals("Test2") ) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>textview.setText("Test2が選択されました");</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              } else if ( item.equals("Test3") ) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>textview.setText("Test3が選択されました");</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              // Buttonオブジェクト取得
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              Button button = (Button)findViewById(R.id.backbutton);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              // ボタンオブジェクトにクリックリスナー設定
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              button.setOnClickListener(new ButtonClickListener());
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              // クリックリスナー定義
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              class ButtonClickListener implements OnClickListener {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              public void onClick(View v) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>
+              //
+              <text:span text:style-name="T12">setResult</text:span>
+              (int rsultCode , Intent data);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>
+              ⬅　
+              <text:span text:style-name="T12">startActivityForResult</text:span>
+               を実装した場合は、結果を設定する。
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              // アクティビティ終了(画面クローズ)
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="10"/>
+              <text:span text:style-name="T12">finish</text:span>
+              ();
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>⬅　画面を終了する　＝　元の画面が表示される</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>☆　Androidの画面遷移は、元の画面の上に重ねていくというイメージ</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>}</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell table:style-name="ce11" table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce20"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="25"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>action</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="997"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>AndroidManifest</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce9" office:value-type="string">
+            <text:p>&lt;?xml version="1.0" encoding="utf-8"?&gt;</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="18"/>
+          <table:table-cell table:style-name="ce18"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>android.intent.action.MAIN</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>アプリ起動時に実行されるアクティビティ</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="987"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>&lt;manifest xmlns:android="http://schemas.android.com/apk/res/android"</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="18"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              package="jp.co.knowd"
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="18"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>android.intent.action.VIEW</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>データを画面に表示する</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="987"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              android:versionCode="1"
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="18"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              android:versionName="1.0"&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="18"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>android.intent.action.CALL</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>電話をかける</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="987"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              &lt;uses-sdk android:minSdkVersion="10" /&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="18"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="18"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>android.intent.action.DIAL</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>電話をかける画面を表示</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="987"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              &lt;application android:icon="@drawable/icon" android:label="@string/app_name"&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="18"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              &lt;
+              <text:span text:style-name="T12">activity</text:span>
+               android:name=".
+              <text:span text:style-name="T14">IntentSample1Activity</text:span>
+              "
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="18"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>android.intent.action.RUN</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>データを実行する</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="987"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="18"/>
+              android:label="@string/app_name"&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="18"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="12"/>
+              &lt;
+              <text:span text:style-name="T12">intent-filter</text:span>
+              &gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="18"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>android.intent.action.GET_CONTENT</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>コンテンツデータを取得</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="987"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="16"/>
+              &lt;
+              <text:span text:style-name="T12">action</text:span>
+               android:name="
+              <text:span text:style-name="T12">android.intent.action.MAIN</text:span>
+              " /&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="18"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="16"/>
+              &lt;
+              <text:span text:style-name="T12">category</text:span>
+               android:name="
+              <text:span text:style-name="T12">android.intent.category.LAUNCHER</text:span>
+              " /&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="18"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="12"/>
+              &lt;/intent-filter&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="18"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>category</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="997"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              &lt;/activity&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="18"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              &lt;!-- ここに追記 --&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="18"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>android.intent.category.DEFAULT</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>標準のカテゴリ</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="987"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              &lt;
+              <text:span text:style-name="T12">activity</text:span>
+               android:name="NextActivity"&gt;&lt;/activity&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="18"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              &lt;/application&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="18"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>android.intent.category.BROWSABLE</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>ブラウザから安全に起動可能であることを示す</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="987"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce7" office:value-type="string">
+            <text:p>&lt;/manifest&gt;</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce11" table:number-columns-repeated="18"/>
+          <table:table-cell table:style-name="ce20"/>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="27"/>
+          <table:table-cell office:value-type="string">
+            <text:p>android.intent.category.HOME</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>ホームスクリーンを表示。最初画面が見えるのはデバイスがオンのとき、Homeキーが押されたとき</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="987"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="27"/>
+          <table:table-cell office:value-type="string">
+            <text:p>android.intent.category.LAUNCHER</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>ランチャー起動が可能</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="987"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="25"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>launchMode</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>(起動モード）</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="993"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="27"/>
+          <table:table-cell office:value-type="string">
+            <text:p>standard</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="996"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="27"/>
+          <table:table-cell office:value-type="string">
+            <text:p>singleTop</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="996"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="27"/>
+          <table:table-cell office:value-type="string">
+            <text:p>singleTask</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="996"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="27"/>
+          <table:table-cell office:value-type="string">
+            <text:p>singleInstance</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="996"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="1048338">
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -13459,8 +15142,8 @@
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
       </table:table>
-      <table:table table:name="12章" table:style-name="ta2" table:print="false">
-        <table:table-column table:style-name="co5" table:number-columns-repeated="1024" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
+      <table:table table:name="12章" table:style-name="ta4" table:print="false">
+        <table:table-column table:style-name="co7" table:number-columns-repeated="1024" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
@@ -13502,8 +15185,8 @@
           <table:table-cell office:value-type="string">
             <text:p>
               &lt;
-              <text:span text:style-name="T22">manifest</text:span>
-              <text:span text:style-name="T23"> xmlns:android="http://schemas.android.com/apk/res/android"</text:span>
+              <text:span text:style-name="T25">manifest</text:span>
+              <text:span text:style-name="T26"> xmlns:android="http://schemas.android.com/apk/res/android"</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
@@ -13520,28 +15203,28 @@
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="4"/>
-          <table:table-cell table:style-name="ce29" office:value-type="string">
+          <table:table-cell table:style-name="ce37" office:value-type="string">
             <text:p>
               <text:s text:c="6"/>
               android:versionCode="1"
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="11"/>
-          <table:table-cell table:style-name="ce30" office:value-type="string">
+          <table:table-cell table:style-name="ce38" office:value-type="string">
             <text:p>←　整数値</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1007"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="4"/>
-          <table:table-cell table:style-name="ce29" office:value-type="string">
+          <table:table-cell table:style-name="ce37" office:value-type="string">
             <text:p>
               <text:s text:c="6"/>
               android:versionName="1.0"&gt;
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="11"/>
-          <table:table-cell table:style-name="ce30" office:value-type="string">
+          <table:table-cell table:style-name="ce38" office:value-type="string">
             <text:p>←　1.0.0とか。管理画面に表示される</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1007"/>
@@ -13552,8 +15235,8 @@
             <text:p>
               <text:s text:c="4"/>
               &lt;
-              <text:span text:style-name="T22">application</text:span>
-              <text:span text:style-name="T23"> </text:span>
+              <text:span text:style-name="T25">application</text:span>
+              <text:span text:style-name="T26"> </text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
@@ -13566,22 +15249,22 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce29" office:value-type="string">
+          <table:table-cell table:style-name="ce37" office:value-type="string">
             <text:p>android:label="@string/app_name" </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="11"/>
-          <table:table-cell table:style-name="ce30" office:value-type="string">
+          <table:table-cell table:style-name="ce38" office:value-type="string">
             <text:p>←　アプリケーション名（AndroidMarketや端末上での名前）</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1004"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="7"/>
-          <table:table-cell table:style-name="ce29" office:value-type="string">
+          <table:table-cell table:style-name="ce37" office:value-type="string">
             <text:p>android:icon="@drawable/icon" </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="11"/>
-          <table:table-cell table:style-name="ce30" office:value-type="string">
+          <table:table-cell table:style-name="ce38" office:value-type="string">
             <text:p>←　アイコン画像</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1004"/>
@@ -13594,11 +15277,11 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce29" office:value-type="string">
+          <table:table-cell table:style-name="ce37" office:value-type="string">
             <text:p>android:debuggable="true"</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="11"/>
-          <table:table-cell table:style-name="ce30" office:value-type="string">
+          <table:table-cell table:style-name="ce38" office:value-type="string">
             <text:p>←　デフォルトはfalse。リリース時にはfalseにするか削除する。</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1004"/>
@@ -13631,7 +15314,7 @@
           <table:table-cell office:value-type="string">
             <text:p>
               String packageName = 
-              <text:span text:style-name="T22">getPackageName();</text:span>
+              <text:span text:style-name="T25">getPackageName();</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
@@ -13641,7 +15324,7 @@
           <table:table-cell office:value-type="string">
             <text:p>
               PackageManager pm = 
-              <text:span text:style-name="T22">getPackageManager();</text:span>
+              <text:span text:style-name="T25">getPackageManager();</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
@@ -13651,7 +15334,7 @@
           <table:table-cell office:value-type="string">
             <text:p>
               PackageInfo packageInfo = 
-              <text:span text:style-name="T22">pm.getPackageInfo(packageName, 0);</text:span>
+              <text:span text:style-name="T25">pm.getPackageInfo(packageName, 0);</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
@@ -13661,11 +15344,11 @@
           <table:table-cell office:value-type="string">
             <text:p>
               int versinoCode = 
-              <text:span text:style-name="T22">packageInfo.versionCode;</text:span>
+              <text:span text:style-name="T25">packageInfo.versionCode;</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="13"/>
-          <table:table-cell table:style-name="ce30" office:value-type="string">
+          <table:table-cell table:style-name="ce38" office:value-type="string">
             <text:p>←　PackageInfo内のpublic変数</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1005"/>
@@ -13675,11 +15358,11 @@
           <table:table-cell office:value-type="string">
             <text:p>
               String versionName = 
-              <text:span text:style-name="T22">packageInfo.versionName;</text:span>
+              <text:span text:style-name="T25">packageInfo.versionName;</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="13"/>
-          <table:table-cell table:style-name="ce30" office:value-type="string">
+          <table:table-cell table:style-name="ce38" office:value-type="string">
             <text:p>←　PackageInfo内のpublic変数</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1005"/>
@@ -13709,7 +15392,7 @@
             <text:p>&lt;uses-sdk android:minSdkVersion="8" </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="13"/>
-          <table:table-cell table:style-name="ce30" office:value-type="string">
+          <table:table-cell table:style-name="ce38" office:value-type="string">
             <text:p>←　指定なしの場合は"1"とみなされる。このVerより低い端末の場合クラッシュの可能性あり</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1005"/>
@@ -13726,7 +15409,7 @@
             <text:p>android:maxSdkVersion="8" </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="10"/>
-          <table:table-cell table:style-name="ce30" office:value-type="string">
+          <table:table-cell table:style-name="ce38" office:value-type="string">
             <text:p>←　このVerより高い端末にインストールされない（？）ようになる</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1005"/>
@@ -13743,7 +15426,7 @@
             <text:p>android:targetSdkVersion="8" /&gt;</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="10"/>
-          <table:table-cell table:style-name="ce30" office:value-type="string">
+          <table:table-cell table:style-name="ce38" office:value-type="string">
             <text:p>←　動作推奨Ver。テスト済みを明示。このVerより低い端末でもインストール可能。</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1005"/>
@@ -13956,14 +15639,14 @@
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="6"/>
-          <table:table-cell table:style-name="ce29" office:value-type="string">
+          <table:table-cell table:style-name="ce37" office:value-type="string">
             <text:p>android:versionCode</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="6"/>
-          <table:table-cell table:style-name="ce29" office:value-type="string">
+          <table:table-cell table:style-name="ce37" office:value-type="string">
             <text:p>android:versionName</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
@@ -14070,7 +15753,7 @@
             <text:p>&gt;layoutopt [projectname]</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="13"/>
-          <table:table-cell table:style-name="ce30" office:value-type="string">
+          <table:table-cell table:style-name="ce38" office:value-type="string">
             <text:p>←　プロジェクトのxmlの診断</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1004"/>
@@ -14081,7 +15764,7 @@
             <text:p>&gt;layoutopt [projectname\res\layout\main.xml]</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="13"/>
-          <table:table-cell table:style-name="ce30" office:value-type="string">
+          <table:table-cell table:style-name="ce38" office:value-type="string">
             <text:p>←　プロジェクトの指定のxmlのみを診断</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1004"/>
@@ -14352,7 +16035,7 @@
             <text:p>&gt;zipalign [-f] [-v] &lt;alignment&gt; infile.apk outfile.apk</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="13"/>
-          <table:table-cell table:style-name="ce30" office:value-type="string">
+          <table:table-cell table:style-name="ce38" office:value-type="string">
             <text:p>←　infile.apkを整列し、outfile.apkとして保存する</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1004"/>
@@ -14363,14 +16046,14 @@
             <text:p>&gt;zipalign -c -v &lt;alignment&gt; existing.apk</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="13"/>
-          <table:table-cell table:style-name="ce30" office:value-type="string">
+          <table:table-cell table:style-name="ce38" office:value-type="string">
             <text:p>←　existing.apkの位置合わせの確認を行う</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1004"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce30" office:value-type="string">
+          <table:table-cell table:style-name="ce38" office:value-type="string">
             <text:p>　　　alignment は必ず4を指定</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1004"/>
@@ -14442,11 +16125,11 @@
 <file path=meta.xml><?xml version="1.0" encoding="utf-8"?>
 <office:document-meta xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:grddl="http://www.w3.org/2003/g/data-view#" office:version="1.2">
   <office:meta>
-    <dc:date>2012-07-22T16:24:04</dc:date>
+    <dc:date>2012-07-24T00:44:46</dc:date>
     <meta:generator>OpenOffice.org/3.4$Unix OpenOffice.org_project/340m1$Build-9590</meta:generator>
-    <meta:editing-duration>P6DT21H15M10S</meta:editing-duration>
-    <meta:editing-cycles>43</meta:editing-cycles>
-    <meta:document-statistic meta:table-count="9" meta:cell-count="1606" meta:object-count="7"/>
+    <meta:editing-duration>P6DT23H42M31S</meta:editing-duration>
+    <meta:editing-cycles>49</meta:editing-cycles>
+    <meta:document-statistic meta:table-count="9" meta:cell-count="1767" meta:object-count="7"/>
   </office:meta>
 </office:document-meta>
 </file>
@@ -14457,8 +16140,8 @@
     <config:config-item-set config:name="ooo:view-settings">
       <config:config-item config:name="VisibleAreaTop" config:type="int">462</config:config-item>
       <config:config-item config:name="VisibleAreaLeft" config:type="int">896</config:config-item>
-      <config:config-item config:name="VisibleAreaWidth" config:type="int">896</config:config-item>
-      <config:config-item config:name="VisibleAreaHeight" config:type="int">462</config:config-item>
+      <config:config-item config:name="VisibleAreaWidth" config:type="int">32369</config:config-item>
+      <config:config-item config:name="VisibleAreaHeight" config:type="int">125019</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
@@ -14544,17 +16227,17 @@
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
             </config:config-item-map-entry>
             <config:config-item-map-entry config:name="6章">
-              <config:config-item config:name="CursorPositionX" config:type="int">0</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">19</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">37</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">184</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
               <config:config-item config:name="VerticalSplitPosition" config:type="int">0</config:config-item>
               <config:config-item config:name="ActiveSplitRange" config:type="short">2</config:config-item>
-              <config:config-item config:name="PositionLeft" config:type="int">2</config:config-item>
+              <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
-              <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionBottom" config:type="int">178</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
               <config:config-item config:name="ZoomValue" config:type="int">60</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
@@ -14602,13 +16285,13 @@
               <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
-              <config:config-item config:name="PositionBottom" config:type="int">211</config:config-item>
+              <config:config-item config:name="PositionBottom" config:type="int">221</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
               <config:config-item config:name="ZoomValue" config:type="int">60</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
             </config:config-item-map-entry>
           </config:config-item-map-named>
-          <config:config-item config:name="ActiveTable" config:type="string">３章</config:config-item>
+          <config:config-item config:name="ActiveTable" config:type="string">6章</config:config-item>
           <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">813</config:config-item>
           <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
           <config:config-item config:name="ZoomValue" config:type="int">60</config:config-item>
@@ -14684,6 +16367,7 @@
 <file path=styles.xml><?xml version="1.0" encoding="utf-8"?>
 <office:document-styles xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:style="urn:oasis:names:tc:opendocument:xmlns:style:1.0" xmlns:text="urn:oasis:names:tc:opendocument:xmlns:text:1.0" xmlns:table="urn:oasis:names:tc:opendocument:xmlns:table:1.0" xmlns:draw="urn:oasis:names:tc:opendocument:xmlns:drawing:1.0" xmlns:fo="urn:oasis:names:tc:opendocument:xmlns:xsl-fo-compatible:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:number="urn:oasis:names:tc:opendocument:xmlns:datastyle:1.0" xmlns:presentation="urn:oasis:names:tc:opendocument:xmlns:presentation:1.0" xmlns:svg="urn:oasis:names:tc:opendocument:xmlns:svg-compatible:1.0" xmlns:chart="urn:oasis:names:tc:opendocument:xmlns:chart:1.0" xmlns:dr3d="urn:oasis:names:tc:opendocument:xmlns:dr3d:1.0" xmlns:math="http://www.w3.org/1998/Math/MathML" xmlns:form="urn:oasis:names:tc:opendocument:xmlns:form:1.0" xmlns:script="urn:oasis:names:tc:opendocument:xmlns:script:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:ooow="http://openoffice.org/2004/writer" xmlns:oooc="http://openoffice.org/2004/calc" xmlns:dom="http://www.w3.org/2001/xml-events" xmlns:rpt="http://openoffice.org/2005/report" xmlns:of="urn:oasis:names:tc:opendocument:xmlns:of:1.2" xmlns:xhtml="http://www.w3.org/1999/xhtml" xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:tableooo="http://openoffice.org/2009/table" office:version="1.2">
   <office:font-face-decls>
+    <style:font-face style:name="F" svg:font-family="" style:font-family-generic="roman"/>
     <style:font-face style:name="ＭＳ Ｐゴシック2" svg:font-family="'ＭＳ Ｐゴシック'" style:font-family-generic="swiss"/>
     <style:font-face style:name="Monaco" svg:font-family="Monaco" style:font-family-generic="modern" style:font-pitch="fixed"/>
     <style:font-face style:name="ＭＳ Ｐゴシック1" svg:font-family="'ＭＳ Ｐゴシック'" style:font-family-generic="modern" style:font-pitch="variable"/>
@@ -15134,9 +16818,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2012-07-22">2012/07/22</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2012-07-24">2012/07/24</text:date>
             , 
-            <text:time>16:24:04</text:time>
+            <text:time>00:44:46</text:time>
           </text:p>
         </style:region-right>
       </style:header>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -26,7 +26,6 @@
 <office:document-content xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:style="urn:oasis:names:tc:opendocument:xmlns:style:1.0" xmlns:text="urn:oasis:names:tc:opendocument:xmlns:text:1.0" xmlns:table="urn:oasis:names:tc:opendocument:xmlns:table:1.0" xmlns:draw="urn:oasis:names:tc:opendocument:xmlns:drawing:1.0" xmlns:fo="urn:oasis:names:tc:opendocument:xmlns:xsl-fo-compatible:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:number="urn:oasis:names:tc:opendocument:xmlns:datastyle:1.0" xmlns:presentation="urn:oasis:names:tc:opendocument:xmlns:presentation:1.0" xmlns:svg="urn:oasis:names:tc:opendocument:xmlns:svg-compatible:1.0" xmlns:chart="urn:oasis:names:tc:opendocument:xmlns:chart:1.0" xmlns:dr3d="urn:oasis:names:tc:opendocument:xmlns:dr3d:1.0" xmlns:math="http://www.w3.org/1998/Math/MathML" xmlns:form="urn:oasis:names:tc:opendocument:xmlns:form:1.0" xmlns:script="urn:oasis:names:tc:opendocument:xmlns:script:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:ooow="http://openoffice.org/2004/writer" xmlns:oooc="http://openoffice.org/2004/calc" xmlns:dom="http://www.w3.org/2001/xml-events" xmlns:xforms="http://www.w3.org/2002/xforms" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:rpt="http://openoffice.org/2005/report" xmlns:of="urn:oasis:names:tc:opendocument:xmlns:of:1.2" xmlns:xhtml="http://www.w3.org/1999/xhtml" xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:tableooo="http://openoffice.org/2009/table" xmlns:field="urn:openoffice:names:experimental:ooo-ms-interop:xmlns:field:1.0" office:version="1.2">
   <office:scripts/>
   <office:font-face-decls>
-    <style:font-face style:name="F" svg:font-family="" style:font-family-generic="roman"/>
     <style:font-face style:name="ＭＳ Ｐゴシック2" svg:font-family="'ＭＳ Ｐゴシック'" style:font-family-generic="swiss"/>
     <style:font-face style:name="Monaco" svg:font-family="Monaco" style:font-family-generic="modern" style:font-pitch="fixed"/>
     <style:font-face style:name="ＭＳ Ｐゴシック1" svg:font-family="'ＭＳ Ｐゴシック'" style:font-family-generic="modern" style:font-pitch="variable"/>
@@ -50,11 +49,11 @@
     <style:style style:name="co4" style:family="table-column">
       <style:table-column-properties fo:break-before="auto" style:column-width="0.935cm"/>
     </style:style>
+    <style:style style:name="co5" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="0.834cm"/>
+    </style:style>
     <style:style style:name="co6" style:family="table-column">
       <style:table-column-properties fo:break-before="auto" style:column-width="2.148cm"/>
-    </style:style>
-    <style:style style:name="co7" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="0.834cm"/>
     </style:style>
     <style:style style:name="ro1" style:family="table-row">
       <style:table-row-properties style:row-height="0.464cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
@@ -74,10 +73,10 @@
     <style:style style:name="ta1" style:family="table" style:master-page-name="PageStyle_5f_Sheet2">
       <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
     </style:style>
-    <style:style style:name="ta3" style:family="table" style:master-page-name="PageStyle_5f_Sheet3">
+    <style:style style:name="ta2" style:family="table" style:master-page-name="PageStyle_5f_12章">
       <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
     </style:style>
-    <style:style style:name="ta4" style:family="table" style:master-page-name="PageStyle_5f_12章">
+    <style:style style:name="ta3" style:family="table" style:master-page-name="PageStyle_5f_Sheet3">
       <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
     </style:style>
     <style:style style:name="ce1" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
@@ -91,6 +90,26 @@
     <style:style style:name="ce3" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false"/>
       <style:paragraph-properties fo:text-align="justify" fo:margin-left="0cm"/>
+    </style:style>
+    <style:style style:name="ce4" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:text-properties fo:color="#ff0000"/>
+    </style:style>
+    <style:style style:name="ce5" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="none" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="0.002cm solid #000000"/>
+      <style:text-properties fo:language="en" fo:country="US" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:language-asian="en" style:country-asian="US" style:language-complex="en" style:country-complex="US" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
+    </style:style>
+    <style:style style:name="ce6" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="none" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="none"/>
+      <style:text-properties fo:language="en" fo:country="US" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:language-asian="en" style:country-asian="US" style:language-complex="en" style:country-complex="US" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
+    </style:style>
+    <style:style style:name="ce7" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="0.002cm solid #000000" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="none"/>
+    </style:style>
+    <style:style style:name="ce8" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="none" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="none"/>
+    </style:style>
+    <style:style style:name="ce9" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="none" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="0.002cm solid #000000"/>
     </style:style>
     <style:style style:name="ce10" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties fo:border-bottom="none" fo:border-left="none" fo:border-right="none" fo:border-top="0.002cm solid #000000"/>
@@ -132,26 +151,6 @@
     <style:style style:name="ce21" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:text-properties style:font-name-asian="ＭＳ Ｐゴシック2"/>
     </style:style>
-    <style:style style:name="ce4" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:text-properties fo:color="#ff0000"/>
-    </style:style>
-    <style:style style:name="ce5" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties fo:border-bottom="none" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="0.002cm solid #000000"/>
-      <style:text-properties fo:language="en" fo:country="US" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:language-asian="en" style:country-asian="US" style:language-complex="en" style:country-complex="US" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
-    </style:style>
-    <style:style style:name="ce6" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties fo:border-bottom="none" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="none"/>
-      <style:text-properties fo:language="en" fo:country="US" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:language-asian="en" style:country-asian="US" style:language-complex="en" style:country-complex="US" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
-    </style:style>
-    <style:style style:name="ce7" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties fo:border-bottom="0.002cm solid #000000" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="none"/>
-    </style:style>
-    <style:style style:name="ce8" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties fo:border-bottom="none" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="none"/>
-    </style:style>
-    <style:style style:name="ce9" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties fo:border-bottom="none" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="0.002cm solid #000000"/>
-    </style:style>
     <style:style style:name="ce22" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties fo:border-bottom="none" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="none"/>
       <style:text-properties fo:color="#00cccc"/>
@@ -178,23 +177,39 @@
       <style:table-cell-properties style:text-align-source="value-type" style:repeat-content="false"/>
       <style:paragraph-properties fo:margin-left="0cm"/>
     </style:style>
-    <style:style style:name="ce35" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce29" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:text-properties fo:language="en" fo:country="US" style:language-asian="en" style:country-asian="US" style:language-complex="en" style:country-complex="US"/>
     </style:style>
-    <style:style style:name="ce36" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce30" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties fo:border-bottom="none" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="none"/>
       <style:text-properties fo:font-weight="normal" style:font-weight-asian="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce37" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce31" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:border-bottom="none" fo:border-left="0.002cm solid #000000" fo:border-right="none" fo:border-top="none"/>
+      <style:text-properties fo:color="#ff3366"/>
+    </style:style>
+    <style:style style:name="ce32" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:border-bottom="none" fo:border-left="none" fo:border-right="none" fo:border-top="0.002cm solid #000000"/>
+    </style:style>
+    <style:style style:name="ce33" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:text-properties style:font-name="ＭＳ Ｐゴシック" fo:font-size="11pt" fo:language="en" fo:country="US" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="11pt" style:language-asian="en" style:country-asian="US" style:font-name-complex="ＭＳ Ｐゴシック" style:font-size-complex="11pt" style:language-complex="en" style:country-complex="US"/>
+    </style:style>
+    <style:style style:name="ce34" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:text-properties fo:font-weight="normal" style:font-weight-asian="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce35" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:text-properties fo:color="#0070c0" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-name-asian="ＭＳ Ｐゴシック1" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
     </style:style>
-    <style:style style:name="ce38" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce36" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:text-properties fo:color="#ff0000" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
     <style:style style:name="gr1" style:family="graphic">
       <style:graphic-properties draw:stroke="none" draw:fill="none" draw:textarea-horizontal-align="center" draw:textarea-vertical-align="middle" draw:color-mode="standard" draw:luminance="0%" draw:contrast="0%" draw:gamma="100%" draw:red="0%" draw:green="0%" draw:blue="0%" fo:clip="rect(0cm, 0cm, 0cm, 0cm)" draw:image-opacity="100%" style:mirror="none"/>
     </style:style>
     <style:style style:name="gr2" style:family="graphic">
+      <style:graphic-properties svg:stroke-width="0.1cm" svg:stroke-color="#ff0000" draw:marker-start-width="0.35cm" draw:marker-end="Arrow" draw:marker-end-width="0.35cm" draw:textarea-horizontal-align="center" draw:textarea-vertical-align="middle" fo:padding-top="0.05cm" fo:padding-bottom="0.05cm" fo:padding-left="0.05cm" fo:padding-right="0.05cm"/>
+    </style:style>
+    <style:style style:name="gr3" style:family="graphic">
       <style:graphic-properties draw:stroke="none" svg:stroke-width="0cm" draw:stroke-linejoin="miter" draw:fill="none" draw:textarea-horizontal-align="center" draw:textarea-vertical-align="middle" draw:auto-grow-height="false" fo:padding-top="0.125cm" fo:padding-bottom="0.125cm" fo:padding-left="0.25cm" fo:padding-right="0.25cm" fo:wrap-option="wrap" draw:color-mode="standard" draw:luminance="0%" draw:contrast="0%" draw:gamma="100%" draw:red="0%" draw:green="0%" draw:blue="0%" fo:clip="rect(0cm, 0cm, 0cm, 0cm)" draw:image-opacity="100%" style:mirror="none"/>
     </style:style>
     <style:style style:name="P1" style:family="paragraph">
@@ -240,15 +255,6 @@
     <style:style style:name="T12" style:family="text">
       <style:text-properties fo:color="#0000ff"/>
     </style:style>
-    <style:style style:name="T17" style:family="text">
-      <style:text-properties fo:color="#7f0055" style:font-name="Monaco" fo:font-size="11pt" fo:font-weight="bold" style:font-name-asian="Monaco" style:font-size-asian="11pt" style:font-weight-asian="bold" style:font-name-complex="Monaco" style:font-size-complex="6.30000019073486pt" style:font-weight-complex="bold"/>
-    </style:style>
-    <style:style style:name="T18" style:family="text">
-      <style:text-properties fo:color="#0000ff" style:font-name="Monaco" fo:font-size="11pt" style:font-name-asian="Monaco" style:font-size-asian="11pt" style:font-name-complex="Monaco" style:font-size-complex="6.30000019073486pt"/>
-    </style:style>
-    <style:style style:name="T19" style:family="text">
-      <style:text-properties fo:color="#0000c0" style:font-name="Monaco" fo:font-size="11pt" fo:font-style="italic" style:font-name-asian="Monaco" style:font-size-asian="11pt" style:font-style-asian="italic" style:font-name-complex="Monaco" style:font-size-complex="6.30000019073486pt" style:font-style-complex="italic"/>
-    </style:style>
     <style:style style:name="T13" style:family="text">
       <style:text-properties fo:color="#47b8b8"/>
     </style:style>
@@ -261,16 +267,31 @@
     <style:style style:name="T16" style:family="text">
       <style:text-properties fo:color="#000000"/>
     </style:style>
+    <style:style style:name="T17" style:family="text">
+      <style:text-properties fo:color="#7f0055" style:font-name="Monaco" fo:font-size="11pt" fo:font-weight="bold" style:font-name-asian="Monaco" style:font-size-asian="11pt" style:font-weight-asian="bold" style:font-name-complex="Monaco" style:font-size-complex="6.30000019073486pt" style:font-weight-complex="bold"/>
+    </style:style>
+    <style:style style:name="T18" style:family="text">
+      <style:text-properties fo:color="#0000ff" style:font-name="Monaco" fo:font-size="11pt" style:font-name-asian="Monaco" style:font-size-asian="11pt" style:font-name-complex="Monaco" style:font-size-complex="6.30000019073486pt"/>
+    </style:style>
+    <style:style style:name="T19" style:family="text">
+      <style:text-properties fo:color="#0000c0" style:font-name="Monaco" fo:font-size="11pt" fo:font-style="italic" style:font-name-asian="Monaco" style:font-size-asian="11pt" style:font-style-asian="italic" style:font-name-complex="Monaco" style:font-size-complex="6.30000019073486pt" style:font-style-complex="italic"/>
+    </style:style>
     <style:style style:name="T20" style:family="text">
       <style:text-properties fo:color="#808019"/>
     </style:style>
     <style:style style:name="T21" style:family="text">
       <style:text-properties fo:color="#b3b300"/>
     </style:style>
-    <style:style style:name="T25" style:family="text">
+    <style:style style:name="T22" style:family="text">
+      <style:text-properties fo:color="#94bd5e"/>
+    </style:style>
+    <style:style style:name="T23" style:family="text">
+      <style:text-properties fo:color="#ff3366"/>
+    </style:style>
+    <style:style style:name="T24" style:family="text">
       <style:text-properties fo:color="#0070c0" style:text-outline="false" style:text-line-through-style="none" style:text-position="0% 100%" style:font-name="ＭＳ Ｐゴシック1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-name-asian="ＭＳ Ｐゴシック1" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
     </style:style>
-    <style:style style:name="T26" style:family="text">
+    <style:style style:name="T25" style:family="text">
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-position="0% 100%" style:font-name="ＭＳ Ｐゴシック" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
   </office:automatic-styles>
@@ -1328,7 +1349,6 @@
         </table:table-row>
       </table:table>
       <table:table table:name="３章" table:style-name="ta1" table:print="false">
-        <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
         <table:table-column table:style-name="co1" table:number-columns-repeated="6" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-column table:style-name="co2" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-column table:style-name="co1" table:number-columns-repeated="1017" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
@@ -4330,7 +4350,6 @@
         </table:table-row>
       </table:table>
       <table:table table:name="4章" table:style-name="ta1" table:print="false">
-        <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
         <table:table-column table:style-name="co1" table:number-columns-repeated="4" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-column table:style-name="co3" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-column table:style-name="co1" table:number-columns-repeated="17" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
@@ -8024,7 +8043,6 @@
         </table:table-row>
       </table:table>
       <table:table table:name="5章" table:style-name="ta1" table:print="false">
-        <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
         <table:table-column table:style-name="co1" table:number-columns-repeated="22" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-column table:style-name="co4" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-column table:style-name="co1" table:number-columns-repeated="1001" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
@@ -13107,7 +13125,6 @@
         </table:table-row>
       </table:table>
       <table:table table:name="6章" table:style-name="ta1" table:print="false">
-        <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
         <table:table-column table:style-name="co1" table:number-columns-repeated="1024" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="16"/>
@@ -13522,7 +13539,7 @@
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="4"/>
-          <table:table-cell table:style-name="ce35" office:value-type="string">
+          <table:table-cell table:style-name="ce29" office:value-type="string">
             <text:p>IntentSample1Activity（元のアクティビティ）</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
@@ -13910,7 +13927,7 @@
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="4"/>
-          <table:table-cell table:style-name="ce36" office:value-type="string">
+          <table:table-cell table:style-name="ce30" office:value-type="string">
             <text:p>
               <text:s text:c="2"/>
               }
@@ -15112,7 +15129,7 @@
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
       </table:table>
-      <table:table table:name="11章" table:style-name="ta1" table:print="false">
+      <table:table table:name="７章" table:style-name="ta1" table:print="false">
         <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
         <table:table-column table:style-name="co1" table:number-columns-repeated="1024" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-row table:style-name="ro1">
@@ -15123,6 +15140,6849 @@
         <table:table-row table:style-name="ro1">
           <table:table-cell/>
           <table:table-cell office:value-type="string">
+            <text:p>７章</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1022"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>●</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>コンテントプロバイダ</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>アプリ間のデータのアクセスの仕組み</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>例えば以下のデータなどをアプリからアクセスする時に利用</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="164"/>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:number-columns-repeated="855"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>連絡先</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>ブラウザのブックマーク</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="4">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce9" office:value-type="string">
+            <text:p>
+              public class ContactSampleActivity extends 
+              <text:span text:style-name="T12">Activity</text:span>
+               {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce18"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>⬅　Activityを継承したクラス</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              public void onCreate(Bundle savedInstanceState) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              super.onCreate(savedInstanceState);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              setContentView(R.layout.main);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              TableLayout tablelayout =
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="10"/>
+              (TableLayout)findViewById(R.id.tablelayout);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              // 表示文字列
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              String strContact = null;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              //コンテントリゾルバの取得
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              ContentResolver resolver = 
+              <text:span text:style-name="T12">getContentResolver</text:span>
+              ();
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>⬅　コンテントリゾルバを取得</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              // Cursorの作成(コンタクトリストから全件取得)
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              <text:span text:style-name="T12">Cursor</text:span>
+              <text:span text:style-name="T14">cursor</text:span>
+               = resolver.
+              <text:span text:style-name="T12">query</text:span>
+              (
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>⬅　query()　（検索）</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>
+              Activityクラスの
+              <text:span text:style-name="T12">managedQuery()</text:span>
+               メソッドを使用することも可能
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="995"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="25"/>
+              <text:span text:style-name="T15">ContactsContract.Contacts.CONTENT_URI</text:span>
+              ,
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="25"/>
+              null, null, null, null);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>第一引数</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>通信先のコンテントプロバイダURI</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="998"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>第二引数</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>取得する列名の配列</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="998"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              while (
+              <text:span text:style-name="T14">cursor</text:span>
+              .
+              <text:span text:style-name="T12">moveToNext()</text:span>
+              ) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>第三引数</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>where句</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="998"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              // コンタクトIDを取得
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>第四引数</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>where句に含まれる？の置換文字</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="998"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              String id = 
+              <text:span text:style-name="T14">cursor</text:span>
+              .
+              <text:span text:style-name="T12">getString</text:span>
+              (
+              <text:span text:style-name="T14">cursor</text:span>
+              .
+              <text:span text:style-name="T12">getColumnIndex</text:span>
+              (
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>第五引数</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>ソート</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="998"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce31" office:value-type="string">
+            <text:p>
+              <text:s text:c="18"/>
+              <text:span text:style-name="T15">ContactsContract.Contacts._ID</text:span>
+              ));
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              // 名前を取得
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>cursor.getString(int index)</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              String name = cursor.getString(cursor.getColumnIndex(
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>cursor.getColimnIndex(String Displayname)</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="20"/>
+              <text:span text:style-name="T15">ContactsContract.Contacts.DISPLAY_NAME</text:span>
+              ));
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>連絡先で使用される主なカラム名</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              // 取得したIDと名前をstrContactに追記
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:style-name="Default" office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>ContactsContract.Contacts._ID</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="999"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              strContact = id + " " + name;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>ContactsContract.Contacts.DISPLAY_NAME</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="999"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>ContactsContract.CommonDataKinds.Phone.DATA1</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell office:value-type="string">
+            <text:p>⬅　一人あたり複数番号・アドレスがありえるため、</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="986"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              // 電話番号を取得(WHERE条件にCONTACT_IDを指定)
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>ContactsContract.CommonDataKinds.Email.DATA1</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell office:value-type="string">
+            <text:p>⬅　さらにカーソルで取り出す必要がある</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="986"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              Cursor phones = resolver.query(
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="18"/>
+              <text:span text:style-name="T15">ContactsContract.CommonDataKinds.Phone.CONTENT_URI</text:span>
+              ,
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>標準アプリのコンテントプロバイダのURI</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="18"/>
+              null,
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="18"/>
+              <text:span text:style-name="T15">ContactsContract.CommonDataKinds.Phone.CONTACT_ID</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce14" office:value-type="string">
+            <text:p>ContactsContract.Contacts.CONTENT_URI</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="10"/>
+          <table:table-cell office:value-type="string">
+            <text:p>連絡先にアクセスするURI</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="988"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="18"/>
+              + " = " + id,
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>CallLog.Calls.CONTENT_URI</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="10"/>
+          <table:table-cell office:value-type="string">
+            <text:p>通話ログにアクセスするURI</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="988"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="18"/>
+              null, null);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Browser.BOOKMARKS_URL</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="10"/>
+          <table:table-cell office:value-type="string">
+            <text:p>ブラウザのブックマークにアクセスするURI</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="988"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              while (phones.moveToNext()) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              // 電話番号を取得
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>独自でコンテントプロバイダを作成した場合</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              String phoneNumber = phones.getString(
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="10"/>
+              phones.getColumnIndex(
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>アクセスされる側のアプリを　AndroidManifest.xml でプロバイダ登録しておく</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="999"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="17"/>
+              <text:span text:style-name="T15">ContactsContract.CommonDataKinds.Phone.NUMBER</text:span>
+              ));
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>呼び出し先でコンテントリゾルバからアクセス</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="999"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              // 取得した電話番号をstrContactに追記
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              strContact = strContact + "\n " + phoneNumber;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>AndroidManifest.xml</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="999"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce5" office:value-type="string">
+            <text:p>&lt;?xml version="1.0" encoding="utf-8"?&gt;</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce18"/>
+          <table:table-cell table:number-columns-repeated="983"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              phones.close();
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>&lt;manifest xmlns:android="http://schemas.android.com/apk/res/android"</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="983"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:s/>
+              省略
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="983"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              // strContactをアダプターにデータをセット
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              &lt;
+              <text:span text:style-name="T12">application</text:span>
+               android:icon="@drawable/icon"
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="983"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              //adapter.add(strContact);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>省略</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="983"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              TableRow row = new TableRow(this);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>
+              &lt;
+              <text:span text:style-name="T12">provider</text:span>
+               android:name=”
+              <text:span text:style-name="T14">MyContentProvider</text:span>
+              ”
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="983"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              TextView display = new TextView(this);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              android:
+              <text:span text:style-name="T12">authorities</text:span>
+              =”
+              <text:span text:style-name="T14">jp.co.knowd</text:span>
+              ”&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="983"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              display.setText(strContact);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>
+              &lt;/
+              <text:span text:style-name="T12">provider</text:span>
+              &gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="983"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              row.addView(display);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6"/>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="983"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              // テーブルレイアウトに設定
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              &lt;/application&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="983"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              tablelayout.addView(row);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>&lt;/manifest&gt;</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="983"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell table:style-name="ce11" table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce20"/>
+          <table:table-cell table:number-columns-repeated="983"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              // カーソルを閉じる
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              cursor.close();
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce9"/>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce18"/>
+          <table:table-cell table:number-columns-repeated="983"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>}</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              Uri 
+              <text:span text:style-name="T14">uri</text:span>
+               = 
+              <text:span text:style-name="T12">Uri.parse</text:span>
+              (“
+              <text:span text:style-name="T14">content://jp.co.knowd</text:span>
+              ”);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="983"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell table:style-name="ce11" table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce20"/>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              Cursor cursor = resolver.query(
+              <text:span text:style-name="T14">uri</text:span>
+               , null , null , null , null );
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="983"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="24"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell table:style-name="ce11" table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce20"/>
+          <table:table-cell table:number-columns-repeated="983"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="23"/>
+          <table:table-cell office:value-type="string">
+            <text:p>連絡先アプリを使用する場合、マニフェストファイルにパーミッションに指定が必要</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="24"/>
+          <table:table-cell office:value-type="string">
+            <text:p>➡　３章参照</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="999"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="3">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>●</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>コンテントプロバイダによる更新</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>アクティビティ側</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce9"/>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce18"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:span text:style-name="T12">ContentObserver</text:span>
+              <text:span text:style-name="T14">contentObserver</text:span>
+               = new ContentObserver( new 
+              <text:span text:style-name="T22">Hnadler</text:span>
+              ()) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              public void 
+              <text:span text:style-name="T12">onChange</text:span>
+              (boolean selfChange) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="9"/>
+              super.onChange(selfChange);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>アクティビティ</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              //データ更新に伴う処理を記述
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>⬆</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="999"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="5"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>┃</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="999"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>};</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>⬇</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="999"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>コンテントリゾルバ</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              getContentResolver().
+              <text:span text:style-name="T12">registerContentObserver</text:span>
+              ( URI , true , 
+              <text:span text:style-name="T14">contentObserver</text:span>
+              );
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>⬆</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="999"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell table:style-name="ce11" table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce20"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>┃</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="999"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="24"/>
+          <table:table-cell office:value-type="string">
+            <text:p>⬇</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="999"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="23"/>
+          <table:table-cell office:value-type="string">
+            <text:p>コンテントプロバイダ</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>コンテントプロバイダ側のコード</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="20"/>
+          <table:table-cell office:value-type="string">
+            <text:p>⬆</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="999"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce9"/>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce18"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>┃</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="999"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>public Uri insert(Uri uri , ContentValue values){</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>⬇</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="999"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>共有対象データ</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              //データのinsert処理
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              getContext().getContentResolver().
+              <text:span text:style-name="T12">notifyChange</text:span>
+              (uri , mull );
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              return null;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce7" office:value-type="string">
+            <text:p>}</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce11" table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce20"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>●</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>サービス</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>アクティビティ</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>他のアクティビティが起動すると、自身は停止する</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1013"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>サービス</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>他のアクティビティが起動していても、処理が完了するまでバックグラウンドで動作する</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1013"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>使用方法</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Activity クラスのメソッドを使用する</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>バインド機能を使用する</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Activity クラスのメソッドを使用する</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce9"/>
+          <table:table-cell table:style-name="ce10" office:value-type="string">
+            <text:p>開始</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce18"/>
+          <table:table-cell table:number-columns-repeated="1014"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>　⬇</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1014"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>onCreate()</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1014"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>　⬇</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1014"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>onStartCommand()</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>⬅</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>
+              1.6以前なら　onStart() 
+              <text:s/>
+              2.0以降ならonStartCommand()
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1010"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>　⬇</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1014"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>実行中</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1014"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>　⬇</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1014"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>onDrstroy()</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1014"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>　⬇</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1014"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell table:style-name="ce11" office:value-type="string">
+            <text:p>終了</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce11" table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce20"/>
+          <table:table-cell table:number-columns-repeated="1014"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>ServiceSample1Activity.java</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce9" office:value-type="string">
+            <text:p>public class ServiceSample1Activity extends Activity {</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce32"/>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce18"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              public void onCreate(Bundle savedInstanceState) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              super.onCreate(savedInstanceState);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              setContentView(R.layout.main);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              Button startButton = (Button)findViewById(R.id.startButton);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              startButton.setOnClickListener(new StartButtonClickListener());
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              class StartButtonClickListener implements OnClickListener {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              public void onClick(View v) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              // インテント生成
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              Intent 
+              <text:span text:style-name="T14">intent</text:span>
+               = new Intent(ServiceSample1Activity.this,
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="33"/>
+              ServiceSample1Service.class);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>⬅　インテントの第二引数に　サービスクラスを指定</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="5"/>
+              // 終了時間をインテントに設定
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="5"/>
+              EditText stopcount = (EditText)findViewById(R.id.stopcount);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="5"/>
+              <text:span text:style-name="T14">intent</text:span>
+              .putExtra("STOPTIME",stopcount.getText().toString());
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="5"/>
+              // サービス開始
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="5"/>
+              <text:span text:style-name="T12">startService</text:span>
+              (
+              <text:span text:style-name="T14">intent</text:span>
+              );
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>
+              ⬅　コレにより　onStartCommand() 
+              <text:s/>
+              が呼ばれる
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              //
+              <text:span text:style-name="T12">stopService</text:span>
+              (intent);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>
+              ⬅　コレにより　onDsetroy() 
+              <text:s/>
+              が呼ばれる
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce7" office:value-type="string">
+            <text:p>}</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce11" table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce20"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>ServiceSample1Serivice.jaca</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce9" office:value-type="string">
+            <text:p>
+              public class ServiceSample1Service extends 
+              <text:span text:style-name="T12">Service</text:span>
+              {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce18"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              // Timerオブジェクト
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              private Timer timer;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              // 経過時間
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              private int countTime;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              // 終了時間
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              private int stopTime;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              public IBinder onBind(Intent arg0) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              return null;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              public void 
+              <text:span text:style-name="T12">onCreate</text:span>
+              () {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              super.onCreate();
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              // トースト表示
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              Toast.makeText(this,"サービスを起動します。",
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="19"/>
+              Toast.LENGTH_SHORT).show();
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              // タイマーと経過時間初期化
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              timer = new Timer();
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              countTime = 0;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              public int 
+              <text:span text:style-name="T12">onStartCommand</text:span>
+              (Intent intent, int flags, int startId) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              super.onStartCommand(intent, flags, startId);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              // トースト表示
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              Toast.makeText(this, "サービスを開始します。",
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="19"/>
+              Toast.LENGTH_SHORT).show();
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              // タイマー設定(10秒ごとにrunメソッド呼び出し)
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              MyTimerTask task = new MyTimerTask();
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              timer.schedule(task, 10000, 10000);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              // 終了時間取得
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              Bundle bundle = intent.getExtras();
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              stopTime = Integer.parseInt(bundle.getString("STOPTIME"));
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              return START_STICKY;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              public void 
+              <text:span text:style-name="T12">onDestroy</text:span>
+              () {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              super.onDestroy();
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              // トースト表示
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              Toast.makeText(this,"サービスを終了します。",
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="19"/>
+              Toast.LENGTH_SHORT).show();
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              // タイマー設定解除
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              timer.cancel();
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              timer.purge();
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              // ハンドラー生成
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              private Handler handler = new Handler(){
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              // メッセージ表示
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              public void handleMessage(Message msg) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              Toast.makeText(ServiceSample1Service.this,
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              (String)msg.obj, Toast.LENGTH_SHORT).show();
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              };
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              class MyTimerTask extends TimerTask {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              public void run() {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              // 10秒ごとにカウントアップ
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              countTime += 10;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              if(countTime / 60 == stopTime){
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              // サービス終了
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              <text:span text:style-name="T12">stopSelf</text:span>
+              ();
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>⬅　コレにより　onDrstroy() 　メソッドが呼ばれる</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              }else{
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>(サービス自身内で呼び出す場合はこのメソッドを使用する）</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              // handlerにメッセージを送信
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              handler.sendMessage(Message.obtain(
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="21"/>
+              handler, 0, countTime / 60 + "分"+
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="21"/>
+              countTime % 60+"秒経過"));
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>}</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell table:style-name="ce11" table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce20"/>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>AndroidManifest.xml</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce5" office:value-type="string">
+            <text:p>&lt;?xml version="1.0" encoding="utf-8"?&gt;</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce18"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>⬅　この登録がないと、実行時エラーにはならないが、</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>&lt;manifest xmlns:android="http://schemas.android.com/apk/res/android"</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>　　正常に動かない</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:s/>
+              省略
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              &lt;
+              <text:span text:style-name="T16">application</text:span>
+               android:icon="@drawable/icon"
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>省略</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              &lt;
+              <text:span text:style-name="T12">service</text:span>
+               android:name=”
+              <text:span text:style-name="T14">ServiceSample1Service</text:span>
+              ” /&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              &lt;/application&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>&lt;/manifest&gt;</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell table:style-name="ce11" table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce20"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>バインド機能を使用する</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>アクティビティとサービスの相互のやりとりが可能</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce9"/>
+          <table:table-cell table:style-name="ce10" office:value-type="string">
+            <text:p>開始</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce18"/>
+          <table:table-cell table:number-columns-repeated="1014"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>　⬇</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1014"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>onCreate()</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1014"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>　⬇</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1014"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>onBind()</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1014"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>　⬇</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1014"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>実行中</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>⬅</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce19" office:value-type="string">
+            <text:p>┓</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1014"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>　⬇</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce19" office:value-type="string">
+            <text:p>onRevind()</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1014"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>onUnbound() 　➡</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce19" office:value-type="string">
+            <text:p>　⬆</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1014"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>　⬇</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1014"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>onDrstroy()</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1014"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>　⬇</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1014"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell table:style-name="ce11" office:value-type="string">
+            <text:p>終了</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce11" table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce20"/>
+          <table:table-cell table:number-columns-repeated="1014"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>AIDLファイルの利用</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>アクティビティとサービスで情報をやりとりする際の形式の定義ファイル</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>アクティビティで実装、サービスから呼び出すメソッド</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1016"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>サービスで実装、アクティビティから呼び出すメソッド</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1016"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>拡張子　”.aidl”</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1016"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>プリミティブ型</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1016"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>String、List、Map、CharSequence</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1016"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>AIDLファイルに定義したインターフェース型</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1016"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>android.os.Paracelable型</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1016"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell office:value-type="string">
+            <text:p>BindActivityAIDL.aidl</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="11"/>
+          <table:table-cell office:value-type="string">
+            <text:p>BindServiceAIDL.aidl</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce9" office:value-type="string">
+            <text:p>package jp.co.knowd;</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="8"/>
+          <table:table-cell table:style-name="ce18"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce9" office:value-type="string">
+            <text:p>package jp.co.knowd;</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="10"/>
+          <table:table-cell table:style-name="ce18"/>
+          <table:table-cell table:number-columns-repeated="995"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="8"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="10"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="995"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:span text:style-name="T12">interface</text:span>
+               BindActivityAIDL {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="8"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>import jp.co.knowd.BindActivityAIDL;</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="10"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="995"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              void 
+              <text:span text:style-name="T14">displayTime</text:span>
+              (String msg);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="8"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="10"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="995"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce7" office:value-type="string">
+            <text:p>}</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce11" table:number-columns-repeated="8"/>
+          <table:table-cell table:style-name="ce20"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:span text:style-name="T12">interface</text:span>
+               BindServiceAIDL {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="10"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="995"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              void 
+              <text:span text:style-name="T14">registerCallback</text:span>
+              (BindActivityAIDL callback);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="10"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="995"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:number-columns-repeated="11"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              void 
+              <text:span text:style-name="T14">unregisterCallback</text:span>
+              (BindActivityAIDL callback);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="10"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="995"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="10"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="995"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce7" office:value-type="string">
+            <text:p>}</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce11" table:number-columns-repeated="10"/>
+          <table:table-cell table:style-name="ce20"/>
+          <table:table-cell table:number-columns-repeated="995"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce4" office:value-type="string">
+            <text:p>➡　aidlファイルを保存すると、genフォルダに”.java”ファイルが自動的に作成・保存される</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="26"/>
+          <table:table-cell office:value-type="string">
+            <text:p>AndroidManifest.xml</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="997"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce9" office:value-type="string">
+            <text:p>public class ServiceSample2Activity extends Activity {</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce18"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce9" office:value-type="string">
+            <text:p>&lt;?xml version="1.0" encoding="utf-8"?&gt;</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce18"/>
+          <table:table-cell table:number-columns-repeated="980"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              // サービスに連携するインターフェース
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>&lt;manifest xmlns:android="http://schemas.android.com/apk/res/android"</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="980"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              private 
+              <text:span text:style-name="T12">BindServiceAIDL</text:span>
+              <text:span text:style-name="T14">bindserviceIf</text:span>
+               = null;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              package="jp.co.knowd"
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="980"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              // 接続オブジェクト
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              android:versionCode="1"
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="980"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              private 
+              <text:span text:style-name="T12">ServiceConnection</text:span>
+              <text:span text:style-name="T14">conn</text:span>
+               = null;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              android:versionName="1.0"&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="980"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              &lt;uses-sdk android:minSdkVersion="10" /&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="980"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              public void onCreate(Bundle savedInstanceState) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="980"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              super.onCreate(savedInstanceState);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              &lt;application android:icon="@drawable/icon" android:label="@string/app_name"&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="980"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              setContentView(R.layout.main);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              &lt;activity android:name=".ServiceSample2Activity"
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="980"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="18"/>
+              android:label="@string/app_name"&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="980"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              Button startButton=
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="12"/>
+              &lt;intent-filter&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="980"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              (Button)findViewById(R.id.startButton);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="16"/>
+              &lt;action android:name="android.intent.action.MAIN" /&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="980"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              startButton.setOnClickListener(
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="16"/>
+              &lt;category android:name="android.intent.category.LAUNCHER" /&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="980"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              new StartButtonClickListener());
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="12"/>
+              &lt;/intent-filter&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="980"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              &lt;/activity&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="980"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              Button stopButton=
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              &lt;
+              <text:span text:style-name="T12">service</text:span>
+               android:name="
+              <text:span text:style-name="T14">ServiceSample2Service</text:span>
+              "&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="980"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              (Button)findViewById(R.id.stopButton);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="12"/>
+              &lt;
+              <text:span text:style-name="T12">intent-filter</text:span>
+              &gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="980"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              stopButton.setOnClickListener(
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="14"/>
+              &lt;action android:name="
+              <text:span text:style-name="T14">jp.co.knowd.BindServiceAIDL</text:span>
+              "/&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="980"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              new StopButtonClickListener());
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="12"/>
+              &lt;/intent-filter&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="980"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              &lt;/service&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="980"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="980"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              // 開始ボタンクリックリスナー定義
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              &lt;/application&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="980"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              class StartButtonClickListener
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>&lt;/manifest&gt;</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="980"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="22"/>
+              implements OnClickListener {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell table:style-name="ce11" table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce20"/>
+          <table:table-cell table:number-columns-repeated="980"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              // onClickメソッド(ボタンクリック時イベント)
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              public void onClick(View v) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              // メッセージ表示
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              Toast.makeText(ServiceSample2Activity.this,
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="16"/>
+              "サービスを開始します",
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="16"/>
+              Toast.LENGTH_SHORT).show();
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="5"/>
+              // インテント生成
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="5"/>
+              Intent intent =
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="12"/>
+              new Intent(
+              <text:span text:style-name="T12">BindServiceAIDL.class</text:span>
+              .getName());
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>⬅　BindServiceAIDL クラスのインテント作成</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="999"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="5"/>
+              // Service接続・切断用オブジェクト生成
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="5"/>
+              <text:span text:style-name="T14">conn</text:span>
+               = new 
+              <text:span text:style-name="T14">SampleServiceConnection</text:span>
+              ();
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="5"/>
+              // サービスにバインド
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              <text:span text:style-name="T12">bindService</text:span>
+              (intent, 
+              <text:span text:style-name="T14">conn</text:span>
+              , BIND_AUTO_CREATE);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>
+              ⬅　bindService(Intent service, ServiceConnection conn , int 
+              <text:s/>
+              flages )
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="999"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>
+              これにより、サービス側の
+              <text:span text:style-name="T12">onBind()</text:span>
+              が呼び出される。
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="998"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>第一引数</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>インテント</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="995"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>第二引数</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>接続管理オブジェクト</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="995"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              // 終了ボタンクリックリスナー定義
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>第三引数</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>BIND_AUTO_CREATE　ならバインドがある間は自動的にサービスを生成する。</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="995"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              class StopButtonClickListener
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="24"/>
+              implements OnClickListener {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              // onClickメソッド(ボタンクリック時イベント)
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              public void onClick(View v) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              try {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              // アクティビティに連携する
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              //インターフェースを解除
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              <text:span text:style-name="T14">bindserviceIf</text:span>
+              .
+              <text:span text:style-name="T15">unregisterCallback</text:span>
+              (bindactivityIf);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              }catch(RemoteException e) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              Log.e("ERROR", e.getMessage());
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              // メッセージ表示
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              Toast.makeText(ServiceSample2Activity.this,
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="16"/>
+              "サービスを終了します",
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="16"/>
+              Toast.LENGTH_SHORT).show();
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              // サービスをアンバインド
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              <text:span text:style-name="T12">unbindService</text:span>
+              (conn);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              // インテント生成
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              Intent intent =
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="11"/>
+              new Intent(BindServiceAIDL.class.getName());
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              // サービスを停止
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              <text:span text:style-name="T12">stopService</text:span>
+              (intent);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              // サービス接続・切断クラス定義
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              class 
+              <text:span text:style-name="T14">SampleServiceConnection</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="24"/>
+              implements 
+              <text:span text:style-name="T12">ServiceConnection</text:span>
+               {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              // onServiceConnectedメソッド(接続イベントハンドラ)
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              public void 
+              <text:span text:style-name="T12">onServiceConnected</text:span>
+              (
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>⬅　サービスの接続が確立されために呼び出される</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="999"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              <text:span text:style-name="T12">ComponentName</text:span>
+               compName, 
+              <text:span text:style-name="T12">IBinder</text:span>
+               binder) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              // サービスと連携するインターフェース取得
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              <text:span text:style-name="T14">bindserviceIf</text:span>
+               =
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="10"/>
+              BindServiceAIDL.Stub.asInterface(binder);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              try {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              // アクティビティに連携するインターフェースを登録
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              <text:span text:style-name="T14">bindserviceIf</text:span>
+              .
+              <text:span text:style-name="T23">registerCallback</text:span>
+              (bindactivityIf);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              }catch (RemoteException e) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="14"/>
+              Log.e("ERROR", e.getMessage());
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              // onServiceDisconnectedメソッド(切断イベントハンドラ)
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              public void 
+              <text:span text:style-name="T12">onServiceDisconnected</text:span>
+              (ComponentName arg0) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              <text:span text:style-name="T14">bindserviceIf</text:span>
+               = null;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              // アクティビティに連携するインターフェースオブジェクト
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              private BindActivityAIDL bindactivityIf =
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              new BindActivityAIDL.Stub() {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              public void 
+              <text:span text:style-name="T15">displayTime</text:span>
+              (String msg)
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="29"/>
+              throws RemoteException {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              // handlerにメッセージを送信
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              handler.sendMessage(Message.obtain(handler, 0, msg));
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              };
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              // ハンドラー生成
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              private Handler handler = new Handler(){
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              // メッセージ表示
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              public void handleMessage(Message msg) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              Toast.makeText(ServiceSample2Activity.this,
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="17"/>
+              (String)msg.obj,
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="18"/>
+              Toast.LENGTH_SHORT).show();
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              };
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>}</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell table:style-name="ce11" table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce20"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce33" office:value-type="string">
+            <text:p>ServiceSample2Service.java</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce9" office:value-type="string">
+            <text:p>
+              public class ServiceSample2Service 
+              <text:s/>
+              extends Service{
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce18"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              // コールバック管理リスト
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              private final 
+              <text:span text:style-name="T12">RemoteCallbackList</text:span>
+              &lt;
+              <text:span text:style-name="T14">BindActivityAIDL</text:span>
+              &gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              <text:span text:style-name="T14">callbackList</text:span>
+              <text:s text:c="2"/>
+              = new RemoteCallbackList&lt;BindActivityAIDL&gt;();
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              // Timerオブジェクト
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              private Timer timer = null;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              // 経過時間
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              private int countTime;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              public void onCreate() {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              super.onCreate();
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              // タイマーと経過時間初期化
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              timer = new Timer();
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              countTime = 0;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              // タイマー設定(10秒ごとにrunメソッド呼び出し)
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              timer.schedule(task, 10000, 10000);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              public IBinder 
+              <text:span text:style-name="T12">onBind</text:span>
+              (Intent intent) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>⬅　アクティビティの　bindService()　から呼び出され　onBind()が起動する</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              if (BindServiceAIDL.class.getName().equals(
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="28"/>
+              intent.getAction())) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              return 
+              <text:span text:style-name="T14">serviceCallbackIf</text:span>
+              ;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>⬅　BindServiceAIDL オブジェクトを返している</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              return null;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              public boolean 
+              <text:span text:style-name="T12">onUnbind</text:span>
+              (Intent intent) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              // タイマー設定解除
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              timer.cancel();
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              timer.purge();
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              return super.onUnbind(intent);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              // 
+              <text:s/>
+              サービスに連携するインターフェースオブジェクト
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              private 
+              <text:span text:style-name="T12">BindServiceAIDL.Stub</text:span>
+              <text:span text:style-name="T14">serviceCallbackIf</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="20"/>
+              = new BindServiceAIDL.Stub() {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              public void 
+              <text:span text:style-name="T15">registerCallback</text:span>
+              (BindActivityAIDL callback) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              // Callbackリストに登録
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              callbackList.register(callback);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              public void 
+              <text:span text:style-name="T15">unregisterCallback</text:span>
+              (BindActivityAIDL callback) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              // Callbackリストから解除
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              callbackList.unregister(callback);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              };
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              // TimerTaskオブジェクト生成
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              private TimerTask task = new TimerTask() {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              public void run() {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              // 10秒ごとにカウントアップ
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              countTime += 10;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              // Callbackのリスト処理を開始
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              int n = callbackList.beginBroadcast();
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              // 全アイテム分ループ
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              for (int i = 0; i &lt; n; i++) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              try {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="10"/>
+              // アクティビティのdisplayTimeメソッド実行
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="10"/>
+              <text:span text:style-name="T14">callbackList</text:span>
+              .getBroadcastItem(i).
+              <text:span text:style-name="T15">displayTime</text:span>
+              (
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="16"/>
+              countTime / 60 + "分" +
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="16"/>
+              countTime % 60+"秒経過しました！");
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="9"/>
+              } catch (RemoteException e) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="11"/>
+              Log.e("ERROR", e.getMessage());
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="9"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="7"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="7"/>
+              // Callbackのリスト処理を終了
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="7"/>
+              callbackList.finishBroadcast();
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              };
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce7" office:value-type="string">
+            <text:p>}</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce11" table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce20"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>●</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>ブロードキャストレシーバー</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>充電池の状態の変化などを通知するために使用</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="3">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>メインのアクティビティ</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce9" office:value-type="string">
+            <text:p>public class BroadcastSampleActivity extends Activity {</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce18"/>
+          <table:table-cell table:number-columns-repeated="9"/>
+          <table:table-cell table:style-name="ce9" office:value-type="string">
+            <text:p>//Serviceクラスを拡張したクラスを作成</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce18"/>
+          <table:table-cell table:number-columns-repeated="983"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              public void onCreate(Bundle savedInstanceState) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell>
+            <draw:line table:end-cell-address="７章.AA506" table:end-x="0.865cm" table:end-y="0.43cm" draw:z-index="2" draw:style-name="gr2" draw:text-style-name="P1" svg:x1="0.545cm" svg:y1="5.514cm" svg:x2="14.308cm" svg:y2="0.364cm">
+              <text:p/>
+            </draw:line>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="9"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              public class 
+              <text:span text:style-name="T14">StartActivityService</text:span>
+               extends Service {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="983"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              super.onCreate(savedInstanceState);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="9"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              public IBinder onBind(Intent intent) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="983"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              setContentView(R.layout.main);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="9"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              return null;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="983"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              // ボタンを読み込みリスナーを登録する
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="9"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="983"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              Button button = (Button)findViewById(R.id.button);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="9"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="983"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              button.setOnClickListener(mStartService);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="9"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>// サービス開始時</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="983"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell>
+            <draw:line table:end-cell-address="７章.AA509" table:end-x="0.865cm" table:end-y="0.33cm" draw:z-index="0" draw:style-name="gr2" draw:text-style-name="P1" svg:x1="0.609cm" svg:y1="4.028cm" svg:x2="16.997cm" svg:y2="0.232cm">
+              <text:p/>
+            </draw:line>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="8"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="9"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              public int 
+              <text:span text:style-name="T12">onStartCommand</text:span>
+              (Intent intent, int flags, int startId) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="983"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              // サービス開始ボタンクリック時の処理
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="9"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              super.onStartCommand(intent, flags, startId);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="983"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              private OnClickListener mStartService = new OnClickListener() {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="9"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              Toast.makeText(this, "サービスを開始しました！",
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="983"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              public void onClick(View v) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="9"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="19"/>
+              Toast.LENGTH_LONG).show();
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="983"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              // サービスクラスを指定したインテントの作成
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="9"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              intent = new Intent();
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="983"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              Intent intent = new Intent(BroadcastSampleActivity.this,
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="9"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              intent.
+              <text:span text:style-name="T12">setAction</text:span>
+              ("
+              <text:span text:style-name="T14">jp.co.knowd.VIEW</text:span>
+              ");
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell office:value-type="string">
+            <text:p>⬅　”jp.co.knowd.VIEW” はマニフェストファイルに定義しているレシーバー</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="982"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="35"/>
+              <text:span text:style-name="T14">StartActivityService</text:span>
+              .class);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell office:value-type="string">
+            <text:p>⬅　サービスクラスを指定</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="8"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              <text:span text:style-name="T12">sendBroadcast</text:span>
+              (intent);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell office:value-type="string">
+            <text:p>⬅　ブロードキャストレシーバーが起動</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="982"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              // サービスの起動
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="9"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              return START_STICKY;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell>
+            <draw:line table:end-cell-address="７章.AF526" table:end-x="0.129cm" table:end-y="0.396cm" draw:z-index="1" draw:style-name="gr2" draw:text-style-name="P1" svg:x1="0.576cm" svg:y1="0.033cm" svg:x2="1.921cm" svg:y2="8.715cm">
+              <text:p/>
+            </draw:line>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="10"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="983"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              <text:span text:style-name="T12">startService</text:span>
+              (intent);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell office:value-type="string">
+            <text:p>⬅　onStartCommand()が呼出される</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="8"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="983"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="9"/>
+          <table:table-cell table:style-name="ce7" office:value-type="string">
+            <text:p>}</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce11" table:number-columns-repeated="12"/>
+          <table:table-cell table:style-name="ce20"/>
+          <table:table-cell table:number-columns-repeated="983"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              };
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce7" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce11" table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce20"/>
+          <table:table-cell table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="14">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce9" office:value-type="string">
+            <text:p>public class SubActivity extends Activity {</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="11"/>
+          <table:table-cell table:style-name="ce18"/>
+          <table:table-cell table:number-columns-repeated="11"/>
+          <table:table-cell table:style-name="ce9" office:value-type="string">
+            <text:p>
+              public class StartActivityReceiver extends 
+              <text:span text:style-name="T12">BroadcastReceiver</text:span>
+               {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce18"/>
+          <table:table-cell table:number-columns-repeated="982"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="11"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell>
+            <draw:line table:end-cell-address="７章.AI531" table:end-x="0.672cm" table:end-y="0.298cm" draw:z-index="3" draw:style-name="gr2" draw:text-style-name="P1" svg:x1="16.804cm" svg:y1="1.684cm" svg:x2="0.16cm" svg:y2="0.067cm">
+              <text:p/>
+            </draw:line>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="10"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="982"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              public void onCreate(Bundle savedInstanceState) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="11"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="11"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              public void 
+              <text:span text:style-name="T12">onReceive</text:span>
+              (Context context, Intent i) {
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="982"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              super.onCreate(savedInstanceState);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="11"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="11"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              // SubActivity.class を起動するアクティビティに指定
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="982"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              setContentView(R.layout.sub);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="11"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="11"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              Intent intent = new Intent(context, 
+              <text:span text:style-name="T12">SubActivity.class</text:span>
+              );
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="982"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="11"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="11"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              // アクティビティを起動するための定数を指定
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="982"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce7" office:value-type="string">
+            <text:p>}</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce11" table:number-columns-repeated="11"/>
+          <table:table-cell table:style-name="ce20"/>
+          <table:table-cell table:number-columns-repeated="11"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              intent.
+              <text:span text:style-name="T12">setFlags</text:span>
+              (Intent.
+              <text:span text:style-name="T12">FLAG_ACTIVITY_NEW_TASK</text:span>
+              );
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell office:value-type="string">
+            <text:p>⬅　アクティビティ以外から</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="981"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="27"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              // アクティビティを起動する
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell office:value-type="string">
+            <text:p>　　インテントでアクティビティを呼出すには</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="981"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="27"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              context.
+              <text:span text:style-name="T12">startActivity</text:span>
+              (intent);
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell office:value-type="string">
+            <text:p>　　FLAG_ACTIVITY_NEW_TASK をセットする</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="981"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="27"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="2"/>
+              }
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="982"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="27"/>
+          <table:table-cell table:style-name="ce7" office:value-type="string">
+            <text:p>}</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce11" table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce20"/>
+          <table:table-cell table:number-columns-repeated="982"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="3">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>マニフェストファイル</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce9" office:value-type="string">
+            <text:p>&lt;?xml version="1.0" encoding="utf-8"?&gt;</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce18"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>&lt;manifest xmlns:android="http://schemas.android.com/apk/res/android"</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              package="jp.co.knowd"
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              android:versionCode="1"
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="6"/>
+              android:versionName="1.0"&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              &lt;uses-sdk android:minSdkVersion="10" /&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              &lt;application android:icon="@drawable/icon" android:label="@string/app_name"&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              &lt;activity android:name=".BroadcastSampleActivity"
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="18"/>
+              android:label="@string/app_name"&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="12"/>
+              &lt;intent-filter&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="16"/>
+              &lt;action android:name="android.intent.action.MAIN" /&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="16"/>
+              &lt;category android:name="android.intent.category.LAUNCHER" /&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="12"/>
+              &lt;/intent-filter&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              &lt;/activity&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              &lt;!-- サブアクティビティの登録 --&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              &lt;activity android:name=".SubActivity"
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="18"/>
+              android:label="@string/app_name"&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              &lt;/activity&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              &lt;!-- ブロードキャストレシーバの登録 --&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              &lt;
+              <text:span text:style-name="T12">receiver</text:span>
+               android:name="
+              <text:span text:style-name="T14">StartActivityReceiver</text:span>
+              " &gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>⬅　独自のインテントとレシーバーをひもづけている</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="10"/>
+              &lt;
+              <text:span text:style-name="T12">intent-filter</text:span>
+              &gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="12"/>
+              &lt;action android:name="
+              <text:span text:style-name="T14">jp.co.knowd.VIEW</text:span>
+              " /&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>　　独自に作成するのではなく、システムに存在するすべてのアプリに大してインテントを投げる</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="10"/>
+              &lt;/intent-filter&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce34" office:value-type="string">
+            <text:p>
+              <text:span text:style-name="T12">ブロードキャストインテント</text:span>
+              　がある
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              &lt;/receiver&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1002"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              &lt;!-- サービスの登録 --&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>ACTION_BATTERY_LOW</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="9"/>
+          <table:table-cell office:value-type="string">
+            <text:p>バッテリー残量が少ない</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="988"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="8"/>
+              &lt;
+              <text:span text:style-name="T12">service</text:span>
+               android:name="
+              <text:span text:style-name="T14">StartActivityService</text:span>
+              " /&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>ACTION_BOOT_COMPLETED</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="9"/>
+          <table:table-cell office:value-type="string">
+            <text:p>システムの起動が完了した</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="988"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>
+              <text:s text:c="4"/>
+              &lt;/application&gt;
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>ACTION_CONFIGURATION_CHANGED</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="9"/>
+          <table:table-cell office:value-type="string">
+            <text:p>ロケールなどシステム設定が変更された</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="988"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>&lt;/manifest&gt;</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>ACTION_DATE_CHANGE_ACTION</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="9"/>
+          <table:table-cell office:value-type="string">
+            <text:p>日付が変更された</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="988"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell table:style-name="ce11" table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce20"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>ACTION_POWER_CONNECTED</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="9"/>
+          <table:table-cell office:value-type="string">
+            <text:p>外部電源が接続された</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="988"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="25"/>
+          <table:table-cell office:value-type="string">
+            <text:p>ACTION_POWER_DISCONNECTED</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="9"/>
+          <table:table-cell office:value-type="string">
+            <text:p>外部電源が切断された</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="988"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="1048001">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+      </table:table>
+      <table:table table:name="11章" table:style-name="ta1" table:print="false">
+        <table:table-column table:style-name="co1" table:number-columns-repeated="1024" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce3"/>
+          <table:table-cell table:number-columns-repeated="1007"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
             <text:p>11章</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1022"/>
@@ -15142,8 +22002,8 @@
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
       </table:table>
-      <table:table table:name="12章" table:style-name="ta4" table:print="false">
-        <table:table-column table:style-name="co7" table:number-columns-repeated="1024" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
+      <table:table table:name="12章" table:style-name="ta2" table:print="false">
+        <table:table-column table:style-name="co5" table:number-columns-repeated="1024" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
@@ -15185,8 +22045,8 @@
           <table:table-cell office:value-type="string">
             <text:p>
               &lt;
-              <text:span text:style-name="T25">manifest</text:span>
-              <text:span text:style-name="T26"> xmlns:android="http://schemas.android.com/apk/res/android"</text:span>
+              <text:span text:style-name="T24">manifest</text:span>
+              <text:span text:style-name="T25"> xmlns:android="http://schemas.android.com/apk/res/android"</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
@@ -15203,28 +22063,28 @@
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="4"/>
-          <table:table-cell table:style-name="ce37" office:value-type="string">
+          <table:table-cell table:style-name="ce35" office:value-type="string">
             <text:p>
               <text:s text:c="6"/>
               android:versionCode="1"
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="11"/>
-          <table:table-cell table:style-name="ce38" office:value-type="string">
+          <table:table-cell table:style-name="ce36" office:value-type="string">
             <text:p>←　整数値</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1007"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="4"/>
-          <table:table-cell table:style-name="ce37" office:value-type="string">
+          <table:table-cell table:style-name="ce35" office:value-type="string">
             <text:p>
               <text:s text:c="6"/>
               android:versionName="1.0"&gt;
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="11"/>
-          <table:table-cell table:style-name="ce38" office:value-type="string">
+          <table:table-cell table:style-name="ce36" office:value-type="string">
             <text:p>←　1.0.0とか。管理画面に表示される</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1007"/>
@@ -15235,8 +22095,8 @@
             <text:p>
               <text:s text:c="4"/>
               &lt;
-              <text:span text:style-name="T25">application</text:span>
-              <text:span text:style-name="T26"> </text:span>
+              <text:span text:style-name="T24">application</text:span>
+              <text:span text:style-name="T25"> </text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
@@ -15249,22 +22109,22 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce37" office:value-type="string">
+          <table:table-cell table:style-name="ce35" office:value-type="string">
             <text:p>android:label="@string/app_name" </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="11"/>
-          <table:table-cell table:style-name="ce38" office:value-type="string">
+          <table:table-cell table:style-name="ce36" office:value-type="string">
             <text:p>←　アプリケーション名（AndroidMarketや端末上での名前）</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1004"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="7"/>
-          <table:table-cell table:style-name="ce37" office:value-type="string">
+          <table:table-cell table:style-name="ce35" office:value-type="string">
             <text:p>android:icon="@drawable/icon" </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="11"/>
-          <table:table-cell table:style-name="ce38" office:value-type="string">
+          <table:table-cell table:style-name="ce36" office:value-type="string">
             <text:p>←　アイコン画像</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1004"/>
@@ -15277,11 +22137,11 @@
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce37" office:value-type="string">
+          <table:table-cell table:style-name="ce35" office:value-type="string">
             <text:p>android:debuggable="true"</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="11"/>
-          <table:table-cell table:style-name="ce38" office:value-type="string">
+          <table:table-cell table:style-name="ce36" office:value-type="string">
             <text:p>←　デフォルトはfalse。リリース時にはfalseにするか削除する。</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1004"/>
@@ -15314,7 +22174,7 @@
           <table:table-cell office:value-type="string">
             <text:p>
               String packageName = 
-              <text:span text:style-name="T25">getPackageName();</text:span>
+              <text:span text:style-name="T24">getPackageName();</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
@@ -15324,7 +22184,7 @@
           <table:table-cell office:value-type="string">
             <text:p>
               PackageManager pm = 
-              <text:span text:style-name="T25">getPackageManager();</text:span>
+              <text:span text:style-name="T24">getPackageManager();</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
@@ -15334,7 +22194,7 @@
           <table:table-cell office:value-type="string">
             <text:p>
               PackageInfo packageInfo = 
-              <text:span text:style-name="T25">pm.getPackageInfo(packageName, 0);</text:span>
+              <text:span text:style-name="T24">pm.getPackageInfo(packageName, 0);</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
@@ -15344,11 +22204,11 @@
           <table:table-cell office:value-type="string">
             <text:p>
               int versinoCode = 
-              <text:span text:style-name="T25">packageInfo.versionCode;</text:span>
+              <text:span text:style-name="T24">packageInfo.versionCode;</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="13"/>
-          <table:table-cell table:style-name="ce38" office:value-type="string">
+          <table:table-cell table:style-name="ce36" office:value-type="string">
             <text:p>←　PackageInfo内のpublic変数</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1005"/>
@@ -15358,11 +22218,11 @@
           <table:table-cell office:value-type="string">
             <text:p>
               String versionName = 
-              <text:span text:style-name="T25">packageInfo.versionName;</text:span>
+              <text:span text:style-name="T24">packageInfo.versionName;</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="13"/>
-          <table:table-cell table:style-name="ce38" office:value-type="string">
+          <table:table-cell table:style-name="ce36" office:value-type="string">
             <text:p>←　PackageInfo内のpublic変数</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1005"/>
@@ -15392,7 +22252,7 @@
             <text:p>&lt;uses-sdk android:minSdkVersion="8" </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="13"/>
-          <table:table-cell table:style-name="ce38" office:value-type="string">
+          <table:table-cell table:style-name="ce36" office:value-type="string">
             <text:p>←　指定なしの場合は"1"とみなされる。このVerより低い端末の場合クラッシュの可能性あり</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1005"/>
@@ -15409,7 +22269,7 @@
             <text:p>android:maxSdkVersion="8" </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="10"/>
-          <table:table-cell table:style-name="ce38" office:value-type="string">
+          <table:table-cell table:style-name="ce36" office:value-type="string">
             <text:p>←　このVerより高い端末にインストールされない（？）ようになる</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1005"/>
@@ -15426,7 +22286,7 @@
             <text:p>android:targetSdkVersion="8" /&gt;</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="10"/>
-          <table:table-cell table:style-name="ce38" office:value-type="string">
+          <table:table-cell table:style-name="ce36" office:value-type="string">
             <text:p>←　動作推奨Ver。テスト済みを明示。このVerより低い端末でもインストール可能。</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1005"/>
@@ -15496,7 +22356,7 @@
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="5"/>
           <table:table-cell>
-            <draw:frame table:end-cell-address="12章.AP59" table:end-x="0.18cm" table:end-y="0.025cm" draw:z-index="0" draw:name="Picture 2" draw:style-name="gr2" draw:text-style-name="P2" svg:width="30.028cm" svg:height="8.41cm" svg:x="0.075cm" svg:y="0.396cm">
+            <draw:frame table:end-cell-address="12章.AP59" table:end-x="0.18cm" table:end-y="0.025cm" draw:z-index="0" draw:name="Picture 2" draw:style-name="gr3" draw:text-style-name="P2" svg:width="30.028cm" svg:height="8.41cm" svg:x="0.075cm" svg:y="0.396cm">
               <draw:image xlink:href="Pictures/10000000000003AC00000146605152EF.png" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad">
                 <text:p/>
               </draw:image>
@@ -15510,7 +22370,7 @@
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="5"/>
           <table:table-cell>
-            <draw:frame table:end-cell-address="12章.AP82" table:end-x="0.312cm" table:end-y="0.371cm" draw:z-index="1" draw:name="Picture 3" draw:style-name="gr2" draw:text-style-name="P2" svg:width="30.16cm" svg:height="10.605cm" svg:x="0.075cm" svg:y="0.396cm">
+            <draw:frame table:end-cell-address="12章.AP82" table:end-x="0.312cm" table:end-y="0.371cm" draw:z-index="1" draw:name="Picture 3" draw:style-name="gr3" draw:text-style-name="P2" svg:width="30.16cm" svg:height="10.605cm" svg:x="0.075cm" svg:y="0.396cm">
               <draw:image xlink:href="Pictures/10000000000003B10000019B1A4B573B.png" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad">
                 <text:p/>
               </draw:image>
@@ -15538,7 +22398,7 @@
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="5"/>
           <table:table-cell>
-            <draw:frame table:end-cell-address="12章.AO114" table:end-x="0.497cm" table:end-y="0.21cm" draw:z-index="2" draw:name="Picture 4" draw:style-name="gr2" draw:text-style-name="P2" svg:width="29.514cm" svg:height="13.68cm" svg:x="0.075cm" svg:y="0.395cm">
+            <draw:frame table:end-cell-address="12章.AO114" table:end-x="0.497cm" table:end-y="0.21cm" draw:z-index="2" draw:name="Picture 4" draw:style-name="gr3" draw:text-style-name="P2" svg:width="29.514cm" svg:height="13.68cm" svg:x="0.075cm" svg:y="0.395cm">
               <draw:image xlink:href="Pictures/100000000000039E0000021374AB1A62.png" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad">
                 <text:p/>
               </draw:image>
@@ -15562,7 +22422,7 @@
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="5"/>
           <table:table-cell>
-            <draw:frame table:end-cell-address="12章.AO147" table:end-x="0.497cm" table:end-y="0.211cm" draw:z-index="3" draw:name="Picture 5" draw:style-name="gr2" draw:text-style-name="P2" svg:width="29.514cm" svg:height="13.68cm" svg:x="0.075cm" svg:y="0.396cm">
+            <draw:frame table:end-cell-address="12章.AO147" table:end-x="0.497cm" table:end-y="0.211cm" draw:z-index="3" draw:name="Picture 5" draw:style-name="gr3" draw:text-style-name="P2" svg:width="29.514cm" svg:height="13.68cm" svg:x="0.075cm" svg:y="0.396cm">
               <draw:image xlink:href="Pictures/100000000000039E000002138A435801.png" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad">
                 <text:p/>
               </draw:image>
@@ -15576,7 +22436,7 @@
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="5"/>
           <table:table-cell>
-            <draw:frame table:end-cell-address="12章.R164" table:end-x="0.577cm" table:end-y="0.369cm" draw:z-index="4" draw:name="Picture 6" draw:style-name="gr2" draw:text-style-name="P2" svg:width="10.476cm" svg:height="7.83cm" svg:x="0.075cm" svg:y="0.396cm">
+            <draw:frame table:end-cell-address="12章.R164" table:end-x="0.577cm" table:end-y="0.369cm" draw:z-index="4" draw:name="Picture 6" draw:style-name="gr3" draw:text-style-name="P2" svg:width="10.476cm" svg:height="7.83cm" svg:x="0.075cm" svg:y="0.396cm">
               <draw:image xlink:href="Pictures/100000000000014B0000012F179F4EC1.png" xlink:type="simple" xlink:show="embed" xlink:actuate="onLoad">
                 <text:p/>
               </draw:image>
@@ -15639,14 +22499,14 @@
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="6"/>
-          <table:table-cell table:style-name="ce37" office:value-type="string">
+          <table:table-cell table:style-name="ce35" office:value-type="string">
             <text:p>android:versionCode</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="6"/>
-          <table:table-cell table:style-name="ce37" office:value-type="string">
+          <table:table-cell table:style-name="ce35" office:value-type="string">
             <text:p>android:versionName</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1017"/>
@@ -15753,7 +22613,7 @@
             <text:p>&gt;layoutopt [projectname]</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="13"/>
-          <table:table-cell table:style-name="ce38" office:value-type="string">
+          <table:table-cell table:style-name="ce36" office:value-type="string">
             <text:p>←　プロジェクトのxmlの診断</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1004"/>
@@ -15764,7 +22624,7 @@
             <text:p>&gt;layoutopt [projectname\res\layout\main.xml]</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="13"/>
-          <table:table-cell table:style-name="ce38" office:value-type="string">
+          <table:table-cell table:style-name="ce36" office:value-type="string">
             <text:p>←　プロジェクトの指定のxmlのみを診断</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1004"/>
@@ -16035,7 +22895,7 @@
             <text:p>&gt;zipalign [-f] [-v] &lt;alignment&gt; infile.apk outfile.apk</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="13"/>
-          <table:table-cell table:style-name="ce38" office:value-type="string">
+          <table:table-cell table:style-name="ce36" office:value-type="string">
             <text:p>←　infile.apkを整列し、outfile.apkとして保存する</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1004"/>
@@ -16046,14 +22906,14 @@
             <text:p>&gt;zipalign -c -v &lt;alignment&gt; existing.apk</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="13"/>
-          <table:table-cell table:style-name="ce38" office:value-type="string">
+          <table:table-cell table:style-name="ce36" office:value-type="string">
             <text:p>←　existing.apkの位置合わせの確認を行う</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1004"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce38" office:value-type="string">
+          <table:table-cell table:style-name="ce36" office:value-type="string">
             <text:p>　　　alignment は必ず4を指定</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1004"/>
@@ -16125,11 +22985,11 @@
 <file path=meta.xml><?xml version="1.0" encoding="utf-8"?>
 <office:document-meta xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:grddl="http://www.w3.org/2003/g/data-view#" office:version="1.2">
   <office:meta>
-    <dc:date>2012-07-24T00:44:46</dc:date>
+    <dc:date>2012-07-31T09:35:29</dc:date>
     <meta:generator>OpenOffice.org/3.4$Unix OpenOffice.org_project/340m1$Build-9590</meta:generator>
-    <meta:editing-duration>P6DT23H42M31S</meta:editing-duration>
-    <meta:editing-cycles>49</meta:editing-cycles>
-    <meta:document-statistic meta:table-count="9" meta:cell-count="1767" meta:object-count="7"/>
+    <meta:editing-duration>P8DT13H54M9S</meta:editing-duration>
+    <meta:editing-cycles>70</meta:editing-cycles>
+    <meta:document-statistic meta:table-count="10" meta:cell-count="2400" meta:object-count="11"/>
   </office:meta>
 </office:document-meta>
 </file>
@@ -16140,8 +23000,8 @@
     <config:config-item-set config:name="ooo:view-settings">
       <config:config-item config:name="VisibleAreaTop" config:type="int">462</config:config-item>
       <config:config-item config:name="VisibleAreaLeft" config:type="int">896</config:config-item>
-      <config:config-item config:name="VisibleAreaWidth" config:type="int">32369</config:config-item>
-      <config:config-item config:name="VisibleAreaHeight" config:type="int">125019</config:config-item>
+      <config:config-item config:name="VisibleAreaWidth" config:type="int">37641</config:config-item>
+      <config:config-item config:name="VisibleAreaHeight" config:type="int">263899</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
@@ -16211,8 +23071,8 @@
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
             </config:config-item-map-entry>
             <config:config-item-map-entry config:name="5章">
-              <config:config-item config:name="CursorPositionX" config:type="int">7</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">307</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">20</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">290</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -16221,23 +23081,23 @@
               <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
-              <config:config-item config:name="PositionBottom" config:type="int">432</config:config-item>
+              <config:config-item config:name="PositionBottom" config:type="int">335</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
               <config:config-item config:name="ZoomValue" config:type="int">60</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
             </config:config-item-map-entry>
             <config:config-item-map-entry config:name="6章">
-              <config:config-item config:name="CursorPositionX" config:type="int">37</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">184</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">8</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">10</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
               <config:config-item config:name="VerticalSplitPosition" config:type="int">0</config:config-item>
               <config:config-item config:name="ActiveSplitRange" config:type="short">2</config:config-item>
-              <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionLeft" config:type="int">1</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
-              <config:config-item config:name="PositionBottom" config:type="int">178</config:config-item>
+              <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
               <config:config-item config:name="ZoomValue" config:type="int">60</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
@@ -16275,8 +23135,8 @@
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
             </config:config-item-map-entry>
             <config:config-item-map-entry config:name="３章">
-              <config:config-item config:name="CursorPositionX" config:type="int">25</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">241</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">3</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">40</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -16285,13 +23145,29 @@
               <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
-              <config:config-item config:name="PositionBottom" config:type="int">221</config:config-item>
+              <config:config-item config:name="PositionBottom" config:type="int">28</config:config-item>
+              <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
+              <config:config-item config:name="ZoomValue" config:type="int">60</config:config-item>
+              <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
+            </config:config-item-map-entry>
+            <config:config-item-map-entry config:name="７章">
+              <config:config-item config:name="CursorPositionX" config:type="int">11</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">392</config:config-item>
+              <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
+              <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
+              <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
+              <config:config-item config:name="VerticalSplitPosition" config:type="int">0</config:config-item>
+              <config:config-item config:name="ActiveSplitRange" config:type="short">2</config:config-item>
+              <config:config-item config:name="PositionLeft" config:type="int">8</config:config-item>
+              <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionBottom" config:type="int">508</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
               <config:config-item config:name="ZoomValue" config:type="int">60</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
             </config:config-item-map-entry>
           </config:config-item-map-named>
-          <config:config-item config:name="ActiveTable" config:type="string">6章</config:config-item>
+          <config:config-item config:name="ActiveTable" config:type="string">７章</config:config-item>
           <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">813</config:config-item>
           <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
           <config:config-item config:name="ZoomValue" config:type="int">60</config:config-item>
@@ -16367,7 +23243,6 @@
 <file path=styles.xml><?xml version="1.0" encoding="utf-8"?>
 <office:document-styles xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:style="urn:oasis:names:tc:opendocument:xmlns:style:1.0" xmlns:text="urn:oasis:names:tc:opendocument:xmlns:text:1.0" xmlns:table="urn:oasis:names:tc:opendocument:xmlns:table:1.0" xmlns:draw="urn:oasis:names:tc:opendocument:xmlns:drawing:1.0" xmlns:fo="urn:oasis:names:tc:opendocument:xmlns:xsl-fo-compatible:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:number="urn:oasis:names:tc:opendocument:xmlns:datastyle:1.0" xmlns:presentation="urn:oasis:names:tc:opendocument:xmlns:presentation:1.0" xmlns:svg="urn:oasis:names:tc:opendocument:xmlns:svg-compatible:1.0" xmlns:chart="urn:oasis:names:tc:opendocument:xmlns:chart:1.0" xmlns:dr3d="urn:oasis:names:tc:opendocument:xmlns:dr3d:1.0" xmlns:math="http://www.w3.org/1998/Math/MathML" xmlns:form="urn:oasis:names:tc:opendocument:xmlns:form:1.0" xmlns:script="urn:oasis:names:tc:opendocument:xmlns:script:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:ooow="http://openoffice.org/2004/writer" xmlns:oooc="http://openoffice.org/2004/calc" xmlns:dom="http://www.w3.org/2001/xml-events" xmlns:rpt="http://openoffice.org/2005/report" xmlns:of="urn:oasis:names:tc:opendocument:xmlns:of:1.2" xmlns:xhtml="http://www.w3.org/1999/xhtml" xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:tableooo="http://openoffice.org/2009/table" office:version="1.2">
   <office:font-face-decls>
-    <style:font-face style:name="F" svg:font-family="" style:font-family-generic="roman"/>
     <style:font-face style:name="ＭＳ Ｐゴシック2" svg:font-family="'ＭＳ Ｐゴシック'" style:font-family-generic="swiss"/>
     <style:font-face style:name="Monaco" svg:font-family="Monaco" style:font-family-generic="modern" style:font-pitch="fixed"/>
     <style:font-face style:name="ＭＳ Ｐゴシック1" svg:font-family="'ＭＳ Ｐゴシック'" style:font-family-generic="modern" style:font-pitch="variable"/>
@@ -16756,6 +23631,7 @@
       <style:paragraph-properties fo:margin-left="0cm" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
+    <draw:marker draw:name="Arrow" svg:viewBox="0 0 20 30" svg:d="m10 0-10 30h20z"/>
   </office:styles>
   <office:automatic-styles>
     <style:page-layout style:name="Mpm1">
@@ -16818,9 +23694,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2012-07-24">2012/07/24</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2012-07-31">2012/07/31</text:date>
             , 
-            <text:time>00:44:46</text:time>
+            <text:time>09:35:29</text:time>
           </text:p>
         </style:region-right>
       </style:header>

--- a/Note.xlsx
+++ b/Note.xlsx
@@ -8,6 +8,7 @@
   <manifest:file-entry manifest:media-type="" manifest:full-path="Configurations2/accelerator/current.xml"/>
   <manifest:file-entry manifest:media-type="application/vnd.sun.xml.ui.configuration" manifest:full-path="Configurations2/"/>
   <manifest:file-entry manifest:media-type="image/png" manifest:full-path="Pictures/10000000000003AC00000146605152EF.png"/>
+  <manifest:file-entry manifest:media-type="image/png" manifest:full-path="Pictures/10000201000005720000030497BDF1C2.png"/>
   <manifest:file-entry manifest:media-type="image/gif" manifest:full-path="Pictures/10000000000002990000032D615EA220.gif"/>
   <manifest:file-entry manifest:media-type="image/png" manifest:full-path="Pictures/100000000000039E000002138A435801.png"/>
   <manifest:file-entry manifest:media-type="image/png" manifest:full-path="Pictures/100000000000014B0000012F179F4EC1.png"/>
@@ -16,6 +17,8 @@
   <manifest:file-entry manifest:media-type="image/png" manifest:full-path="Pictures/1000020100000531000003E68C93AAB8.png"/>
   <manifest:file-entry manifest:media-type="image/png" manifest:full-path="Pictures/10000000000003B10000019B1A4B573B.png"/>
   <manifest:file-entry manifest:media-type="image/png" manifest:full-path="Pictures/10000201000002A7000002728AB0548C.png"/>
+  <manifest:file-entry manifest:media-type="image/png" manifest:full-path="Pictures/10000201000005C8000003044D7B1F69.png"/>
+  <manifest:file-entry manifest:media-type="image/png" manifest:full-path="Pictures/10000000000001900000011772F474E4.png"/>
   <manifest:file-entry manifest:media-type="image/png" manifest:full-path="Pictures/10000000000004140000035718DF81CC.png"/>
   <manifest:file-entry manifest:media-type="text/xml" manifest:full-path="content.xml"/>
   <manifest:file-entry manifest:media-type="text/xml" manifest:full-path="styles.xml"/>
@@ -59,7 +62,7 @@
       <style:table-column-properties fo:break-before="auto" style:column-width="0.834cm"/>
     </style:style>
     <style:style style:name="co6" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="2.148cm"/>
+      <style:table-column-properties fo:break-before="auto" style:column-width="0.855cm"/>
     </style:style>
     <style:style style:name="ro1" style:family="table-row">
       <style:table-row-properties style:row-height="0.464cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
@@ -71,10 +74,10 @@
       <style:table-row-properties style:row-height="0.467cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
     <style:style style:name="ro4" style:family="table-row">
-      <style:table-row-properties style:row-height="0.531cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+      <style:table-row-properties style:row-height="0.422cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
     <style:style style:name="ro5" style:family="table-row">
-      <style:table-row-properties style:row-height="0.422cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+      <style:table-row-properties style:row-height="0.506cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
     <style:style style:name="ta1" style:family="table" style:master-page-name="PageStyle_5f_Sheet2">
       <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
@@ -235,6 +238,15 @@
     <style:style style:name="ce44" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:text-properties fo:color="#ff0000" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
+    <style:style style:name="ce45" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:text-properties fo:color="#00cccc"/>
+    </style:style>
+    <style:style style:name="ce46" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:text-properties fo:color="#cccc00"/>
+    </style:style>
+    <style:style style:name="ce47" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:text-properties fo:font-size="12pt" style:font-size-asian="12pt" style:font-size-complex="12pt"/>
+    </style:style>
     <style:style style:name="gr1" style:family="graphic">
       <style:graphic-properties draw:stroke="none" draw:fill="none" draw:textarea-horizontal-align="center" draw:textarea-vertical-align="middle" draw:color-mode="standard" draw:luminance="0%" draw:contrast="0%" draw:gamma="100%" draw:red="0%" draw:green="0%" draw:blue="0%" fo:clip="rect(0cm, 0cm, 0cm, 0cm)" draw:image-opacity="100%" style:mirror="none"/>
     </style:style>
@@ -257,91 +269,101 @@
       <style:paragraph-properties fo:text-align="center"/>
       <style:text-properties fo:font-size="18pt"/>
     </style:style>
+    <style:style style:name="P3" style:family="paragraph">
+      <style:paragraph-properties fo:text-align="start"/>
+    </style:style>
+    <style:style style:name="P4" style:family="paragraph">
+      <style:paragraph-properties fo:text-align="center"/>
+      <style:text-properties fo:font-size="12pt" style:font-size-asian="12pt" style:font-size-complex="12pt"/>
+    </style:style>
     <style:style style:name="T1" style:family="text">
+      <style:text-properties fo:font-size="11pt" style:font-size-asian="11pt" style:font-size-complex="11pt"/>
+    </style:style>
+    <style:style style:name="T2" style:family="text">
       <style:text-properties fo:color="#008080" style:font-name="Monaco" fo:font-size="11pt" style:font-name-asian="Monaco" style:font-size-asian="11pt" style:font-name-complex="Monaco" style:font-size-complex="6.30000019073486pt"/>
     </style:style>
-    <style:style style:name="T2" style:family="text">
+    <style:style style:name="T3" style:family="text">
       <style:text-properties fo:color="#3f7f7f" style:font-name="Monaco" fo:font-size="11pt" style:font-name-asian="Monaco" style:font-size-asian="11pt" style:font-name-complex="Monaco" style:font-size-complex="6.30000019073486pt"/>
     </style:style>
-    <style:style style:name="T3" style:family="text">
+    <style:style style:name="T4" style:family="text">
       <style:text-properties fo:color="#7f007f" style:font-name="Monaco" fo:font-size="11pt" style:font-name-asian="Monaco" style:font-size-asian="11pt" style:font-name-complex="Monaco" style:font-size-complex="6.30000019073486pt"/>
     </style:style>
-    <style:style style:name="T4" style:family="text">
+    <style:style style:name="T5" style:family="text">
       <style:text-properties fo:color="#000000" style:font-name="Monaco" fo:font-size="11pt" style:font-name-asian="Monaco" style:font-size-asian="11pt" style:font-name-complex="Monaco" style:font-size-complex="6.30000019073486pt"/>
     </style:style>
-    <style:style style:name="T5" style:family="text">
+    <style:style style:name="T6" style:family="text">
       <style:text-properties fo:color="#2a00ff" style:font-name="Monaco" fo:font-size="11pt" fo:font-style="italic" style:font-name-asian="Monaco" style:font-size-asian="11pt" style:font-style-asian="italic" style:font-name-complex="Monaco" style:font-size-complex="6.30000019073486pt" style:font-style-complex="italic"/>
     </style:style>
-    <style:style style:name="T6" style:family="text">
+    <style:style style:name="T7" style:family="text">
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック" fo:font-size="5.5pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="5.5pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="ＭＳ Ｐゴシック" style:font-size-complex="3.09999990463257pt" style:font-style-complex="normal" style:font-weight-complex="normal" style:text-emphasize="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
     </style:style>
-    <style:style style:name="T7" style:family="text">
+    <style:style style:name="T8" style:family="text">
       <style:text-properties fo:font-size="12pt"/>
     </style:style>
-    <style:style style:name="T8" style:family="text">
+    <style:style style:name="T9" style:family="text">
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Arial Unicode MS1" fo:font-size="5.5pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="Arial Unicode MS1" style:font-size-asian="5.5pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Arial Unicode MS1" style:font-size-complex="3.09999990463257pt" style:font-style-complex="normal" style:font-weight-complex="normal" style:text-emphasize="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
     </style:style>
-    <style:style style:name="T9" style:family="text">
+    <style:style style:name="T10" style:family="text">
       <style:text-properties fo:color="#7f007f" style:font-name="Monaco" fo:font-size="11pt" style:text-underline-style="solid" style:text-underline-width="auto" style:text-underline-color="font-color" style:font-name-asian="Monaco" style:font-size-asian="11pt" style:font-name-complex="Monaco" style:font-size-complex="6.30000019073486pt"/>
     </style:style>
-    <style:style style:name="T10" style:family="text">
+    <style:style style:name="T11" style:family="text">
       <style:text-properties fo:color="#000000" style:font-name="Monaco" fo:font-size="11pt" style:text-underline-style="solid" style:text-underline-width="auto" style:text-underline-color="font-color" style:font-name-asian="Monaco" style:font-size-asian="11pt" style:font-name-complex="Monaco" style:font-size-complex="6.30000019073486pt"/>
     </style:style>
-    <style:style style:name="T11" style:family="text">
+    <style:style style:name="T12" style:family="text">
       <style:text-properties fo:color="#2a00ff" style:font-name="Monaco" fo:font-size="11pt" fo:font-style="italic" style:text-underline-style="solid" style:text-underline-width="auto" style:text-underline-color="font-color" style:font-name-asian="Monaco" style:font-size-asian="11pt" style:font-style-asian="italic" style:font-name-complex="Monaco" style:font-size-complex="6.30000019073486pt" style:font-style-complex="italic"/>
     </style:style>
-    <style:style style:name="T12" style:family="text">
+    <style:style style:name="T13" style:family="text">
       <style:text-properties fo:color="#0000ff"/>
     </style:style>
-    <style:style style:name="T13" style:family="text">
+    <style:style style:name="T14" style:family="text">
       <style:text-properties fo:color="#47b8b8"/>
     </style:style>
-    <style:style style:name="T14" style:family="text">
+    <style:style style:name="T15" style:family="text">
       <style:text-properties fo:color="#00cccc"/>
     </style:style>
-    <style:style style:name="T15" style:family="text">
+    <style:style style:name="T16" style:family="text">
       <style:text-properties fo:color="#ff0000"/>
     </style:style>
-    <style:style style:name="T16" style:family="text">
+    <style:style style:name="T17" style:family="text">
       <style:text-properties fo:color="#000000"/>
     </style:style>
-    <style:style style:name="T17" style:family="text">
+    <style:style style:name="T18" style:family="text">
       <style:text-properties fo:color="#7f0055" style:font-name="Monaco" fo:font-size="11pt" fo:font-weight="bold" style:font-name-asian="Monaco" style:font-size-asian="11pt" style:font-weight-asian="bold" style:font-name-complex="Monaco" style:font-size-complex="6.30000019073486pt" style:font-weight-complex="bold"/>
     </style:style>
-    <style:style style:name="T18" style:family="text">
+    <style:style style:name="T19" style:family="text">
       <style:text-properties fo:color="#0000ff" style:font-name="Monaco" fo:font-size="11pt" style:font-name-asian="Monaco" style:font-size-asian="11pt" style:font-name-complex="Monaco" style:font-size-complex="6.30000019073486pt"/>
     </style:style>
-    <style:style style:name="T19" style:family="text">
+    <style:style style:name="T20" style:family="text">
       <style:text-properties fo:color="#0000c0" style:font-name="Monaco" fo:font-size="11pt" fo:font-style="italic" style:font-name-asian="Monaco" style:font-size-asian="11pt" style:font-style-asian="italic" style:font-name-complex="Monaco" style:font-size-complex="6.30000019073486pt" style:font-style-complex="italic"/>
     </style:style>
-    <style:style style:name="T20" style:family="text">
+    <style:style style:name="T21" style:family="text">
       <style:text-properties fo:color="#808019"/>
     </style:style>
-    <style:style style:name="T21" style:family="text">
+    <style:style style:name="T22" style:family="text">
       <style:text-properties fo:color="#b3b300"/>
     </style:style>
-    <style:style style:name="T22" style:family="text">
+    <style:style style:name="T23" style:family="text">
       <style:text-properties fo:color="#94bd5e"/>
     </style:style>
-    <style:style style:name="T23" style:family="text">
+    <style:style style:name="T24" style:family="text">
       <style:text-properties fo:color="#ff3366"/>
     </style:style>
-    <style:style style:name="T24" style:family="text">
+    <style:style style:name="T25" style:family="text">
       <style:text-properties fo:color="#cccc00"/>
     </style:style>
-    <style:style style:name="T25" style:family="text">
+    <style:style style:name="T26" style:family="text">
       <style:text-properties fo:color="#7da647"/>
     </style:style>
-    <style:style style:name="T26" style:family="text">
+    <style:style style:name="T27" style:family="text">
       <style:text-properties fo:color="#0000ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="ＭＳ Ｐゴシック" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal" style:text-emphasize="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
     </style:style>
-    <style:style style:name="T27" style:family="text">
+    <style:style style:name="T28" style:family="text">
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="ＭＳ Ｐゴシック" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="ＭＳ Ｐゴシック" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal" style:text-emphasize="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
     </style:style>
-    <style:style style:name="T28" style:family="text">
+    <style:style style:name="T29" style:family="text">
       <style:text-properties fo:color="#0070c0" style:text-outline="false" style:text-line-through-style="none" style:text-position="0% 100%" style:font-name="ＭＳ Ｐゴシック1" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-name-asian="ＭＳ Ｐゴシック1" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
     </style:style>
-    <style:style style:name="T29" style:family="text">
+    <style:style style:name="T30" style:family="text">
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-position="0% 100%" style:font-name="ＭＳ Ｐゴシック" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-name-asian="ＭＳ Ｐゴシック" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
   </office:automatic-styles>
@@ -1400,6 +1422,7 @@
         </table:table-row>
       </table:table>
       <table:table table:name="３章" table:style-name="ta1" table:print="false">
+        <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
         <table:table-column table:style-name="co1" table:number-columns-repeated="6" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-column table:style-name="co2" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-column table:style-name="co1" table:number-columns-repeated="1017" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
@@ -1471,15 +1494,15 @@
           <table:table-cell table:number-columns-repeated="3"/>
           <table:table-cell table:style-name="ce5" office:value-type="string">
             <text:p>
-              <text:span text:style-name="T1">&lt;?</text:span>
-              <text:span text:style-name="T2">xml</text:span>
-              <text:span text:style-name="T3">version</text:span>
-              <text:span text:style-name="T4">=</text:span>
-              <text:span text:style-name="T5">"1.0"</text:span>
-              <text:span text:style-name="T3">encoding</text:span>
-              <text:span text:style-name="T4">=</text:span>
-              <text:span text:style-name="T5">"utf-8"</text:span>
-              <text:span text:style-name="T1">?&gt;</text:span>
+              <text:span text:style-name="T2">&lt;?</text:span>
+              <text:span text:style-name="T3">xml</text:span>
+              <text:span text:style-name="T4">version</text:span>
+              <text:span text:style-name="T5">=</text:span>
+              <text:span text:style-name="T6">"1.0"</text:span>
+              <text:span text:style-name="T4">encoding</text:span>
+              <text:span text:style-name="T5">=</text:span>
+              <text:span text:style-name="T6">"utf-8"</text:span>
+              <text:span text:style-name="T2">?&gt;</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce10" table:number-columns-repeated="19"/>
@@ -1490,11 +1513,11 @@
           <table:table-cell table:number-columns-repeated="3"/>
           <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
-              <text:span text:style-name="T1">&lt;</text:span>
-              <text:span text:style-name="T2">manifest</text:span>
-              <text:span text:style-name="T3">xmlns:android</text:span>
-              <text:span text:style-name="T4">=</text:span>
-              <text:span text:style-name="T5">"http://schemas.android.com/apk/res/android"</text:span>
+              <text:span text:style-name="T2">&lt;</text:span>
+              <text:span text:style-name="T3">manifest</text:span>
+              <text:span text:style-name="T4">xmlns:android</text:span>
+              <text:span text:style-name="T5">=</text:span>
+              <text:span text:style-name="T6">"http://schemas.android.com/apk/res/android"</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
@@ -1513,9 +1536,9 @@
           <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:s text:c="6"/>
-              <text:span text:style-name="T3">package</text:span>
-              <text:span text:style-name="T4">=</text:span>
-              <text:span text:style-name="T5">"com.android.TTW"</text:span>
+              <text:span text:style-name="T4">package</text:span>
+              <text:span text:style-name="T5">=</text:span>
+              <text:span text:style-name="T6">"com.android.TTW"</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
@@ -1531,9 +1554,9 @@
           <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:s text:c="6"/>
-              <text:span text:style-name="T3">android:versionCode</text:span>
-              <text:span text:style-name="T4">=</text:span>
-              <text:span text:style-name="T5">"1"</text:span>
+              <text:span text:style-name="T4">android:versionCode</text:span>
+              <text:span text:style-name="T5">=</text:span>
+              <text:span text:style-name="T6">"1"</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
@@ -1549,9 +1572,9 @@
           <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:s text:c="6"/>
-              <text:span text:style-name="T3">android:installLocation</text:span>
-              <text:span text:style-name="T4">=</text:span>
-              <text:span text:style-name="T5">"preferExternal"</text:span>
+              <text:span text:style-name="T4">android:installLocation</text:span>
+              <text:span text:style-name="T5">=</text:span>
+              <text:span text:style-name="T6">"preferExternal"</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
@@ -1563,10 +1586,10 @@
           <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:s text:c="6"/>
-              <text:span text:style-name="T3">android:versionName</text:span>
-              <text:span text:style-name="T4">=</text:span>
-              <text:span text:style-name="T5">"1.0"</text:span>
-              <text:span text:style-name="T1">&gt;</text:span>
+              <text:span text:style-name="T4">android:versionName</text:span>
+              <text:span text:style-name="T5">=</text:span>
+              <text:span text:style-name="T6">"1.0"</text:span>
+              <text:span text:style-name="T2">&gt;</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
@@ -1584,14 +1607,14 @@
           <table:table-cell table:number-columns-repeated="3"/>
           <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
-              <text:span text:style-name="T4">
+              <text:span text:style-name="T5">
                 <text:s text:c="4"/>
               </text:span>
-              <text:span text:style-name="T1">&lt;</text:span>
-              <text:span text:style-name="T2">application</text:span>
-              <text:span text:style-name="T3">android:icon</text:span>
-              <text:span text:style-name="T4">=</text:span>
-              <text:span text:style-name="T5">"@drawable/icon"</text:span>
+              <text:span text:style-name="T2">&lt;</text:span>
+              <text:span text:style-name="T3">application</text:span>
+              <text:span text:style-name="T4">android:icon</text:span>
+              <text:span text:style-name="T5">=</text:span>
+              <text:span text:style-name="T6">"@drawable/icon"</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
@@ -1617,9 +1640,9 @@
               <text:tab/>
               <text:tab/>
               <text:tab/>
-              <text:span text:style-name="T3">android:label</text:span>
-              <text:span text:style-name="T4">=</text:span>
-              <text:span text:style-name="T5">"@string/app_name"</text:span>
+              <text:span text:style-name="T4">android:label</text:span>
+              <text:span text:style-name="T5">=</text:span>
+              <text:span text:style-name="T6">"@string/app_name"</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
@@ -1645,9 +1668,9 @@
               <text:tab/>
               <text:tab/>
               <text:tab/>
-              <text:span text:style-name="T3">android:debuggable</text:span>
-              <text:span text:style-name="T4">=</text:span>
-              <text:span text:style-name="T5">"true"</text:span>
+              <text:span text:style-name="T4">android:debuggable</text:span>
+              <text:span text:style-name="T5">=</text:span>
+              <text:span text:style-name="T6">"true"</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
@@ -1676,10 +1699,10 @@
               <text:tab/>
               <text:tab/>
               <text:tab/>
-              <text:span text:style-name="T3">android:theme</text:span>
-              <text:span text:style-name="T4">=</text:span>
-              <text:span text:style-name="T5">"@style/Theme.MyLight"</text:span>
-              <text:span text:style-name="T1">&gt;</text:span>
+              <text:span text:style-name="T4">android:theme</text:span>
+              <text:span text:style-name="T5">=</text:span>
+              <text:span text:style-name="T6">"@style/Theme.MyLight"</text:span>
+              <text:span text:style-name="T2">&gt;</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
@@ -1715,17 +1738,17 @@
           <table:table-cell table:number-columns-repeated="3"/>
           <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
-              <text:span text:style-name="T4">
+              <text:span text:style-name="T5">
                 <text:tab/>
               </text:span>
-              <text:span text:style-name="T4">
+              <text:span text:style-name="T5">
                 <text:tab/>
               </text:span>
-              <text:span text:style-name="T1">&lt;</text:span>
-              <text:span text:style-name="T2">activity</text:span>
-              <text:span text:style-name="T3">android:name</text:span>
-              <text:span text:style-name="T4">=</text:span>
-              <text:span text:style-name="T5">"TaskTimeWatcheMain"</text:span>
+              <text:span text:style-name="T2">&lt;</text:span>
+              <text:span text:style-name="T3">activity</text:span>
+              <text:span text:style-name="T4">android:name</text:span>
+              <text:span text:style-name="T5">=</text:span>
+              <text:span text:style-name="T6">"TaskTimeWatcheMain"</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
@@ -1744,10 +1767,10 @@
           <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:s text:c="18"/>
-              <text:span text:style-name="T3">android:label</text:span>
-              <text:span text:style-name="T4">=</text:span>
-              <text:span text:style-name="T5">"@string/app_name"</text:span>
-              <text:span text:style-name="T1">&gt;</text:span>
+              <text:span text:style-name="T4">android:label</text:span>
+              <text:span text:style-name="T5">=</text:span>
+              <text:span text:style-name="T6">"@string/app_name"</text:span>
+              <text:span text:style-name="T2">&gt;</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
@@ -1765,12 +1788,12 @@
           <table:table-cell table:number-columns-repeated="3"/>
           <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
-              <text:span text:style-name="T4">
+              <text:span text:style-name="T5">
                 <text:s text:c="12"/>
               </text:span>
-              <text:span text:style-name="T1">&lt;</text:span>
-              <text:span text:style-name="T2">intent-filter</text:span>
-              <text:span text:style-name="T1">&gt;</text:span>
+              <text:span text:style-name="T2">&lt;</text:span>
+              <text:span text:style-name="T3">intent-filter</text:span>
+              <text:span text:style-name="T2">&gt;</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
@@ -1792,15 +1815,15 @@
           <table:table-cell table:number-columns-repeated="3"/>
           <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
-              <text:span text:style-name="T4">
+              <text:span text:style-name="T5">
                 <text:s text:c="16"/>
               </text:span>
-              <text:span text:style-name="T1">&lt;</text:span>
-              <text:span text:style-name="T2">action</text:span>
-              <text:span text:style-name="T3">android:name</text:span>
-              <text:span text:style-name="T4">=</text:span>
-              <text:span text:style-name="T5">"android.intent.action.MAIN"</text:span>
-              <text:span text:style-name="T1">/&gt;</text:span>
+              <text:span text:style-name="T2">&lt;</text:span>
+              <text:span text:style-name="T3">action</text:span>
+              <text:span text:style-name="T4">android:name</text:span>
+              <text:span text:style-name="T5">=</text:span>
+              <text:span text:style-name="T6">"android.intent.action.MAIN"</text:span>
+              <text:span text:style-name="T2">/&gt;</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
@@ -1822,15 +1845,15 @@
           <table:table-cell table:number-columns-repeated="3"/>
           <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
-              <text:span text:style-name="T4">
+              <text:span text:style-name="T5">
                 <text:s text:c="16"/>
               </text:span>
-              <text:span text:style-name="T1">&lt;</text:span>
-              <text:span text:style-name="T2">category</text:span>
-              <text:span text:style-name="T3">android:name</text:span>
-              <text:span text:style-name="T4">=</text:span>
-              <text:span text:style-name="T5">"android.intent.category.LAUNCHER"</text:span>
-              <text:span text:style-name="T1">/&gt;</text:span>
+              <text:span text:style-name="T2">&lt;</text:span>
+              <text:span text:style-name="T3">category</text:span>
+              <text:span text:style-name="T4">android:name</text:span>
+              <text:span text:style-name="T5">=</text:span>
+              <text:span text:style-name="T6">"android.intent.category.LAUNCHER"</text:span>
+              <text:span text:style-name="T2">/&gt;</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
@@ -1841,12 +1864,12 @@
           <table:table-cell table:number-columns-repeated="3"/>
           <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
-              <text:span text:style-name="T4">
+              <text:span text:style-name="T5">
                 <text:s text:c="12"/>
               </text:span>
-              <text:span text:style-name="T1">&lt;/</text:span>
-              <text:span text:style-name="T2">intent-filter</text:span>
-              <text:span text:style-name="T1">&gt;</text:span>
+              <text:span text:style-name="T2">&lt;/</text:span>
+              <text:span text:style-name="T3">intent-filter</text:span>
+              <text:span text:style-name="T2">&gt;</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
@@ -1868,15 +1891,15 @@
           <table:table-cell table:number-columns-repeated="3"/>
           <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
-              <text:span text:style-name="T4">
+              <text:span text:style-name="T5">
                 <text:tab/>
               </text:span>
-              <text:span text:style-name="T4">
+              <text:span text:style-name="T5">
                 <text:tab/>
               </text:span>
-              <text:span text:style-name="T1">&lt;/</text:span>
-              <text:span text:style-name="T2">activity</text:span>
-              <text:span text:style-name="T1">&gt;</text:span>
+              <text:span text:style-name="T2">&lt;/</text:span>
+              <text:span text:style-name="T3">activity</text:span>
+              <text:span text:style-name="T2">&gt;</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
@@ -1894,17 +1917,17 @@
           <table:table-cell table:number-columns-repeated="3"/>
           <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
-              <text:span text:style-name="T4">
+              <text:span text:style-name="T5">
                 <text:tab/>
               </text:span>
-              <text:span text:style-name="T4">
+              <text:span text:style-name="T5">
                 <text:tab/>
               </text:span>
-              <text:span text:style-name="T1">&lt;</text:span>
-              <text:span text:style-name="T2">activity</text:span>
-              <text:span text:style-name="T3">android:name</text:span>
-              <text:span text:style-name="T4">=</text:span>
-              <text:span text:style-name="T5">"TaskTimeWatcheEditor"</text:span>
+              <text:span text:style-name="T2">&lt;</text:span>
+              <text:span text:style-name="T3">activity</text:span>
+              <text:span text:style-name="T4">android:name</text:span>
+              <text:span text:style-name="T5">=</text:span>
+              <text:span text:style-name="T6">"TaskTimeWatcheEditor"</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
@@ -1923,11 +1946,11 @@
           <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:s text:c="17"/>
-              <text:span text:style-name="T3">android:windowSoftInputMode</text:span>
-              <text:span text:style-name="T4">=</text:span>
-              <text:span text:style-name="T5">"adjustPan"</text:span>
+              <text:span text:style-name="T4">android:windowSoftInputMode</text:span>
+              <text:span text:style-name="T5">=</text:span>
+              <text:span text:style-name="T6">"adjustPan"</text:span>
               <text:s/>
-              <text:span text:style-name="T1">&gt;</text:span>
+              <text:span text:style-name="T2">&gt;</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
@@ -1945,15 +1968,15 @@
           <table:table-cell table:number-columns-repeated="3"/>
           <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
-              <text:span text:style-name="T4">
+              <text:span text:style-name="T5">
                 <text:tab/>
               </text:span>
-              <text:span text:style-name="T4">
+              <text:span text:style-name="T5">
                 <text:tab/>
               </text:span>
-              <text:span text:style-name="T1">&lt;/</text:span>
-              <text:span text:style-name="T2">activity</text:span>
-              <text:span text:style-name="T1">&gt;</text:span>
+              <text:span text:style-name="T2">&lt;/</text:span>
+              <text:span text:style-name="T3">activity</text:span>
+              <text:span text:style-name="T2">&gt;</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
@@ -1995,12 +2018,12 @@
           <table:table-cell table:number-columns-repeated="3"/>
           <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
-              <text:span text:style-name="T4">
+              <text:span text:style-name="T5">
                 <text:s text:c="4"/>
               </text:span>
-              <text:span text:style-name="T1">&lt;/</text:span>
-              <text:span text:style-name="T2">application</text:span>
-              <text:span text:style-name="T1">&gt;</text:span>
+              <text:span text:style-name="T2">&lt;/</text:span>
+              <text:span text:style-name="T3">application</text:span>
+              <text:span text:style-name="T2">&gt;</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default" table:number-columns-repeated="14"/>
@@ -2023,14 +2046,14 @@
           <table:table-cell table:number-columns-repeated="3"/>
           <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
-              <text:span text:style-name="T4">
+              <text:span text:style-name="T5">
                 <text:s text:c="4"/>
               </text:span>
-              <text:span text:style-name="T1">&lt;</text:span>
-              <text:span text:style-name="T2">uses-sdk</text:span>
-              <text:span text:style-name="T3">android:minSdkVersion</text:span>
-              <text:span text:style-name="T4">=</text:span>
-              <text:span text:style-name="T5">"8"</text:span>
+              <text:span text:style-name="T2">&lt;</text:span>
+              <text:span text:style-name="T3">uses-sdk</text:span>
+              <text:span text:style-name="T4">android:minSdkVersion</text:span>
+              <text:span text:style-name="T5">=</text:span>
+              <text:span text:style-name="T6">"8"</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default" table:number-columns-repeated="14"/>
@@ -2054,13 +2077,13 @@
           <table:table-cell table:number-columns-repeated="3"/>
           <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
-              <text:span text:style-name="T6">
+              <text:span text:style-name="T7">
                 <text:s text:c="55"/>
               </text:span>
-              <text:span text:style-name="T7">
+              <text:span text:style-name="T8">
                 <text:s/>
               </text:span>
-              <text:span text:style-name="T7">android:maxSdkVersion="8" </text:span>
+              <text:span text:style-name="T8">android:maxSdkVersion="8" </text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default" table:number-columns-repeated="14"/>
@@ -2074,105 +2097,105 @@
           <table:table-cell table:number-columns-repeated="3"/>
           <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
-              <text:span text:style-name="T7">
+              <text:span text:style-name="T8">
                 <text:s text:c="4"/>
               </text:span>
-              <text:span text:style-name="T8">
+              <text:span text:style-name="T9">
+                <text:tab/>
+              </text:span>
+              <text:span text:style-name="T9">
+                <text:tab/>
+              </text:span>
+              <text:span text:style-name="T9">
+                <text:tab/>
+              </text:span>
+              <text:span text:style-name="T9">
                 <text:tab/>
               </text:span>
               <text:span text:style-name="T8">
                 <text:tab/>
               </text:span>
-              <text:span text:style-name="T8">
+              <text:span text:style-name="T4">android:targetSdkVersion</text:span>
+              <text:span text:style-name="T5">=</text:span>
+              <text:span text:style-name="T6">"8"</text:span>
+              <text:span text:style-name="T8"> </text:span>
+              <text:span text:style-name="T2">/&gt;</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="14"/>
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>uses-sdk</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="996"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce6"/>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>minSdkVersion</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="995"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce6"/>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>maxSdkVersion</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="995"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce6"/>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>targetSdkVersion</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="995"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce6"/>
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1000"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:span text:style-name="T5">
                 <text:tab/>
               </text:span>
-              <text:span text:style-name="T8">
-                <text:tab/>
-              </text:span>
-              <text:span text:style-name="T7">
-                <text:tab/>
-              </text:span>
-              <text:span text:style-name="T3">android:targetSdkVersion</text:span>
-              <text:span text:style-name="T4">=</text:span>
-              <text:span text:style-name="T5">"8"</text:span>
-              <text:span text:style-name="T7"> </text:span>
-              <text:span text:style-name="T1">/&gt;</text:span>
-            </text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="Default" table:number-columns-repeated="14"/>
-          <table:table-cell table:number-columns-repeated="5"/>
-          <table:table-cell table:style-name="ce19"/>
-          <table:table-cell table:number-columns-repeated="2"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>uses-sdk</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="996"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce6"/>
-          <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce19"/>
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>minSdkVersion</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="995"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce6"/>
-          <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce19"/>
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>maxSdkVersion</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="995"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce6"/>
-          <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce19"/>
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell office:value-type="string">
-            <text:p>・</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string">
-            <text:p>targetSdkVersion</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="995"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce6"/>
-          <table:table-cell table:number-columns-repeated="19"/>
-          <table:table-cell table:style-name="ce19"/>
-          <table:table-cell table:number-columns-repeated="1000"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce6" office:value-type="string">
-            <text:p>
-              <text:span text:style-name="T4">
-                <text:tab/>
-              </text:span>
-              <text:span text:style-name="T1">&lt;</text:span>
-              <text:span text:style-name="T2">uses-permission</text:span>
-              <text:span text:style-name="T3">android:name</text:span>
-              <text:span text:style-name="T4">=</text:span>
-              <text:span text:style-name="T5">"android.permission.WRITE_EXTERNAL_STORAGE"</text:span>
-              <text:span text:style-name="T1">/&gt;</text:span>
+              <text:span text:style-name="T2">&lt;</text:span>
+              <text:span text:style-name="T3">uses-permission</text:span>
+              <text:span text:style-name="T4">android:name</text:span>
+              <text:span text:style-name="T5">=</text:span>
+              <text:span text:style-name="T6">"android.permission.WRITE_EXTERNAL_STORAGE"</text:span>
+              <text:span text:style-name="T2">/&gt;</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
@@ -2192,15 +2215,15 @@
           <table:table-cell/>
           <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
-              <text:span text:style-name="T4">
+              <text:span text:style-name="T5">
                 <text:tab/>
               </text:span>
-              <text:span text:style-name="T1">&lt;</text:span>
-              <text:span text:style-name="T2">uses-permission</text:span>
-              <text:span text:style-name="T3">android:name</text:span>
-              <text:span text:style-name="T4">=</text:span>
-              <text:span text:style-name="T5">"android.permission.INTERNET"</text:span>
-              <text:span text:style-name="T1">/&gt;</text:span>
+              <text:span text:style-name="T2">&lt;</text:span>
+              <text:span text:style-name="T3">uses-permission</text:span>
+              <text:span text:style-name="T4">android:name</text:span>
+              <text:span text:style-name="T5">=</text:span>
+              <text:span text:style-name="T6">"android.permission.INTERNET"</text:span>
+              <text:span text:style-name="T2">/&gt;</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
@@ -2294,10 +2317,10 @@
           <table:table-cell table:number-columns-repeated="3"/>
           <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
-              <text:span text:style-name="T1">&lt;/</text:span>
-              <text:span text:style-name="T2">manifest</text:span>
-              <text:span text:style-name="T1">&gt;</text:span>
-              <text:span text:style-name="T4"> </text:span>
+              <text:span text:style-name="T2">&lt;/</text:span>
+              <text:span text:style-name="T3">manifest</text:span>
+              <text:span text:style-name="T2">&gt;</text:span>
+              <text:span text:style-name="T5"> </text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
@@ -2332,9 +2355,9 @@
           <table:table-cell table:style-name="ce12" office:value-type="string">
             <text:p>
               <text:s text:c="6"/>
-              <text:span text:style-name="T3">package</text:span>
-              <text:span text:style-name="T4">=</text:span>
-              <text:span text:style-name="T5">"com.android.TTW"</text:span>
+              <text:span text:style-name="T4">package</text:span>
+              <text:span text:style-name="T5">=</text:span>
+              <text:span text:style-name="T6">"com.android.TTW"</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
@@ -2411,15 +2434,15 @@
           <table:table-cell table:number-columns-repeated="3"/>
           <table:table-cell table:style-name="ce5" office:value-type="string">
             <text:p>
-              <text:span text:style-name="T1">&lt;?</text:span>
-              <text:span text:style-name="T2">xml</text:span>
-              <text:span text:style-name="T3">version</text:span>
-              <text:span text:style-name="T4">=</text:span>
-              <text:span text:style-name="T5">"1.0"</text:span>
-              <text:span text:style-name="T3">encoding</text:span>
-              <text:span text:style-name="T4">=</text:span>
-              <text:span text:style-name="T5">"utf-8"</text:span>
-              <text:span text:style-name="T1">?&gt;</text:span>
+              <text:span text:style-name="T2">&lt;?</text:span>
+              <text:span text:style-name="T3">xml</text:span>
+              <text:span text:style-name="T4">version</text:span>
+              <text:span text:style-name="T5">=</text:span>
+              <text:span text:style-name="T6">"1.0"</text:span>
+              <text:span text:style-name="T4">encoding</text:span>
+              <text:span text:style-name="T5">=</text:span>
+              <text:span text:style-name="T6">"utf-8"</text:span>
+              <text:span text:style-name="T2">?&gt;</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce10" table:number-columns-repeated="19"/>
@@ -2430,11 +2453,11 @@
           <table:table-cell table:number-columns-repeated="3"/>
           <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
-              <text:span text:style-name="T1">&lt;</text:span>
-              <text:span text:style-name="T2">LinearLayout</text:span>
-              <text:span text:style-name="T3">xmlns:android</text:span>
-              <text:span text:style-name="T4">=</text:span>
-              <text:span text:style-name="T5">"http://schemas.android.com/apk/res/android"</text:span>
+              <text:span text:style-name="T2">&lt;</text:span>
+              <text:span text:style-name="T3">LinearLayout</text:span>
+              <text:span text:style-name="T4">xmlns:android</text:span>
+              <text:span text:style-name="T5">=</text:span>
+              <text:span text:style-name="T6">"http://schemas.android.com/apk/res/android"</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
@@ -2446,9 +2469,9 @@
           <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:s text:c="4"/>
-              <text:span text:style-name="T3">android:orientation</text:span>
-              <text:span text:style-name="T4">=</text:span>
-              <text:span text:style-name="T5">"vertical"</text:span>
+              <text:span text:style-name="T4">android:orientation</text:span>
+              <text:span text:style-name="T5">=</text:span>
+              <text:span text:style-name="T6">"vertical"</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
@@ -2465,9 +2488,9 @@
           <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:s text:c="4"/>
-              <text:span text:style-name="T3">android:layout_width</text:span>
-              <text:span text:style-name="T4">=</text:span>
-              <text:span text:style-name="T5">"fill_parent"</text:span>
+              <text:span text:style-name="T4">android:layout_width</text:span>
+              <text:span text:style-name="T5">=</text:span>
+              <text:span text:style-name="T6">"fill_parent"</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
@@ -2485,9 +2508,9 @@
           <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:s text:c="4"/>
-              <text:span text:style-name="T3">android:layout_height</text:span>
-              <text:span text:style-name="T4">=</text:span>
-              <text:span text:style-name="T5">"fill_parent"</text:span>
+              <text:span text:style-name="T4">android:layout_height</text:span>
+              <text:span text:style-name="T5">=</text:span>
+              <text:span text:style-name="T6">"fill_parent"</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
@@ -2505,9 +2528,9 @@
           <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:s text:c="4"/>
-              <text:span text:style-name="T3">android:background</text:span>
-              <text:span text:style-name="T4">=</text:span>
-              <text:span text:style-name="T5">"@color/secondary"</text:span>
+              <text:span text:style-name="T4">android:background</text:span>
+              <text:span text:style-name="T5">=</text:span>
+              <text:span text:style-name="T6">"@color/secondary"</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
@@ -2519,7 +2542,7 @@
           <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:s text:c="4"/>
-              <text:span text:style-name="T1">&gt;</text:span>
+              <text:span text:style-name="T2">&gt;</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
@@ -2549,11 +2572,11 @@
           <table:table-cell table:number-columns-repeated="3"/>
           <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
-              <text:span text:style-name="T4">
+              <text:span text:style-name="T5">
                 <text:tab/>
               </text:span>
-              <text:span text:style-name="T1">&lt;</text:span>
-              <text:span text:style-name="T2">TextView</text:span>
+              <text:span text:style-name="T2">&lt;</text:span>
+              <text:span text:style-name="T3">TextView</text:span>
               <text:s/>
             </text:p>
           </table:table-cell>
@@ -2571,9 +2594,9 @@
             <text:p>
               <text:tab/>
               <text:s text:c="3"/>
-              <text:span text:style-name="T3">android:layout_width</text:span>
-              <text:span text:style-name="T4">=</text:span>
-              <text:span text:style-name="T5">"fill_parent"</text:span>
+              <text:span text:style-name="T4">android:layout_width</text:span>
+              <text:span text:style-name="T5">=</text:span>
+              <text:span text:style-name="T6">"fill_parent"</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
@@ -2590,9 +2613,9 @@
             <text:p>
               <text:tab/>
               <text:s text:c="3"/>
-              <text:span text:style-name="T3">android:layout_height</text:span>
-              <text:span text:style-name="T4">=</text:span>
-              <text:span text:style-name="T5">"wrap_content"</text:span>
+              <text:span text:style-name="T4">android:layout_height</text:span>
+              <text:span text:style-name="T5">=</text:span>
+              <text:span text:style-name="T6">"wrap_content"</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
@@ -2605,11 +2628,11 @@
             <text:p>
               <text:tab/>
               <text:s text:c="3"/>
-              <text:span text:style-name="T9">android:text</text:span>
-              <text:span text:style-name="T10">=</text:span>
-              <text:span text:style-name="T11">"</text:span>
-              <text:span text:style-name="T11">メインメニュー</text:span>
-              <text:span text:style-name="T11">"</text:span>
+              <text:span text:style-name="T10">android:text</text:span>
+              <text:span text:style-name="T11">=</text:span>
+              <text:span text:style-name="T12">"</text:span>
+              <text:span text:style-name="T12">メインメニュー</text:span>
+              <text:span text:style-name="T12">"</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
@@ -2626,9 +2649,9 @@
             <text:p>
               <text:tab/>
               <text:s text:c="3"/>
-              <text:span text:style-name="T3">android:background</text:span>
-              <text:span text:style-name="T4">=</text:span>
-              <text:span text:style-name="T5">"@color/primary"</text:span>
+              <text:span text:style-name="T4">android:background</text:span>
+              <text:span text:style-name="T5">=</text:span>
+              <text:span text:style-name="T6">"@color/primary"</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
@@ -2645,7 +2668,7 @@
             <text:p>
               <text:tab/>
               <text:s text:c="3"/>
-              <text:span text:style-name="T1">/&gt;</text:span>
+              <text:span text:style-name="T2">/&gt;</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
@@ -2667,11 +2690,11 @@
           <table:table-cell table:number-columns-repeated="3"/>
           <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
-              <text:span text:style-name="T4">
+              <text:span text:style-name="T5">
                 <text:s text:c="4"/>
               </text:span>
-              <text:span text:style-name="T1">&lt;</text:span>
-              <text:span text:style-name="T2">ListView</text:span>
+              <text:span text:style-name="T2">&lt;</text:span>
+              <text:span text:style-name="T3">ListView</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
@@ -2684,9 +2707,9 @@
             <text:p>
               <text:tab/>
               <text:s text:c="3"/>
-              <text:span text:style-name="T3">android:id</text:span>
-              <text:span text:style-name="T4">=</text:span>
-              <text:span text:style-name="T5">"@+id/list_category"</text:span>
+              <text:span text:style-name="T4">android:id</text:span>
+              <text:span text:style-name="T5">=</text:span>
+              <text:span text:style-name="T6">"@+id/list_category"</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
@@ -2699,9 +2722,9 @@
             <text:p>
               <text:tab/>
               <text:s text:c="3"/>
-              <text:span text:style-name="T3">android:layout_width</text:span>
-              <text:span text:style-name="T4">=</text:span>
-              <text:span text:style-name="T5">"fill_parent"</text:span>
+              <text:span text:style-name="T4">android:layout_width</text:span>
+              <text:span text:style-name="T5">=</text:span>
+              <text:span text:style-name="T6">"fill_parent"</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
@@ -2718,9 +2741,9 @@
             <text:p>
               <text:tab/>
               <text:s text:c="3"/>
-              <text:span text:style-name="T3">android:layout_weight</text:span>
-              <text:span text:style-name="T4">=</text:span>
-              <text:span text:style-name="T5">"7"</text:span>
+              <text:span text:style-name="T4">android:layout_weight</text:span>
+              <text:span text:style-name="T5">=</text:span>
+              <text:span text:style-name="T6">"7"</text:span>
               <text:tab/>
             </text:p>
           </table:table-cell>
@@ -2742,9 +2765,9 @@
             <text:p>
               <text:tab/>
               <text:s text:c="3"/>
-              <text:span text:style-name="T3">android:layout_height</text:span>
-              <text:span text:style-name="T4">=</text:span>
-              <text:span text:style-name="T5">"0dip"</text:span>
+              <text:span text:style-name="T4">android:layout_height</text:span>
+              <text:span text:style-name="T5">=</text:span>
+              <text:span text:style-name="T6">"0dip"</text:span>
               <text:s/>
             </text:p>
           </table:table-cell>
@@ -2762,9 +2785,9 @@
             <text:p>
               <text:tab/>
               <text:s text:c="3"/>
-              <text:span text:style-name="T3">android:clickable</text:span>
-              <text:span text:style-name="T4">=</text:span>
-              <text:span text:style-name="T5">"true"</text:span>
+              <text:span text:style-name="T4">android:clickable</text:span>
+              <text:span text:style-name="T5">=</text:span>
+              <text:span text:style-name="T6">"true"</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
@@ -2776,7 +2799,7 @@
           <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:s text:c="4"/>
-              <text:span text:style-name="T1">/&gt;</text:span>
+              <text:span text:style-name="T2">/&gt;</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="19"/>
@@ -2936,15 +2959,15 @@
           <table:table-cell table:style-name="ce10"/>
           <table:table-cell table:style-name="ce13" office:value-type="string">
             <text:p>
-              <text:span text:style-name="T1">&lt;?</text:span>
-              <text:span text:style-name="T2">xml</text:span>
-              <text:span text:style-name="T3">version</text:span>
-              <text:span text:style-name="T4">=</text:span>
-              <text:span text:style-name="T5">"1.0"</text:span>
-              <text:span text:style-name="T3">encoding</text:span>
-              <text:span text:style-name="T4">=</text:span>
-              <text:span text:style-name="T5">"utf-8"</text:span>
-              <text:span text:style-name="T1">?&gt;</text:span>
+              <text:span text:style-name="T2">&lt;?</text:span>
+              <text:span text:style-name="T3">xml</text:span>
+              <text:span text:style-name="T4">version</text:span>
+              <text:span text:style-name="T5">=</text:span>
+              <text:span text:style-name="T6">"1.0"</text:span>
+              <text:span text:style-name="T4">encoding</text:span>
+              <text:span text:style-name="T5">=</text:span>
+              <text:span text:style-name="T6">"utf-8"</text:span>
+              <text:span text:style-name="T2">?&gt;</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce10" table:number-columns-repeated="17"/>
@@ -2957,9 +2980,9 @@
           <table:table-cell/>
           <table:table-cell table:style-name="ce14" office:value-type="string">
             <text:p>
-              <text:span text:style-name="T1">&lt;</text:span>
-              <text:span text:style-name="T2">resources</text:span>
-              <text:span text:style-name="T1">&gt;</text:span>
+              <text:span text:style-name="T2">&lt;</text:span>
+              <text:span text:style-name="T3">resources</text:span>
+              <text:span text:style-name="T2">&gt;</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="17"/>
@@ -2977,19 +3000,19 @@
           <table:table-cell/>
           <table:table-cell table:style-name="ce14" office:value-type="string">
             <text:p>
-              <text:span text:style-name="T4">
+              <text:span text:style-name="T5">
                 <text:s text:c="4"/>
               </text:span>
-              <text:span text:style-name="T1">&lt;</text:span>
-              <text:span text:style-name="T2">string</text:span>
-              <text:span text:style-name="T3">name</text:span>
-              <text:span text:style-name="T4">=</text:span>
-              <text:span text:style-name="T5">"hello"</text:span>
-              <text:span text:style-name="T1">&gt;</text:span>
-              <text:span text:style-name="T4">Hello World, SchedulerEditor!</text:span>
-              <text:span text:style-name="T1">&lt;/</text:span>
-              <text:span text:style-name="T2">string</text:span>
-              <text:span text:style-name="T1">&gt;</text:span>
+              <text:span text:style-name="T2">&lt;</text:span>
+              <text:span text:style-name="T3">string</text:span>
+              <text:span text:style-name="T4">name</text:span>
+              <text:span text:style-name="T5">=</text:span>
+              <text:span text:style-name="T6">"hello"</text:span>
+              <text:span text:style-name="T2">&gt;</text:span>
+              <text:span text:style-name="T5">Hello World, SchedulerEditor!</text:span>
+              <text:span text:style-name="T2">&lt;/</text:span>
+              <text:span text:style-name="T3">string</text:span>
+              <text:span text:style-name="T2">&gt;</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="17"/>
@@ -3027,15 +3050,15 @@
           <table:table-cell/>
           <table:table-cell table:style-name="ce14" office:value-type="string">
             <text:p>
-              <text:span text:style-name="T4">
+              <text:span text:style-name="T5">
                 <text:tab/>
               </text:span>
-              <text:span text:style-name="T1">&lt;</text:span>
-              <text:span text:style-name="T2">string-array</text:span>
-              <text:span text:style-name="T3">name</text:span>
-              <text:span text:style-name="T4">=</text:span>
-              <text:span text:style-name="T5">"ctg_spn_list"</text:span>
-              <text:span text:style-name="T1">&gt;</text:span>
+              <text:span text:style-name="T2">&lt;</text:span>
+              <text:span text:style-name="T3">string-array</text:span>
+              <text:span text:style-name="T4">name</text:span>
+              <text:span text:style-name="T5">=</text:span>
+              <text:span text:style-name="T6">"ctg_spn_list"</text:span>
+              <text:span text:style-name="T2">&gt;</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="17"/>
@@ -3052,19 +3075,19 @@
           <table:table-cell/>
           <table:table-cell table:style-name="ce14" office:value-type="string">
             <text:p>
-              <text:span text:style-name="T4">
+              <text:span text:style-name="T5">
                 <text:tab/>
               </text:span>
-              <text:span text:style-name="T4">
+              <text:span text:style-name="T5">
                 <text:s text:c="3"/>
               </text:span>
-              <text:span text:style-name="T1">&lt;</text:span>
-              <text:span text:style-name="T2">item</text:span>
-              <text:span text:style-name="T1">&gt;</text:span>
-              <text:span text:style-name="T4">定常作業</text:span>
-              <text:span text:style-name="T1">&lt;/</text:span>
-              <text:span text:style-name="T2">item</text:span>
-              <text:span text:style-name="T1">&gt;</text:span>
+              <text:span text:style-name="T2">&lt;</text:span>
+              <text:span text:style-name="T3">item</text:span>
+              <text:span text:style-name="T2">&gt;</text:span>
+              <text:span text:style-name="T5">定常作業</text:span>
+              <text:span text:style-name="T2">&lt;/</text:span>
+              <text:span text:style-name="T3">item</text:span>
+              <text:span text:style-name="T2">&gt;</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="17"/>
@@ -3077,19 +3100,19 @@
           <table:table-cell/>
           <table:table-cell table:style-name="ce14" office:value-type="string">
             <text:p>
-              <text:span text:style-name="T4">
+              <text:span text:style-name="T5">
                 <text:tab/>
               </text:span>
-              <text:span text:style-name="T4">
+              <text:span text:style-name="T5">
                 <text:s text:c="3"/>
               </text:span>
-              <text:span text:style-name="T1">&lt;</text:span>
-              <text:span text:style-name="T2">item</text:span>
-              <text:span text:style-name="T1">&gt;</text:span>
-              <text:span text:style-name="T4">障害対応</text:span>
-              <text:span text:style-name="T1">&lt;/</text:span>
-              <text:span text:style-name="T2">item</text:span>
-              <text:span text:style-name="T1">&gt;</text:span>
+              <text:span text:style-name="T2">&lt;</text:span>
+              <text:span text:style-name="T3">item</text:span>
+              <text:span text:style-name="T2">&gt;</text:span>
+              <text:span text:style-name="T5">障害対応</text:span>
+              <text:span text:style-name="T2">&lt;/</text:span>
+              <text:span text:style-name="T3">item</text:span>
+              <text:span text:style-name="T2">&gt;</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="17"/>
@@ -3102,19 +3125,19 @@
           <table:table-cell/>
           <table:table-cell table:style-name="ce14" office:value-type="string">
             <text:p>
-              <text:span text:style-name="T4">
+              <text:span text:style-name="T5">
                 <text:tab/>
               </text:span>
-              <text:span text:style-name="T4">
+              <text:span text:style-name="T5">
                 <text:s text:c="3"/>
               </text:span>
-              <text:span text:style-name="T1">&lt;</text:span>
-              <text:span text:style-name="T2">item</text:span>
-              <text:span text:style-name="T1">&gt;</text:span>
-              <text:span text:style-name="T4">データリカバリ</text:span>
-              <text:span text:style-name="T1">&lt;/</text:span>
-              <text:span text:style-name="T2">item</text:span>
-              <text:span text:style-name="T1">&gt;</text:span>
+              <text:span text:style-name="T2">&lt;</text:span>
+              <text:span text:style-name="T3">item</text:span>
+              <text:span text:style-name="T2">&gt;</text:span>
+              <text:span text:style-name="T5">データリカバリ</text:span>
+              <text:span text:style-name="T2">&lt;/</text:span>
+              <text:span text:style-name="T3">item</text:span>
+              <text:span text:style-name="T2">&gt;</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="17"/>
@@ -3127,12 +3150,12 @@
           <table:table-cell/>
           <table:table-cell table:style-name="ce14" office:value-type="string">
             <text:p>
-              <text:span text:style-name="T4">
+              <text:span text:style-name="T5">
                 <text:tab/>
               </text:span>
-              <text:span text:style-name="T1">&lt;/</text:span>
-              <text:span text:style-name="T2">string-array</text:span>
-              <text:span text:style-name="T1">&gt;</text:span>
+              <text:span text:style-name="T2">&lt;/</text:span>
+              <text:span text:style-name="T3">string-array</text:span>
+              <text:span text:style-name="T2">&gt;</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="17"/>
@@ -3270,9 +3293,9 @@
           <table:table-cell/>
           <table:table-cell table:style-name="ce14" office:value-type="string">
             <text:p>
-              <text:span text:style-name="T1">&lt;/</text:span>
-              <text:span text:style-name="T2">resources</text:span>
-              <text:span text:style-name="T1">&gt;</text:span>
+              <text:span text:style-name="T2">&lt;/</text:span>
+              <text:span text:style-name="T3">resources</text:span>
+              <text:span text:style-name="T2">&gt;</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="17"/>
@@ -3658,7 +3681,7 @@
           <table:table-cell office:value-type="string">
             <text:p>
               セキュリティモデルは
-              <text:span text:style-name="T12">サンドボックス</text:span>
+              <text:span text:style-name="T13">サンドボックス</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1018"/>
@@ -4128,12 +4151,12 @@
           <table:table-cell table:number-columns-repeated="7"/>
           <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
-              <text:span text:style-name="T4">
+              <text:span text:style-name="T5">
                 <text:s text:c="4"/>
               </text:span>
-              <text:span text:style-name="T1">&lt;/</text:span>
-              <text:span text:style-name="T2">application</text:span>
-              <text:span text:style-name="T1">&gt;</text:span>
+              <text:span text:style-name="T2">&lt;/</text:span>
+              <text:span text:style-name="T3">application</text:span>
+              <text:span text:style-name="T2">&gt;</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="16"/>
@@ -4151,15 +4174,15 @@
           <table:table-cell table:number-columns-repeated="7"/>
           <table:table-cell table:style-name="ce15" office:value-type="string">
             <text:p>
-              <text:span text:style-name="T4">
+              <text:span text:style-name="T5">
                 <text:tab/>
               </text:span>
-              <text:span text:style-name="T1">&lt;</text:span>
-              <text:span text:style-name="T2">uses-permission</text:span>
-              <text:span text:style-name="T3">android:name</text:span>
-              <text:span text:style-name="T4">=</text:span>
-              <text:span text:style-name="T5">"android.permission.INTERNET"</text:span>
-              <text:span text:style-name="T1">/&gt;</text:span>
+              <text:span text:style-name="T2">&lt;</text:span>
+              <text:span text:style-name="T3">uses-permission</text:span>
+              <text:span text:style-name="T4">android:name</text:span>
+              <text:span text:style-name="T5">=</text:span>
+              <text:span text:style-name="T6">"android.permission.INTERNET"</text:span>
+              <text:span text:style-name="T2">/&gt;</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce11" table:number-columns-repeated="16"/>
@@ -4222,7 +4245,7 @@
             <text:p>
               <text:s text:c="6"/>
               android:
-              <text:span text:style-name="T12">apiKey</text:span>
+              <text:span text:style-name="T13">apiKey</text:span>
               =”取得したMaps API キー” /&gt;
             </text:p>
           </table:table-cell>
@@ -4271,7 +4294,7 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               public class MapSampleActivity extends 
-              <text:span text:style-name="T12">MapActivity</text:span>
+              <text:span text:style-name="T13">MapActivity</text:span>
               {
             </text:p>
           </table:table-cell>
@@ -4401,6 +4424,7 @@
         </table:table-row>
       </table:table>
       <table:table table:name="4章" table:style-name="ta1" table:print="false">
+        <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
         <table:table-column table:style-name="co1" table:number-columns-repeated="4" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-column table:style-name="co3" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-column table:style-name="co1" table:number-columns-repeated="17" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
@@ -4496,78 +4520,6 @@
         <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="5"/>
           <table:table-cell table:style-name="ce23" office:value-type="string">
-            <text:p>
-              <text:span text:style-name="T4">
-                <text:tab/>
-              </text:span>
-              <text:span text:style-name="T4">
-                <text:tab/>
-              </text:span>
-              <text:span text:style-name="T4">
-                <text:tab/>
-              </text:span>
-              <text:span text:style-name="T1">&lt;</text:span>
-              <text:span text:style-name="T2">Button</text:span>
-            </text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce10" table:number-columns-repeated="16"/>
-          <table:table-cell table:style-name="ce18"/>
-          <table:table-cell table:number-columns-repeated="1001"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:number-columns-repeated="5"/>
-          <table:table-cell table:style-name="ce6" office:value-type="string">
-            <text:p>
-              <text:tab/>
-              <text:tab/>
-              <text:tab/>
-              <text:tab/>
-              <text:span text:style-name="T3">android:id</text:span>
-              <text:span text:style-name="T4">=</text:span>
-              <text:span text:style-name="T5">"@+id/Button01"</text:span>
-            </text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="16"/>
-          <table:table-cell table:style-name="ce19"/>
-          <table:table-cell table:number-columns-repeated="1001"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:number-columns-repeated="5"/>
-          <table:table-cell table:style-name="ce6" office:value-type="string">
-            <text:p>
-              <text:tab/>
-              <text:tab/>
-              <text:tab/>
-              <text:tab/>
-              <text:span text:style-name="T3">android:layout_width</text:span>
-              <text:span text:style-name="T4">=</text:span>
-              <text:span text:style-name="T5">"fill_parent"</text:span>
-            </text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="16"/>
-          <table:table-cell table:style-name="ce19"/>
-          <table:table-cell table:number-columns-repeated="1001"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:number-columns-repeated="5"/>
-          <table:table-cell table:style-name="ce6" office:value-type="string">
-            <text:p>
-              <text:tab/>
-              <text:tab/>
-              <text:tab/>
-              <text:tab/>
-              <text:span text:style-name="T3">android:layout_height</text:span>
-              <text:span text:style-name="T4">=</text:span>
-              <text:span text:style-name="T5">"fill_parent"</text:span>
-            </text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="16"/>
-          <table:table-cell table:style-name="ce19"/>
-          <table:table-cell table:number-columns-repeated="1001"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:number-columns-repeated="5"/>
-          <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:span text:style-name="T5">
                 <text:tab/>
@@ -4578,16 +4530,12 @@
               <text:span text:style-name="T5">
                 <text:tab/>
               </text:span>
-              <text:span text:style-name="T5">
-                <text:tab/>
-              </text:span>
-              <text:span text:style-name="T9">android:text</text:span>
-              <text:span text:style-name="T10">=</text:span>
-              <text:span text:style-name="T11">"Start"</text:span>
-            </text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="16"/>
-          <table:table-cell table:style-name="ce19"/>
+              <text:span text:style-name="T2">&lt;</text:span>
+              <text:span text:style-name="T3">Button</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce18"/>
           <table:table-cell table:number-columns-repeated="1001"/>
         </table:table-row>
         <table:table-row table:style-name="ro2">
@@ -4598,9 +4546,9 @@
               <text:tab/>
               <text:tab/>
               <text:tab/>
-              <text:span text:style-name="T3">android:clickable</text:span>
-              <text:span text:style-name="T4">=</text:span>
-              <text:span text:style-name="T5">"true"</text:span>
+              <text:span text:style-name="T4">android:id</text:span>
+              <text:span text:style-name="T5">=</text:span>
+              <text:span text:style-name="T6">"@+id/Button01"</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="16"/>
@@ -4615,9 +4563,85 @@
               <text:tab/>
               <text:tab/>
               <text:tab/>
-              <text:span text:style-name="T1">&gt;&lt;/</text:span>
-              <text:span text:style-name="T2">Button</text:span>
-              <text:span text:style-name="T1">&gt;</text:span>
+              <text:span text:style-name="T4">android:layout_width</text:span>
+              <text:span text:style-name="T5">=</text:span>
+              <text:span text:style-name="T6">"fill_parent"</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:tab/>
+              <text:tab/>
+              <text:tab/>
+              <text:tab/>
+              <text:span text:style-name="T4">android:layout_height</text:span>
+              <text:span text:style-name="T5">=</text:span>
+              <text:span text:style-name="T6">"fill_parent"</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:span text:style-name="T6">
+                <text:tab/>
+              </text:span>
+              <text:span text:style-name="T6">
+                <text:tab/>
+              </text:span>
+              <text:span text:style-name="T6">
+                <text:tab/>
+              </text:span>
+              <text:span text:style-name="T6">
+                <text:tab/>
+              </text:span>
+              <text:span text:style-name="T10">android:text</text:span>
+              <text:span text:style-name="T11">=</text:span>
+              <text:span text:style-name="T12">"Start"</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:tab/>
+              <text:tab/>
+              <text:tab/>
+              <text:tab/>
+              <text:span text:style-name="T4">android:clickable</text:span>
+              <text:span text:style-name="T5">=</text:span>
+              <text:span text:style-name="T6">"true"</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="1001"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string">
+            <text:p>
+              <text:tab/>
+              <text:tab/>
+              <text:tab/>
+              <text:tab/>
+              <text:span text:style-name="T2">&gt;&lt;/</text:span>
+              <text:span text:style-name="T3">Button</text:span>
+              <text:span text:style-name="T2">&gt;</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="16"/>
@@ -4645,13 +4669,13 @@
           <table:table-cell table:number-columns-repeated="5"/>
           <table:table-cell table:style-name="ce24" office:value-type="string">
             <text:p>
-              <text:span text:style-name="T17">public</text:span>
-              <text:span text:style-name="T4"> </text:span>
-              <text:span text:style-name="T17">class</text:span>
-              <text:span text:style-name="T4"> TaskTimeWatcheMain </text:span>
-              <text:span text:style-name="T17">extends</text:span>
-              <text:span text:style-name="T18"> Activity </text:span>
-              <text:span text:style-name="T4">
+              <text:span text:style-name="T18">public</text:span>
+              <text:span text:style-name="T5"> </text:span>
+              <text:span text:style-name="T18">class</text:span>
+              <text:span text:style-name="T5"> TaskTimeWatcheMain </text:span>
+              <text:span text:style-name="T18">extends</text:span>
+              <text:span text:style-name="T19"> Activity </text:span>
+              <text:span text:style-name="T5">
                 <text:s/>
                 {
               </text:span>
@@ -4676,15 +4700,15 @@
           <table:table-cell table:number-columns-repeated="5"/>
           <table:table-cell table:style-name="ce25" office:value-type="string">
             <text:p>
-              <text:span text:style-name="T4">
+              <text:span text:style-name="T5">
                 <text:tab/>
               </text:span>
-              <text:span text:style-name="T17">protected</text:span>
-              <text:span text:style-name="T4"> </text:span>
-              <text:span text:style-name="T17">void</text:span>
-              <text:span text:style-name="T4"> </text:span>
-              <text:span text:style-name="T18">onCreate</text:span>
-              <text:span text:style-name="T4">(Bundle savedInstanceState) {</text:span>
+              <text:span text:style-name="T18">protected</text:span>
+              <text:span text:style-name="T5"> </text:span>
+              <text:span text:style-name="T18">void</text:span>
+              <text:span text:style-name="T5"> </text:span>
+              <text:span text:style-name="T19">onCreate</text:span>
+              <text:span text:style-name="T5">(Bundle savedInstanceState) {</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="14"/>
@@ -4702,14 +4726,14 @@
           <table:table-cell table:number-columns-repeated="5"/>
           <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
-              <text:span text:style-name="T4">
+              <text:span text:style-name="T5">
                 <text:tab/>
               </text:span>
-              <text:span text:style-name="T4">
+              <text:span text:style-name="T5">
                 <text:tab/>
               </text:span>
-              <text:span text:style-name="T17">super</text:span>
-              <text:span text:style-name="T4">.onCreate(savedInstanceState);</text:span>
+              <text:span text:style-name="T18">super</text:span>
+              <text:span text:style-name="T5">.onCreate(savedInstanceState);</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="14"/>
@@ -4724,12 +4748,12 @@
           <table:table-cell table:number-columns-repeated="5"/>
           <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
-              <text:span text:style-name="T4">
+              <text:span text:style-name="T5">
                 <text:s text:c="8"/>
               </text:span>
-              <text:span text:style-name="T4">setContentView(R.layout.</text:span>
-              <text:span text:style-name="T19">main</text:span>
-              <text:span text:style-name="T4">);</text:span>
+              <text:span text:style-name="T5">setContentView(R.layout.</text:span>
+              <text:span text:style-name="T20">main</text:span>
+              <text:span text:style-name="T5">);</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="14"/>
@@ -4765,12 +4789,12 @@
           <table:table-cell table:number-columns-repeated="5"/>
           <table:table-cell table:style-name="ce12" office:value-type="string">
             <text:p>
-              <text:span text:style-name="T4">
+              <text:span text:style-name="T5">
                 <text:s text:c="8"/>
               </text:span>
-              <text:span text:style-name="T4">setContentView(R.layout.</text:span>
-              <text:span text:style-name="T19">main</text:span>
-              <text:span text:style-name="T4">);</text:span>
+              <text:span text:style-name="T5">setContentView(R.layout.</text:span>
+              <text:span text:style-name="T20">main</text:span>
+              <text:span text:style-name="T5">);</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1018"/>
@@ -4848,13 +4872,13 @@
           <table:table-cell table:number-columns-repeated="5"/>
           <table:table-cell table:style-name="ce24" office:value-type="string">
             <text:p>
-              <text:span text:style-name="T17">public</text:span>
-              <text:span text:style-name="T4"> </text:span>
-              <text:span text:style-name="T17">class</text:span>
-              <text:span text:style-name="T4"> TaskTimeWatcheMain </text:span>
-              <text:span text:style-name="T17">extends</text:span>
-              <text:span text:style-name="T18"> Activity </text:span>
-              <text:span text:style-name="T4">
+              <text:span text:style-name="T18">public</text:span>
+              <text:span text:style-name="T5"> </text:span>
+              <text:span text:style-name="T18">class</text:span>
+              <text:span text:style-name="T5"> TaskTimeWatcheMain </text:span>
+              <text:span text:style-name="T18">extends</text:span>
+              <text:span text:style-name="T19"> Activity </text:span>
+              <text:span text:style-name="T5">
                 <text:s/>
                 {
               </text:span>
@@ -4875,15 +4899,15 @@
           <table:table-cell table:number-columns-repeated="5"/>
           <table:table-cell table:style-name="ce25" office:value-type="string">
             <text:p>
-              <text:span text:style-name="T4">
+              <text:span text:style-name="T5">
                 <text:tab/>
               </text:span>
-              <text:span text:style-name="T17">protected</text:span>
-              <text:span text:style-name="T4"> </text:span>
-              <text:span text:style-name="T17">void</text:span>
-              <text:span text:style-name="T4"> </text:span>
-              <text:span text:style-name="T18">onCreate</text:span>
-              <text:span text:style-name="T4">(Bundle savedInstanceState) {</text:span>
+              <text:span text:style-name="T18">protected</text:span>
+              <text:span text:style-name="T5"> </text:span>
+              <text:span text:style-name="T18">void</text:span>
+              <text:span text:style-name="T5"> </text:span>
+              <text:span text:style-name="T19">onCreate</text:span>
+              <text:span text:style-name="T5">(Bundle savedInstanceState) {</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="14"/>
@@ -4901,14 +4925,14 @@
           <table:table-cell table:number-columns-repeated="5"/>
           <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
-              <text:span text:style-name="T4">
+              <text:span text:style-name="T5">
                 <text:tab/>
               </text:span>
-              <text:span text:style-name="T4">
+              <text:span text:style-name="T5">
                 <text:tab/>
               </text:span>
-              <text:span text:style-name="T17">super</text:span>
-              <text:span text:style-name="T4">.onCreate(savedInstanceState);</text:span>
+              <text:span text:style-name="T18">super</text:span>
+              <text:span text:style-name="T5">.onCreate(savedInstanceState);</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="14"/>
@@ -4922,17 +4946,17 @@
           <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:number-columns-repeated="1003"/>
         </table:table-row>
-        <table:table-row table:style-name="ro4">
+        <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="5"/>
           <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:s text:c="9"/>
-              <text:span text:style-name="T4">
+              <text:span text:style-name="T5">
                 <text:tab/>
               </text:span>
-              <text:span text:style-name="T4">LinearLayout layout = </text:span>
-              <text:span text:style-name="T17">new</text:span>
-              <text:span text:style-name="T4"> LinearLayout(this);</text:span>
+              <text:span text:style-name="T5">LinearLayout layout = </text:span>
+              <text:span text:style-name="T18">new</text:span>
+              <text:span text:style-name="T5"> LinearLayout(this);</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="14"/>
@@ -5144,9 +5168,9 @@
             <text:p>
               <text:s text:c="4"/>
               view = (TextView)
-              <text:span text:style-name="T12">findViewById</text:span>
+              <text:span text:style-name="T13">findViewById</text:span>
               (
-              <text:span text:style-name="T13">R.id.dateTimeDisplay</text:span>
+              <text:span text:style-name="T14">R.id.dateTimeDisplay</text:span>
               );
             </text:p>
           </table:table-cell>
@@ -5183,9 +5207,9 @@
             <text:p>
               <text:s text:c="4"/>
               button.
-              <text:span text:style-name="T12">setOnClickListener</text:span>
+              <text:span text:style-name="T13">setOnClickListener</text:span>
               (new View.
-              <text:span text:style-name="T12">OnClickListener()</text:span>
+              <text:span text:style-name="T13">OnClickListener()</text:span>
               {
             </text:p>
           </table:table-cell>
@@ -5206,7 +5230,7 @@
             <text:p>
               <text:s text:c="6"/>
               public void 
-              <text:span text:style-name="T12">onClick</text:span>
+              <text:span text:style-name="T13">onClick</text:span>
               (View v) {
             </text:p>
           </table:table-cell>
@@ -5428,7 +5452,7 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="4"/>
-              <text:span text:style-name="T12">ListView</text:span>
+              <text:span text:style-name="T13">ListView</text:span>
                listview = (ListView) findViewById(R.id.listView);
             </text:p>
           </table:table-cell>
@@ -5442,7 +5466,7 @@
             <text:p>
               <text:s text:c="4"/>
               listview.
-              <text:span text:style-name="T12">setOnItemClickListener</text:span>
+              <text:span text:style-name="T13">setOnItemClickListener</text:span>
               (new ListItemClickListener());
             </text:p>
           </table:table-cell>
@@ -5467,7 +5491,7 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="2"/>
-              <text:span text:style-name="T14">class ListItemClickListener</text:span>
+              <text:span text:style-name="T15">class ListItemClickListener</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="15"/>
@@ -5484,7 +5508,7 @@
             <text:p>
               <text:s text:c="24"/>
               implements
-              <text:span text:style-name="T12"> OnItemClickListener</text:span>
+              <text:span text:style-name="T13"> OnItemClickListener</text:span>
                {
             </text:p>
           </table:table-cell>
@@ -5498,7 +5522,7 @@
             <text:p>
               <text:s text:c="4"/>
               public void 
-              <text:span text:style-name="T12">
+              <text:span text:style-name="T13">
                 onItemClick(AdapterView&lt;?&gt; parent, 
                 <text:s/>
                 View view,
@@ -5524,7 +5548,7 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="28"/>
-              <text:span text:style-name="T12">int position, long id)</text:span>
+              <text:span text:style-name="T13">int position, long id)</text:span>
                {
             </text:p>
           </table:table-cell>
@@ -5603,7 +5627,7 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="6"/>
-              <text:span text:style-name="T12">Toast.makeText</text:span>
+              <text:span text:style-name="T13">Toast.makeText</text:span>
               (EventSample2Activity.this,item,
             </text:p>
           </table:table-cell>
@@ -5625,7 +5649,7 @@
             <text:p>
               <text:s text:c="21"/>
               Toast.LENGTH_SHORT)
-              <text:span text:style-name="T12">.show()</text:span>
+              <text:span text:style-name="T13">.show()</text:span>
               ;
             </text:p>
           </table:table-cell>
@@ -5999,9 +6023,9 @@
             <text:p>
               <text:s text:c="4"/>
               button.
-              <text:span text:style-name="T12">setOnClickListener</text:span>
+              <text:span text:style-name="T13">setOnClickListener</text:span>
               (new View.
-              <text:span text:style-name="T12">OnClickListener</text:span>
+              <text:span text:style-name="T13">OnClickListener</text:span>
               (){
             </text:p>
           </table:table-cell>
@@ -6015,7 +6039,7 @@
             <text:p>
               <text:s text:c="6"/>
               public void 
-              <text:span text:style-name="T12">onClick</text:span>
+              <text:span text:style-name="T13">onClick</text:span>
               (View v) {
             </text:p>
           </table:table-cell>
@@ -6072,9 +6096,9 @@
             <text:p>
               <text:s text:c="4"/>
               button.
-              <text:span text:style-name="T12">setOnTouchListener</text:span>
+              <text:span text:style-name="T13">setOnTouchListener</text:span>
               (new View.
-              <text:span text:style-name="T12">OnTouchListener</text:span>
+              <text:span text:style-name="T13">OnTouchListener</text:span>
               (){
             </text:p>
           </table:table-cell>
@@ -6088,8 +6112,8 @@
             <text:p>
               <text:s text:c="6"/>
               public 
-              <text:span text:style-name="T15">boolean</text:span>
-              <text:span text:style-name="T12">onTouch</text:span>
+              <text:span text:style-name="T16">boolean</text:span>
+              <text:span text:style-name="T13">onTouch</text:span>
               (View v, MotionEvent event) {
             </text:p>
           </table:table-cell>
@@ -6463,7 +6487,7 @@
             <text:p>
               <text:s text:c="2"/>
               public boolean 
-              <text:span text:style-name="T12">onKeyDown</text:span>
+              <text:span text:style-name="T13">onKeyDown</text:span>
               (int keyCode, KeyEvent event) {
             </text:p>
           </table:table-cell>
@@ -6536,7 +6560,7 @@
             <text:p>
               <text:s text:c="2"/>
               public boolean 
-              <text:span text:style-name="T12">onKeyUp</text:span>
+              <text:span text:style-name="T13">onKeyUp</text:span>
               (int keyCode, KeyEvent event) {
             </text:p>
           </table:table-cell>
@@ -6611,7 +6635,7 @@
             <text:p>
               <text:s text:c="2"/>
               public boolean 
-              <text:span text:style-name="T12">onKeyLongPress</text:span>
+              <text:span text:style-name="T13">onKeyLongPress</text:span>
               (int keyCode, KeyEvent event) {
             </text:p>
           </table:table-cell>
@@ -6690,7 +6714,7 @@
             <text:p>
               <text:s text:c="2"/>
               public boolean 
-              <text:span text:style-name="T12">onKeyMultiple</text:span>
+              <text:span text:style-name="T13">onKeyMultiple</text:span>
               (int keyCode, KeyEvent event) {
             </text:p>
           </table:table-cell>
@@ -7119,7 +7143,7 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="14"/>
-              <text:span text:style-name="T14">showDialog</text:span>
+              <text:span text:style-name="T15">showDialog</text:span>
               ();
             </text:p>
           </table:table-cell>
@@ -7144,7 +7168,7 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="14"/>
-              <text:span text:style-name="T14">showSingleSelectDialog</text:span>
+              <text:span text:style-name="T15">showSingleSelectDialog</text:span>
               ();
             </text:p>
           </table:table-cell>
@@ -7224,7 +7248,7 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="6"/>
-              <text:span text:style-name="T12">AlertDialog.Builder</text:span>
+              <text:span text:style-name="T13">AlertDialog.Builder</text:span>
                dialog =
             </text:p>
           </table:table-cell>
@@ -7250,7 +7274,7 @@
             <text:p>
               <text:s text:c="6"/>
               dialog.
-              <text:span text:style-name="T12">setTitle</text:span>
+              <text:span text:style-name="T13">setTitle</text:span>
               ("通常ダイアログ");
             </text:p>
           </table:table-cell>
@@ -7264,7 +7288,7 @@
             <text:p>
               <text:s text:c="6"/>
               dialog.
-              <text:span text:style-name="T12">setMessage</text:span>
+              <text:span text:style-name="T13">setMessage</text:span>
               ("いずれかを選択してください。");
             </text:p>
           </table:table-cell>
@@ -7278,7 +7302,7 @@
             <text:p>
               <text:s text:c="6"/>
               dialog.
-              <text:span text:style-name="T12">setPositiveButton</text:span>
+              <text:span text:style-name="T13">setPositiveButton</text:span>
               (
             </text:p>
           </table:table-cell>
@@ -7292,7 +7316,7 @@
             <text:p>
               <text:s text:c="10"/>
               "OK",new 
-              <text:span text:style-name="T12">DialogInterface.OnClickListener</text:span>
+              <text:span text:style-name="T13">DialogInterface.OnClickListener</text:span>
               () {
             </text:p>
           </table:table-cell>
@@ -7306,7 +7330,7 @@
             <text:p>
               <text:s text:c="10"/>
               public void 
-              <text:span text:style-name="T12">onClick</text:span>
+              <text:span text:style-name="T13">onClick</text:span>
               (DialogInterface dialog,
             </text:p>
           </table:table-cell>
@@ -7376,7 +7400,7 @@
             <text:p>
               <text:s text:c="6"/>
               dialog.
-              <text:span text:style-name="T12">setNegativeButton</text:span>
+              <text:span text:style-name="T13">setNegativeButton</text:span>
               (
             </text:p>
           </table:table-cell>
@@ -7402,7 +7426,7 @@
             <text:p>
               <text:s text:c="10"/>
               public void 
-              <text:span text:style-name="T12">onClick</text:span>
+              <text:span text:style-name="T13">onClick</text:span>
               (DialogInterface dialog,
             </text:p>
           </table:table-cell>
@@ -7472,7 +7496,7 @@
             <text:p>
               <text:s text:c="6"/>
               dialog.
-              <text:span text:style-name="T12">show</text:span>
+              <text:span text:style-name="T13">show</text:span>
               ();
             </text:p>
           </table:table-cell>
@@ -7539,12 +7563,12 @@
           <table:table-cell table:number-columns-repeated="4"/>
           <table:table-cell table:style-name="ce22" office:value-type="string">
             <text:p>
-              <text:span text:style-name="T16">
+              <text:span text:style-name="T17">
                 <text:s text:c="2"/>
               </text:span>
-              <text:span text:style-name="T16">int </text:span>
+              <text:span text:style-name="T17">int </text:span>
               which
-              <text:span text:style-name="T16"> = 0;</text:span>
+              <text:span text:style-name="T17"> = 0;</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="15"/>
@@ -7568,7 +7592,7 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="6"/>
-              <text:span text:style-name="T12">AlertDialog.Builder</text:span>
+              <text:span text:style-name="T13">AlertDialog.Builder</text:span>
                dialog =
             </text:p>
           </table:table-cell>
@@ -7594,7 +7618,7 @@
             <text:p>
               <text:s text:c="6"/>
               dialog.
-              <text:span text:style-name="T12">setTitle</text:span>
+              <text:span text:style-name="T13">setTitle</text:span>
               ("単一選択ダイアログ");
             </text:p>
           </table:table-cell>
@@ -7608,9 +7632,9 @@
             <text:p>
               <text:s text:c="6"/>
               dialog.
-              <text:span text:style-name="T12">setSingleChoiceItems</text:span>
+              <text:span text:style-name="T13">setSingleChoiceItems</text:span>
               (
-              <text:span text:style-name="T14">items</text:span>
+              <text:span text:style-name="T15">items</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="15"/>
@@ -7656,7 +7680,7 @@
               ,new 
               <text:s/>
               DialogInterface.
-              <text:span text:style-name="T12">OnClickListener</text:span>
+              <text:span text:style-name="T13">OnClickListener</text:span>
               () {
             </text:p>
           </table:table-cell>
@@ -7709,7 +7733,7 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="22"/>
-              <text:span text:style-name="T14">which</text:span>
+              <text:span text:style-name="T15">which</text:span>
                = whichButton;
             </text:p>
           </table:table-cell>
@@ -7781,7 +7805,7 @@
             <text:p>
               <text:s text:c="6"/>
               dialog.
-              <text:span text:style-name="T12">setPositiveButton</text:span>
+              <text:span text:style-name="T13">setPositiveButton</text:span>
               (
             </text:p>
           </table:table-cell>
@@ -7803,7 +7827,7 @@
             <text:p>
               <text:s text:c="10"/>
               "OK",new DialogInterface.
-              <text:span text:style-name="T12">OnClickListener</text:span>
+              <text:span text:style-name="T13">OnClickListener</text:span>
               () {
             </text:p>
           </table:table-cell>
@@ -7817,7 +7841,7 @@
             <text:p>
               <text:s text:c="10"/>
               public void 
-              <text:span text:style-name="T12">onClick</text:span>
+              <text:span text:style-name="T13">onClick</text:span>
               (DialogInterface dialog,
             </text:p>
           </table:table-cell>
@@ -7843,7 +7867,7 @@
             <text:p>
               <text:s text:c="14"/>
               String selected = items[
-              <text:span text:style-name="T14">which</text:span>
+              <text:span text:style-name="T15">which</text:span>
               ];
             </text:p>
           </table:table-cell>
@@ -7905,7 +7929,7 @@
             <text:p>
               <text:s text:c="6"/>
               dialog.
-              <text:span text:style-name="T12">show</text:span>
+              <text:span text:style-name="T13">show</text:span>
               ();
             </text:p>
           </table:table-cell>
@@ -8094,6 +8118,7 @@
         </table:table-row>
       </table:table>
       <table:table table:name="5章" table:style-name="ta1" table:print="false">
+        <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
         <table:table-column table:style-name="co1" table:number-columns-repeated="22" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-column table:style-name="co4" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-column table:style-name="co1" table:number-columns-repeated="1001" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
@@ -8262,9 +8287,9 @@
             <text:p>
               <text:s text:c="2"/>
               public boolean 
-              <text:span text:style-name="T12">onCreateOptionsMenu</text:span>
+              <text:span text:style-name="T13">onCreateOptionsMenu</text:span>
               (Menu 
-              <text:span text:style-name="T14">menu</text:span>
+              <text:span text:style-name="T15">menu</text:span>
               ) {
             </text:p>
           </table:table-cell>
@@ -8327,11 +8352,11 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="4"/>
-              <text:span text:style-name="T12">MenuItem</text:span>
+              <text:span text:style-name="T13">MenuItem</text:span>
                item1=
-              <text:span text:style-name="T14">menu</text:span>
+              <text:span text:style-name="T15">menu</text:span>
               .
-              <text:span text:style-name="T12">add</text:span>
+              <text:span text:style-name="T13">add</text:span>
               (0,0,0,"menu1");
             </text:p>
           </table:table-cell>
@@ -8385,7 +8410,7 @@
             <text:p>
               <text:s text:c="4"/>
               MenuItem 
-              <text:span text:style-name="T14">item2</text:span>
+              <text:span text:style-name="T15">item2</text:span>
               =menu.add(0,1,0,"menu2");
             </text:p>
           </table:table-cell>
@@ -8400,9 +8425,9 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="4"/>
-              <text:span text:style-name="T14">item2</text:span>
+              <text:span text:style-name="T15">item2</text:span>
               .
-              <text:span text:style-name="T12">setIcon</text:span>
+              <text:span text:style-name="T13">setIcon</text:span>
               (android.R.drawable.ic_menu_search);
             </text:p>
           </table:table-cell>
@@ -8611,9 +8636,9 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="4"/>
-              <text:span text:style-name="T12">SubMenu</text:span>
+              <text:span text:style-name="T13">SubMenu</text:span>
                item6=menu.
-              <text:span text:style-name="T12">addSubMenu</text:span>
+              <text:span text:style-name="T13">addSubMenu</text:span>
               (0,5,0,"その他");
             </text:p>
           </table:table-cell>
@@ -8643,7 +8668,7 @@
             <text:p>
               <text:s text:c="4"/>
               item6.
-              <text:span text:style-name="T12">add</text:span>
+              <text:span text:style-name="T13">add</text:span>
               (0,10,0,"submenu1");
             </text:p>
           </table:table-cell>
@@ -9357,7 +9382,7 @@
           <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               &lt;
-              <text:span text:style-name="T12">menu</text:span>
+              <text:span text:style-name="T13">menu</text:span>
                xmlns:android="http://schemas.android.com/apk/res/android"&gt;
             </text:p>
           </table:table-cell>
@@ -9371,7 +9396,7 @@
             <text:p>
               <text:s text:c="4"/>
               &lt;
-              <text:span text:style-name="T12">item</text:span>
+              <text:span text:style-name="T13">item</text:span>
                android:id="@+id/menu1"
             </text:p>
           </table:table-cell>
@@ -9397,7 +9422,7 @@
             <text:p>
               <text:s text:c="4"/>
               &lt;
-              <text:span text:style-name="T12">group</text:span>
+              <text:span text:style-name="T13">group</text:span>
                android:id="@+id/group"
             </text:p>
           </table:table-cell>
@@ -9411,9 +9436,9 @@
             <text:p>
               <text:s text:c="11"/>
               android:
-              <text:span text:style-name="T12">checkableBehavior</text:span>
+              <text:span text:style-name="T13">checkableBehavior</text:span>
               ="
-              <text:span text:style-name="T14">single</text:span>
+              <text:span text:style-name="T15">single</text:span>
               "&gt;
             </text:p>
           </table:table-cell>
@@ -9777,9 +9802,9 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="6"/>
-              <text:span text:style-name="T12">MenuInflater</text:span>
+              <text:span text:style-name="T13">MenuInflater</text:span>
                menuInflater = 
-              <text:span text:style-name="T12">getMenuInflater</text:span>
+              <text:span text:style-name="T13">getMenuInflater</text:span>
               ();
             </text:p>
           </table:table-cell>
@@ -9805,11 +9830,11 @@
             <text:p>
               <text:s text:c="6"/>
               menuInflater.
-              <text:span text:style-name="T12">inflate</text:span>
+              <text:span text:style-name="T13">inflate</text:span>
               (
-              <text:span text:style-name="T14">R.menu.mymenu</text:span>
+              <text:span text:style-name="T15">R.menu.mymenu</text:span>
               , 
-              <text:span text:style-name="T20">menu</text:span>
+              <text:span text:style-name="T21">menu</text:span>
               );
             </text:p>
           </table:table-cell>
@@ -10138,7 +10163,7 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="8"/>
-              <text:span text:style-name="T12">registerForContextMenu</text:span>
+              <text:span text:style-name="T13">registerForContextMenu</text:span>
               (listView);
             </text:p>
           </table:table-cell>
@@ -10213,7 +10238,7 @@
             <text:p>
               <text:s text:c="6"/>
               public void 
-              <text:span text:style-name="T12">onCreateContextMenu</text:span>
+              <text:span text:style-name="T13">onCreateContextMenu</text:span>
               (ContextMenu menu,
             </text:p>
           </table:table-cell>
@@ -10294,7 +10319,7 @@
             <text:p>
               <text:s text:c="8"/>
               menu.
-              <text:span text:style-name="T12">setHeaderTitle</text:span>
+              <text:span text:style-name="T13">setHeaderTitle</text:span>
               ("コンテキストメニュー");
             </text:p>
           </table:table-cell>
@@ -10315,7 +10340,7 @@
             <text:p>
               <text:s text:c="8"/>
               menu.
-              <text:span text:style-name="T12">add</text:span>
+              <text:span text:style-name="T13">add</text:span>
               ("好き");
             </text:p>
           </table:table-cell>
@@ -10377,7 +10402,7 @@
             <text:p>
               <text:s text:c="6"/>
               public boolean 
-              <text:span text:style-name="T12">onContextItemSelected</text:span>
+              <text:span text:style-name="T13">onContextItemSelected</text:span>
               (MenuItem item) {
             </text:p>
           </table:table-cell>
@@ -10697,8 +10722,8 @@
           <table:table-cell table:number-columns-repeated="4"/>
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
-              <text:span text:style-name="T12">Notification</text:span>
-              <text:span text:style-name="T14">notification</text:span>
+              <text:span text:style-name="T13">Notification</text:span>
+              <text:span text:style-name="T15">notification</text:span>
                = new Notification(icon , msg , when )
             </text:p>
           </table:table-cell>
@@ -10717,7 +10742,7 @@
           <table:table-cell table:number-columns-repeated="4"/>
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
-              <text:span text:style-name="T12">NotificationManager</text:span>
+              <text:span text:style-name="T13">NotificationManager</text:span>
                nManager = (NotificationManager) getSystemnService(Context.NOTIFICATION_SERVICE);
             </text:p>
           </table:table-cell>
@@ -10737,9 +10762,9 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               nManager.
-              <text:span text:style-name="T12">notify</text:span>
+              <text:span text:style-name="T13">notify</text:span>
               (id , 
-              <text:span text:style-name="T14">notification</text:span>
+              <text:span text:style-name="T15">notification</text:span>
               );
             </text:p>
           </table:table-cell>
@@ -10860,7 +10885,7 @@
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1016"/>
         </table:table-row>
-        <table:table-row table:style-name="ro5">
+        <table:table-row table:style-name="ro4">
           <table:table-cell table:style-name="Default" table:number-columns-repeated="1024"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -10913,7 +10938,7 @@
           <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               &lt;
-              <text:span text:style-name="T12">resources</text:span>
+              <text:span text:style-name="T13">resources</text:span>
               &gt;
             </text:p>
           </table:table-cell>
@@ -10927,10 +10952,10 @@
             <text:p>
               <text:s text:c="4"/>
               &lt;
-              <text:span text:style-name="T12">style</text:span>
-              <text:span text:style-name="T12">name</text:span>
+              <text:span text:style-name="T13">style</text:span>
+              <text:span text:style-name="T13">name</text:span>
               ="
-              <text:span text:style-name="T14">StyleSample</text:span>
+              <text:span text:style-name="T15">StyleSample</text:span>
               "
             </text:p>
           </table:table-cell>
@@ -10943,9 +10968,9 @@
           <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               <text:s text:c="11"/>
-              <text:span text:style-name="T12">parent</text:span>
+              <text:span text:style-name="T13">parent</text:span>
               ="
-              <text:span text:style-name="T14">@android:style/TextAppearance.Medium</text:span>
+              <text:span text:style-name="T15">@android:style/TextAppearance.Medium</text:span>
               "&gt;
             </text:p>
           </table:table-cell>
@@ -11089,7 +11114,7 @@
             <text:p>
               <text:s text:c="6"/>
               style=”@style/
-              <text:span text:style-name="T14">StyleSample</text:span>
+              <text:span text:style-name="T15">StyleSample</text:span>
               ”
             </text:p>
           </table:table-cell>
@@ -11234,7 +11259,7 @@
             <text:p>
               <text:s text:c="4"/>
               &lt;
-              <text:span text:style-name="T12">application</text:span>
+              <text:span text:style-name="T13">application</text:span>
                android:icon="@drawable/icon"
             </text:p>
           </table:table-cell>
@@ -11268,9 +11293,9 @@
             <text:p>
               <text:s text:c="17"/>
               android:
-              <text:span text:style-name="T12">theme</text:span>
+              <text:span text:style-name="T13">theme</text:span>
               ="@style/
-              <text:span text:style-name="T14">StyleSample</text:span>
+              <text:span text:style-name="T15">StyleSample</text:span>
               "&gt;
             </text:p>
           </table:table-cell>
@@ -11856,7 +11881,7 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               &lt;
-              <text:span text:style-name="T12">alpha</text:span>
+              <text:span text:style-name="T13">alpha</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="14"/>
@@ -11885,7 +11910,7 @@
           <table:table-cell office:value-type="string">
             <text:p>
               android:
-              <text:span text:style-name="T12">duration</text:span>
+              <text:span text:style-name="T13">duration</text:span>
               ="10000"
             </text:p>
           </table:table-cell>
@@ -11904,7 +11929,7 @@
           <table:table-cell office:value-type="string">
             <text:p>
               android:
-              <text:span text:style-name="T12">fromAlpha</text:span>
+              <text:span text:style-name="T13">fromAlpha</text:span>
               ="1.0"
             </text:p>
           </table:table-cell>
@@ -11923,7 +11948,7 @@
           <table:table-cell office:value-type="string">
             <text:p>
               android:
-              <text:span text:style-name="T12">toAlpha</text:span>
+              <text:span text:style-name="T13">toAlpha</text:span>
               ="0.1" /&gt;
             </text:p>
           </table:table-cell>
@@ -12045,8 +12070,8 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="8"/>
-              <text:span text:style-name="T12">Animation</text:span>
-              <text:span text:style-name="T14">animation</text:span>
+              <text:span text:style-name="T13">Animation</text:span>
+              <text:span text:style-name="T15">animation</text:span>
               =
             </text:p>
           </table:table-cell>
@@ -12059,9 +12084,9 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="13"/>
-              <text:span text:style-name="T12">AnimationUtils.loadAnimation</text:span>
+              <text:span text:style-name="T13">AnimationUtils.loadAnimation</text:span>
               (this,
-              <text:span text:style-name="T14">R.anim.alpha</text:span>
+              <text:span text:style-name="T15">R.anim.alpha</text:span>
               );
             </text:p>
           </table:table-cell>
@@ -12075,9 +12100,9 @@
             <text:p>
               <text:s text:c="8"/>
               button.
-              <text:span text:style-name="T12">startAnimation</text:span>
+              <text:span text:style-name="T13">startAnimation</text:span>
               (
-              <text:span text:style-name="T14">animation</text:span>
+              <text:span text:style-name="T15">animation</text:span>
               );
             </text:p>
           </table:table-cell>
@@ -12341,10 +12366,10 @@
             <text:p>
               <text:s text:c="2"/>
               protected void 
-              <text:span text:style-name="T12">onDraw</text:span>
+              <text:span text:style-name="T13">onDraw</text:span>
               (
-              <text:span text:style-name="T12">Canvas</text:span>
-              <text:span text:style-name="T14">canvas</text:span>
+              <text:span text:style-name="T13">Canvas</text:span>
+              <text:span text:style-name="T15">canvas</text:span>
               ) {
             </text:p>
           </table:table-cell>
@@ -12381,9 +12406,9 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="4"/>
-              <text:span text:style-name="T14">canvas</text:span>
+              <text:span text:style-name="T15">canvas</text:span>
               .
-              <text:span text:style-name="T12">drawColor</text:span>
+              <text:span text:style-name="T13">drawColor</text:span>
               (Color.WHITE);
             </text:p>
           </table:table-cell>
@@ -12412,8 +12437,8 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="4"/>
-              <text:span text:style-name="T12">Paint</text:span>
-              <text:span text:style-name="T14">paint</text:span>
+              <text:span text:style-name="T13">Paint</text:span>
+              <text:span text:style-name="T15">paint</text:span>
                = new Paint();
             </text:p>
           </table:table-cell>
@@ -12426,9 +12451,9 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="4"/>
-              <text:span text:style-name="T14">paint</text:span>
+              <text:span text:style-name="T15">paint</text:span>
               .
-              <text:span text:style-name="T12">setAntiAlias</text:span>
+              <text:span text:style-name="T13">setAntiAlias</text:span>
               (true);
             </text:p>
           </table:table-cell>
@@ -12457,11 +12482,11 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="4"/>
-              <text:span text:style-name="T14">paint</text:span>
+              <text:span text:style-name="T15">paint</text:span>
               .
-              <text:span text:style-name="T12">setStyle</text:span>
+              <text:span text:style-name="T13">setStyle</text:span>
               (
-              <text:span text:style-name="T21">Paint.Style.FILL</text:span>
+              <text:span text:style-name="T22">Paint.Style.FILL</text:span>
               );
             </text:p>
           </table:table-cell>
@@ -12478,9 +12503,9 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="4"/>
-              <text:span text:style-name="T14">paint</text:span>
+              <text:span text:style-name="T15">paint</text:span>
               .
-              <text:span text:style-name="T12">setColor</text:span>
+              <text:span text:style-name="T13">setColor</text:span>
               (Color.BLUE);
             </text:p>
           </table:table-cell>
@@ -12493,9 +12518,9 @@
           <table:table-cell table:style-name="ce27" office:value-type="string">
             <text:p>
               <text:s text:c="4"/>
-              <text:span text:style-name="T14">canvas</text:span>
+              <text:span text:style-name="T15">canvas</text:span>
               .
-              <text:span text:style-name="T12">drawRect</text:span>
+              <text:span text:style-name="T13">drawRect</text:span>
               (10, 20, 30, 40, paint);
             </text:p>
           </table:table-cell>
@@ -12556,7 +12581,7 @@
             <text:p>
               <text:s text:c="4"/>
               paint.setStyle(
-              <text:span text:style-name="T21">Style.STROKE</text:span>
+              <text:span text:style-name="T22">Style.STROKE</text:span>
               );
             </text:p>
           </table:table-cell>
@@ -12753,7 +12778,7 @@
             <text:p>
               <text:s text:c="2"/>
               class MySurfaceView extends 
-              <text:span text:style-name="T12">SurfaceView</text:span>
+              <text:span text:style-name="T13">SurfaceView</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="14"/>
@@ -12766,7 +12791,7 @@
             <text:p>
               <text:s text:c="17"/>
               implements 
-              <text:span text:style-name="T12">SurfaceHolder.Callback</text:span>
+              <text:span text:style-name="T13">SurfaceHolder.Callback</text:span>
                {
             </text:p>
           </table:table-cell>
@@ -12839,7 +12864,7 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="6"/>
-              <text:span text:style-name="T12">getHolder().addCallback</text:span>
+              <text:span text:style-name="T13">getHolder().addCallback</text:span>
               (this);
             </text:p>
           </table:table-cell>
@@ -12865,7 +12890,7 @@
             <text:p>
               <text:s text:c="4"/>
               public void 
-              <text:span text:style-name="T12">surfaceChanged</text:span>
+              <text:span text:style-name="T13">surfaceChanged</text:span>
               (SurfaceHolder holder,
             </text:p>
           </table:table-cell>
@@ -12914,7 +12939,7 @@
             <text:p>
               <text:s text:c="4"/>
               public void 
-              <text:span text:style-name="T12">surfaceCreated</text:span>
+              <text:span text:style-name="T13">surfaceCreated</text:span>
               (SurfaceHolder holder) {
             </text:p>
           </table:table-cell>
@@ -12944,7 +12969,7 @@
             <text:p>
               <text:s text:c="6"/>
               Canvas canvas = holder.
-              <text:span text:style-name="T12">lockCanvas</text:span>
+              <text:span text:style-name="T13">lockCanvas</text:span>
               ();
             </text:p>
           </table:table-cell>
@@ -13080,7 +13105,7 @@
             <text:p>
               <text:s text:c="6"/>
               holder.
-              <text:span text:style-name="T12">unlockCanvasAndPost</text:span>
+              <text:span text:style-name="T13">unlockCanvasAndPost</text:span>
               (canvas);
             </text:p>
           </table:table-cell>
@@ -13113,7 +13138,7 @@
             <text:p>
               <text:s text:c="4"/>
               public void 
-              <text:span text:style-name="T12">surfaceDestroyed</text:span>
+              <text:span text:style-name="T13">surfaceDestroyed</text:span>
               (SurfaceHolder holder) {
             </text:p>
           </table:table-cell>
@@ -13176,6 +13201,7 @@
         </table:table-row>
       </table:table>
       <table:table table:name="6章" table:style-name="ta1" table:print="false">
+        <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
         <table:table-column table:style-name="co1" table:number-columns-repeated="1024" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="16"/>
@@ -13863,8 +13889,8 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="6"/>
-              <text:span text:style-name="T12">Intent</text:span>
-              <text:span text:style-name="T14">intent</text:span>
+              <text:span text:style-name="T13">Intent</text:span>
+              <text:span text:style-name="T15">intent</text:span>
                = new Intent(
             </text:p>
           </table:table-cell>
@@ -13877,10 +13903,10 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="17"/>
-              <text:span text:style-name="T14">IntentSample1Activity.this</text:span>
+              <text:span text:style-name="T15">IntentSample1Activity.this</text:span>
               , 
               <text:s/>
-              <text:span text:style-name="T14">NextActivity.class</text:span>
+              <text:span text:style-name="T15">NextActivity.class</text:span>
               );
             </text:p>
           </table:table-cell>
@@ -13905,9 +13931,9 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="6"/>
-              <text:span text:style-name="T14">intent</text:span>
+              <text:span text:style-name="T15">intent</text:span>
               .
-              <text:span text:style-name="T12">putExtra</text:span>
+              <text:span text:style-name="T13">putExtra</text:span>
               ("item",item);
             </text:p>
           </table:table-cell>
@@ -13936,9 +13962,9 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="6"/>
-              <text:span text:style-name="T12">startActivity</text:span>
+              <text:span text:style-name="T13">startActivity</text:span>
               (
-              <text:span text:style-name="T14">intent</text:span>
+              <text:span text:style-name="T15">intent</text:span>
               );
             </text:p>
           </table:table-cell>
@@ -13952,7 +13978,7 @@
             <text:p>
               <text:s text:c="6"/>
               //
-              <text:span text:style-name="T12">startActivityForResult</text:span>
+              <text:span text:style-name="T13">startActivityForResult</text:span>
               (Intent intent , int requestCode)
             </text:p>
           </table:table-cell>
@@ -14001,7 +14027,7 @@
             <text:p>
               <text:s text:c="2"/>
               protected void 
-              <text:span text:style-name="T12">onActivityResult</text:span>
+              <text:span text:style-name="T13">onActivityResult</text:span>
               (
             </text:p>
           </table:table-cell>
@@ -14011,7 +14037,7 @@
           <table:table-cell office:value-type="string">
             <text:p>
               ⬅　
-              <text:span text:style-name="T12">startActivityForResult</text:span>
+              <text:span text:style-name="T13">startActivityForResult</text:span>
                を実装した場合は、結果を受け取る
             </text:p>
           </table:table-cell>
@@ -14355,9 +14381,9 @@
             <text:p>
               <text:s text:c="4"/>
               Intent 
-              <text:span text:style-name="T14">data</text:span>
+              <text:span text:style-name="T15">data</text:span>
                = 
-              <text:span text:style-name="T12">getIntent</text:span>
+              <text:span text:style-name="T13">getIntent</text:span>
               ();
             </text:p>
           </table:table-cell>
@@ -14382,12 +14408,12 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="4"/>
-              <text:span text:style-name="T12">Bundle</text:span>
-              <text:span text:style-name="T14">extras</text:span>
+              <text:span text:style-name="T13">Bundle</text:span>
+              <text:span text:style-name="T15">extras</text:span>
                = 
-              <text:span text:style-name="T14">data</text:span>
+              <text:span text:style-name="T15">data</text:span>
               .
-              <text:span text:style-name="T12">getExtras</text:span>
+              <text:span text:style-name="T13">getExtras</text:span>
               ();
             </text:p>
           </table:table-cell>
@@ -14413,9 +14439,9 @@
             <text:p>
               <text:s text:c="4"/>
               String item =
-              <text:span text:style-name="T14">extras</text:span>
+              <text:span text:style-name="T15">extras</text:span>
               .
-              <text:span text:style-name="T12">getString</text:span>
+              <text:span text:style-name="T13">getString</text:span>
               ("item");
             </text:p>
           </table:table-cell>
@@ -14677,7 +14703,7 @@
           <table:table-cell office:value-type="string">
             <text:p>
               //
-              <text:span text:style-name="T12">setResult</text:span>
+              <text:span text:style-name="T13">setResult</text:span>
               (int rsultCode , Intent data);
             </text:p>
           </table:table-cell>
@@ -14687,7 +14713,7 @@
           <table:table-cell office:value-type="string">
             <text:p>
               ⬅　
-              <text:span text:style-name="T12">startActivityForResult</text:span>
+              <text:span text:style-name="T13">startActivityForResult</text:span>
                を実装した場合は、結果を設定する。
             </text:p>
           </table:table-cell>
@@ -14717,7 +14743,7 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="10"/>
-              <text:span text:style-name="T12">finish</text:span>
+              <text:span text:style-name="T13">finish</text:span>
               ();
             </text:p>
           </table:table-cell>
@@ -14913,9 +14939,9 @@
             <text:p>
               <text:s text:c="8"/>
               &lt;
-              <text:span text:style-name="T12">activity</text:span>
+              <text:span text:style-name="T13">activity</text:span>
                android:name=".
-              <text:span text:style-name="T14">IntentSample1Activity</text:span>
+              <text:span text:style-name="T15">IntentSample1Activity</text:span>
               "
             </text:p>
           </table:table-cell>
@@ -14949,7 +14975,7 @@
             <text:p>
               <text:s text:c="12"/>
               &lt;
-              <text:span text:style-name="T12">intent-filter</text:span>
+              <text:span text:style-name="T13">intent-filter</text:span>
               &gt;
             </text:p>
           </table:table-cell>
@@ -14971,9 +14997,9 @@
             <text:p>
               <text:s text:c="16"/>
               &lt;
-              <text:span text:style-name="T12">action</text:span>
+              <text:span text:style-name="T13">action</text:span>
                android:name="
-              <text:span text:style-name="T12">android.intent.action.MAIN</text:span>
+              <text:span text:style-name="T13">android.intent.action.MAIN</text:span>
               " /&gt;
             </text:p>
           </table:table-cell>
@@ -14987,9 +15013,9 @@
             <text:p>
               <text:s text:c="16"/>
               &lt;
-              <text:span text:style-name="T12">category</text:span>
+              <text:span text:style-name="T13">category</text:span>
                android:name="
-              <text:span text:style-name="T12">android.intent.category.LAUNCHER</text:span>
+              <text:span text:style-name="T13">android.intent.category.LAUNCHER</text:span>
               " /&gt;
             </text:p>
           </table:table-cell>
@@ -15054,7 +15080,7 @@
             <text:p>
               <text:s text:c="8"/>
               &lt;
-              <text:span text:style-name="T12">activity</text:span>
+              <text:span text:style-name="T13">activity</text:span>
                android:name="NextActivity"&gt;&lt;/activity&gt;
             </text:p>
           </table:table-cell>
@@ -15181,6 +15207,7 @@
         </table:table-row>
       </table:table>
       <table:table table:name="７章" table:style-name="ta1" table:print="false">
+        <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
         <table:table-column table:style-name="co1" table:number-columns-repeated="1024" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="16"/>
@@ -15254,7 +15281,7 @@
           <table:table-cell table:style-name="ce9" office:value-type="string">
             <text:p>
               public class ContactSampleActivity extends 
-              <text:span text:style-name="T12">Activity</text:span>
+              <text:span text:style-name="T13">Activity</text:span>
                {
             </text:p>
           </table:table-cell>
@@ -15389,7 +15416,7 @@
             <text:p>
               <text:s text:c="4"/>
               ContentResolver resolver = 
-              <text:span text:style-name="T12">getContentResolver</text:span>
+              <text:span text:style-name="T13">getContentResolver</text:span>
               ();
             </text:p>
           </table:table-cell>
@@ -15425,10 +15452,10 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="4"/>
-              <text:span text:style-name="T12">Cursor</text:span>
-              <text:span text:style-name="T14">cursor</text:span>
+              <text:span text:style-name="T13">Cursor</text:span>
+              <text:span text:style-name="T15">cursor</text:span>
                = resolver.
-              <text:span text:style-name="T12">query</text:span>
+              <text:span text:style-name="T13">query</text:span>
               (
             </text:p>
           </table:table-cell>
@@ -15442,7 +15469,7 @@
           <table:table-cell office:value-type="string">
             <text:p>
               Activityクラスの
-              <text:span text:style-name="T12">managedQuery()</text:span>
+              <text:span text:style-name="T13">managedQuery()</text:span>
                メソッドを使用することも可能
             </text:p>
           </table:table-cell>
@@ -15453,7 +15480,7 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="25"/>
-              <text:span text:style-name="T15">ContactsContract.Contacts.CONTENT_URI</text:span>
+              <text:span text:style-name="T16">ContactsContract.Contacts.CONTENT_URI</text:span>
               ,
             </text:p>
           </table:table-cell>
@@ -15502,9 +15529,9 @@
             <text:p>
               <text:s text:c="4"/>
               while (
-              <text:span text:style-name="T14">cursor</text:span>
+              <text:span text:style-name="T15">cursor</text:span>
               .
-              <text:span text:style-name="T12">moveToNext()</text:span>
+              <text:span text:style-name="T13">moveToNext()</text:span>
               ) {
             </text:p>
           </table:table-cell>
@@ -15546,13 +15573,13 @@
             <text:p>
               <text:s text:c="6"/>
               String id = 
-              <text:span text:style-name="T14">cursor</text:span>
+              <text:span text:style-name="T15">cursor</text:span>
               .
-              <text:span text:style-name="T12">getString</text:span>
+              <text:span text:style-name="T13">getString</text:span>
               (
-              <text:span text:style-name="T14">cursor</text:span>
+              <text:span text:style-name="T15">cursor</text:span>
               .
-              <text:span text:style-name="T12">getColumnIndex</text:span>
+              <text:span text:style-name="T13">getColumnIndex</text:span>
               (
             </text:p>
           </table:table-cell>
@@ -15573,7 +15600,7 @@
           <table:table-cell table:style-name="ce31" office:value-type="string">
             <text:p>
               <text:s text:c="18"/>
-              <text:span text:style-name="T15">ContactsContract.Contacts._ID</text:span>
+              <text:span text:style-name="T16">ContactsContract.Contacts._ID</text:span>
               ));
             </text:p>
           </table:table-cell>
@@ -15624,7 +15651,7 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="20"/>
-              <text:span text:style-name="T15">ContactsContract.Contacts.DISPLAY_NAME</text:span>
+              <text:span text:style-name="T16">ContactsContract.Contacts.DISPLAY_NAME</text:span>
               ));
             </text:p>
           </table:table-cell>
@@ -15732,7 +15759,7 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="18"/>
-              <text:span text:style-name="T15">ContactsContract.CommonDataKinds.Phone.CONTENT_URI</text:span>
+              <text:span text:style-name="T16">ContactsContract.CommonDataKinds.Phone.CONTENT_URI</text:span>
               ,
             </text:p>
           </table:table-cell>
@@ -15761,7 +15788,7 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="18"/>
-              <text:span text:style-name="T15">ContactsContract.CommonDataKinds.Phone.CONTACT_ID</text:span>
+              <text:span text:style-name="T16">ContactsContract.CommonDataKinds.Phone.CONTACT_ID</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="15"/>
@@ -15889,7 +15916,7 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="17"/>
-              <text:span text:style-name="T15">ContactsContract.CommonDataKinds.Phone.NUMBER</text:span>
+              <text:span text:style-name="T16">ContactsContract.CommonDataKinds.Phone.NUMBER</text:span>
               ));
             </text:p>
           </table:table-cell>
@@ -15999,7 +16026,7 @@
             <text:p>
               <text:s text:c="4"/>
               &lt;
-              <text:span text:style-name="T12">application</text:span>
+              <text:span text:style-name="T13">application</text:span>
                android:icon="@drawable/icon"
             </text:p>
           </table:table-cell>
@@ -16041,9 +16068,9 @@
           <table:table-cell office:value-type="string">
             <text:p>
               &lt;
-              <text:span text:style-name="T12">provider</text:span>
+              <text:span text:style-name="T13">provider</text:span>
                android:name=”
-              <text:span text:style-name="T14">MyContentProvider</text:span>
+              <text:span text:style-name="T15">MyContentProvider</text:span>
               ”
             </text:p>
           </table:table-cell>
@@ -16067,9 +16094,9 @@
             <text:p>
               <text:s text:c="6"/>
               android:
-              <text:span text:style-name="T12">authorities</text:span>
+              <text:span text:style-name="T13">authorities</text:span>
               =”
-              <text:span text:style-name="T14">jp.co.knowd</text:span>
+              <text:span text:style-name="T15">jp.co.knowd</text:span>
               ”&gt;
             </text:p>
           </table:table-cell>
@@ -16092,7 +16119,7 @@
           <table:table-cell office:value-type="string">
             <text:p>
               &lt;/
-              <text:span text:style-name="T12">provider</text:span>
+              <text:span text:style-name="T13">provider</text:span>
               &gt;
             </text:p>
           </table:table-cell>
@@ -16222,11 +16249,11 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               Uri 
-              <text:span text:style-name="T14">uri</text:span>
+              <text:span text:style-name="T15">uri</text:span>
                = 
-              <text:span text:style-name="T12">Uri.parse</text:span>
+              <text:span text:style-name="T13">Uri.parse</text:span>
               (“
-              <text:span text:style-name="T14">content://jp.co.knowd</text:span>
+              <text:span text:style-name="T15">content://jp.co.knowd</text:span>
               ”);
             </text:p>
           </table:table-cell>
@@ -16243,7 +16270,7 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               Cursor cursor = resolver.query(
-              <text:span text:style-name="T14">uri</text:span>
+              <text:span text:style-name="T15">uri</text:span>
                , null , null , null , null );
             </text:p>
           </table:table-cell>
@@ -16312,10 +16339,10 @@
           <table:table-cell table:number-columns-repeated="3"/>
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
-              <text:span text:style-name="T12">ContentObserver</text:span>
-              <text:span text:style-name="T14">contentObserver</text:span>
+              <text:span text:style-name="T13">ContentObserver</text:span>
+              <text:span text:style-name="T15">contentObserver</text:span>
                = new ContentObserver( new 
-              <text:span text:style-name="T22">Hnadler</text:span>
+              <text:span text:style-name="T23">Hnadler</text:span>
               ()) {
             </text:p>
           </table:table-cell>
@@ -16329,7 +16356,7 @@
             <text:p>
               <text:s text:c="4"/>
               public void 
-              <text:span text:style-name="T12">onChange</text:span>
+              <text:span text:style-name="T13">onChange</text:span>
               (boolean selfChange) {
             </text:p>
           </table:table-cell>
@@ -16414,9 +16441,9 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               getContentResolver().
-              <text:span text:style-name="T12">registerContentObserver</text:span>
+              <text:span text:style-name="T13">registerContentObserver</text:span>
               ( URI , true , 
-              <text:span text:style-name="T14">contentObserver</text:span>
+              <text:span text:style-name="T15">contentObserver</text:span>
               );
             </text:p>
           </table:table-cell>
@@ -16524,7 +16551,7 @@
             <text:p>
               <text:s text:c="4"/>
               getContext().getContentResolver().
-              <text:span text:style-name="T12">notifyChange</text:span>
+              <text:span text:style-name="T13">notifyChange</text:span>
               (uri , mull );
             </text:p>
           </table:table-cell>
@@ -16905,7 +16932,7 @@
             <text:p>
               <text:s text:c="6"/>
               Intent 
-              <text:span text:style-name="T14">intent</text:span>
+              <text:span text:style-name="T15">intent</text:span>
                = new Intent(ServiceSample1Activity.this,
             </text:p>
           </table:table-cell>
@@ -16958,7 +16985,7 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="5"/>
-              <text:span text:style-name="T14">intent</text:span>
+              <text:span text:style-name="T15">intent</text:span>
               .putExtra("STOPTIME",stopcount.getText().toString());
             </text:p>
           </table:table-cell>
@@ -16990,9 +17017,9 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="5"/>
-              <text:span text:style-name="T12">startService</text:span>
+              <text:span text:style-name="T13">startService</text:span>
               (
-              <text:span text:style-name="T14">intent</text:span>
+              <text:span text:style-name="T15">intent</text:span>
               );
             </text:p>
           </table:table-cell>
@@ -17014,7 +17041,7 @@
             <text:p>
               <text:s text:c="4"/>
               //
-              <text:span text:style-name="T12">stopService</text:span>
+              <text:span text:style-name="T13">stopService</text:span>
               (intent);
             </text:p>
           </table:table-cell>
@@ -17078,7 +17105,7 @@
           <table:table-cell table:style-name="ce9" office:value-type="string">
             <text:p>
               public class ServiceSample1Service extends 
-              <text:span text:style-name="T12">Service</text:span>
+              <text:span text:style-name="T13">Service</text:span>
               {
             </text:p>
           </table:table-cell>
@@ -17214,7 +17241,7 @@
             <text:p>
               <text:s text:c="2"/>
               public void 
-              <text:span text:style-name="T12">onCreate</text:span>
+              <text:span text:style-name="T13">onCreate</text:span>
               () {
             </text:p>
           </table:table-cell>
@@ -17338,7 +17365,7 @@
             <text:p>
               <text:s text:c="2"/>
               public int 
-              <text:span text:style-name="T12">onStartCommand</text:span>
+              <text:span text:style-name="T13">onStartCommand</text:span>
               (Intent intent, int flags, int startId) {
             </text:p>
           </table:table-cell>
@@ -17524,7 +17551,7 @@
             <text:p>
               <text:s text:c="2"/>
               public void 
-              <text:span text:style-name="T12">onDestroy</text:span>
+              <text:span text:style-name="T13">onDestroy</text:span>
               () {
             </text:p>
           </table:table-cell>
@@ -17822,7 +17849,7 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="8"/>
-              <text:span text:style-name="T12">stopSelf</text:span>
+              <text:span text:style-name="T13">stopSelf</text:span>
               ();
             </text:p>
           </table:table-cell>
@@ -18004,7 +18031,7 @@
             <text:p>
               <text:s text:c="4"/>
               &lt;
-              <text:span text:style-name="T16">application</text:span>
+              <text:span text:style-name="T17">application</text:span>
                android:icon="@drawable/icon"
             </text:p>
           </table:table-cell>
@@ -18028,9 +18055,9 @@
             <text:p>
               <text:s text:c="8"/>
               &lt;
-              <text:span text:style-name="T12">service</text:span>
+              <text:span text:style-name="T13">service</text:span>
                android:name=”
-              <text:span text:style-name="T14">ServiceSample1Service</text:span>
+              <text:span text:style-name="T15">ServiceSample1Service</text:span>
               ” /&gt;
             </text:p>
           </table:table-cell>
@@ -18368,7 +18395,7 @@
           <table:table-cell table:number-columns-repeated="5"/>
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
-              <text:span text:style-name="T12">interface</text:span>
+              <text:span text:style-name="T13">interface</text:span>
                BindActivityAIDL {
             </text:p>
           </table:table-cell>
@@ -18388,7 +18415,7 @@
             <text:p>
               <text:s text:c="2"/>
               void 
-              <text:span text:style-name="T14">displayTime</text:span>
+              <text:span text:style-name="T15">displayTime</text:span>
               (String msg);
             </text:p>
           </table:table-cell>
@@ -18410,7 +18437,7 @@
           <table:table-cell table:number-columns-repeated="2"/>
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
-              <text:span text:style-name="T12">interface</text:span>
+              <text:span text:style-name="T13">interface</text:span>
                BindServiceAIDL {
             </text:p>
           </table:table-cell>
@@ -18424,7 +18451,7 @@
             <text:p>
               <text:s text:c="2"/>
               void 
-              <text:span text:style-name="T14">registerCallback</text:span>
+              <text:span text:style-name="T15">registerCallback</text:span>
               (BindActivityAIDL callback);
             </text:p>
           </table:table-cell>
@@ -18440,7 +18467,7 @@
             <text:p>
               <text:s text:c="2"/>
               void 
-              <text:span text:style-name="T14">unregisterCallback</text:span>
+              <text:span text:style-name="T15">unregisterCallback</text:span>
               (BindActivityAIDL callback);
             </text:p>
           </table:table-cell>
@@ -18520,8 +18547,8 @@
             <text:p>
               <text:s text:c="2"/>
               private 
-              <text:span text:style-name="T12">BindServiceAIDL</text:span>
-              <text:span text:style-name="T14">bindserviceIf</text:span>
+              <text:span text:style-name="T13">BindServiceAIDL</text:span>
+              <text:span text:style-name="T15">bindserviceIf</text:span>
                = null;
             </text:p>
           </table:table-cell>
@@ -18565,8 +18592,8 @@
             <text:p>
               <text:s text:c="2"/>
               private 
-              <text:span text:style-name="T12">ServiceConnection</text:span>
-              <text:span text:style-name="T14">conn</text:span>
+              <text:span text:style-name="T13">ServiceConnection</text:span>
+              <text:span text:style-name="T15">conn</text:span>
                = null;
             </text:p>
           </table:table-cell>
@@ -18788,9 +18815,9 @@
             <text:p>
               <text:s text:c="8"/>
               &lt;
-              <text:span text:style-name="T12">service</text:span>
+              <text:span text:style-name="T13">service</text:span>
                android:name="
-              <text:span text:style-name="T14">ServiceSample2Service</text:span>
+              <text:span text:style-name="T15">ServiceSample2Service</text:span>
               "&gt;
             </text:p>
           </table:table-cell>
@@ -18813,7 +18840,7 @@
             <text:p>
               <text:s text:c="12"/>
               &lt;
-              <text:span text:style-name="T12">intent-filter</text:span>
+              <text:span text:style-name="T13">intent-filter</text:span>
               &gt;
             </text:p>
           </table:table-cell>
@@ -18836,7 +18863,7 @@
             <text:p>
               <text:s text:c="14"/>
               &lt;action android:name="
-              <text:span text:style-name="T14">jp.co.knowd.BindServiceAIDL</text:span>
+              <text:span text:style-name="T15">jp.co.knowd.BindServiceAIDL</text:span>
               "/&gt;
             </text:p>
           </table:table-cell>
@@ -19061,7 +19088,7 @@
             <text:p>
               <text:s text:c="12"/>
               new Intent(
-              <text:span text:style-name="T12">BindServiceAIDL.class</text:span>
+              <text:span text:style-name="T13">BindServiceAIDL.class</text:span>
               .getName());
             </text:p>
           </table:table-cell>
@@ -19097,9 +19124,9 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="5"/>
-              <text:span text:style-name="T14">conn</text:span>
+              <text:span text:style-name="T15">conn</text:span>
                = new 
-              <text:span text:style-name="T14">SampleServiceConnection</text:span>
+              <text:span text:style-name="T15">SampleServiceConnection</text:span>
               ();
             </text:p>
           </table:table-cell>
@@ -19131,9 +19158,9 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="6"/>
-              <text:span text:style-name="T12">bindService</text:span>
+              <text:span text:style-name="T13">bindService</text:span>
               (intent, 
-              <text:span text:style-name="T14">conn</text:span>
+              <text:span text:style-name="T15">conn</text:span>
               , BIND_AUTO_CREATE);
             </text:p>
           </table:table-cell>
@@ -19163,7 +19190,7 @@
           <table:table-cell office:value-type="string">
             <text:p>
               これにより、サービス側の
-              <text:span text:style-name="T12">onBind()</text:span>
+              <text:span text:style-name="T13">onBind()</text:span>
               が呼び出される。
             </text:p>
           </table:table-cell>
@@ -19313,9 +19340,9 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="8"/>
-              <text:span text:style-name="T14">bindserviceIf</text:span>
+              <text:span text:style-name="T15">bindserviceIf</text:span>
               .
-              <text:span text:style-name="T15">unregisterCallback</text:span>
+              <text:span text:style-name="T16">unregisterCallback</text:span>
               (bindactivityIf);
             </text:p>
           </table:table-cell>
@@ -19438,7 +19465,7 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="6"/>
-              <text:span text:style-name="T12">unbindService</text:span>
+              <text:span text:style-name="T13">unbindService</text:span>
               (conn);
             </text:p>
           </table:table-cell>
@@ -19499,7 +19526,7 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="6"/>
-              <text:span text:style-name="T12">stopService</text:span>
+              <text:span text:style-name="T13">stopService</text:span>
               (intent);
             </text:p>
           </table:table-cell>
@@ -19556,7 +19583,7 @@
             <text:p>
               <text:s text:c="2"/>
               class 
-              <text:span text:style-name="T14">SampleServiceConnection</text:span>
+              <text:span text:style-name="T15">SampleServiceConnection</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="16"/>
@@ -19569,7 +19596,7 @@
             <text:p>
               <text:s text:c="24"/>
               implements 
-              <text:span text:style-name="T12">ServiceConnection</text:span>
+              <text:span text:style-name="T13">ServiceConnection</text:span>
                {
             </text:p>
           </table:table-cell>
@@ -19595,7 +19622,7 @@
             <text:p>
               <text:s text:c="4"/>
               public void 
-              <text:span text:style-name="T12">onServiceConnected</text:span>
+              <text:span text:style-name="T13">onServiceConnected</text:span>
               (
             </text:p>
           </table:table-cell>
@@ -19612,9 +19639,9 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="8"/>
-              <text:span text:style-name="T12">ComponentName</text:span>
+              <text:span text:style-name="T13">ComponentName</text:span>
                compName, 
-              <text:span text:style-name="T12">IBinder</text:span>
+              <text:span text:style-name="T13">IBinder</text:span>
                binder) {
             </text:p>
           </table:table-cell>
@@ -19639,7 +19666,7 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="6"/>
-              <text:span text:style-name="T14">bindserviceIf</text:span>
+              <text:span text:style-name="T15">bindserviceIf</text:span>
                =
             </text:p>
           </table:table-cell>
@@ -19688,9 +19715,9 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="8"/>
-              <text:span text:style-name="T14">bindserviceIf</text:span>
+              <text:span text:style-name="T15">bindserviceIf</text:span>
               .
-              <text:span text:style-name="T23">registerCallback</text:span>
+              <text:span text:style-name="T24">registerCallback</text:span>
               (bindactivityIf);
             </text:p>
           </table:table-cell>
@@ -19764,7 +19791,7 @@
             <text:p>
               <text:s text:c="4"/>
               public void 
-              <text:span text:style-name="T12">onServiceDisconnected</text:span>
+              <text:span text:style-name="T13">onServiceDisconnected</text:span>
               (ComponentName arg0) {
             </text:p>
           </table:table-cell>
@@ -19777,7 +19804,7 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="6"/>
-              <text:span text:style-name="T14">bindserviceIf</text:span>
+              <text:span text:style-name="T15">bindserviceIf</text:span>
                = null;
             </text:p>
           </table:table-cell>
@@ -19858,7 +19885,7 @@
             <text:p>
               <text:s text:c="6"/>
               public void 
-              <text:span text:style-name="T15">displayTime</text:span>
+              <text:span text:style-name="T16">displayTime</text:span>
               (String msg)
             </text:p>
           </table:table-cell>
@@ -20105,9 +20132,9 @@
             <text:p>
               <text:s text:c="2"/>
               private final 
-              <text:span text:style-name="T12">RemoteCallbackList</text:span>
+              <text:span text:style-name="T13">RemoteCallbackList</text:span>
               &lt;
-              <text:span text:style-name="T14">BindActivityAIDL</text:span>
+              <text:span text:style-name="T15">BindActivityAIDL</text:span>
               &gt;
             </text:p>
           </table:table-cell>
@@ -20120,7 +20147,7 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="8"/>
-              <text:span text:style-name="T14">callbackList</text:span>
+              <text:span text:style-name="T15">callbackList</text:span>
               <text:s text:c="2"/>
               = new RemoteCallbackList&lt;BindActivityAIDL&gt;();
             </text:p>
@@ -20307,7 +20334,7 @@
             <text:p>
               <text:s text:c="2"/>
               public IBinder 
-              <text:span text:style-name="T12">onBind</text:span>
+              <text:span text:style-name="T13">onBind</text:span>
               (Intent intent) {
             </text:p>
           </table:table-cell>
@@ -20349,7 +20376,7 @@
             <text:p>
               <text:s text:c="6"/>
               return 
-              <text:span text:style-name="T14">serviceCallbackIf</text:span>
+              <text:span text:style-name="T15">serviceCallbackIf</text:span>
               ;
             </text:p>
           </table:table-cell>
@@ -20410,7 +20437,7 @@
             <text:p>
               <text:s text:c="2"/>
               public boolean 
-              <text:span text:style-name="T12">onUnbind</text:span>
+              <text:span text:style-name="T13">onUnbind</text:span>
               (Intent intent) {
             </text:p>
           </table:table-cell>
@@ -20519,8 +20546,8 @@
             <text:p>
               <text:s text:c="2"/>
               private 
-              <text:span text:style-name="T12">BindServiceAIDL.Stub</text:span>
-              <text:span text:style-name="T14">serviceCallbackIf</text:span>
+              <text:span text:style-name="T13">BindServiceAIDL.Stub</text:span>
+              <text:span text:style-name="T15">serviceCallbackIf</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="15"/>
@@ -20545,7 +20572,7 @@
             <text:p>
               <text:s text:c="4"/>
               public void 
-              <text:span text:style-name="T15">registerCallback</text:span>
+              <text:span text:style-name="T16">registerCallback</text:span>
               (BindActivityAIDL callback) {
             </text:p>
           </table:table-cell>
@@ -20595,7 +20622,7 @@
             <text:p>
               <text:s text:c="4"/>
               public void 
-              <text:span text:style-name="T15">unregisterCallback</text:span>
+              <text:span text:style-name="T16">unregisterCallback</text:span>
               (BindActivityAIDL callback) {
             </text:p>
           </table:table-cell>
@@ -20802,9 +20829,9 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="10"/>
-              <text:span text:style-name="T14">callbackList</text:span>
+              <text:span text:style-name="T15">callbackList</text:span>
               .getBroadcastItem(i).
-              <text:span text:style-name="T15">displayTime</text:span>
+              <text:span text:style-name="T16">displayTime</text:span>
               (
             </text:p>
           </table:table-cell>
@@ -21006,7 +21033,7 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               public class 
-              <text:span text:style-name="T14">StartActivityService</text:span>
+              <text:span text:style-name="T15">StartActivityService</text:span>
                extends Service {
             </text:p>
           </table:table-cell>
@@ -21132,7 +21159,7 @@
             <text:p>
               <text:s text:c="2"/>
               public int 
-              <text:span text:style-name="T12">onStartCommand</text:span>
+              <text:span text:style-name="T13">onStartCommand</text:span>
               (Intent intent, int flags, int startId) {
             </text:p>
           </table:table-cell>
@@ -21239,9 +21266,9 @@
             <text:p>
               <text:s text:c="4"/>
               intent.
-              <text:span text:style-name="T12">setAction</text:span>
+              <text:span text:style-name="T13">setAction</text:span>
               ("
-              <text:span text:style-name="T14">jp.co.knowd.VIEW</text:span>
+              <text:span text:style-name="T15">jp.co.knowd.VIEW</text:span>
               ");
             </text:p>
           </table:table-cell>
@@ -21257,7 +21284,7 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="35"/>
-              <text:span text:style-name="T14">StartActivityService</text:span>
+              <text:span text:style-name="T15">StartActivityService</text:span>
               .class);
             </text:p>
           </table:table-cell>
@@ -21270,7 +21297,7 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="4"/>
-              <text:span text:style-name="T12">sendBroadcast</text:span>
+              <text:span text:style-name="T13">sendBroadcast</text:span>
               (intent);
             </text:p>
           </table:table-cell>
@@ -21313,7 +21340,7 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="8"/>
-              <text:span text:style-name="T12">startService</text:span>
+              <text:span text:style-name="T13">startService</text:span>
               (intent);
             </text:p>
           </table:table-cell>
@@ -21389,7 +21416,7 @@
           <table:table-cell table:style-name="ce9" office:value-type="string">
             <text:p>
               public class StartActivityReceiver extends 
-              <text:span text:style-name="T12">BroadcastReceiver</text:span>
+              <text:span text:style-name="T13">BroadcastReceiver</text:span>
                {
             </text:p>
           </table:table-cell>
@@ -21428,7 +21455,7 @@
             <text:p>
               <text:s text:c="2"/>
               public void 
-              <text:span text:style-name="T12">onReceive</text:span>
+              <text:span text:style-name="T13">onReceive</text:span>
               (Context context, Intent i) {
             </text:p>
           </table:table-cell>
@@ -21472,7 +21499,7 @@
             <text:p>
               <text:s text:c="4"/>
               Intent intent = new Intent(context, 
-              <text:span text:style-name="T12">SubActivity.class</text:span>
+              <text:span text:style-name="T13">SubActivity.class</text:span>
               );
             </text:p>
           </table:table-cell>
@@ -21513,9 +21540,9 @@
             <text:p>
               <text:s text:c="4"/>
               intent.
-              <text:span text:style-name="T12">setFlags</text:span>
+              <text:span text:style-name="T13">setFlags</text:span>
               (Intent.
-              <text:span text:style-name="T12">FLAG_ACTIVITY_NEW_TASK</text:span>
+              <text:span text:style-name="T13">FLAG_ACTIVITY_NEW_TASK</text:span>
               );
             </text:p>
           </table:table-cell>
@@ -21547,7 +21574,7 @@
             <text:p>
               <text:s text:c="4"/>
               context.
-              <text:span text:style-name="T12">startActivity</text:span>
+              <text:span text:style-name="T13">startActivity</text:span>
               (intent);
             </text:p>
           </table:table-cell>
@@ -21824,9 +21851,9 @@
             <text:p>
               <text:s text:c="8"/>
               &lt;
-              <text:span text:style-name="T12">receiver</text:span>
+              <text:span text:style-name="T13">receiver</text:span>
                android:name="
-              <text:span text:style-name="T14">StartActivityReceiver</text:span>
+              <text:span text:style-name="T15">StartActivityReceiver</text:span>
               " &gt;
             </text:p>
           </table:table-cell>
@@ -21844,7 +21871,7 @@
             <text:p>
               <text:s text:c="10"/>
               &lt;
-              <text:span text:style-name="T12">intent-filter</text:span>
+              <text:span text:style-name="T13">intent-filter</text:span>
               &gt;
             </text:p>
           </table:table-cell>
@@ -21858,7 +21885,7 @@
             <text:p>
               <text:s text:c="12"/>
               &lt;action android:name="
-              <text:span text:style-name="T14">jp.co.knowd.VIEW</text:span>
+              <text:span text:style-name="T15">jp.co.knowd.VIEW</text:span>
               " /&gt;
             </text:p>
           </table:table-cell>
@@ -21883,7 +21910,7 @@
           <table:table-cell/>
           <table:table-cell table:style-name="ce34" office:value-type="string">
             <text:p>
-              <text:span text:style-name="T12">ブロードキャストインテント</text:span>
+              <text:span text:style-name="T13">ブロードキャストインテント</text:span>
               　がある
             </text:p>
           </table:table-cell>
@@ -21927,9 +21954,9 @@
             <text:p>
               <text:s text:c="8"/>
               &lt;
-              <text:span text:style-name="T12">service</text:span>
+              <text:span text:style-name="T13">service</text:span>
                android:name="
-              <text:span text:style-name="T14">StartActivityService</text:span>
+              <text:span text:style-name="T15">StartActivityService</text:span>
               " /&gt;
             </text:p>
           </table:table-cell>
@@ -22024,6 +22051,7 @@
         </table:table-row>
       </table:table>
       <table:table table:name="８章" table:style-name="ta1" table:print="false">
+        <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
         <table:table-column table:style-name="co1" table:number-columns-repeated="1024" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="16"/>
@@ -22106,9 +22134,9 @@
             <text:p>
               <text:s text:c="2"/>
               private static final String 
-              <text:span text:style-name="T14">FILE_NAME</text:span>
+              <text:span text:style-name="T15">FILE_NAME</text:span>
                = "
-              <text:span text:style-name="T14">MyPreference</text:span>
+              <text:span text:style-name="T15">MyPreference</text:span>
               ";
             </text:p>
           </table:table-cell>
@@ -22411,8 +22439,8 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="6"/>
-              <text:span text:style-name="T12">SharedPreferences</text:span>
-              <text:span text:style-name="T14">preference</text:span>
+              <text:span text:style-name="T13">SharedPreferences</text:span>
+              <text:span text:style-name="T15">preference</text:span>
                =
             </text:p>
           </table:table-cell>
@@ -22429,11 +22457,11 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="15"/>
-              <text:span text:style-name="T12">getSharedPreferences</text:span>
+              <text:span text:style-name="T13">getSharedPreferences</text:span>
               (
-              <text:span text:style-name="T14">FILE_NAME</text:span>
+              <text:span text:style-name="T15">FILE_NAME</text:span>
               , 
-              <text:span text:style-name="T12">MODE_PRIVATE</text:span>
+              <text:span text:style-name="T13">MODE_PRIVATE</text:span>
               );
             </text:p>
           </table:table-cell>
@@ -22548,12 +22576,12 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="8"/>
-              <text:span text:style-name="T12">SharedPreferences.Editor</text:span>
-              <text:span text:style-name="T14">editor</text:span>
+              <text:span text:style-name="T13">SharedPreferences.Editor</text:span>
+              <text:span text:style-name="T15">editor</text:span>
                = 
-              <text:span text:style-name="T14">preference</text:span>
+              <text:span text:style-name="T15">preference</text:span>
               .
-              <text:span text:style-name="T12">edit</text:span>
+              <text:span text:style-name="T13">edit</text:span>
               ();
             </text:p>
           </table:table-cell>
@@ -22632,9 +22660,9 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="8"/>
-              <text:span text:style-name="T14">editor</text:span>
+              <text:span text:style-name="T15">editor</text:span>
               .
-              <text:span text:style-name="T12">putString</text:span>
+              <text:span text:style-name="T13">putString</text:span>
               ("item", item);
             </text:p>
           </table:table-cell>
@@ -22651,9 +22679,9 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="8"/>
-              <text:span text:style-name="T14">editor</text:span>
+              <text:span text:style-name="T15">editor</text:span>
               .
-              <text:span text:style-name="T12">commit</text:span>
+              <text:span text:style-name="T13">commit</text:span>
               ();
             </text:p>
           </table:table-cell>
@@ -22776,9 +22804,9 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="13"/>
-              <text:span text:style-name="T14">preference</text:span>
+              <text:span text:style-name="T15">preference</text:span>
               .
-              <text:span text:style-name="T12">getString</text:span>
+              <text:span text:style-name="T13">getString</text:span>
               ("item", "ありません");
             </text:p>
           </table:table-cell>
@@ -22924,9 +22952,9 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="8"/>
-              <text:span text:style-name="T14">editor</text:span>
+              <text:span text:style-name="T15">editor</text:span>
               .
-              <text:span text:style-name="T12">clear</text:span>
+              <text:span text:style-name="T13">clear</text:span>
               ();
             </text:p>
           </table:table-cell>
@@ -22944,9 +22972,9 @@
           <table:table-cell office:value-type="string">
             <text:p>
               //
-              <text:span text:style-name="T14">editor</text:span>
+              <text:span text:style-name="T15">editor</text:span>
               .
-              <text:span text:style-name="T12">remove</text:span>
+              <text:span text:style-name="T13">remove</text:span>
               (int key);
             </text:p>
           </table:table-cell>
@@ -23136,7 +23164,7 @@
             <text:p>
               <text:s text:c="2"/>
               private static final String 
-              <text:span text:style-name="T14">FILE_NAME</text:span>
+              <text:span text:style-name="T15">FILE_NAME</text:span>
                = "FileSampleFile";
             </text:p>
           </table:table-cell>
@@ -23579,8 +23607,8 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="10"/>
-              <text:span text:style-name="T12">FileOutputStream</text:span>
-              <text:span text:style-name="T14">stream</text:span>
+              <text:span text:style-name="T13">FileOutputStream</text:span>
+              <text:span text:style-name="T15">stream</text:span>
                =
             </text:p>
           </table:table-cell>
@@ -23597,9 +23625,9 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="14"/>
-              <text:span text:style-name="T12">openFileOutput</text:span>
+              <text:span text:style-name="T13">openFileOutput</text:span>
               (FILE_NAME, 
-              <text:span text:style-name="T12">MODE_APPEND</text:span>
+              <text:span text:style-name="T13">MODE_APPEND</text:span>
               );
             </text:p>
           </table:table-cell>
@@ -23624,8 +23652,8 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="10"/>
-              <text:span text:style-name="T12">BufferedWriter</text:span>
-              <text:span text:style-name="T14">out</text:span>
+              <text:span text:style-name="T13">BufferedWriter</text:span>
+              <text:span text:style-name="T15">out</text:span>
                = 
               <text:s/>
               new BufferedWriter(
@@ -23649,9 +23677,9 @@
             <text:p>
               <text:s text:c="22"/>
               new 
-              <text:span text:style-name="T12">OutputStreamWriter</text:span>
+              <text:span text:style-name="T13">OutputStreamWriter</text:span>
               (
-              <text:span text:style-name="T14">stream</text:span>
+              <text:span text:style-name="T15">stream</text:span>
               ));
             </text:p>
           </table:table-cell>
@@ -23689,9 +23717,9 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="10"/>
-              <text:span text:style-name="T14">out</text:span>
+              <text:span text:style-name="T15">out</text:span>
               .
-              <text:span text:style-name="T12">write</text:span>
+              <text:span text:style-name="T13">write</text:span>
               (item + "," + num.getText().toString());
             </text:p>
           </table:table-cell>
@@ -23709,9 +23737,9 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="10"/>
-              <text:span text:style-name="T14">out</text:span>
+              <text:span text:style-name="T15">out</text:span>
               .
-              <text:span text:style-name="T12">newLine</text:span>
+              <text:span text:style-name="T13">newLine</text:span>
               ();
             </text:p>
           </table:table-cell>
@@ -23729,9 +23757,9 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="10"/>
-              <text:span text:style-name="T14">out</text:span>
+              <text:span text:style-name="T15">out</text:span>
               .
-              <text:span text:style-name="T12">close</text:span>
+              <text:span text:style-name="T13">close</text:span>
               ();
             </text:p>
           </table:table-cell>
@@ -23832,10 +23860,10 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="5"/>
-              <text:span text:style-name="T24">
+              <text:span text:style-name="T25">
                 <text:s text:c="3"/>
               </text:span>
-              <text:span text:style-name="T24">try{</text:span>
+              <text:span text:style-name="T25">try{</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="13"/>
@@ -23847,10 +23875,10 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="10"/>
-              <text:span text:style-name="T12">FileInputStream</text:span>
-              <text:span text:style-name="T14">stream</text:span>
+              <text:span text:style-name="T13">FileInputStream</text:span>
+              <text:span text:style-name="T15">stream</text:span>
                = 
-              <text:span text:style-name="T12">openFileInput</text:span>
+              <text:span text:style-name="T13">openFileInput</text:span>
               (FILE_NAME);
             </text:p>
           </table:table-cell>
@@ -23863,8 +23891,8 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="10"/>
-              <text:span text:style-name="T12">BufferedReader</text:span>
-              <text:span text:style-name="T14">in</text:span>
+              <text:span text:style-name="T13">BufferedReader</text:span>
+              <text:span text:style-name="T15">in</text:span>
                =
             </text:p>
           </table:table-cell>
@@ -23878,9 +23906,9 @@
             <text:p>
               <text:s text:c="14"/>
               new BufferedReader(new 
-              <text:span text:style-name="T12">InputStreamReader</text:span>
+              <text:span text:style-name="T13">InputStreamReader</text:span>
               (
-              <text:span text:style-name="T14">stream</text:span>
+              <text:span text:style-name="T15">stream</text:span>
               ));
             </text:p>
           </table:table-cell>
@@ -23913,9 +23941,9 @@
             <text:p>
               <text:s text:c="12"/>
               while((line = 
-              <text:span text:style-name="T14">in</text:span>
+              <text:span text:style-name="T15">in</text:span>
               .
-              <text:span text:style-name="T12">readLine</text:span>
+              <text:span text:style-name="T13">readLine</text:span>
               ())!=null){
             </text:p>
           </table:table-cell>
@@ -23952,9 +23980,9 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="12"/>
-              <text:span text:style-name="T14">in</text:span>
+              <text:span text:style-name="T15">in</text:span>
               .
-              <text:span text:style-name="T12">close</text:span>
+              <text:span text:style-name="T13">close</text:span>
               ();
             </text:p>
           </table:table-cell>
@@ -24053,7 +24081,7 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="10"/>
-              <text:span text:style-name="T12">deleteFile</text:span>
+              <text:span text:style-name="T13">deleteFile</text:span>
               (FILE_NAME);
             </text:p>
           </table:table-cell>
@@ -24202,7 +24230,7 @@
           <table:table-cell office:value-type="string">
             <text:p>
               ➡　ファイル（FileSampleFile ）の存在確認ができる。中身も
-              <text:span text:style-name="T12">参照可能</text:span>
+              <text:span text:style-name="T13">参照可能</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
@@ -24212,7 +24240,7 @@
           <table:table-cell office:value-type="string">
             <text:p>
               ➡　
-              <text:span text:style-name="T12">cat</text:span>
+              <text:span text:style-name="T13">cat</text:span>
               コマンドで中身を確認可能
             </text:p>
           </table:table-cell>
@@ -24282,7 +24310,7 @@
               public class MyHelper 
               <text:s/>
               extends 
-              <text:span text:style-name="T12">SQLiteOpenHelper</text:span>
+              <text:span text:style-name="T13">SQLiteOpenHelper</text:span>
               {
             </text:p>
           </table:table-cell>
@@ -24383,7 +24411,7 @@
             <text:p>
               <text:s text:c="2"/>
               public void 
-              <text:span text:style-name="T12">onCreate</text:span>
+              <text:span text:style-name="T13">onCreate</text:span>
               (SQLiteDatabase db) {
             </text:p>
           </table:table-cell>
@@ -24451,7 +24479,7 @@
             <text:p>
               <text:s text:c="2"/>
               public void 
-              <text:span text:style-name="T12">onUpgrade</text:span>
+              <text:span text:style-name="T13">onUpgrade</text:span>
               (SQLiteDatabase db,
             </text:p>
           </table:table-cell>
@@ -24540,8 +24568,8 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="2"/>
-              <text:span text:style-name="T14">MyHelper</text:span>
-              <text:span text:style-name="T14">helper</text:span>
+              <text:span text:style-name="T15">MyHelper</text:span>
+              <text:span text:style-name="T15">helper</text:span>
                = null;
             </text:p>
           </table:table-cell>
@@ -24554,8 +24582,8 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="2"/>
-              <text:span text:style-name="T12">SQLiteDatabase</text:span>
-              <text:span text:style-name="T14">db</text:span>
+              <text:span text:style-name="T13">SQLiteDatabase</text:span>
+              <text:span text:style-name="T15">db</text:span>
                = null;
             </text:p>
           </table:table-cell>
@@ -24916,9 +24944,9 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="4"/>
-              <text:span text:style-name="T14">helper</text:span>
+              <text:span text:style-name="T15">helper</text:span>
                = new 
-              <text:span text:style-name="T14">MyHelper</text:span>
+              <text:span text:style-name="T15">MyHelper</text:span>
               (DBSampleActivity.this);
             </text:p>
           </table:table-cell>
@@ -25227,11 +25255,11 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="6"/>
-              <text:span text:style-name="T14">db</text:span>
+              <text:span text:style-name="T15">db</text:span>
                = 
-              <text:span text:style-name="T14">helper</text:span>
+              <text:span text:style-name="T15">helper</text:span>
               .
-              <text:span text:style-name="T12">getWritableDatabase</text:span>
+              <text:span text:style-name="T13">getWritableDatabase</text:span>
               ();
             </text:p>
           </table:table-cell>
@@ -25375,9 +25403,9 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="10"/>
-              <text:span text:style-name="T14">db</text:span>
+              <text:span text:style-name="T15">db</text:span>
               .
-              <text:span text:style-name="T12">execSQL</text:span>
+              <text:span text:style-name="T13">execSQL</text:span>
               (sql);
             </text:p>
           </table:table-cell>
@@ -25525,9 +25553,9 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="10"/>
-              <text:span text:style-name="T14">db</text:span>
+              <text:span text:style-name="T15">db</text:span>
               .
-              <text:span text:style-name="T12">beginTransaction</text:span>
+              <text:span text:style-name="T13">beginTransaction</text:span>
               ();
             </text:p>
           </table:table-cell>
@@ -25567,8 +25595,8 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="10"/>
-              <text:span text:style-name="T12">ContentValues</text:span>
-              <text:span text:style-name="T14">val</text:span>
+              <text:span text:style-name="T13">ContentValues</text:span>
+              <text:span text:style-name="T15">val</text:span>
                = new ContentValues();
             </text:p>
           </table:table-cell>
@@ -25581,7 +25609,7 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="10"/>
-              <text:span text:style-name="T14">val</text:span>
+              <text:span text:style-name="T15">val</text:span>
               .put("item", item);
             </text:p>
           </table:table-cell>
@@ -25598,7 +25626,7 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="10"/>
-              <text:span text:style-name="T14">val</text:span>
+              <text:span text:style-name="T15">val</text:span>
               .put("num", num);
             </text:p>
           </table:table-cell>
@@ -25623,9 +25651,9 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="10"/>
-              <text:span text:style-name="T14">db</text:span>
+              <text:span text:style-name="T15">db</text:span>
               .insert("product", null, 
-              <text:span text:style-name="T14">val</text:span>
+              <text:span text:style-name="T15">val</text:span>
               );
             </text:p>
           </table:table-cell>
@@ -25661,9 +25689,9 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="10"/>
-              <text:span text:style-name="T14">db</text:span>
+              <text:span text:style-name="T15">db</text:span>
               .
-              <text:span text:style-name="T12">setTransactionSuccessful</text:span>
+              <text:span text:style-name="T13">setTransactionSuccessful</text:span>
               ();
             </text:p>
           </table:table-cell>
@@ -25699,9 +25727,9 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="10"/>
-              <text:span text:style-name="T14">db</text:span>
+              <text:span text:style-name="T15">db</text:span>
               .
-              <text:span text:style-name="T12">endTransaction</text:span>
+              <text:span text:style-name="T13">endTransaction</text:span>
               ();
             </text:p>
           </table:table-cell>
@@ -25881,7 +25909,7 @@
             <text:p>
               <text:s text:c="10"/>
               String 
-              <text:span text:style-name="T14">condition</text:span>
+              <text:span text:style-name="T15">condition</text:span>
                = null;
             </text:p>
           </table:table-cell>
@@ -25906,7 +25934,7 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="14"/>
-              <text:span text:style-name="T14">condition</text:span>
+              <text:span text:style-name="T15">condition</text:span>
                = "item = '" + item+"'";
             </text:p>
           </table:table-cell>
@@ -26029,13 +26057,13 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="10"/>
-              <text:span text:style-name="T14">db</text:span>
+              <text:span text:style-name="T15">db</text:span>
               .
-              <text:span text:style-name="T12">update</text:span>
+              <text:span text:style-name="T13">update</text:span>
               ("product", 
-              <text:span text:style-name="T14">val</text:span>
+              <text:span text:style-name="T15">val</text:span>
               , 
-              <text:span text:style-name="T14">condition</text:span>
+              <text:span text:style-name="T15">condition</text:span>
               , null);
             </text:p>
           </table:table-cell>
@@ -26336,9 +26364,9 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="10"/>
-              <text:span text:style-name="T14">db</text:span>
+              <text:span text:style-name="T15">db</text:span>
               .
-              <text:span text:style-name="T12">beginTransaction</text:span>
+              <text:span text:style-name="T13">beginTransaction</text:span>
               ();
             </text:p>
           </table:table-cell>
@@ -26370,11 +26398,11 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="10"/>
-              <text:span text:style-name="T14">db</text:span>
+              <text:span text:style-name="T15">db</text:span>
               .
-              <text:span text:style-name="T12">delete</text:span>
+              <text:span text:style-name="T13">delete</text:span>
               ("product", 
-              <text:span text:style-name="T14">condition</text:span>
+              <text:span text:style-name="T15">condition</text:span>
               , null);
             </text:p>
           </table:table-cell>
@@ -26608,11 +26636,11 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="10"/>
-              <text:span text:style-name="T14">db</text:span>
+              <text:span text:style-name="T15">db</text:span>
                = 
-              <text:span text:style-name="T14">helper</text:span>
+              <text:span text:style-name="T15">helper</text:span>
               .
-              <text:span text:style-name="T12">getReadableDatabase</text:span>
+              <text:span text:style-name="T13">getReadableDatabase</text:span>
               ();
             </text:p>
           </table:table-cell>
@@ -26679,12 +26707,12 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="10"/>
-              <text:span text:style-name="T12">Cursor</text:span>
-              <text:span text:style-name="T14">cursor</text:span>
+              <text:span text:style-name="T13">Cursor</text:span>
+              <text:span text:style-name="T15">cursor</text:span>
                = 
-              <text:span text:style-name="T14">db</text:span>
+              <text:span text:style-name="T15">db</text:span>
               .
-              <text:span text:style-name="T12">query</text:span>
+              <text:span text:style-name="T13">query</text:span>
               ("product", columns,
             </text:p>
           </table:table-cell>
@@ -27045,9 +27073,9 @@
             <text:p>
               <text:s text:c="10"/>
               while(
-              <text:span text:style-name="T14">cursor</text:span>
+              <text:span text:style-name="T15">cursor</text:span>
               .
-              <text:span text:style-name="T12">moveToNext</text:span>
+              <text:span text:style-name="T13">moveToNext</text:span>
               ()){
             </text:p>
           </table:table-cell>
@@ -27147,9 +27175,9 @@
             <text:p>
               <text:s text:c="12"/>
               itemtxt.setText(
-              <text:span text:style-name="T14">cursor</text:span>
+              <text:span text:style-name="T15">cursor</text:span>
               .
-              <text:span text:style-name="T12">getString</text:span>
+              <text:span text:style-name="T13">getString</text:span>
               (0));
             </text:p>
           </table:table-cell>
@@ -27218,9 +27246,9 @@
             <text:p>
               <text:s text:c="12"/>
               numtxt.setText(
-              <text:span text:style-name="T14">cursor</text:span>
+              <text:span text:style-name="T15">cursor</text:span>
               .
-              <text:span text:style-name="T12">getString</text:span>
+              <text:span text:style-name="T13">getString</text:span>
               (1));
             </text:p>
           </table:table-cell>
@@ -27410,9 +27438,9 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="6"/>
-              <text:span text:style-name="T14">db</text:span>
+              <text:span text:style-name="T15">db</text:span>
               .
-              <text:span text:style-name="T12">close</text:span>
+              <text:span text:style-name="T13">close</text:span>
               ();
             </text:p>
           </table:table-cell>
@@ -27652,6 +27680,7 @@
         </table:table-row>
       </table:table>
       <table:table table:name="９章" table:style-name="ta1" table:print="false">
+        <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
         <table:table-column table:style-name="co1" table:number-columns-repeated="1024" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="16"/>
@@ -27795,8 +27824,8 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="4"/>
-              <text:span text:style-name="T12">HttpURLConnection</text:span>
-              <text:span text:style-name="T14">http</text:span>
+              <text:span text:style-name="T13">HttpURLConnection</text:span>
+              <text:span text:style-name="T15">http</text:span>
                = null;
             </text:p>
           </table:table-cell>
@@ -27810,7 +27839,7 @@
             <text:p>
               <text:s text:c="4"/>
               InputStream 
-              <text:span text:style-name="T14">in</text:span>
+              <text:span text:style-name="T15">in</text:span>
                = null;
             </text:p>
           </table:table-cell>
@@ -27835,8 +27864,8 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="6"/>
-              <text:span text:style-name="T12">URL</text:span>
-              <text:span text:style-name="T14">url</text:span>
+              <text:span text:style-name="T13">URL</text:span>
+              <text:span text:style-name="T15">url</text:span>
                = new URL("http://www.knowd.co.jp");
             </text:p>
           </table:table-cell>
@@ -27849,11 +27878,11 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="6"/>
-              <text:span text:style-name="T14">http</text:span>
+              <text:span text:style-name="T15">http</text:span>
                = (HttpURLConnection)
-              <text:span text:style-name="T14">url</text:span>
+              <text:span text:style-name="T15">url</text:span>
               .
-              <text:span text:style-name="T12">openConnection</text:span>
+              <text:span text:style-name="T13">openConnection</text:span>
               ();
             </text:p>
           </table:table-cell>
@@ -27870,9 +27899,9 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="6"/>
-              <text:span text:style-name="T14">http</text:span>
+              <text:span text:style-name="T15">http</text:span>
               .
-              <text:span text:style-name="T12">setRequestMethod</text:span>
+              <text:span text:style-name="T13">setRequestMethod</text:span>
               ("GET");
             </text:p>
           </table:table-cell>
@@ -27885,9 +27914,9 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="6"/>
-              <text:span text:style-name="T14">http</text:span>
+              <text:span text:style-name="T15">http</text:span>
               .
-              <text:span text:style-name="T12">connect</text:span>
+              <text:span text:style-name="T13">connect</text:span>
               ();
             </text:p>
           </table:table-cell>
@@ -27900,11 +27929,11 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="6"/>
-              <text:span text:style-name="T14">in</text:span>
+              <text:span text:style-name="T15">in</text:span>
                = 
-              <text:span text:style-name="T14">http</text:span>
+              <text:span text:style-name="T15">http</text:span>
               .
-              <text:span text:style-name="T12">getInputStream</text:span>
+              <text:span text:style-name="T13">getInputStream</text:span>
               ();
             </text:p>
           </table:table-cell>
@@ -28165,9 +28194,9 @@
             <text:p>
               <text:s text:c="6"/>
               HttpClient 
-              <text:span text:style-name="T14">client</text:span>
+              <text:span text:style-name="T15">client</text:span>
                = new 
-              <text:span text:style-name="T12">DefaultHttpClient</text:span>
+              <text:span text:style-name="T13">DefaultHttpClient</text:span>
               ();
             </text:p>
           </table:table-cell>
@@ -28181,9 +28210,9 @@
             <text:p>
               <text:s text:c="6"/>
               HttpGet 
-              <text:span text:style-name="T14">request</text:span>
+              <text:span text:style-name="T15">request</text:span>
                = new 
-              <text:span text:style-name="T12">HttpGet</text:span>
+              <text:span text:style-name="T13">HttpGet</text:span>
               ("http://www.knowd.co.jp");
             </text:p>
           </table:table-cell>
@@ -28201,13 +28230,13 @@
             <text:p>
               <text:s text:c="6"/>
               HttpResponse 
-              <text:span text:style-name="T14">response</text:span>
+              <text:span text:style-name="T15">response</text:span>
                = 
-              <text:span text:style-name="T14">client</text:span>
+              <text:span text:style-name="T15">client</text:span>
               .
-              <text:span text:style-name="T12">execute</text:span>
+              <text:span text:style-name="T13">execute</text:span>
               (
-              <text:span text:style-name="T14">request</text:span>
+              <text:span text:style-name="T15">request</text:span>
               );
             </text:p>
           </table:table-cell>
@@ -28221,13 +28250,13 @@
             <text:p>
               <text:s text:c="6"/>
               int 
-              <text:span text:style-name="T14">status</text:span>
+              <text:span text:style-name="T15">status</text:span>
                = 
-              <text:span text:style-name="T14">response</text:span>
+              <text:span text:style-name="T15">response</text:span>
               .
-              <text:span text:style-name="T12">getStatusLine</text:span>
+              <text:span text:style-name="T13">getStatusLine</text:span>
               ().
-              <text:span text:style-name="T12">getStatusCode</text:span>
+              <text:span text:style-name="T13">getStatusCode</text:span>
               ();
             </text:p>
           </table:table-cell>
@@ -28245,7 +28274,7 @@
             <text:p>
               <text:s text:c="6"/>
               if(HttpStatus.
-              <text:span text:style-name="T24">SC_OK</text:span>
+              <text:span text:style-name="T25">SC_OK</text:span>
                == status) {
             </text:p>
           </table:table-cell>
@@ -28436,7 +28465,7 @@
             <text:p>
               <text:s text:c="4"/>
               &lt;uses-permission android:name="
-              <text:span text:style-name="T12">android.permission.INTERNET</text:span>
+              <text:span text:style-name="T13">android.permission.INTERNET</text:span>
               " /&gt;
             </text:p>
           </table:table-cell>
@@ -28567,7 +28596,7 @@
           <table:table-cell office:value-type="string">
             <text:p>
               org.apache.http.
-              <text:span text:style-name="T12">impl.client</text:span>
+              <text:span text:style-name="T13">impl.client</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1008"/>
@@ -28631,9 +28660,9 @@
           <table:table-cell office:value-type="string">
             <text:p>
               org.apahce.http.
-              <text:span text:style-name="T12">impl</text:span>
+              <text:span text:style-name="T13">impl</text:span>
               .
-              <text:span text:style-name="T12">client</text:span>
+              <text:span text:style-name="T13">client</text:span>
               .AbstractHttpClient
             </text:p>
           </table:table-cell>
@@ -28703,9 +28732,9 @@
           <table:table-cell office:value-type="string">
             <text:p>
               org.apache.http.
-              <text:span text:style-name="T12">impl</text:span>
+              <text:span text:style-name="T13">impl</text:span>
               .
-              <text:span text:style-name="T12">client</text:span>
+              <text:span text:style-name="T13">client</text:span>
               .DefaultHttpClient
             </text:p>
           </table:table-cell>
@@ -29048,11 +29077,11 @@
             <text:p>
               <text:s text:c="8"/>
               BluetoothAdapter 
-              <text:span text:style-name="T14">adapter</text:span>
+              <text:span text:style-name="T15">adapter</text:span>
                = 
-              <text:span text:style-name="T12">BluetoothAdapter</text:span>
+              <text:span text:style-name="T13">BluetoothAdapter</text:span>
               .
-              <text:span text:style-name="T12">getDefaultAdapter</text:span>
+              <text:span text:style-name="T13">getDefaultAdapter</text:span>
               ();
             </text:p>
           </table:table-cell>
@@ -29078,9 +29107,9 @@
             <text:p>
               <text:s text:c="8"/>
               if (!
-              <text:span text:style-name="T14">adapter</text:span>
+              <text:span text:style-name="T15">adapter</text:span>
               .
-              <text:span text:style-name="T12">isEnabled</text:span>
+              <text:span text:style-name="T13">isEnabled</text:span>
               ()) {
             </text:p>
           </table:table-cell>
@@ -29130,7 +29159,7 @@
             <text:p>
               <text:s text:c="14"/>
               new Intent(BluetoothAdapter.
-              <text:span text:style-name="T12">ACTION_REQUEST_ENABLE</text:span>
+              <text:span text:style-name="T13">ACTION_REQUEST_ENABLE</text:span>
               );
             </text:p>
           </table:table-cell>
@@ -29155,7 +29184,7 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="10"/>
-              <text:span text:style-name="T24">startActivityForResult</text:span>
+              <text:span text:style-name="T25">startActivityForResult</text:span>
               (intent, REQUEST_ENABLE_BT);
             </text:p>
           </table:table-cell>
@@ -29224,10 +29253,10 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="8"/>
-              <text:span text:style-name="T12">BluetoothDevice</text:span>
-              <text:span text:style-name="T14">device</text:span>
+              <text:span text:style-name="T13">BluetoothDevice</text:span>
+              <text:span text:style-name="T15">device</text:span>
                = adapter.
-              <text:span text:style-name="T12">getRemoteDevice</text:span>
+              <text:span text:style-name="T13">getRemoteDevice</text:span>
               (address);
             </text:p>
           </table:table-cell>
@@ -29382,7 +29411,7 @@
               <text:s text:c="2"/>
               <text:s/>
               &lt;uses-permission android:name="
-              <text:span text:style-name="T12">android.permission.BLUETOOTH</text:span>
+              <text:span text:style-name="T13">android.permission.BLUETOOTH</text:span>
               "&gt;&lt;/uses-permission&gt;
             </text:p>
           </table:table-cell>
@@ -29401,7 +29430,7 @@
               <text:s text:c="2"/>
               <text:s/>
               &lt;uses-permission android:name="
-              <text:span text:style-name="T12">android.permission.BLUETOOTH_ADMIN</text:span>
+              <text:span text:style-name="T13">android.permission.BLUETOOTH_ADMIN</text:span>
               "&gt;&lt;/uses-permission&gt;
             </text:p>
           </table:table-cell>
@@ -29653,8 +29682,8 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="4"/>
-              <text:span text:style-name="T12">WifiManager</text:span>
-              <text:span text:style-name="T14">wifiManager</text:span>
+              <text:span text:style-name="T13">WifiManager</text:span>
+              <text:span text:style-name="T15">wifiManager</text:span>
                =
             </text:p>
           </table:table-cell>
@@ -29668,9 +29697,9 @@
             <text:p>
               <text:s text:c="8"/>
               (WifiManager)
-              <text:span text:style-name="T12">getSystemService</text:span>
+              <text:span text:style-name="T13">getSystemService</text:span>
               (
-              <text:span text:style-name="T12">WIFI_SERVICE</text:span>
+              <text:span text:style-name="T13">WIFI_SERVICE</text:span>
               );
             </text:p>
           </table:table-cell>
@@ -29684,11 +29713,11 @@
             <text:p>
               <text:s text:c="4"/>
               int 
-              <text:span text:style-name="T14">wifiState</text:span>
+              <text:span text:style-name="T15">wifiState</text:span>
                = 
-              <text:span text:style-name="T14">wifiManager</text:span>
+              <text:span text:style-name="T15">wifiManager</text:span>
               .
-              <text:span text:style-name="T12">getWifiState</text:span>
+              <text:span text:style-name="T13">getWifiState</text:span>
               ();
             </text:p>
           </table:table-cell>
@@ -29734,9 +29763,9 @@
             <text:p>
               <text:s text:c="4"/>
               if(!
-              <text:span text:style-name="T14">wifiManager</text:span>
+              <text:span text:style-name="T15">wifiManager</text:span>
               .
-              <text:span text:style-name="T12">isWifiEnabled</text:span>
+              <text:span text:style-name="T13">isWifiEnabled</text:span>
               ()){
             </text:p>
           </table:table-cell>
@@ -29757,9 +29786,9 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="6"/>
-              <text:span text:style-name="T14">wifiManager</text:span>
+              <text:span text:style-name="T15">wifiManager</text:span>
               .
-              <text:span text:style-name="T12">setWifiEnabled</text:span>
+              <text:span text:style-name="T13">setWifiEnabled</text:span>
               (true);
             </text:p>
           </table:table-cell>
@@ -29800,9 +29829,9 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="6"/>
-              <text:span text:style-name="T14">wifiManager</text:span>
+              <text:span text:style-name="T15">wifiManager</text:span>
               .
-              <text:span text:style-name="T12">setWifiEnabled</text:span>
+              <text:span text:style-name="T13">setWifiEnabled</text:span>
               (false);
             </text:p>
           </table:table-cell>
@@ -29844,7 +29873,7 @@
             <text:p>
               <text:s text:c="4"/>
               wifiState = wifiManager.
-              <text:span text:style-name="T12">getWifiState</text:span>
+              <text:span text:style-name="T13">getWifiState</text:span>
               ();
             </text:p>
           </table:table-cell>
@@ -30235,7 +30264,7 @@
             <text:p>
               <text:s text:c="33"/>
               implements 
-              <text:span text:style-name="T12">LocationListener</text:span>
+              <text:span text:style-name="T13">LocationListener</text:span>
               {
             </text:p>
           </table:table-cell>
@@ -30369,8 +30398,8 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="10"/>
-              <text:span text:style-name="T12">LocationManager</text:span>
-              <text:span text:style-name="T14">manager</text:span>
+              <text:span text:style-name="T13">LocationManager</text:span>
+              <text:span text:style-name="T15">manager</text:span>
                =
             </text:p>
           </table:table-cell>
@@ -30388,9 +30417,9 @@
             <text:p>
               <text:s text:c="15"/>
               (LocationManager)
-              <text:span text:style-name="T12">getSystemService</text:span>
+              <text:span text:style-name="T13">getSystemService</text:span>
               (
-              <text:span text:style-name="T12">LOCATION_SERVICE</text:span>
+              <text:span text:style-name="T13">LOCATION_SERVICE</text:span>
               );
             </text:p>
           </table:table-cell>
@@ -30400,7 +30429,7 @@
           <table:table-cell office:value-type="string">
             <text:p>
               LocationManager.
-              <text:span text:style-name="T12">GPS</text:span>
+              <text:span text:style-name="T13">GPS</text:span>
               _PROVDIDER
             </text:p>
           </table:table-cell>
@@ -30424,7 +30453,7 @@
           <table:table-cell office:value-type="string">
             <text:p>
               LocationManager.
-              <text:span text:style-name="T12">NETWORK</text:span>
+              <text:span text:style-name="T13">NETWORK</text:span>
               _PROVIDER
             </text:p>
           </table:table-cell>
@@ -30439,11 +30468,11 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="10"/>
-              <text:span text:style-name="T24">List&lt;String&gt;</text:span>
+              <text:span text:style-name="T25">List&lt;String&gt;</text:span>
                allProvider = 
-              <text:span text:style-name="T14">manager</text:span>
+              <text:span text:style-name="T15">manager</text:span>
               .
-              <text:span text:style-name="T12">getAllProviders</text:span>
+              <text:span text:style-name="T13">getAllProviders</text:span>
               ();
             </text:p>
           </table:table-cell>
@@ -30453,7 +30482,7 @@
           <table:table-cell office:value-type="string">
             <text:p>
               LocationManager.
-              <text:span text:style-name="T12">PASSIVE</text:span>
+              <text:span text:style-name="T13">PASSIVE</text:span>
               _PROVIDER
             </text:p>
           </table:table-cell>
@@ -30480,11 +30509,11 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="10"/>
-              <text:span text:style-name="T24">List&lt;String&gt;</text:span>
+              <text:span text:style-name="T25">List&lt;String&gt;</text:span>
                enableProvider = 
-              <text:span text:style-name="T14">manager</text:span>
+              <text:span text:style-name="T15">manager</text:span>
               .
-              <text:span text:style-name="T12">getProviders</text:span>
+              <text:span text:style-name="T13">getProviders</text:span>
               (true);
             </text:p>
           </table:table-cell>
@@ -30770,10 +30799,10 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="10"/>
-              <text:span text:style-name="T12">Criteria</text:span>
-              <text:span text:style-name="T14">criteria</text:span>
+              <text:span text:style-name="T13">Criteria</text:span>
+              <text:span text:style-name="T15">criteria</text:span>
                = new 
-              <text:span text:style-name="T12">Criteria</text:span>
+              <text:span text:style-name="T13">Criteria</text:span>
               ();
             </text:p>
           </table:table-cell>
@@ -30788,11 +30817,11 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="10"/>
-              <text:span text:style-name="T14">criteria</text:span>
+              <text:span text:style-name="T15">criteria</text:span>
               .
-              <text:span text:style-name="T12">setAccuracy</text:span>
+              <text:span text:style-name="T13">setAccuracy</text:span>
               (Criteria.
-              <text:span text:style-name="T12">ACCURACY_COARSE</text:span>
+              <text:span text:style-name="T13">ACCURACY_COARSE</text:span>
               );
             </text:p>
           </table:table-cell>
@@ -30808,14 +30837,14 @@
             <text:p>
               <text:s text:c="10"/>
               String 
-              <text:span text:style-name="T14">provider</text:span>
+              <text:span text:style-name="T15">provider</text:span>
               <text:s/>
               = 
-              <text:span text:style-name="T14">manager</text:span>
+              <text:span text:style-name="T15">manager</text:span>
               .
-              <text:span text:style-name="T12">getBestProvider</text:span>
+              <text:span text:style-name="T13">getBestProvider</text:span>
               ( 
-              <text:span text:style-name="T14">criteria</text:span>
+              <text:span text:style-name="T15">criteria</text:span>
               , true);
             </text:p>
           </table:table-cell>
@@ -30880,11 +30909,11 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="10"/>
-              <text:span text:style-name="T14">manager</text:span>
+              <text:span text:style-name="T15">manager</text:span>
               .
-              <text:span text:style-name="T12">requestLocationUpdates</text:span>
+              <text:span text:style-name="T13">requestLocationUpdates</text:span>
               ( 
-              <text:span text:style-name="T14">provider</text:span>
+              <text:span text:style-name="T15">provider</text:span>
               , 0, 0,
             </text:p>
           </table:table-cell>
@@ -30962,12 +30991,12 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="10"/>
-              <text:span text:style-name="T12">Location</text:span>
-              <text:span text:style-name="T14">location</text:span>
+              <text:span text:style-name="T13">Location</text:span>
+              <text:span text:style-name="T15">location</text:span>
                = 
-              <text:span text:style-name="T14">manager</text:span>
+              <text:span text:style-name="T15">manager</text:span>
               .
-              <text:span text:style-name="T12">getLastKnownLocation</text:span>
+              <text:span text:style-name="T13">getLastKnownLocation</text:span>
               ( provider );
             </text:p>
           </table:table-cell>
@@ -31008,9 +31037,9 @@
             <text:p>
               <text:s text:c="10"/>
               double latitude = 
-              <text:span text:style-name="T14">location</text:span>
+              <text:span text:style-name="T15">location</text:span>
               .
-              <text:span text:style-name="T12">getLatitude</text:span>
+              <text:span text:style-name="T13">getLatitude</text:span>
               ();
             </text:p>
           </table:table-cell>
@@ -31044,7 +31073,7 @@
             <text:p>
               <text:s text:c="10"/>
               double longitude = location.
-              <text:span text:style-name="T12">getLongitude</text:span>
+              <text:span text:style-name="T13">getLongitude</text:span>
               ();
             </text:p>
           </table:table-cell>
@@ -31086,7 +31115,7 @@
             <text:p>
               <text:s text:c="10"/>
               double altitude = location.
-              <text:span text:style-name="T12">getAltitude</text:span>
+              <text:span text:style-name="T13">getAltitude</text:span>
               ();
             </text:p>
           </table:table-cell>
@@ -31317,7 +31346,7 @@
             <text:p>
               <text:s text:c="4"/>
               public void 
-              <text:span text:style-name="T12">onLocationChanged</text:span>
+              <text:span text:style-name="T13">onLocationChanged</text:span>
               (Location location) {
             </text:p>
           </table:table-cell>
@@ -31511,7 +31540,7 @@
           <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               　　&lt;uses-permission android:name="android.permission.
-              <text:span text:style-name="T12">ACCESS_FINE_LOCATION</text:span>
+              <text:span text:style-name="T13">ACCESS_FINE_LOCATION</text:span>
               "/&gt;
             </text:p>
           </table:table-cell>
@@ -31528,7 +31557,7 @@
           <table:table-cell table:style-name="ce6" office:value-type="string">
             <text:p>
               　　&lt;uses-permission android:name="android.permission.
-              <text:span text:style-name="T12">ACCESS_MOCK_LOCATION</text:span>
+              <text:span text:style-name="T13">ACCESS_MOCK_LOCATION</text:span>
               "/&gt;
             </text:p>
           </table:table-cell>
@@ -31563,8 +31592,8 @@
           <table:table-cell office:value-type="string">
             <text:p>
               指定しない場合、
-              <text:span text:style-name="T12">SecurityException</text:span>
-              <text:span text:style-name="T16">が発生</text:span>
+              <text:span text:style-name="T13">SecurityException</text:span>
+              <text:span text:style-name="T17">が発生</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="999"/>
@@ -31733,8 +31762,8 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="6"/>
-              <text:span text:style-name="T12">SensorManager</text:span>
-              <text:span text:style-name="T14">sm</text:span>
+              <text:span text:style-name="T13">SensorManager</text:span>
+              <text:span text:style-name="T15">sm</text:span>
                =
             </text:p>
           </table:table-cell>
@@ -31748,9 +31777,9 @@
             <text:p>
               <text:s text:c="15"/>
               (SensorManager)
-              <text:span text:style-name="T12">getSystemService</text:span>
+              <text:span text:style-name="T13">getSystemService</text:span>
               (
-              <text:span text:style-name="T12">SENSOR_SERVICE</text:span>
+              <text:span text:style-name="T13">SENSOR_SERVICE</text:span>
               );
             </text:p>
           </table:table-cell>
@@ -31775,14 +31804,14 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="6"/>
-              <text:span text:style-name="T12">List&lt;Sensor&gt;</text:span>
-              <text:span text:style-name="T14">sensors</text:span>
+              <text:span text:style-name="T13">List&lt;Sensor&gt;</text:span>
+              <text:span text:style-name="T15">sensors</text:span>
                = 
-              <text:span text:style-name="T14">sm</text:span>
+              <text:span text:style-name="T15">sm</text:span>
               .
-              <text:span text:style-name="T12">getSensorList</text:span>
+              <text:span text:style-name="T13">getSensorList</text:span>
               (Sensor.
-              <text:span text:style-name="T12">TYPE_ALL</text:span>
+              <text:span text:style-name="T13">TYPE_ALL</text:span>
               );
             </text:p>
           </table:table-cell>
@@ -31834,7 +31863,7 @@
             <text:p>
               <text:s text:c="8"/>
               int sensorType = sensor.
-              <text:span text:style-name="T12">getType</text:span>
+              <text:span text:style-name="T13">getType</text:span>
               ();
             </text:p>
           </table:table-cell>
@@ -31860,7 +31889,7 @@
             <text:p>
               <text:s text:c="10"/>
               case Sensor.
-              <text:span text:style-name="T12">TYPE_ACCELEROMETER</text:span>
+              <text:span text:style-name="T13">TYPE_ACCELEROMETER</text:span>
               :
             </text:p>
           </table:table-cell>
@@ -31888,7 +31917,7 @@
             <text:p>
               <text:s text:c="10"/>
               case Sensor.
-              <text:span text:style-name="T12">TYPE_GRAVITY</text:span>
+              <text:span text:style-name="T13">TYPE_GRAVITY</text:span>
               :
             </text:p>
           </table:table-cell>
@@ -31916,7 +31945,7 @@
             <text:p>
               <text:s text:c="10"/>
               case Sensor.
-              <text:span text:style-name="T12">TYPE_GYROSCOPE</text:span>
+              <text:span text:style-name="T13">TYPE_GYROSCOPE</text:span>
               :
             </text:p>
           </table:table-cell>
@@ -31944,7 +31973,7 @@
             <text:p>
               <text:s text:c="10"/>
               case Sensor.
-              <text:span text:style-name="T12">TYPE_LIGHT</text:span>
+              <text:span text:style-name="T13">TYPE_LIGHT</text:span>
               :
             </text:p>
           </table:table-cell>
@@ -31972,7 +32001,7 @@
             <text:p>
               <text:s text:c="10"/>
               case Sensor.
-              <text:span text:style-name="T12">TYPE_LINEAR_ACCELERATION</text:span>
+              <text:span text:style-name="T13">TYPE_LINEAR_ACCELERATION</text:span>
               :
             </text:p>
           </table:table-cell>
@@ -32000,7 +32029,7 @@
             <text:p>
               <text:s text:c="10"/>
               case Sensor.
-              <text:span text:style-name="T12">TYPE_MAGNETIC_FIELD</text:span>
+              <text:span text:style-name="T13">TYPE_MAGNETIC_FIELD</text:span>
               :
             </text:p>
           </table:table-cell>
@@ -32028,7 +32057,7 @@
             <text:p>
               <text:s text:c="10"/>
               case Sensor.
-              <text:span text:style-name="T12">TYPE_PRESSURE</text:span>
+              <text:span text:style-name="T13">TYPE_PRESSURE</text:span>
               :
             </text:p>
           </table:table-cell>
@@ -32056,7 +32085,7 @@
             <text:p>
               <text:s text:c="10"/>
               case Sensor.
-              <text:span text:style-name="T12">TYPE_PROXIMITY</text:span>
+              <text:span text:style-name="T13">TYPE_PROXIMITY</text:span>
               :
             </text:p>
           </table:table-cell>
@@ -32084,7 +32113,7 @@
             <text:p>
               <text:s text:c="10"/>
               case Sensor.
-              <text:span text:style-name="T12">TYPE_ROTATION_VECTOR</text:span>
+              <text:span text:style-name="T13">TYPE_ROTATION_VECTOR</text:span>
               :
             </text:p>
           </table:table-cell>
@@ -32112,7 +32141,7 @@
             <text:p>
               <text:s text:c="10"/>
               case Sensor.
-              <text:span text:style-name="T12">TYPE_TEMPERATURE</text:span>
+              <text:span text:style-name="T13">TYPE_TEMPERATURE</text:span>
               :
             </text:p>
           </table:table-cell>
@@ -32241,8 +32270,8 @@
             <text:p>
               <text:s text:c="2"/>
               private 
-              <text:span text:style-name="T12">MediaPlayer</text:span>
-              <text:span text:style-name="T14">mediaPlayer</text:span>
+              <text:span text:style-name="T13">MediaPlayer</text:span>
+              <text:span text:style-name="T15">mediaPlayer</text:span>
               ;
             </text:p>
           </table:table-cell>
@@ -32406,13 +32435,13 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="4"/>
-              <text:span text:style-name="T14">mediaPlayer</text:span>
+              <text:span text:style-name="T15">mediaPlayer</text:span>
                = 
-              <text:span text:style-name="T12">MediaPlayer</text:span>
+              <text:span text:style-name="T13">MediaPlayer</text:span>
               .
-              <text:span text:style-name="T12">create</text:span>
+              <text:span text:style-name="T13">create</text:span>
               (this, 
-              <text:span text:style-name="T12">R.raw.tel</text:span>
+              <text:span text:style-name="T13">R.raw.tel</text:span>
               );
             </text:p>
           </table:table-cell>
@@ -32482,9 +32511,9 @@
             <text:p>
               <text:s text:c="6"/>
               if (!
-              <text:span text:style-name="T14">mediaPlayer</text:span>
+              <text:span text:style-name="T15">mediaPlayer</text:span>
               .
-              <text:span text:style-name="T12">isPlaying</text:span>
+              <text:span text:style-name="T13">isPlaying</text:span>
               ()) {
             </text:p>
           </table:table-cell>
@@ -32509,9 +32538,9 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="8"/>
-              <text:span text:style-name="T14">mediaPlayer</text:span>
+              <text:span text:style-name="T15">mediaPlayer</text:span>
               .
-              <text:span text:style-name="T12">seekTo</text:span>
+              <text:span text:style-name="T13">seekTo</text:span>
               (int msec);
             </text:p>
           </table:table-cell>
@@ -32536,9 +32565,9 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="8"/>
-              <text:span text:style-name="T14">mediaPlayer</text:span>
+              <text:span text:style-name="T15">mediaPlayer</text:span>
               .
-              <text:span text:style-name="T12">start</text:span>
+              <text:span text:style-name="T13">start</text:span>
               ();
             </text:p>
           </table:table-cell>
@@ -32587,9 +32616,9 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="6"/>
-              <text:span text:style-name="T14">mediaPlayer</text:span>
+              <text:span text:style-name="T15">mediaPlayer</text:span>
               .
-              <text:span text:style-name="T12">pause</text:span>
+              <text:span text:style-name="T13">pause</text:span>
               ();
             </text:p>
           </table:table-cell>
@@ -32638,9 +32667,9 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="8"/>
-              <text:span text:style-name="T14">mediaPlayer</text:span>
+              <text:span text:style-name="T15">mediaPlayer</text:span>
               .
-              <text:span text:style-name="T12">stop</text:span>
+              <text:span text:style-name="T13">stop</text:span>
               ();
             </text:p>
           </table:table-cell>
@@ -32677,9 +32706,9 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="10"/>
-              <text:span text:style-name="T14">mediaPlayer</text:span>
+              <text:span text:style-name="T15">mediaPlayer</text:span>
               .
-              <text:span text:style-name="T12">prepare</text:span>
+              <text:span text:style-name="T13">prepare</text:span>
               ();
             </text:p>
           </table:table-cell>
@@ -32781,8 +32810,8 @@
             <text:p>
               <text:s text:c="2"/>
               private 
-              <text:span text:style-name="T12">MediaPlayer</text:span>
-              <text:span text:style-name="T14">mediaPlayer</text:span>
+              <text:span text:style-name="T13">MediaPlayer</text:span>
+              <text:span text:style-name="T15">mediaPlayer</text:span>
               ;
             </text:p>
           </table:table-cell>
@@ -32940,7 +32969,7 @@
             <text:p>
               <text:s text:c="6"/>
               String 
-              <text:span text:style-name="T14">path</text:span>
+              <text:span text:style-name="T15">path</text:span>
                =
             </text:p>
           </table:table-cell>
@@ -32953,9 +32982,9 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="10"/>
-              <text:span text:style-name="T24">Environment</text:span>
+              <text:span text:style-name="T25">Environment</text:span>
               .
-              <text:span text:style-name="T12">getExternalStorageDirectory</text:span>
+              <text:span text:style-name="T13">getExternalStorageDirectory</text:span>
               ().getPath()
             </text:p>
           </table:table-cell>
@@ -32996,7 +33025,7 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="8"/>
-              <text:span text:style-name="T14">mediaPlayer</text:span>
+              <text:span text:style-name="T15">mediaPlayer</text:span>
                = new MediaPlayer();
             </text:p>
           </table:table-cell>
@@ -33013,11 +33042,11 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="8"/>
-              <text:span text:style-name="T14">mediaPlayer</text:span>
+              <text:span text:style-name="T15">mediaPlayer</text:span>
               .
-              <text:span text:style-name="T12">setDataSource</text:span>
+              <text:span text:style-name="T13">setDataSource</text:span>
               ( 
-              <text:span text:style-name="T14">path</text:span>
+              <text:span text:style-name="T15">path</text:span>
                );
             </text:p>
           </table:table-cell>
@@ -33029,10 +33058,10 @@
               ⬅　setDataSource 
               <text:s/>
               第一引数は
-              <text:span text:style-name="T26">String</text:span>
-              <text:span text:style-name="T27"> </text:span>
-              <text:span text:style-name="T27">もしくは　</text:span>
-              <text:span text:style-name="T26">FileDescriptor</text:span>
+              <text:span text:style-name="T27">String</text:span>
+              <text:span text:style-name="T28"> </text:span>
+              <text:span text:style-name="T28">もしくは　</text:span>
+              <text:span text:style-name="T27">FileDescriptor</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1003"/>
@@ -33042,9 +33071,9 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="8"/>
-              <text:span text:style-name="T14">mediaPlayer</text:span>
+              <text:span text:style-name="T15">mediaPlayer</text:span>
               .
-              <text:span text:style-name="T12">prepare</text:span>
+              <text:span text:style-name="T13">prepare</text:span>
               ();
             </text:p>
           </table:table-cell>
@@ -33054,9 +33083,9 @@
           <table:table-cell office:value-type="string">
             <text:p>
               ⬅　ローカルファイルの場合、
-              <text:span text:style-name="T12">prepare</text:span>
+              <text:span text:style-name="T13">prepare</text:span>
               () は
-              <text:span text:style-name="T15">呼び出し必須</text:span>
+              <text:span text:style-name="T16">呼び出し必須</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1003"/>
@@ -33500,8 +33529,8 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="2"/>
-              <text:span text:style-name="T12">MediaRecorder</text:span>
-              <text:span text:style-name="T14">recorder</text:span>
+              <text:span text:style-name="T13">MediaRecorder</text:span>
+              <text:span text:style-name="T15">recorder</text:span>
               ;
             </text:p>
           </table:table-cell>
@@ -33586,9 +33615,9 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="10"/>
-              <text:span text:style-name="T14">recorder</text:span>
+              <text:span text:style-name="T15">recorder</text:span>
                = 
-              <text:span text:style-name="T16">startRec</text:span>
+              <text:span text:style-name="T17">startRec</text:span>
               ();
             </text:p>
           </table:table-cell>
@@ -33734,7 +33763,7 @@
             <text:p>
               <text:s text:c="4"/>
               String 
-              <text:span text:style-name="T14">filename</text:span>
+              <text:span text:style-name="T15">filename</text:span>
                =
             </text:p>
           </table:table-cell>
@@ -33747,9 +33776,9 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="8"/>
-              <text:span text:style-name="T24">Environment</text:span>
+              <text:span text:style-name="T25">Environment</text:span>
               .
-              <text:span text:style-name="T12">getExternalStorageDirectory</text:span>
+              <text:span text:style-name="T13">getExternalStorageDirectory</text:span>
               ().getPath()
             </text:p>
           </table:table-cell>
@@ -33793,8 +33822,8 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="4"/>
-              <text:span text:style-name="T12">MediaRecorder</text:span>
-              <text:span text:style-name="T14">recorder</text:span>
+              <text:span text:style-name="T13">MediaRecorder</text:span>
+              <text:span text:style-name="T15">recorder</text:span>
                = new MediaRecorder();
             </text:p>
           </table:table-cell>
@@ -33819,12 +33848,12 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="4"/>
-              <text:span text:style-name="T14">recorder</text:span>
+              <text:span text:style-name="T15">recorder</text:span>
               .
-              <text:span text:style-name="T12">setAudioSource</text:span>
+              <text:span text:style-name="T13">setAudioSource</text:span>
               (
-              <text:span text:style-name="T16">MediaRecorder</text:span>
-              <text:span text:style-name="T12">.AudioSource.MIC</text:span>
+              <text:span text:style-name="T17">MediaRecorder</text:span>
+              <text:span text:style-name="T13">.AudioSource.MIC</text:span>
               );
             </text:p>
           </table:table-cell>
@@ -33849,11 +33878,11 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="4"/>
-              <text:span text:style-name="T14">recorder</text:span>
+              <text:span text:style-name="T15">recorder</text:span>
               .
-              <text:span text:style-name="T12">setOutputFormat</text:span>
+              <text:span text:style-name="T13">setOutputFormat</text:span>
               (MediaRecorder.
-              <text:span text:style-name="T12">OutputFormat.THREE_GPP</text:span>
+              <text:span text:style-name="T13">OutputFormat.THREE_GPP</text:span>
               );
             </text:p>
           </table:table-cell>
@@ -33878,11 +33907,11 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="4"/>
-              <text:span text:style-name="T14">recorder</text:span>
+              <text:span text:style-name="T15">recorder</text:span>
               .
-              <text:span text:style-name="T12">setAudioEncoder</text:span>
+              <text:span text:style-name="T13">setAudioEncoder</text:span>
               (MediaRecorder.
-              <text:span text:style-name="T12">AudioEncoder.AMR_NB</text:span>
+              <text:span text:style-name="T13">AudioEncoder.AMR_NB</text:span>
               );
             </text:p>
           </table:table-cell>
@@ -33908,7 +33937,7 @@
             <text:p>
               <text:s text:c="4"/>
               recorder.
-              <text:span text:style-name="T12">setOutputFile</text:span>
+              <text:span text:style-name="T13">setOutputFile</text:span>
               (filename);
             </text:p>
           </table:table-cell>
@@ -33945,9 +33974,9 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="6"/>
-              <text:span text:style-name="T14">recorder</text:span>
+              <text:span text:style-name="T15">recorder</text:span>
               .
-              <text:span text:style-name="T12">prepare</text:span>
+              <text:span text:style-name="T13">prepare</text:span>
               ();
             </text:p>
           </table:table-cell>
@@ -33972,9 +34001,9 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="6"/>
-              <text:span text:style-name="T14">recorder</text:span>
+              <text:span text:style-name="T15">recorder</text:span>
               .
-              <text:span text:style-name="T12">start</text:span>
+              <text:span text:style-name="T13">start</text:span>
               ();
             </text:p>
           </table:table-cell>
@@ -34073,9 +34102,9 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="4"/>
-              <text:span text:style-name="T14">recorder</text:span>
+              <text:span text:style-name="T15">recorder</text:span>
               .
-              <text:span text:style-name="T12">stop</text:span>
+              <text:span text:style-name="T13">stop</text:span>
               ();
             </text:p>
           </table:table-cell>
@@ -34100,9 +34129,9 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="4"/>
-              <text:span text:style-name="T14">recorder</text:span>
+              <text:span text:style-name="T15">recorder</text:span>
               .
-              <text:span text:style-name="T12">release</text:span>
+              <text:span text:style-name="T13">release</text:span>
               ();
             </text:p>
           </table:table-cell>
@@ -34170,7 +34199,7 @@
             <text:p>
               <text:s text:c="4"/>
               &lt;uses-permission android:name="android.permission.
-              <text:span text:style-name="T12">RECORD_AUDIO</text:span>
+              <text:span text:style-name="T13">RECORD_AUDIO</text:span>
               "&gt;&lt;/uses-permission&gt;
             </text:p>
           </table:table-cell>
@@ -34188,7 +34217,7 @@
             <text:p>
               <text:s text:c="4"/>
               &lt;uses-permission android:name="android.permission.
-              <text:span text:style-name="T12">WRITE_EXTERNAL_STORAGE</text:span>
+              <text:span text:style-name="T13">WRITE_EXTERNAL_STORAGE</text:span>
               "&gt;&lt;/uses-permission&gt;
             </text:p>
           </table:table-cell>
@@ -34337,8 +34366,8 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="6"/>
-              <text:span text:style-name="T12">VideoView</text:span>
-              <text:span text:style-name="T14">videoView</text:span>
+              <text:span text:style-name="T13">VideoView</text:span>
+              <text:span text:style-name="T15">videoView</text:span>
                =
             </text:p>
           </table:table-cell>
@@ -34352,7 +34381,7 @@
             <text:p>
               <text:s text:c="10"/>
               (VideoView)findViewById(R.id.
-              <text:span text:style-name="T14">videoView</text:span>
+              <text:span text:style-name="T15">videoView</text:span>
               );
             </text:p>
           </table:table-cell>
@@ -34377,9 +34406,9 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="10"/>
-              <text:span text:style-name="T25">Environment</text:span>
+              <text:span text:style-name="T26">Environment</text:span>
               .
-              <text:span text:style-name="T12">getExternalStorageDirectory</text:span>
+              <text:span text:style-name="T13">getExternalStorageDirectory</text:span>
               ().getPath()
             </text:p>
           </table:table-cell>
@@ -34416,11 +34445,11 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="6"/>
-              <text:span text:style-name="T14">videoView</text:span>
+              <text:span text:style-name="T15">videoView</text:span>
               .
-              <text:span text:style-name="T12">setMediaController</text:span>
+              <text:span text:style-name="T13">setMediaController</text:span>
               (new 
-              <text:span text:style-name="T12">MediaController</text:span>
+              <text:span text:style-name="T13">MediaController</text:span>
               (this));
             </text:p>
           </table:table-cell>
@@ -34437,9 +34466,9 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="6"/>
-              <text:span text:style-name="T14">videoView</text:span>
+              <text:span text:style-name="T15">videoView</text:span>
               .
-              <text:span text:style-name="T12">setVideoPath</text:span>
+              <text:span text:style-name="T13">setVideoPath</text:span>
               (path);
             </text:p>
           </table:table-cell>
@@ -34456,9 +34485,9 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               <text:s text:c="6"/>
-              <text:span text:style-name="T14">videoView</text:span>
+              <text:span text:style-name="T15">videoView</text:span>
               .
-              <text:span text:style-name="T12">start</text:span>
+              <text:span text:style-name="T13">start</text:span>
               ();
             </text:p>
           </table:table-cell>
@@ -34472,9 +34501,9 @@
             <text:p>
               <text:s text:c="6"/>
               //
-              <text:span text:style-name="T14">videoView</text:span>
+              <text:span text:style-name="T15">videoView</text:span>
               .
-              <text:span text:style-name="T12">stopPlayback</text:span>
+              <text:span text:style-name="T13">stopPlayback</text:span>
               ();
             </text:p>
           </table:table-cell>
@@ -34488,9 +34517,9 @@
             <text:p>
               <text:s text:c="6"/>
               //
-              <text:span text:style-name="T14">videoView</text:span>
+              <text:span text:style-name="T15">videoView</text:span>
               .
-              <text:span text:style-name="T12">pause</text:span>
+              <text:span text:style-name="T13">pause</text:span>
               ();
             </text:p>
           </table:table-cell>
@@ -34504,9 +34533,9 @@
             <text:p>
               <text:s text:c="6"/>
               //
-              <text:span text:style-name="T14">videoView</text:span>
+              <text:span text:style-name="T15">videoView</text:span>
               .
-              <text:span text:style-name="T12">seekTo</text:span>
+              <text:span text:style-name="T13">seekTo</text:span>
               ();
             </text:p>
           </table:table-cell>
@@ -34687,9 +34716,9 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               &lt;
-              <text:span text:style-name="T12">VideoView</text:span>
+              <text:span text:style-name="T13">VideoView</text:span>
                android:id="@+id/
-              <text:span text:style-name="T14">videoView</text:span>
+              <text:span text:style-name="T15">videoView</text:span>
               "
             </text:p>
           </table:table-cell>
@@ -34726,7 +34755,7 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               &lt;/
-              <text:span text:style-name="T12">VideoView</text:span>
+              <text:span text:style-name="T13">VideoView</text:span>
               &gt;
             </text:p>
           </table:table-cell>
@@ -34967,7 +34996,7 @@
           <table:table-cell office:value-type="string">
             <text:p>
               プロジェクト内に 
-              <text:span text:style-name="T12">jni</text:span>
+              <text:span text:style-name="T13">jni</text:span>
                ディレクトリを作成
             </text:p>
           </table:table-cell>
@@ -34983,9 +35012,9 @@
           </table:table-cell>
           <table:table-cell office:value-type="string">
             <text:p>
-              <text:span text:style-name="T12">jni</text:span>
+              <text:span text:style-name="T13">jni</text:span>
                ディレクトリ内にソースコードと
-              <text:span text:style-name="T12">Android.mk</text:span>
+              <text:span text:style-name="T13">Android.mk</text:span>
                ファイルを作成
             </text:p>
           </table:table-cell>
@@ -35132,9 +35161,9 @@
           <table:table-cell office:value-type="string">
             <text:p>
               プロジェクトディレクトリ直下に 
-              <text:span text:style-name="T12">Application.mk</text:span>
+              <text:span text:style-name="T13">Application.mk</text:span>
                を作成　（
-              <text:span text:style-name="T15">任意の作業</text:span>
+              <text:span text:style-name="T16">任意の作業</text:span>
               ）
             </text:p>
           </table:table-cell>
@@ -35258,9 +35287,9 @@
           <table:table-cell table:number-columns-repeated="5"/>
           <table:table-cell office:value-type="string">
             <text:p>
-              <text:span text:style-name="T12">Cygwin</text:span>
+              <text:span text:style-name="T13">Cygwin</text:span>
                端末から 
-              <text:span text:style-name="T12">nkd-build</text:span>
+              <text:span text:style-name="T13">nkd-build</text:span>
                コマンドを実行
             </text:p>
           </table:table-cell>
@@ -35273,11 +35302,11 @@
           <table:table-cell table:number-columns-repeated="5"/>
           <table:table-cell office:value-type="string">
             <text:p>
-              <text:span text:style-name="T12">libs/armeabi</text:span>
+              <text:span text:style-name="T13">libs/armeabi</text:span>
               <text:s/>
               に 
-              <text:span text:style-name="T12">so </text:span>
-              <text:span text:style-name="T12">ファイル</text:span>
+              <text:span text:style-name="T13">so </text:span>
+              <text:span text:style-name="T13">ファイル</text:span>
               が生成されている。
             </text:p>
           </table:table-cell>
@@ -35577,9 +35606,9 @@
           <table:table-cell table:number-columns-repeated="7"/>
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
-              <text:span text:style-name="T12">jstring</text:span>
+              <text:span text:style-name="T13">jstring</text:span>
                str = env-&gt;
-              <text:span text:style-name="T12">NewStringUTF</text:span>
+              <text:span text:style-name="T13">NewStringUTF</text:span>
               (env,”aa”);
             </text:p>
           </table:table-cell>
@@ -35604,9 +35633,9 @@
           <table:table-cell table:number-columns-repeated="7"/>
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
-              <text:span text:style-name="T12">jsize</text:span>
+              <text:span text:style-name="T13">jsize</text:span>
                len = env-&gt;
-              <text:span text:style-name="T12">GetStringUTFLength</text:span>
+              <text:span text:style-name="T13">GetStringUTFLength</text:span>
               (env, str);
             </text:p>
           </table:table-cell>
@@ -35648,9 +35677,9 @@
           <table:table-cell table:number-columns-repeated="7"/>
           <table:table-cell table:style-name="ce14" office:value-type="string">
             <text:p>
-              <text:span text:style-name="T12">jintArray</text:span>
+              <text:span text:style-name="T13">jintArray</text:span>
                is = env-&gt;
-              <text:span text:style-name="T12">NewIntArray</text:span>
+              <text:span text:style-name="T13">NewIntArray</text:span>
               (JNIEnv env , size length); 
             </text:p>
           </table:table-cell>
@@ -35675,9 +35704,9 @@
           <table:table-cell table:number-columns-repeated="7"/>
           <table:table-cell table:style-name="ce14" office:value-type="string">
             <text:p>
-              <text:span text:style-name="T12">jsize</text:span>
+              <text:span text:style-name="T13">jsize</text:span>
                size = env-&gt;
-              <text:span text:style-name="T12">GetArrayLength</text:span>
+              <text:span text:style-name="T13">GetArrayLength</text:span>
               (JNIEnv env , jarray array); 
             </text:p>
           </table:table-cell>
@@ -35703,7 +35732,7 @@
           <table:table-cell table:style-name="ce14" office:value-type="string">
             <text:p>
               jint obj = env-&gt;
-              <text:span text:style-name="T12">GetIntArrayElements</text:span>
+              <text:span text:style-name="T13">GetIntArrayElements</text:span>
               (JNIEnv env ,jinitArray array, jboolean isCopy);
             </text:p>
           </table:table-cell>
@@ -35792,7 +35821,7 @@
             <text:p>
               <text:s text:c="4"/>
               public 
-              <text:span text:style-name="T12">native</text:span>
+              <text:span text:style-name="T13">native</text:span>
                int foo(String src );
             </text:p>
           </table:table-cell>
@@ -35834,7 +35863,7 @@
           <table:table-cell table:style-name="ce9" office:value-type="string">
             <text:p>
               prompt&gt; cd &lt;
-              <text:span text:style-name="T15">ソースファイル保存ディレクトリ</text:span>
+              <text:span text:style-name="T16">ソースファイル保存ディレクトリ</text:span>
               &gt;
             </text:p>
           </table:table-cell>
@@ -35847,7 +35876,7 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               prompt&gt; 
-              <text:span text:style-name="T12">javac</text:span>
+              <text:span text:style-name="T13">javac</text:span>
                -d . JniSample.java
             </text:p>
           </table:table-cell>
@@ -35887,7 +35916,7 @@
           <table:table-cell table:style-name="ce9" office:value-type="string">
             <text:p>
               prompt&gt; cd &lt;
-              <text:span text:style-name="T15">パッケージルートディレクトリの場所</text:span>
+              <text:span text:style-name="T16">パッケージルートディレクトリの場所</text:span>
               &gt;
             </text:p>
           </table:table-cell>
@@ -35900,7 +35929,7 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               prompt&gt; 
-              <text:span text:style-name="T12">javah</text:span>
+              <text:span text:style-name="T13">javah</text:span>
                -classpath . -d ./header jp.co.knowd.JniSample
             </text:p>
           </table:table-cell>
@@ -36161,11 +36190,11 @@
           <table:table-cell table:style-name="ce8" office:value-type="string">
             <text:p>
               JNIEXPORT jint JNICALL Java_
-              <text:span text:style-name="T14">jp_co_knowd</text:span>
+              <text:span text:style-name="T15">jp_co_knowd</text:span>
               _
-              <text:span text:style-name="T12">JniSample</text:span>
+              <text:span text:style-name="T13">JniSample</text:span>
               _
-              <text:span text:style-name="T24">foo</text:span>
+              <text:span text:style-name="T25">foo</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="12"/>
@@ -36221,9 +36250,9 @@
           <table:table-cell table:number-columns-repeated="5"/>
           <table:table-cell office:value-type="string">
             <text:p>
-              <text:span text:style-name="T12">Cygwin</text:span>
+              <text:span text:style-name="T13">Cygwin</text:span>
                端末から 
-              <text:span text:style-name="T12">nkd-build</text:span>
+              <text:span text:style-name="T13">nkd-build</text:span>
                コマンドを実行
             </text:p>
           </table:table-cell>
@@ -36236,11 +36265,11 @@
           <table:table-cell table:number-columns-repeated="5"/>
           <table:table-cell office:value-type="string">
             <text:p>
-              <text:span text:style-name="T12">libs/armeabi</text:span>
+              <text:span text:style-name="T13">libs/armeabi</text:span>
               <text:s/>
               に 
-              <text:span text:style-name="T12">so </text:span>
-              <text:span text:style-name="T12">ファイル</text:span>
+              <text:span text:style-name="T13">so </text:span>
+              <text:span text:style-name="T13">ファイル</text:span>
               が生成されている。
             </text:p>
           </table:table-cell>
@@ -36384,8 +36413,8 @@
           <table:table-cell office:value-type="string">
             <text:p>
               &lt;
-              <text:span text:style-name="T28">manifest</text:span>
-              <text:span text:style-name="T29"> xmlns:android="http://schemas.android.com/apk/res/android"</text:span>
+              <text:span text:style-name="T29">manifest</text:span>
+              <text:span text:style-name="T30"> xmlns:android="http://schemas.android.com/apk/res/android"</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
@@ -36434,8 +36463,8 @@
             <text:p>
               <text:s text:c="4"/>
               &lt;
-              <text:span text:style-name="T28">application</text:span>
-              <text:span text:style-name="T29"> </text:span>
+              <text:span text:style-name="T29">application</text:span>
+              <text:span text:style-name="T30"> </text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
@@ -36513,7 +36542,7 @@
           <table:table-cell office:value-type="string">
             <text:p>
               String packageName = 
-              <text:span text:style-name="T28">getPackageName();</text:span>
+              <text:span text:style-name="T29">getPackageName();</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
@@ -36523,7 +36552,7 @@
           <table:table-cell office:value-type="string">
             <text:p>
               PackageManager pm = 
-              <text:span text:style-name="T28">getPackageManager();</text:span>
+              <text:span text:style-name="T29">getPackageManager();</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
@@ -36533,7 +36562,7 @@
           <table:table-cell office:value-type="string">
             <text:p>
               PackageInfo packageInfo = 
-              <text:span text:style-name="T28">pm.getPackageInfo(packageName, 0);</text:span>
+              <text:span text:style-name="T29">pm.getPackageInfo(packageName, 0);</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="1019"/>
@@ -36543,7 +36572,7 @@
           <table:table-cell office:value-type="string">
             <text:p>
               int versinoCode = 
-              <text:span text:style-name="T28">packageInfo.versionCode;</text:span>
+              <text:span text:style-name="T29">packageInfo.versionCode;</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="13"/>
@@ -36557,7 +36586,7 @@
           <table:table-cell office:value-type="string">
             <text:p>
               String versionName = 
-              <text:span text:style-name="T28">packageInfo.versionName;</text:span>
+              <text:span text:style-name="T29">packageInfo.versionName;</text:span>
             </text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="13"/>
@@ -37307,9 +37336,2356 @@
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
       </table:table>
-      <table:table table:name="Sheet3" table:style-name="ta3" table:print="false">
+      <table:table table:name="１３章" table:style-name="ta3" table:print="false">
+        <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
         <table:table-column table:style-name="co6" table:number-columns-repeated="1024" table:default-cell-style-name="Excel_20_Built-in_20_Normal"/>
-        <table:table-row table:style-name="ro1" table:number-rows-repeated="1048575">
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>13章</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1022"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>●</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>デバッグ機能</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>android コマンド</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>AVDの作成、更新、削除</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Androidプロジェクトの作成、更新</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>Android SDKの更新</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>android コマンド　構文</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>
+              android [
+              <text:span text:style-name="T13">グローバルオプション</text:span>
+              ] 
+              <text:span text:style-name="T15">アクション </text:span>
+              <text:span text:style-name="T15">[</text:span>
+              <text:span text:style-name="T15">アクションオプション</text:span>
+              <text:span text:style-name="T15">]</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1019"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce36" office:value-type="string">
+            <text:p>グローバルオプション</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>-s</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>サイレントモード：エラーのみ出力</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1015"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>-h</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>ヘルプ</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1015"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>-v</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell office:value-type="string">
+            <text:p>冗長モード：警告、情報メッセージを出力</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1015"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce45" office:value-type="string">
+            <text:p>アクション</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1018"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce9" office:value-type="string">
+            <text:p>create avd</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="22"/>
+          <table:table-cell table:style-name="ce18"/>
+          <table:table-cell table:number-columns-repeated="994"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>-n &lt;name&gt;</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>--name</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="994"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>-t &lt;targetID&gt;</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>--target</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>Androidのバージョンのターゲットのリスト番号</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="10"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="994"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>-c &lt;path&gt;|&lt;size&gt;[K|M]</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>--sdcard</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="994"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>-p &lt;path&gt;</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>--path</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="994"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>-s &lt;name&gt;|&lt;width&gt;-&lt;height&gt;</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>--skin</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>AVD で使用するスキンもしくは縦横幅</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="10"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="994"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="22"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="994"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>delete avd</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="22"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="994"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>-n &lt;name&gt;</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>--name</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="994"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="22"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="994"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>move avd</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="22"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="994"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>-n &lt;name&gt;</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>--name</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="994"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>-p &lt;path&gt;</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>--path</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="994"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>-r &lt;rename&gt;</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>--rename</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="994"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="22"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="994"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>update avd</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="22"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="994"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>-n &lt;name&gt;</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>--name</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="994"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="22"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="994"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>list avd</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="11"/>
+          <table:table-cell office:value-type="string">
+            <text:p>作成済みAVDの表示</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="10"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="994"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="22"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="994"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>list target</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="11"/>
+          <table:table-cell office:value-type="string">
+            <text:p>利用可能なターゲットIDの表示</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="10"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="994"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell table:style-name="ce11" table:number-columns-repeated="22"/>
+          <table:table-cell table:style-name="ce20"/>
+          <table:table-cell table:number-columns-repeated="994"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce9" office:value-type="string">
+            <text:p>create project</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="22"/>
+          <table:table-cell table:style-name="ce18"/>
+          <table:table-cell table:number-columns-repeated="994"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>-n &lt;name&gt;</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>--name</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="994"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>-t &lt;targetID&gt;</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>--target</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="994"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>-k</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>--package</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="994"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>-a</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>--activity</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>デフォルトのアクティビティクラスの名前</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="10"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="994"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>-p &lt;path&gt;</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>--path</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="994"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:number-columns-repeated="22"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="994"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce8" office:value-type="string">
+            <text:p>update project</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="22"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="994"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>-n &lt;name&gt;</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>--name</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="994"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>-p &lt;path&gt;</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>--path</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="994"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>-l &lt;library-path&gt;</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>--library</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="994"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>-s &lt;sub-project&gt;</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>--subproject</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>テストプロジェクトのようなサブフォルダにある任意のプロジェクトを更新</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="10"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="994"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>-t &lt;targetID&gt;</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>--target</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="14"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="994"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell table:style-name="ce11" table:number-columns-repeated="22"/>
+          <table:table-cell table:style-name="ce20"/>
+          <table:table-cell table:number-columns-repeated="994"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>eumulator</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="11"/>
+          <table:table-cell office:value-type="string">
+            <text:p>エミュレータを起動</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell office:value-type="string">
+            <text:p>-avd &lt;name&gt;</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1016"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell office:value-type="string">
+            <text:p>-sdcard &lt;image-file&gt;</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="10"/>
+          <table:table-cell office:value-type="string">
+            <text:p>イメージファイルをエミュレータにロード</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell office:value-type="string">
+            <text:p>telnet</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="11"/>
+          <table:table-cell office:value-type="string">
+            <text:p>エミュレータのコンソール機能を利用する時に使用</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell office:value-type="string">
+            <text:p>loalhost &lt;port&gt;</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1016"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="18"/>
+          <table:table-cell office:value-type="string">
+            <text:p>
+              ポート番号は　
+              <text:span text:style-name="T13">5554</text:span>
+              　から使用される。同時に
+              <text:span text:style-name="T13">16</text:span>
+              個のエミュレータの接続が可能
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="18"/>
+          <table:table-cell office:value-type="string">
+            <text:p>
+              <text:span text:style-name="T13">abd</text:span>
+               が使用するポートは　
+              <text:span text:style-name="T13">5555</text:span>
+               とエミュレータ＋１となる
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="18"/>
+          <table:table-cell office:value-type="string">
+            <text:p>コンソールでの可能な処理</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1005"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="18"/>
+          <table:table-cell office:value-type="string">
+            <text:p>・</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="Default" office:value-type="string">
+            <text:p>redir</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>ポートリダイレクション</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="999"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="Default" office:value-type="string">
+            <text:p>geo</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>Geo　位置情報の設定</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="999"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell office:value-type="string">
+            <text:p>event</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>ハードウェアイベント</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="999"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce45" office:value-type="string">
+            <text:p>power</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>バッテリの制御</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="999"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell office:value-type="string">
+            <text:p>network</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>ネットワークの状態、速度、遅延</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="999"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell office:value-type="string">
+            <text:p>cdma</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell office:value-type="string">
+            <text:p>sms</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell office:value-type="string">
+            <text:p>avd</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>VMの開始、終了</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="999"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce46" office:value-type="string">
+            <text:p>gsm</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>電話のエミュレーション</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="999"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="6"/>
+          <table:table-cell table:number-columns-repeated="1012"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="6"/>
+          <table:table-cell table:number-columns-repeated="7"/>
+          <table:table-cell table:style-name="ce45" office:value-type="string">
+            <text:p>power</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="6"/>
+          <table:table-cell table:number-columns-repeated="8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>display</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell office:value-type="string">
+            <text:p>バッテリと充電器の状態を表示</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="989"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="6"/>
+          <table:table-cell table:number-columns-repeated="8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>ac &lt;on|off&gt;</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell office:value-type="string">
+            <text:p>AC充電状態をonまたはoff</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="989"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="6"/>
+          <table:table-cell table:number-columns-repeated="8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>status &lt;unknown|charging|discharging|not-chargingfull&gt;</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell office:value-type="string">
+            <text:p>バッテリの状態を設定</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="989"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="6"/>
+          <table:table-cell table:number-columns-repeated="8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>present &lt;true|false&gt;</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell office:value-type="string">
+            <text:p>バッテリの存在状態を設定</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="989"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="Default" table:number-columns-repeated="6"/>
+          <table:table-cell table:number-columns-repeated="8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>health &lt;unkwonn|good|overheat|dead|overvoltage|failure&gt;</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell office:value-type="string">
+            <text:p>バッテリのヘルス状態を設定</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="989"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="20"/>
+          <table:table-cell office:value-type="string">
+            <text:p>capacity &lt;percent&gt;</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="13"/>
+          <table:table-cell office:value-type="string">
+            <text:p>バッテリの容量の残量を設定</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="989"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="19"/>
+          <table:table-cell table:style-name="ce46" office:value-type="string">
+            <text:p>gsm</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="20"/>
+          <table:table-cell office:value-type="string">
+            <text:p>call &lt;telnumber&gt;</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>指定番号からの呼び出しをエミュレート</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="998"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="20"/>
+          <table:table-cell office:value-type="string">
+            <text:p>accept &lt;telnumber&gt;</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>指定番号からの呼び出しの受け入れをエミュレート</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="998"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="20"/>
+          <table:table-cell office:value-type="string">
+            <text:p>busy &lt;telnumber&gt;</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>指定番号への呼び出しのクローズをエミュレート</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="998"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="20"/>
+          <table:table-cell office:value-type="string">
+            <text:p>cancel &lt;telnumber&gt;</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>指定番号から、または指定番号への通話を終了</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="998"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="20"/>
+          <table:table-cell office:value-type="string">
+            <text:p>data &lt;data-status&gt;</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>GPRSデータ接続の状態を変更する</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="998"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="20"/>
+          <table:table-cell office:value-type="string">
+            <text:p>hold</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>通話状態を保留？にする</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="998"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="20"/>
+          <table:table-cell office:value-type="string">
+            <text:p>list</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>かけた電話、かかってきた電話の履歴の取得</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="998"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="20"/>
+          <table:table-cell office:value-type="string">
+            <text:p>voice &lt;voice-status&gt;</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>GPRSボイス接続の状態を変更する</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="998"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="20"/>
+          <table:table-cell office:value-type="string">
+            <text:p>status</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="4"/>
+          <table:table-cell office:value-type="string">
+            <text:p>GSMボイスまたはデータの現在の状態をレポート</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="998"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="2">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce9" office:value-type="string">
+            <text:p>mksdcard</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce10" office:value-type="string">
+            <text:p>
+              SDカードのシミュレート。エミュレータでロードできる
+              <text:span text:style-name="T13">FAT32</text:span>
+              ディスクを作成する。
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce18"/>
+          <table:table-cell table:number-columns-repeated="994"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>-l</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>ラベルの指定</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="994"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>&lt;size&gt;[K|M]</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="3"/>
+          <table:table-cell office:value-type="string">
+            <text:p>
+              <text:span text:style-name="T13">9M</text:span>
+              <text:span text:style-name="T13">以上</text:span>
+              を指定する。それ以下はエラー
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="994"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell office:value-type="string">
+            <text:p>&lt;name&gt;</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="21"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:number-columns-repeated="994"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell table:style-name="ce11" table:number-columns-repeated="22"/>
+          <table:table-cell table:style-name="ce20"/>
+          <table:table-cell table:number-columns-repeated="994"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string">
+            <text:p>●</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string">
+            <text:p>デバッグ関連ツール</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1020"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="18"/>
+          <table:table-cell>
+            <draw:custom-shape table:end-cell-address="１３章.Y111" table:end-x="0.127cm" table:end-y="0.099cm" draw:z-index="1" draw:style-name="gr4" draw:text-style-name="P3" svg:width="4.861cm" svg:height="1.048cm" svg:x="0.379cm" svg:y="0.437cm">
+              <text:p text:style-name="P3">Invalidate()</text:p>
+              <text:p text:style-name="P3">
+                <text:span text:style-name="T1">ビューを無効としてマーク</text:span>
+              </text:p>
+              <draw:enhanced-geometry svg:viewBox="0 0 21600 21600" draw:glue-points="10800 0 0 10800 10800 21600 21600 10800 ?f40 ?f41" draw:text-areas="0 0 21600 21600" draw:type="rectangular-callout" draw:modifiers="19147.6758535582 45588.5605338418" draw:enhanced-path="M 0 0 L 0 3590 ?f2 ?f3 0 8970 0 12630 ?f4 ?f5 0 18010 0 21600 3590 21600 ?f6 ?f7 8970 21600 12630 21600 ?f8 ?f9 18010 21600 21600 21600 21600 18010 ?f10 ?f11 21600 12630 21600 8970 ?f12 ?f13 21600 3590 21600 0 18010 0 ?f14 ?f15 12630 0 8970 0 ?f16 ?f17 3590 0 0 0 Z N">
+                <draw:equation draw:name="f0" draw:formula="$0 -10800"/>
+                <draw:equation draw:name="f1" draw:formula="$1 -10800"/>
+                <draw:equation draw:name="f2" draw:formula="if(?f18 ,$0 ,0)"/>
+                <draw:equation draw:name="f3" draw:formula="if(?f18 ,$1 ,6280)"/>
+                <draw:equation draw:name="f4" draw:formula="if(?f23 ,$0 ,0)"/>
+                <draw:equation draw:name="f5" draw:formula="if(?f23 ,$1 ,15320)"/>
+                <draw:equation draw:name="f6" draw:formula="if(?f26 ,$0 ,6280)"/>
+                <draw:equation draw:name="f7" draw:formula="if(?f26 ,$1 ,21600)"/>
+                <draw:equation draw:name="f8" draw:formula="if(?f29 ,$0 ,15320)"/>
+                <draw:equation draw:name="f9" draw:formula="if(?f29 ,$1 ,21600)"/>
+                <draw:equation draw:name="f10" draw:formula="if(?f32 ,$0 ,21600)"/>
+                <draw:equation draw:name="f11" draw:formula="if(?f32 ,$1 ,15320)"/>
+                <draw:equation draw:name="f12" draw:formula="if(?f34 ,$0 ,21600)"/>
+                <draw:equation draw:name="f13" draw:formula="if(?f34 ,$1 ,6280)"/>
+                <draw:equation draw:name="f14" draw:formula="if(?f36 ,$0 ,15320)"/>
+                <draw:equation draw:name="f15" draw:formula="if(?f36 ,$1 ,0)"/>
+                <draw:equation draw:name="f16" draw:formula="if(?f38 ,$0 ,6280)"/>
+                <draw:equation draw:name="f17" draw:formula="if(?f38 ,$1 ,0)"/>
+                <draw:equation draw:name="f18" draw:formula="if($0 ,-1,?f19 )"/>
+                <draw:equation draw:name="f19" draw:formula="if(?f1 ,-1,?f22 )"/>
+                <draw:equation draw:name="f20" draw:formula="abs(?f0 )"/>
+                <draw:equation draw:name="f21" draw:formula="abs(?f1 )"/>
+                <draw:equation draw:name="f22" draw:formula="?f20 -?f21 "/>
+                <draw:equation draw:name="f23" draw:formula="if($0 ,-1,?f24 )"/>
+                <draw:equation draw:name="f24" draw:formula="if(?f1 ,?f22 ,-1)"/>
+                <draw:equation draw:name="f25" draw:formula="$1 -21600"/>
+                <draw:equation draw:name="f26" draw:formula="if(?f25 ,?f27 ,-1)"/>
+                <draw:equation draw:name="f27" draw:formula="if(?f0 ,-1,?f28 )"/>
+                <draw:equation draw:name="f28" draw:formula="?f21 -?f20 "/>
+                <draw:equation draw:name="f29" draw:formula="if(?f25 ,?f30 ,-1)"/>
+                <draw:equation draw:name="f30" draw:formula="if(?f0 ,?f28 ,-1)"/>
+                <draw:equation draw:name="f31" draw:formula="$0 -21600"/>
+                <draw:equation draw:name="f32" draw:formula="if(?f31 ,?f33 ,-1)"/>
+                <draw:equation draw:name="f33" draw:formula="if(?f1 ,?f22 ,